--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="522">
   <si>
     <t>ENTITIES/SPAWNERS</t>
   </si>
@@ -1262,12 +1262,6 @@
     <t>REWARD HP</t>
   </si>
   <si>
-    <t>(DATA_ENTITIES)</t>
-  </si>
-  <si>
-    <t>(PREFAB)</t>
-  </si>
-  <si>
     <t>SCENE:</t>
   </si>
   <si>
@@ -1314,13 +1308,295 @@
   </si>
   <si>
     <t>MAX</t>
+  </si>
+  <si>
+    <t>PF_Cow_Static</t>
+  </si>
+  <si>
+    <t>PF_Ghost01_Static</t>
+  </si>
+  <si>
+    <t>PF_Ghost02_Static</t>
+  </si>
+  <si>
+    <t>Ghost02_Static</t>
+  </si>
+  <si>
+    <t>PF_Ghost03_Static</t>
+  </si>
+  <si>
+    <t>Ghost03_Static</t>
+  </si>
+  <si>
+    <t>PF_Sheep_Static</t>
+  </si>
+  <si>
+    <t>PF_StarlingSmall_Flock</t>
+  </si>
+  <si>
+    <t>DATA_ENTITIES_CONTENT</t>
+  </si>
+  <si>
+    <t>DATA_ENTITIES_UNITY</t>
+  </si>
+  <si>
+    <t>PREFAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Archer01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Archer01_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Archer02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Archer02_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_BadBird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_BakerWoman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_BatBig_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_BatSmall01_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_BatSmall02_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_BoatFisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_BoatRider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Bomber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Canary01_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Canary02_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Canary03_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Canary04_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Cow_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Crocodile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Crocodile_Evade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Crow_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_DrunkenMan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_EnemyTier0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_EnemyTier1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_EnemyTier2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_EnemyTier3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_EnemyTier4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Fish01_Generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Fish02_Generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Fish03_Generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_FlyingPig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Gargoyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Ghost01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Ghost01_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Ghost02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Ghost02_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Ghost03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Ghost03_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_GoodJunkBottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_GoodJunkCoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_HangingCage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Hawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Horse_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Kamikaze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_LionBird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Merida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_MineBig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_MineBig_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_MineMedium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_MineMedium_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_MineSmall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_MineSmall_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_OwlBig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_OwlSmall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Piranha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_PufferBird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Rat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Richman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_RichMan_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Shark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Sheep_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Shieldman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Soldier01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Soldier01_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Soldier02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Spartakus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_SpiderGreenTurret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_SpiderRed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_SpiderSmall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_SpiderSmallTurret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Starling_Flock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Troll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_TropicalFish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Villager01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Villager01_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Villager02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Villager02_Static</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Witch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Worker01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_Worker02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PF_WorkerWife</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1395,6 +1671,26 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1836,7 +2132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1979,16 +2275,62 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2746,11 +3088,11 @@
         </c:dLbls>
         <c:gapWidth val="228"/>
         <c:overlap val="100"/>
-        <c:axId val="88045056"/>
-        <c:axId val="88046592"/>
+        <c:axId val="85009920"/>
+        <c:axId val="85011456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88045056"/>
+        <c:axId val="85009920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +3102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88046592"/>
+        <c:crossAx val="85011456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2768,7 +3110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88046592"/>
+        <c:axId val="85011456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,14 +3121,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88045056"/>
+        <c:crossAx val="85009920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2942,11 +3283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88078592"/>
-        <c:axId val="89788800"/>
+        <c:axId val="89200896"/>
+        <c:axId val="89203072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88078592"/>
+        <c:axId val="89200896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2956,7 +3297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89788800"/>
+        <c:crossAx val="89203072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2964,7 +3305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89788800"/>
+        <c:axId val="89203072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,7 +3315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88078592"/>
+        <c:crossAx val="89200896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3152,11 +3493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89795968"/>
-        <c:axId val="89818624"/>
+        <c:axId val="89218432"/>
+        <c:axId val="89232896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89795968"/>
+        <c:axId val="89218432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89818624"/>
+        <c:crossAx val="89232896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3174,7 +3515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89818624"/>
+        <c:axId val="89232896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,7 +3525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89795968"/>
+        <c:crossAx val="89218432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4644,8 +4985,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:P92" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
-  <autoFilter ref="B7:P92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:P98" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
+  <autoFilter ref="B7:P98"/>
   <sortState ref="B8:Q92">
     <sortCondition ref="C7:C92"/>
   </sortState>
@@ -4997,20 +5338,21 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B2:P97"/>
+  <dimension ref="B2:P103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
@@ -5030,39 +5372,25 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
-        <v>412</v>
-      </c>
-      <c r="G4" t="s">
-        <v>413</v>
-      </c>
-      <c r="H4" t="s">
-        <v>413</v>
-      </c>
-      <c r="I4" t="s">
-        <v>413</v>
-      </c>
-      <c r="J4" t="s">
-        <v>413</v>
-      </c>
-      <c r="K4" t="s">
-        <v>413</v>
-      </c>
-      <c r="L4" t="s">
-        <v>413</v>
-      </c>
-      <c r="M4" t="s">
-        <v>413</v>
-      </c>
-      <c r="N4" t="s">
-        <v>413</v>
-      </c>
+      <c r="F4" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>437</v>
+      </c>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="117"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H5" s="98" t="s">
+      <c r="H5" s="114" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="98"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="H6" s="100" t="s">
@@ -5246,6 +5574,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="5">
+        <f>(DATA_ENTITIES_UNITY!D8 + DATA_ENTITIES_UNITY!E8) / 2</f>
         <v>280</v>
       </c>
       <c r="H11" s="5">
@@ -5290,6 +5619,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="5">
+        <f>(DATA_ENTITIES_UNITY!D9 + DATA_ENTITIES_UNITY!E9) / 2</f>
         <v>280</v>
       </c>
       <c r="H12" s="5">
@@ -5334,6 +5664,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="5">
+        <f>(DATA_ENTITIES_UNITY!D10 + DATA_ENTITIES_UNITY!E10) / 2</f>
         <v>300</v>
       </c>
       <c r="H13" s="5">
@@ -5378,6 +5709,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="5">
+        <f>(DATA_ENTITIES_UNITY!D11 + DATA_ENTITIES_UNITY!E11) / 2</f>
         <v>300</v>
       </c>
       <c r="H14" s="5">
@@ -5422,6 +5754,7 @@
         <v>-10</v>
       </c>
       <c r="G15" s="5">
+        <f>(DATA_ENTITIES_UNITY!D12 + DATA_ENTITIES_UNITY!E12) / 2</f>
         <v>200</v>
       </c>
       <c r="H15" s="6">
@@ -5459,6 +5792,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="5">
+        <f>(DATA_ENTITIES_UNITY!D13 + DATA_ENTITIES_UNITY!E13) / 2</f>
         <v>200</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -5497,6 +5831,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="5">
+        <f>(DATA_ENTITIES_UNITY!D14 + DATA_ENTITIES_UNITY!E14) / 2</f>
         <v>260</v>
       </c>
       <c r="H17" s="5">
@@ -5541,6 +5876,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="5">
+        <f>(DATA_ENTITIES_UNITY!D15 + DATA_ENTITIES_UNITY!E15) / 2</f>
         <v>280</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -5578,6 +5914,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="5">
+        <f>(DATA_ENTITIES_UNITY!D16 + DATA_ENTITIES_UNITY!E16) / 2</f>
         <v>5000</v>
       </c>
       <c r="H19" s="6" t="s">
@@ -5643,10 +5980,11 @@
         <v>161</v>
       </c>
       <c r="F21" s="5">
-        <f>[1]entities!$H$28</f>
+        <f>DATA_ENTITIES_CONTENT!G12</f>
         <v>15</v>
       </c>
       <c r="G21" s="5">
+        <f>(DATA_ENTITIES_UNITY!D17 + DATA_ENTITIES_UNITY!E17) / 2</f>
         <v>130</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -5684,6 +6022,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="5">
+        <f>(DATA_ENTITIES_UNITY!D18 + DATA_ENTITIES_UNITY!E18) / 2</f>
         <v>130</v>
       </c>
       <c r="H22" s="6" t="s">
@@ -5717,10 +6056,11 @@
         <v>182</v>
       </c>
       <c r="F23" s="5">
-        <f>[1]entities!$H$29</f>
+        <f>DATA_ENTITIES_CONTENT!G13</f>
         <v>10</v>
       </c>
       <c r="G23" s="5">
+        <f>(DATA_ENTITIES_UNITY!D19 + DATA_ENTITIES_UNITY!E19) / 2</f>
         <v>220</v>
       </c>
       <c r="H23" s="5">
@@ -5761,10 +6101,11 @@
         <v>200</v>
       </c>
       <c r="F24" s="5">
-        <f>[1]entities!$H$30</f>
+        <f>DATA_ENTITIES_CONTENT!G14</f>
         <v>2</v>
       </c>
       <c r="G24" s="5">
+        <f>(DATA_ENTITIES_UNITY!D20 + DATA_ENTITIES_UNITY!E20) / 2</f>
         <v>180</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -5802,6 +6143,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="5">
+        <f>(DATA_ENTITIES_UNITY!D21 + DATA_ENTITIES_UNITY!E21) / 2</f>
         <v>180</v>
       </c>
       <c r="H25" s="6" t="s">
@@ -5839,6 +6181,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="5">
+        <f>(DATA_ENTITIES_UNITY!D22 + DATA_ENTITIES_UNITY!E22) / 2</f>
         <v>180</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -5876,6 +6219,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="5">
+        <f>(DATA_ENTITIES_UNITY!D23 + DATA_ENTITIES_UNITY!E23) / 2</f>
         <v>180</v>
       </c>
       <c r="H27" s="6" t="s">
@@ -5909,10 +6253,11 @@
         <v>163</v>
       </c>
       <c r="F28" s="5">
-        <f>[1]entities!$H$35</f>
+        <f>DATA_ENTITIES_CONTENT!G19</f>
         <v>15</v>
       </c>
       <c r="G28" s="5">
+        <f>(DATA_ENTITIES_UNITY!D26 + DATA_ENTITIES_UNITY!E26) / 2</f>
         <v>210</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -5934,46 +6279,38 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="5">
-        <f>[1]entities!$H$36</f>
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="C29" s="101" t="s">
+        <v>415</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="E29" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="102">
+        <f>DATA_ENTITIES_CONTENT!G19</f>
+        <v>15</v>
       </c>
       <c r="G29" s="5">
-        <v>240</v>
-      </c>
-      <c r="H29" s="5">
+        <f>(DATA_ENTITIES_UNITY!D27 + DATA_ENTITIES_UNITY!E27) / 2</f>
+        <v>210</v>
+      </c>
+      <c r="H29" s="103"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="108">
+        <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
         <v>15</v>
-      </c>
-      <c r="I29" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="J29" s="29">
-        <v>4</v>
-      </c>
-      <c r="K29" s="29">
-        <v>6</v>
-      </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="26">
-        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>3.5</v>
-      </c>
-      <c r="P29" s="45">
-        <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8.6</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -5981,57 +6318,66 @@
         <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>226</v>
       </c>
       <c r="F30" s="5">
-        <f>[1]entities!$H$36</f>
+        <f>DATA_ENTITIES_CONTENT!G20</f>
         <v>30</v>
       </c>
       <c r="G30" s="5">
+        <f>(DATA_ENTITIES_UNITY!D28 + DATA_ENTITIES_UNITY!E28) / 2</f>
         <v>240</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="6" t="s">
-        <v>19</v>
+      <c r="H30" s="5">
+        <v>15</v>
+      </c>
+      <c r="I30" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="J30" s="29">
+        <v>4</v>
+      </c>
+      <c r="K30" s="29">
+        <v>6</v>
+      </c>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="26">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>3.5</v>
       </c>
       <c r="P30" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>30</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F31" s="5">
-        <f>[1]entities!$H$37</f>
-        <v>3</v>
+        <f>DATA_ENTITIES_CONTENT!G20</f>
+        <v>30</v>
       </c>
       <c r="G31" s="5">
-        <v>200</v>
+        <f>(DATA_ENTITIES_UNITY!D29 + DATA_ENTITIES_UNITY!E29) / 2</f>
+        <v>240</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>19</v>
@@ -6047,28 +6393,29 @@
       </c>
       <c r="P31" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="F32" s="5">
-        <f>[1]entities!$H$38</f>
-        <v>15</v>
+        <f>DATA_ENTITIES_CONTENT!G21</f>
+        <v>3</v>
       </c>
       <c r="G32" s="5">
-        <v>240</v>
+        <f>(DATA_ENTITIES_UNITY!D30 + DATA_ENTITIES_UNITY!E30) / 2</f>
+        <v>200</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>19</v>
@@ -6084,51 +6431,45 @@
       </c>
       <c r="P32" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F33" s="5">
-        <f>[1]entities!$H$39</f>
-        <v>20</v>
+        <f>DATA_ENTITIES_CONTENT!G22</f>
+        <v>15</v>
       </c>
       <c r="G33" s="5">
-        <v>220</v>
-      </c>
-      <c r="H33" s="5">
-        <v>10</v>
-      </c>
-      <c r="I33" s="29">
-        <v>2</v>
-      </c>
-      <c r="J33" s="29">
-        <v>4</v>
-      </c>
-      <c r="K33" s="29">
-        <v>8</v>
-      </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="26">
-        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>2.5</v>
+        <f>(DATA_ENTITIES_UNITY!D31 + DATA_ENTITIES_UNITY!E31) / 2</f>
+        <v>240</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="P33" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -6136,23 +6477,24 @@
         <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F34" s="5">
-        <f>[1]entities!$H$40</f>
-        <v>40</v>
+        <f>DATA_ENTITIES_CONTENT!G23</f>
+        <v>20</v>
       </c>
       <c r="G34" s="5">
-        <v>240</v>
+        <f>(DATA_ENTITIES_UNITY!D32 + DATA_ENTITIES_UNITY!E32) / 2</f>
+        <v>220</v>
       </c>
       <c r="H34" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I34" s="29">
         <v>2</v>
@@ -6168,7 +6510,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="26">
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P34" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
@@ -6180,23 +6522,24 @@
         <v>86</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F35" s="5">
-        <f>[1]entities!$H$41</f>
-        <v>80</v>
+        <f>DATA_ENTITIES_CONTENT!G24</f>
+        <v>40</v>
       </c>
       <c r="G35" s="5">
-        <v>260</v>
+        <f>(DATA_ENTITIES_UNITY!D33 + DATA_ENTITIES_UNITY!E33) / 2</f>
+        <v>240</v>
       </c>
       <c r="H35" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I35" s="29">
         <v>2</v>
@@ -6212,7 +6555,7 @@
       <c r="N35" s="29"/>
       <c r="O35" s="26">
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P35" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
@@ -6224,23 +6567,24 @@
         <v>86</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F36" s="5">
-        <f>[1]entities!$H$42</f>
-        <v>100</v>
+        <f>DATA_ENTITIES_CONTENT!G25</f>
+        <v>80</v>
       </c>
       <c r="G36" s="5">
-        <v>280</v>
+        <f>(DATA_ENTITIES_UNITY!D34 + DATA_ENTITIES_UNITY!E34) / 2</f>
+        <v>260</v>
       </c>
       <c r="H36" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I36" s="29">
         <v>2</v>
@@ -6256,7 +6600,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="26">
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="P36" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
@@ -6268,23 +6612,24 @@
         <v>86</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F37" s="5">
-        <f>[1]entities!$H$43</f>
-        <v>120</v>
+        <f>DATA_ENTITIES_CONTENT!G26</f>
+        <v>100</v>
       </c>
       <c r="G37" s="5">
-        <v>300</v>
+        <f>(DATA_ENTITIES_UNITY!D35 + DATA_ENTITIES_UNITY!E35) / 2</f>
+        <v>280</v>
       </c>
       <c r="H37" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I37" s="29">
         <v>2</v>
@@ -6300,7 +6645,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="26">
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="P37" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
@@ -6309,39 +6654,47 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F38" s="5">
-        <f>[1]entities!$H$44</f>
+        <f>DATA_ENTITIES_CONTENT!G27</f>
+        <v>120</v>
+      </c>
+      <c r="G38" s="5">
+        <f>(DATA_ENTITIES_UNITY!D36 + DATA_ENTITIES_UNITY!E36) / 2</f>
+        <v>300</v>
+      </c>
+      <c r="H38" s="5">
+        <v>60</v>
+      </c>
+      <c r="I38" s="29">
         <v>2</v>
       </c>
-      <c r="G38" s="5">
-        <v>100</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="6" t="s">
-        <v>19</v>
+      <c r="J38" s="29">
+        <v>4</v>
+      </c>
+      <c r="K38" s="29">
+        <v>8</v>
+      </c>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="26">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>15</v>
       </c>
       <c r="P38" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -6349,19 +6702,20 @@
         <v>141</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="5">
-        <f>[1]entities!$H$45</f>
+        <f>DATA_ENTITIES_CONTENT!G28</f>
         <v>2</v>
       </c>
       <c r="G39" s="5">
+        <f>(DATA_ENTITIES_UNITY!D37 + DATA_ENTITIES_UNITY!E37) / 2</f>
         <v>100</v>
       </c>
       <c r="H39" s="6" t="s">
@@ -6386,19 +6740,20 @@
         <v>141</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F40" s="5">
-        <f>[1]entities!$H$46</f>
+        <f>DATA_ENTITIES_CONTENT!G29</f>
         <v>2</v>
       </c>
       <c r="G40" s="5">
+        <f>(DATA_ENTITIES_UNITY!D38 + DATA_ENTITIES_UNITY!E38) / 2</f>
         <v>100</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -6420,23 +6775,24 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="22" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F41" s="5">
-        <f>[1]entities!$H$47</f>
-        <v>70</v>
+        <f>DATA_ENTITIES_CONTENT!G30</f>
+        <v>2</v>
       </c>
       <c r="G41" s="5">
-        <v>5000</v>
+        <f>(DATA_ENTITIES_UNITY!D39 + DATA_ENTITIES_UNITY!E39) / 2</f>
+        <v>100</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>19</v>
@@ -6452,84 +6808,83 @@
       </c>
       <c r="P41" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="F42" s="5">
-        <f>[1]entities!$H$48</f>
-        <v>20</v>
+        <f>DATA_ENTITIES_CONTENT!G31</f>
+        <v>70</v>
       </c>
       <c r="G42" s="5">
-        <v>260</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
+        <f>(DATA_ENTITIES_UNITY!D40 + DATA_ENTITIES_UNITY!E40) / 2</f>
+        <v>5000</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P42" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="22" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="F43" s="5">
-        <f>[1]entities!$H$49</f>
-        <v>3</v>
+        <f>DATA_ENTITIES_CONTENT!G32</f>
+        <v>20</v>
       </c>
       <c r="G43" s="5">
-        <v>250</v>
-      </c>
-      <c r="H43" s="5">
-        <v>7</v>
-      </c>
-      <c r="I43" s="29">
-        <v>1.5</v>
-      </c>
+        <f>(DATA_ENTITIES_UNITY!D41 + DATA_ENTITIES_UNITY!E41) / 2</f>
+        <v>260</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="29"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
-      <c r="O43" s="26">
-        <f>ROUND(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]],1)</f>
-        <v>10.5</v>
+      <c r="O43" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="P43" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -6537,26 +6892,27 @@
         <v>86</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F44" s="5">
-        <f>[1]entities!$H$50</f>
-        <v>4</v>
+        <f>DATA_ENTITIES_CONTENT!G33</f>
+        <v>3</v>
       </c>
       <c r="G44" s="5">
-        <v>300</v>
+        <f>(DATA_ENTITIES_UNITY!D42 + DATA_ENTITIES_UNITY!E42) / 2</f>
+        <v>250</v>
       </c>
       <c r="H44" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I44" s="29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -6565,11 +6921,11 @@
       <c r="N44" s="29"/>
       <c r="O44" s="26">
         <f>ROUND(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]],1)</f>
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="P44" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -6577,145 +6933,163 @@
         <v>86</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>114</v>
+        <v>416</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" s="5">
-        <f>[1]entities!$H$51</f>
-        <v>5</v>
+        <v>211</v>
+      </c>
+      <c r="F45" s="102">
+        <f>DATA_ENTITIES_CONTENT!G33</f>
+        <v>3</v>
       </c>
       <c r="G45" s="5">
-        <v>340</v>
-      </c>
-      <c r="H45" s="5">
-        <v>21</v>
-      </c>
-      <c r="I45" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="26">
-        <f>ROUND(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]],1)</f>
-        <v>52.5</v>
-      </c>
-      <c r="P45" s="44">
+        <f>(DATA_ENTITIES_UNITY!D43 + DATA_ENTITIES_UNITY!E43) / 2</f>
+        <v>250</v>
+      </c>
+      <c r="H45" s="109">
+        <v>7</v>
+      </c>
+      <c r="I45" s="110">
+        <v>1.5</v>
+      </c>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="112"/>
+      <c r="O45" s="113">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>7</v>
+      </c>
+      <c r="P45" s="108">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="22" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="5">
-        <f>[1]entities!$H$52</f>
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="F46" s="102">
+        <f>DATA_ENTITIES_CONTENT!G34</f>
+        <v>4</v>
       </c>
       <c r="G46" s="5">
-        <v>500</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P46" s="44">
+        <f>(DATA_ENTITIES_UNITY!D44 + DATA_ENTITIES_UNITY!E44) / 2</f>
+        <v>300</v>
+      </c>
+      <c r="H46" s="5">
+        <v>11</v>
+      </c>
+      <c r="I46" s="29">
+        <v>2</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="26">
+        <f>ROUND(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]],1)</f>
+        <v>22</v>
+      </c>
+      <c r="P46" s="45">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="22" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>67</v>
+        <v>430</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F47" s="5">
-        <f>[1]entities!$H$53</f>
-        <v>0</v>
+        <v>431</v>
+      </c>
+      <c r="F47" s="102">
+        <f>DATA_ENTITIES_CONTENT!G34</f>
+        <v>4</v>
       </c>
       <c r="G47" s="5">
-        <v>500</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P47" s="44">
+        <f>(DATA_ENTITIES_UNITY!D45 + DATA_ENTITIES_UNITY!E45) / 2</f>
+        <v>300</v>
+      </c>
+      <c r="H47" s="109">
+        <v>11</v>
+      </c>
+      <c r="I47" s="110">
+        <v>2</v>
+      </c>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="113">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>11</v>
+      </c>
+      <c r="P47" s="108">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="102">
+        <f>DATA_ENTITIES_CONTENT!G35</f>
+        <v>5</v>
+      </c>
       <c r="G48" s="5">
-        <v>450</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="29"/>
+        <f>(DATA_ENTITIES_UNITY!D46 + DATA_ENTITIES_UNITY!E46) / 2</f>
+        <v>340</v>
+      </c>
+      <c r="H48" s="5">
+        <v>21</v>
+      </c>
+      <c r="I48" s="29">
+        <v>2.5</v>
+      </c>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
-      <c r="O48" s="6" t="s">
-        <v>19</v>
+      <c r="O48" s="26">
+        <f>ROUND(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]],1)</f>
+        <v>52.5</v>
       </c>
       <c r="P48" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
@@ -6723,60 +7097,62 @@
         <v>86</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>121</v>
+        <v>418</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>91</v>
+        <v>432</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F49" s="5">
-        <f>[1]entities!$H$54</f>
-        <v>20</v>
+        <v>433</v>
+      </c>
+      <c r="F49" s="102">
+        <f>DATA_ENTITIES_CONTENT!G35</f>
+        <v>5</v>
       </c>
       <c r="G49" s="5">
-        <v>180</v>
-      </c>
-      <c r="H49" s="5">
-        <v>25</v>
-      </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29">
-        <v>5</v>
-      </c>
-      <c r="O49" s="26">
-        <f>Table1[[#This Row],[DAMAGE]]/Table1[[#This Row],[RETREAT TIME]]</f>
-        <v>5</v>
-      </c>
-      <c r="P49" s="44">
+        <f>(DATA_ENTITIES_UNITY!D47 + DATA_ENTITIES_UNITY!E47) / 2</f>
+        <v>340</v>
+      </c>
+      <c r="H49" s="109">
+        <v>21</v>
+      </c>
+      <c r="I49" s="110">
+        <v>2.5</v>
+      </c>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="112"/>
+      <c r="O49" s="113">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>21</v>
+      </c>
+      <c r="P49" s="108">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F50" s="5">
-        <f>[1]entities!$H$55</f>
-        <v>25</v>
+        <f>DATA_ENTITIES_CONTENT!G36</f>
+        <v>0</v>
       </c>
       <c r="G50" s="5">
-        <v>220</v>
+        <f>(DATA_ENTITIES_UNITY!D48 + DATA_ENTITIES_UNITY!E48) / 2</f>
+        <v>500</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>19</v>
@@ -6792,28 +7168,29 @@
       </c>
       <c r="P50" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F51" s="5">
-        <f>[1]entities!$H$55</f>
-        <v>25</v>
+        <f>DATA_ENTITIES_CONTENT!G37</f>
+        <v>0</v>
       </c>
       <c r="G51" s="5">
-        <v>220</v>
+        <f>(DATA_ENTITIES_UNITY!D49 + DATA_ENTITIES_UNITY!E49) / 2</f>
+        <v>500</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>19</v>
@@ -6829,45 +7206,40 @@
       </c>
       <c r="P51" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="22" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" s="5">
-        <f>[1]entities!$H$56</f>
-        <v>20</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="5"/>
       <c r="G52" s="5">
-        <v>200</v>
-      </c>
-      <c r="H52" s="5">
-        <v>40</v>
-      </c>
+        <f>(DATA_ENTITIES_UNITY!D50 + DATA_ENTITIES_UNITY!E50) / 2</f>
+        <v>450</v>
+      </c>
+      <c r="H52" s="5"/>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
-      <c r="O52" s="26">
-        <f>Table1[[#This Row],[DAMAGE]]</f>
-        <v>40</v>
+      <c r="O52" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="P52" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -6875,39 +7247,40 @@
         <v>86</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F53" s="5">
-        <f>[1]entities!$H$57</f>
+        <f>DATA_ENTITIES_CONTENT!G38</f>
         <v>20</v>
       </c>
       <c r="G53" s="5">
-        <v>170</v>
+        <f>(DATA_ENTITIES_UNITY!D51 + DATA_ENTITIES_UNITY!E51) / 2</f>
+        <v>180</v>
       </c>
       <c r="H53" s="5">
-        <v>5</v>
-      </c>
-      <c r="I53" s="29">
-        <v>1.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
+      <c r="N53" s="29">
+        <v>5</v>
+      </c>
       <c r="O53" s="26">
-        <f>ROUND(Table1[[#This Row],[DAMAGE]]/Table1[[#This Row],[DURATION]],1)</f>
-        <v>3.3</v>
+        <f>Table1[[#This Row],[DAMAGE]]/Table1[[#This Row],[RETREAT TIME]]</f>
+        <v>5</v>
       </c>
       <c r="P53" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>6.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
@@ -6915,67 +7288,62 @@
         <v>64</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" s="5">
-        <f>[1]entities!$H$58</f>
-        <v>20</v>
+        <f>DATA_ENTITIES_CONTENT!G39</f>
+        <v>25</v>
       </c>
       <c r="G54" s="5">
-        <v>280</v>
-      </c>
-      <c r="H54" s="5">
-        <v>14</v>
-      </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29">
-        <v>1</v>
-      </c>
-      <c r="M54" s="29">
-        <v>0</v>
-      </c>
-      <c r="N54" s="29">
-        <v>2</v>
-      </c>
-      <c r="O54" s="26">
-        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
-        <v>7</v>
+        <f>(DATA_ENTITIES_UNITY!D52 + DATA_ENTITIES_UNITY!E52) / 2</f>
+        <v>220</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="P54" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="22" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="F55" s="5">
-        <f>[1]entities!$H$59</f>
-        <v>0</v>
+        <f>DATA_ENTITIES_CONTENT!G39</f>
+        <v>25</v>
       </c>
       <c r="G55" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H55" s="6">
-        <v>440</v>
+        <f>(DATA_ENTITIES_UNITY!D53 + DATA_ENTITIES_UNITY!E53) / 2</f>
+        <v>220</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="I55" s="28"/>
       <c r="J55" s="28"/>
@@ -6983,51 +7351,51 @@
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
       <c r="N55" s="28"/>
-      <c r="O55" s="26">
-        <f>Table1[[#This Row],[DAMAGE]]</f>
-        <v>440</v>
+      <c r="O55" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="P55" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="22" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F56" s="5">
-        <f>[1]entities!$H$59</f>
-        <v>0</v>
+        <f>DATA_ENTITIES_CONTENT!G40</f>
+        <v>20</v>
       </c>
       <c r="G56" s="5">
-        <v>2500</v>
-      </c>
-      <c r="H56" s="6">
-        <v>440</v>
-      </c>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
+        <f>(DATA_ENTITIES_UNITY!D54 + DATA_ENTITIES_UNITY!E54) / 2</f>
+        <v>200</v>
+      </c>
+      <c r="H56" s="5">
+        <v>40</v>
+      </c>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
       <c r="O56" s="26">
         <f>Table1[[#This Row],[DAMAGE]]</f>
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="P56" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
@@ -7035,75 +7403,85 @@
         <v>86</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F57" s="5">
-        <f>[1]entities!$H$60</f>
-        <v>0</v>
+        <f>DATA_ENTITIES_CONTENT!G41</f>
+        <v>20</v>
       </c>
       <c r="G57" s="5">
-        <v>2000</v>
-      </c>
-      <c r="H57" s="6">
-        <v>150</v>
-      </c>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
+        <f>(DATA_ENTITIES_UNITY!D55 + DATA_ENTITIES_UNITY!E55) / 2</f>
+        <v>170</v>
+      </c>
+      <c r="H57" s="5">
+        <v>5</v>
+      </c>
+      <c r="I57" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
       <c r="O57" s="26">
-        <f>Table1[[#This Row],[DAMAGE]]</f>
-        <v>150</v>
+        <f>ROUND(Table1[[#This Row],[DAMAGE]]/Table1[[#This Row],[DURATION]],1)</f>
+        <v>3.3</v>
       </c>
       <c r="P57" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="22" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="F58" s="5">
-        <f>[1]entities!$H$60</f>
+        <f>DATA_ENTITIES_CONTENT!G42</f>
+        <v>20</v>
+      </c>
+      <c r="G58" s="5">
+        <f>(DATA_ENTITIES_UNITY!D56 + DATA_ENTITIES_UNITY!E56) / 2</f>
+        <v>280</v>
+      </c>
+      <c r="H58" s="5">
+        <v>14</v>
+      </c>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29">
+        <v>1</v>
+      </c>
+      <c r="M58" s="29">
         <v>0</v>
       </c>
-      <c r="G58" s="5">
-        <v>2000</v>
-      </c>
-      <c r="H58" s="6">
-        <v>150</v>
-      </c>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
-      <c r="M58" s="28"/>
-      <c r="N58" s="28"/>
+      <c r="N58" s="29">
+        <v>2</v>
+      </c>
       <c r="O58" s="26">
-        <f>Table1[[#This Row],[DAMAGE]]</f>
-        <v>150</v>
+        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
+        <v>7</v>
       </c>
       <c r="P58" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
@@ -7111,23 +7489,24 @@
         <v>86</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F59" s="5">
-        <f>[1]entities!$H$61</f>
-        <v>25</v>
+        <f>DATA_ENTITIES_CONTENT!G43</f>
+        <v>0</v>
       </c>
       <c r="G59" s="5">
-        <v>1500</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>319</v>
+        <f>(DATA_ENTITIES_UNITY!D57 + DATA_ENTITIES_UNITY!E57) / 2</f>
+        <v>2500</v>
+      </c>
+      <c r="H59" s="6">
+        <v>440</v>
       </c>
       <c r="I59" s="28"/>
       <c r="J59" s="28"/>
@@ -7135,13 +7514,13 @@
       <c r="L59" s="28"/>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
-      <c r="O59" s="26" t="str">
+      <c r="O59" s="26">
         <f>Table1[[#This Row],[DAMAGE]]</f>
-        <v>35</v>
+        <v>440</v>
       </c>
       <c r="P59" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
@@ -7149,23 +7528,24 @@
         <v>86</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F60" s="5">
-        <f>[1]entities!$H$61</f>
-        <v>25</v>
+        <f>DATA_ENTITIES_CONTENT!G43</f>
+        <v>0</v>
       </c>
       <c r="G60" s="5">
-        <v>1500</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>319</v>
+        <f>(DATA_ENTITIES_UNITY!D58 + DATA_ENTITIES_UNITY!E58) / 2</f>
+        <v>2500</v>
+      </c>
+      <c r="H60" s="6">
+        <v>440</v>
       </c>
       <c r="I60" s="28"/>
       <c r="J60" s="28"/>
@@ -7173,13 +7553,13 @@
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
-      <c r="O60" s="26" t="str">
+      <c r="O60" s="26">
         <f>Table1[[#This Row],[DAMAGE]]</f>
-        <v>35</v>
+        <v>440</v>
       </c>
       <c r="P60" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
@@ -7187,23 +7567,24 @@
         <v>86</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F61" s="5">
-        <f>[1]entities!$H$62</f>
-        <v>10</v>
+        <f>DATA_ENTITIES_CONTENT!G44</f>
+        <v>0</v>
       </c>
       <c r="G61" s="5">
-        <v>200</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>19</v>
+        <f>(DATA_ENTITIES_UNITY!D59 + DATA_ENTITIES_UNITY!E59) / 2</f>
+        <v>2000</v>
+      </c>
+      <c r="H61" s="6">
+        <v>150</v>
       </c>
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
@@ -7211,12 +7592,13 @@
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
-      <c r="O61" s="6" t="s">
-        <v>19</v>
+      <c r="O61" s="26">
+        <f>Table1[[#This Row],[DAMAGE]]</f>
+        <v>150</v>
       </c>
       <c r="P61" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
@@ -7224,23 +7606,24 @@
         <v>86</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>219</v>
+        <v>97</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F62" s="5">
-        <f>[1]entities!$H$63</f>
-        <v>6</v>
+        <f>DATA_ENTITIES_CONTENT!G44</f>
+        <v>0</v>
       </c>
       <c r="G62" s="5">
-        <v>140</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>19</v>
+        <f>(DATA_ENTITIES_UNITY!D60 + DATA_ENTITIES_UNITY!E60) / 2</f>
+        <v>2000</v>
+      </c>
+      <c r="H62" s="6">
+        <v>150</v>
       </c>
       <c r="I62" s="28"/>
       <c r="J62" s="28"/>
@@ -7248,56 +7631,52 @@
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
-      <c r="O62" s="6" t="s">
-        <v>19</v>
+      <c r="O62" s="26">
+        <f>Table1[[#This Row],[DAMAGE]]</f>
+        <v>150</v>
       </c>
       <c r="P62" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" s="22" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F63" s="5">
-        <f>[1]entities!$H$64</f>
-        <v>5</v>
+        <f>DATA_ENTITIES_CONTENT!G45</f>
+        <v>25</v>
       </c>
       <c r="G63" s="5">
-        <v>170</v>
-      </c>
-      <c r="H63" s="5">
-        <v>2</v>
-      </c>
-      <c r="I63" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="J63" s="29">
-        <v>4</v>
-      </c>
-      <c r="K63" s="29">
-        <v>6</v>
-      </c>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="26">
-        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>0.5</v>
+        <f>(DATA_ENTITIES_UNITY!D61 + DATA_ENTITIES_UNITY!E61) / 2</f>
+        <v>1500</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="26" t="str">
+        <f>Table1[[#This Row],[DAMAGE]]</f>
+        <v>35</v>
       </c>
       <c r="P63" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>10</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
@@ -7305,58 +7684,60 @@
         <v>86</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F64" s="5">
-        <f>[1]entities!$H$65</f>
-        <v>15</v>
+        <f>DATA_ENTITIES_CONTENT!G45</f>
+        <v>25</v>
       </c>
       <c r="G64" s="5">
-        <v>220</v>
-      </c>
-      <c r="H64" s="5">
-        <v>8</v>
-      </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="5">
-        <f>ROUND((Table1[[#This Row],[DAMAGE]]*(6/(1+1)))/(6+3),1)</f>
-        <v>2.7</v>
+        <f>(DATA_ENTITIES_UNITY!D62 + DATA_ENTITIES_UNITY!E62) / 2</f>
+        <v>1500</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="26" t="str">
+        <f>Table1[[#This Row],[DAMAGE]]</f>
+        <v>35</v>
       </c>
       <c r="P64" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" s="22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="F65" s="5">
-        <f>[1]entities!$H$66</f>
-        <v>2</v>
+        <f>DATA_ENTITIES_CONTENT!G46</f>
+        <v>10</v>
       </c>
       <c r="G65" s="5">
-        <v>120</v>
+        <f>(DATA_ENTITIES_UNITY!D63 + DATA_ENTITIES_UNITY!E63) / 2</f>
+        <v>200</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>19</v>
@@ -7372,28 +7753,29 @@
       </c>
       <c r="P65" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="F66" s="5">
-        <f>[1]entities!$H$67</f>
-        <v>15</v>
+        <f>DATA_ENTITIES_CONTENT!G47</f>
+        <v>6</v>
       </c>
       <c r="G66" s="5">
-        <v>260</v>
+        <f>(DATA_ENTITIES_UNITY!D64 + DATA_ENTITIES_UNITY!E64) / 2</f>
+        <v>140</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>19</v>
@@ -7409,88 +7791,91 @@
       </c>
       <c r="P66" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" s="22" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F67" s="5" t="e">
-        <f>[1]!entityDefinitions[[#This Row],['[rewardHealth']]]</f>
-        <v>#REF!</v>
+        <v>230</v>
+      </c>
+      <c r="F67" s="5">
+        <f>DATA_ENTITIES_CONTENT!G48</f>
+        <v>5</v>
       </c>
       <c r="G67" s="5">
-        <v>260</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P67" s="44" t="e">
+        <f>(DATA_ENTITIES_UNITY!D65 + DATA_ENTITIES_UNITY!E65) / 2</f>
+        <v>170</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2</v>
+      </c>
+      <c r="I67" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="J67" s="29">
+        <v>4</v>
+      </c>
+      <c r="K67" s="29">
+        <v>6</v>
+      </c>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="26">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="P67" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>#REF!</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" s="22" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F68" s="5" t="e">
-        <f>[1]!entityDefinitions[[#This Row],['[rewardHealth']]]</f>
-        <v>#REF!</v>
+        <v>223</v>
+      </c>
+      <c r="F68" s="5">
+        <f>DATA_ENTITIES_CONTENT!G49</f>
+        <v>15</v>
       </c>
       <c r="G68" s="5">
-        <v>350</v>
+        <f>(DATA_ENTITIES_UNITY!D66 + DATA_ENTITIES_UNITY!E66) / 2</f>
+        <v>220</v>
       </c>
       <c r="H68" s="5">
-        <v>15</v>
-      </c>
-      <c r="I68" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="J68" s="29">
-        <v>4</v>
-      </c>
-      <c r="K68" s="29">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
       <c r="L68" s="29"/>
       <c r="M68" s="29"/>
       <c r="N68" s="29"/>
-      <c r="O68" s="26">
-        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>3.5</v>
-      </c>
-      <c r="P68" s="44" t="e">
+      <c r="O68" s="5">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*(6/(1+1)))/(6+3),1)</f>
+        <v>2.7</v>
+      </c>
+      <c r="P68" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>#REF!</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -7498,20 +7883,21 @@
         <v>64</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F69" s="5" t="e">
-        <f>[1]!entityDefinitions[[#This Row],['[rewardHealth']]]</f>
-        <v>#REF!</v>
+        <v>167</v>
+      </c>
+      <c r="F69" s="5">
+        <f>DATA_ENTITIES_CONTENT!G50</f>
+        <v>2</v>
       </c>
       <c r="G69" s="5">
-        <v>200</v>
+        <f>(DATA_ENTITIES_UNITY!D67 + DATA_ENTITIES_UNITY!E67) / 2</f>
+        <v>120</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>19</v>
@@ -7525,9 +7911,9 @@
       <c r="O69" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P69" s="44" t="e">
+      <c r="P69" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>#REF!</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -7535,20 +7921,21 @@
         <v>64</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F70" s="5" t="e">
-        <f>[1]!entityDefinitions[[#This Row],['[rewardHealth']]]</f>
-        <v>#REF!</v>
+        <v>168</v>
+      </c>
+      <c r="F70" s="5">
+        <f>DATA_ENTITIES_CONTENT!G51</f>
+        <v>15</v>
       </c>
       <c r="G70" s="5">
-        <v>300</v>
+        <f>(DATA_ENTITIES_UNITY!D68 + DATA_ENTITIES_UNITY!E68) / 2</f>
+        <v>260</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>19</v>
@@ -7562,9 +7949,9 @@
       <c r="O70" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P70" s="44" t="e">
+      <c r="P70" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>#REF!</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -7572,87 +7959,82 @@
         <v>64</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F71" s="5" t="e">
-        <f>[1]!entityDefinitions[[#This Row],['[rewardHealth']]]</f>
-        <v>#REF!</v>
+        <v>168</v>
+      </c>
+      <c r="F71" s="5">
+        <f>DATA_ENTITIES_CONTENT!G51</f>
+        <v>15</v>
       </c>
       <c r="G71" s="5">
-        <v>310</v>
-      </c>
-      <c r="H71" s="5">
-        <v>40</v>
-      </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29">
-        <v>3</v>
-      </c>
-      <c r="M71" s="29">
-        <v>0</v>
-      </c>
-      <c r="N71" s="29">
-        <v>4</v>
-      </c>
-      <c r="O71" s="26">
-        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
-        <v>30</v>
-      </c>
-      <c r="P71" s="44" t="e">
+        <f>(DATA_ENTITIES_UNITY!D69 + DATA_ENTITIES_UNITY!E69) / 2</f>
+        <v>260</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P71" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>#REF!</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="22" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="F72" s="5">
-        <f>[1]entities!$H$71</f>
-        <v>50</v>
+        <f>DATA_ENTITIES_CONTENT!G52</f>
+        <v>30</v>
       </c>
       <c r="G72" s="5">
-        <v>310</v>
+        <f>(DATA_ENTITIES_UNITY!D70 + DATA_ENTITIES_UNITY!E70) / 2</f>
+        <v>350</v>
       </c>
       <c r="H72" s="5">
-        <v>40</v>
-      </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29">
-        <v>3</v>
-      </c>
-      <c r="M72" s="29">
-        <v>0</v>
-      </c>
-      <c r="N72" s="29">
+        <v>15</v>
+      </c>
+      <c r="I72" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="J72" s="29">
         <v>4</v>
       </c>
+      <c r="K72" s="29">
+        <v>6</v>
+      </c>
+      <c r="L72" s="29"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="29"/>
       <c r="O72" s="26">
-        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
-        <v>30</v>
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>3.5</v>
       </c>
       <c r="P72" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.7</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -7660,87 +8042,74 @@
         <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F73" s="5">
-        <f>[1]entities!$H$71</f>
-        <v>50</v>
+        <f>DATA_ENTITIES_CONTENT!G53</f>
+        <v>7</v>
       </c>
       <c r="G73" s="5">
-        <v>310</v>
-      </c>
-      <c r="H73" s="5">
-        <v>40</v>
-      </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29">
-        <v>3</v>
-      </c>
-      <c r="M73" s="29">
-        <v>0</v>
-      </c>
-      <c r="N73" s="29">
-        <v>4</v>
-      </c>
-      <c r="O73" s="26">
-        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
-        <v>30</v>
+        <f>(DATA_ENTITIES_UNITY!D71 + DATA_ENTITIES_UNITY!E71) / 2</f>
+        <v>200</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="P73" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>73</v>
+        <v>434</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F74" s="5">
-        <f>[1]entities!$H$72</f>
-        <v>10</v>
+        <v>169</v>
+      </c>
+      <c r="F74" s="102">
+        <f>DATA_ENTITIES_CONTENT!G53</f>
+        <v>7</v>
       </c>
       <c r="G74" s="5">
-        <v>180</v>
-      </c>
-      <c r="H74" s="5">
-        <v>5</v>
-      </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29">
-        <v>1</v>
-      </c>
-      <c r="M74" s="29">
-        <v>3</v>
-      </c>
-      <c r="N74" s="29">
-        <v>7</v>
-      </c>
-      <c r="O74" s="26">
-        <f>ROUND(((Table1[[#This Row],[DAMAGE]]*2)*Table1[[#This Row],[CONSEC. ATK]])/(Table1[[#This Row],[CONSEC. ATK]]+Table1[[#This Row],[ATK DELAY]]+Table1[[#This Row],[RETREAT TIME]]),1)</f>
-        <v>0.9</v>
-      </c>
-      <c r="P74" s="44">
+        <f>(DATA_ENTITIES_UNITY!D72 + DATA_ENTITIES_UNITY!E72) / 2</f>
+        <v>200</v>
+      </c>
+      <c r="H74" s="103"/>
+      <c r="I74" s="104"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="105"/>
+      <c r="N74" s="106"/>
+      <c r="O74" s="107" t="e">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P74" s="108" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>11.1</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -7748,43 +8117,37 @@
         <v>64</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F75" s="5">
-        <f>[1]entities!$H$73</f>
-        <v>20</v>
+        <f>DATA_ENTITIES_CONTENT!G54</f>
+        <v>30</v>
       </c>
       <c r="G75" s="5">
-        <v>170</v>
-      </c>
-      <c r="H75" s="5">
-        <v>20</v>
-      </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29">
-        <v>1</v>
-      </c>
-      <c r="M75" s="29">
-        <v>0</v>
-      </c>
-      <c r="N75" s="29">
-        <v>2</v>
-      </c>
-      <c r="O75" s="5">
-        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
-        <v>10</v>
+        <f>(DATA_ENTITIES_UNITY!D73 + DATA_ENTITIES_UNITY!E73) / 2</f>
+        <v>300</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="P75" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -7792,43 +8155,44 @@
         <v>64</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F76" s="5">
-        <f>[1]entities!$H$74</f>
-        <v>20</v>
+        <f>DATA_ENTITIES_CONTENT!G55</f>
+        <v>50</v>
       </c>
       <c r="G76" s="5">
-        <v>170</v>
+        <f>(DATA_ENTITIES_UNITY!D74 + DATA_ENTITIES_UNITY!E74) / 2</f>
+        <v>310</v>
       </c>
       <c r="H76" s="5">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="29"/>
       <c r="L76" s="29">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="M76" s="29">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="N76" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O76" s="26">
-        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]]),1)</f>
-        <v>16.5</v>
+        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
+        <v>30</v>
       </c>
       <c r="P76" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -7836,36 +8200,44 @@
         <v>64</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F77" s="5">
-        <f>[1]entities!$H$75</f>
+        <f>DATA_ENTITIES_CONTENT!G55</f>
+        <v>50</v>
+      </c>
+      <c r="G77" s="5">
+        <f>(DATA_ENTITIES_UNITY!D75 + DATA_ENTITIES_UNITY!E75) / 2</f>
+        <v>310</v>
+      </c>
+      <c r="H77" s="5">
+        <v>40</v>
+      </c>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29">
+        <v>3</v>
+      </c>
+      <c r="M77" s="29">
+        <v>0</v>
+      </c>
+      <c r="N77" s="29">
         <v>4</v>
       </c>
-      <c r="G77" s="5">
-        <v>150</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="6" t="s">
-        <v>19</v>
+      <c r="O77" s="26">
+        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
+        <v>30</v>
       </c>
       <c r="P77" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -7873,154 +8245,179 @@
         <v>64</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F78" s="5">
-        <f>[1]entities!$H$75</f>
+        <f>DATA_ENTITIES_CONTENT!G55</f>
+        <v>50</v>
+      </c>
+      <c r="G78" s="5">
+        <f>(DATA_ENTITIES_UNITY!D76 + DATA_ENTITIES_UNITY!E76) / 2</f>
+        <v>310</v>
+      </c>
+      <c r="H78" s="5">
+        <v>40</v>
+      </c>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29">
+        <v>3</v>
+      </c>
+      <c r="M78" s="29">
+        <v>0</v>
+      </c>
+      <c r="N78" s="29">
         <v>4</v>
       </c>
-      <c r="G78" s="5">
-        <v>150</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="6" t="s">
-        <v>19</v>
+      <c r="O78" s="26">
+        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
+        <v>30</v>
       </c>
       <c r="P78" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" s="22" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="F79" s="5">
-        <f>[1]entities!$H$76</f>
+        <f>DATA_ENTITIES_CONTENT!G56</f>
+        <v>10</v>
+      </c>
+      <c r="G79" s="5">
+        <f>(DATA_ENTITIES_UNITY!D77 + DATA_ENTITIES_UNITY!E77) / 2</f>
+        <v>180</v>
+      </c>
+      <c r="H79" s="5">
+        <v>5</v>
+      </c>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29">
+        <v>1</v>
+      </c>
+      <c r="M79" s="29">
         <v>3</v>
       </c>
-      <c r="G79" s="5">
-        <v>180</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="6" t="s">
-        <v>19</v>
+      <c r="N79" s="29">
+        <v>7</v>
+      </c>
+      <c r="O79" s="26">
+        <f>ROUND(((Table1[[#This Row],[DAMAGE]]*2)*Table1[[#This Row],[CONSEC. ATK]])/(Table1[[#This Row],[CONSEC. ATK]]+Table1[[#This Row],[ATK DELAY]]+Table1[[#This Row],[RETREAT TIME]]),1)</f>
+        <v>0.9</v>
       </c>
       <c r="P79" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F80" s="5">
-        <f>[1]entities!$H$77</f>
-        <v>80</v>
+        <f>DATA_ENTITIES_CONTENT!G57</f>
+        <v>20</v>
       </c>
       <c r="G80" s="5">
-        <v>420</v>
+        <f>(DATA_ENTITIES_UNITY!D78 + DATA_ENTITIES_UNITY!E78) / 2</f>
+        <v>170</v>
       </c>
       <c r="H80" s="5">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
       <c r="L80" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80" s="29">
         <v>0</v>
       </c>
       <c r="N80" s="29">
-        <v>5</v>
-      </c>
-      <c r="O80" s="26">
+        <v>2</v>
+      </c>
+      <c r="O80" s="5">
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P80" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="22" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="F81" s="5">
-        <f>[1]entities!$H$44</f>
-        <v>2</v>
+        <f>DATA_ENTITIES_CONTENT!G58</f>
+        <v>20</v>
       </c>
       <c r="G81" s="5">
-        <v>150</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="6" t="s">
-        <v>19</v>
+        <f>(DATA_ENTITIES_UNITY!D79 + DATA_ENTITIES_UNITY!E79) / 2</f>
+        <v>170</v>
+      </c>
+      <c r="H81" s="5">
+        <v>25</v>
+      </c>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29">
+        <v>200</v>
+      </c>
+      <c r="M81" s="29">
+        <v>1.5</v>
+      </c>
+      <c r="N81" s="29">
+        <v>5</v>
+      </c>
+      <c r="O81" s="26">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]]),1)</f>
+        <v>16.5</v>
       </c>
       <c r="P81" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -8028,20 +8425,21 @@
         <v>64</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F82" s="5">
-        <f>[1]entities!$H$78</f>
-        <v>15</v>
+        <f>DATA_ENTITIES_CONTENT!G59</f>
+        <v>4</v>
       </c>
       <c r="G82" s="5">
-        <v>220</v>
+        <f>(DATA_ENTITIES_UNITY!D80 + DATA_ENTITIES_UNITY!E80) / 2</f>
+        <v>150</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>19</v>
@@ -8057,7 +8455,7 @@
       </c>
       <c r="P82" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -8065,20 +8463,21 @@
         <v>64</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F83" s="5">
-        <f>[1]entities!$H$78</f>
-        <v>15</v>
+        <f>DATA_ENTITIES_CONTENT!G59</f>
+        <v>4</v>
       </c>
       <c r="G83" s="5">
-        <v>220</v>
+        <f>(DATA_ENTITIES_UNITY!D81 + DATA_ENTITIES_UNITY!E81) / 2</f>
+        <v>150</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>19</v>
@@ -8094,65 +8493,66 @@
       </c>
       <c r="P83" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>55</v>
+        <v>422</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>51</v>
+        <v>435</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F84" s="5">
-        <f>[1]entities!$H$79</f>
-        <v>15</v>
+        <v>224</v>
+      </c>
+      <c r="F84" s="102">
+        <f>DATA_ENTITIES_CONTENT!G60</f>
+        <v>3</v>
       </c>
       <c r="G84" s="5">
-        <v>220</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P84" s="44">
+        <f>(DATA_ENTITIES_UNITY!D82 + DATA_ENTITIES_UNITY!E82) / 2</f>
+        <v>180</v>
+      </c>
+      <c r="H84" s="103"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="106"/>
+      <c r="O84" s="107" t="e">
+        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P84" s="108" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="22" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="F85" s="5">
-        <f>[1]entities!$H$79</f>
-        <v>15</v>
+        <f>DATA_ENTITIES_CONTENT!G60</f>
+        <v>3</v>
       </c>
       <c r="G85" s="5">
-        <v>220</v>
+        <f>(DATA_ENTITIES_UNITY!D83 + DATA_ENTITIES_UNITY!E83) / 2</f>
+        <v>180</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>19</v>
@@ -8168,72 +8568,74 @@
       </c>
       <c r="P85" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="22" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="F86" s="5">
-        <f>[1]entities!$H$80</f>
-        <v>20</v>
+        <f>DATA_ENTITIES_CONTENT!G61</f>
+        <v>80</v>
       </c>
       <c r="G86" s="5">
-        <v>300</v>
+        <f>(DATA_ENTITIES_UNITY!D84 + DATA_ENTITIES_UNITY!E84) / 2</f>
+        <v>420</v>
       </c>
       <c r="H86" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
       <c r="K86" s="29"/>
       <c r="L86" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M86" s="29">
         <v>0</v>
       </c>
       <c r="N86" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O86" s="26">
-        <f>Table1[[#This Row],[DAMAGE]]</f>
-        <v>40</v>
+        <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
+        <v>36</v>
       </c>
       <c r="P86" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="22" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="F87" s="5">
-        <f>[1]entities!$H$81</f>
-        <v>8</v>
+        <f>DATA_ENTITIES_CONTENT!G28</f>
+        <v>2</v>
       </c>
       <c r="G87" s="5">
-        <v>200</v>
+        <f>(DATA_ENTITIES_UNITY!D85 + DATA_ENTITIES_UNITY!E85) / 2</f>
+        <v>140</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>19</v>
@@ -8249,28 +8651,29 @@
       </c>
       <c r="P87" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F88" s="5">
-        <f>[1]entities!$H$81</f>
-        <v>8</v>
+        <f>DATA_ENTITIES_CONTENT!G62</f>
+        <v>15</v>
       </c>
       <c r="G88" s="5">
-        <v>200</v>
+        <f>(DATA_ENTITIES_UNITY!D86 + DATA_ENTITIES_UNITY!E86) / 2</f>
+        <v>220</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>19</v>
@@ -8286,28 +8689,29 @@
       </c>
       <c r="P88" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F89" s="5">
-        <f>[1]entities!$H$81</f>
-        <v>8</v>
+        <f>DATA_ENTITIES_CONTENT!G62</f>
+        <v>15</v>
       </c>
       <c r="G89" s="5">
-        <v>200</v>
+        <f>(DATA_ENTITIES_UNITY!D87 + DATA_ENTITIES_UNITY!E87) / 2</f>
+        <v>220</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>19</v>
@@ -8323,48 +8727,68 @@
       </c>
       <c r="P89" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" s="5">
+        <f>DATA_ENTITIES_CONTENT!G63</f>
+        <v>15</v>
+      </c>
+      <c r="G90" s="5">
+        <f>(DATA_ENTITIES_UNITY!D88 + DATA_ENTITIES_UNITY!E88) / 2</f>
+        <v>220</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="28"/>
+      <c r="O90" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P90" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" s="5">
+        <f>DATA_ENTITIES_CONTENT!G63</f>
+        <v>15</v>
+      </c>
+      <c r="G91" s="5">
+        <f>(DATA_ENTITIES_UNITY!D89 + DATA_ENTITIES_UNITY!E89) / 2</f>
+        <v>220</v>
+      </c>
       <c r="H91" s="6" t="s">
         <v>19</v>
       </c>
@@ -8374,73 +8798,289 @@
       <c r="L91" s="28"/>
       <c r="M91" s="28"/>
       <c r="N91" s="28"/>
-      <c r="O91" s="30" t="s">
+      <c r="O91" s="6" t="s">
         <v>19</v>
       </c>
       <c r="P91" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F92" s="5">
+        <f>DATA_ENTITIES_CONTENT!G64</f>
+        <v>20</v>
+      </c>
+      <c r="G92" s="5">
+        <f>(DATA_ENTITIES_UNITY!D90 + DATA_ENTITIES_UNITY!E90) / 2</f>
+        <v>300</v>
+      </c>
+      <c r="H92" s="5">
+        <v>40</v>
+      </c>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="29">
+        <v>2</v>
+      </c>
+      <c r="M92" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B92" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="47" t="s">
+      <c r="N92" s="29">
+        <v>0</v>
+      </c>
+      <c r="O92" s="26">
+        <f>Table1[[#This Row],[DAMAGE]]</f>
+        <v>40</v>
+      </c>
+      <c r="P92" s="44">
+        <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93" s="5">
+        <f>DATA_ENTITIES_CONTENT!G65</f>
+        <v>8</v>
+      </c>
+      <c r="G93" s="5">
+        <f>(DATA_ENTITIES_UNITY!D91 + DATA_ENTITIES_UNITY!E91) / 2</f>
+        <v>200</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="95" t="s">
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="28"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P92" s="46">
+      <c r="P93" s="44">
+        <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94" s="5">
+        <f>DATA_ENTITIES_CONTENT!G65</f>
+        <v>8</v>
+      </c>
+      <c r="G94" s="5">
+        <f>(DATA_ENTITIES_UNITY!D92 + DATA_ENTITIES_UNITY!E92) / 2</f>
+        <v>200</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P94" s="44">
+        <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F95" s="5">
+        <f>DATA_ENTITIES_CONTENT!G65</f>
+        <v>8</v>
+      </c>
+      <c r="G95" s="5">
+        <f>(DATA_ENTITIES_UNITY!D93 + DATA_ENTITIES_UNITY!E93) / 2</f>
+        <v>200</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P95" s="44">
+        <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P96" s="44">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C94" s="21" t="s">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B97" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P97" s="44">
+        <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="91"/>
+      <c r="D98" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="94"/>
+      <c r="F98" s="94"/>
+      <c r="G98" s="94"/>
+      <c r="H98" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="48"/>
+      <c r="J98" s="48"/>
+      <c r="K98" s="48"/>
+      <c r="L98" s="48"/>
+      <c r="M98" s="48"/>
+      <c r="N98" s="48"/>
+      <c r="O98" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="P98" s="46">
+        <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C100" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="4" t="s">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5">
+      <c r="F103" s="5"/>
+      <c r="G103" s="5">
         <v>300</v>
       </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="27"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="L6:N6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="G4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13178,7 +13818,7 @@
   <dimension ref="C3:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13960,8 +14600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14780,34 +15420,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:E93"/>
+  <dimension ref="C5:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="101" t="s">
+    <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="98" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>21</v>
       </c>
@@ -14817,8 +15461,11 @@
       <c r="E8">
         <v>280</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -14828,8 +15475,11 @@
       <c r="E9">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -14839,8 +15489,11 @@
       <c r="E10">
         <v>300</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -14850,8 +15503,11 @@
       <c r="E11">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>68</v>
       </c>
@@ -14861,8 +15517,11 @@
       <c r="E12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -14872,8 +15531,11 @@
       <c r="E13">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>109</v>
       </c>
@@ -14883,8 +15545,11 @@
       <c r="E14">
         <v>260</v>
       </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>110</v>
       </c>
@@ -14894,8 +15559,11 @@
       <c r="E15">
         <v>280</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>111</v>
       </c>
@@ -14905,8 +15573,11 @@
       <c r="E16">
         <v>5000</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>139</v>
       </c>
@@ -14916,8 +15587,11 @@
       <c r="E17">
         <v>130</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>140</v>
       </c>
@@ -14927,8 +15601,11 @@
       <c r="E18">
         <v>130</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>77</v>
       </c>
@@ -14938,8 +15615,11 @@
       <c r="E19">
         <v>220</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>192</v>
       </c>
@@ -14949,8 +15629,11 @@
       <c r="E20">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>193</v>
       </c>
@@ -14960,8 +15643,11 @@
       <c r="E21">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>194</v>
       </c>
@@ -14971,8 +15657,11 @@
       <c r="E22">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>195</v>
       </c>
@@ -14982,10 +15671,13 @@
       <c r="E23">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D24">
         <v>180</v>
@@ -14993,10 +15685,13 @@
       <c r="E24">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D25">
         <v>180</v>
@@ -15004,8 +15699,11 @@
       <c r="E25">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>26</v>
       </c>
@@ -15015,10 +15713,13 @@
       <c r="E26">
         <v>210</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D27">
         <v>210</v>
@@ -15026,8 +15727,11 @@
       <c r="E27">
         <v>210</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>150</v>
       </c>
@@ -15037,8 +15741,11 @@
       <c r="E28">
         <v>240</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>151</v>
       </c>
@@ -15048,8 +15755,11 @@
       <c r="E29">
         <v>240</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>199</v>
       </c>
@@ -15059,8 +15769,11 @@
       <c r="E30">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>20</v>
       </c>
@@ -15070,8 +15783,11 @@
       <c r="E31">
         <v>240</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>128</v>
       </c>
@@ -15081,8 +15797,11 @@
       <c r="E32">
         <v>220</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>129</v>
       </c>
@@ -15092,8 +15811,11 @@
       <c r="E33">
         <v>240</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>130</v>
       </c>
@@ -15103,8 +15825,11 @@
       <c r="E34">
         <v>260</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>131</v>
       </c>
@@ -15114,8 +15839,11 @@
       <c r="E35">
         <v>280</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>132</v>
       </c>
@@ -15125,8 +15853,11 @@
       <c r="E36">
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>152</v>
       </c>
@@ -15136,8 +15867,11 @@
       <c r="E37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>153</v>
       </c>
@@ -15147,8 +15881,11 @@
       <c r="E38">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>154</v>
       </c>
@@ -15158,8 +15895,11 @@
       <c r="E39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>122</v>
       </c>
@@ -15169,8 +15909,11 @@
       <c r="E40">
         <v>5000</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>60</v>
       </c>
@@ -15180,8 +15923,11 @@
       <c r="E41">
         <v>260</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>112</v>
       </c>
@@ -15191,10 +15937,13 @@
       <c r="E42">
         <v>250</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D43">
         <v>250</v>
@@ -15202,8 +15951,11 @@
       <c r="E43">
         <v>250</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>113</v>
       </c>
@@ -15213,10 +15965,13 @@
       <c r="E44">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D45">
         <v>300</v>
@@ -15224,8 +15979,11 @@
       <c r="E45">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>114</v>
       </c>
@@ -15235,10 +15993,13 @@
       <c r="E46">
         <v>340</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D47">
         <v>340</v>
@@ -15246,8 +16007,11 @@
       <c r="E47">
         <v>340</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>232</v>
       </c>
@@ -15257,8 +16021,11 @@
       <c r="E48">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>233</v>
       </c>
@@ -15268,8 +16035,11 @@
       <c r="E49">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>253</v>
       </c>
@@ -15279,8 +16049,11 @@
       <c r="E50">
         <v>450</v>
       </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>121</v>
       </c>
@@ -15290,8 +16063,11 @@
       <c r="E51">
         <v>180</v>
       </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>27</v>
       </c>
@@ -15301,8 +16077,11 @@
       <c r="E52">
         <v>220</v>
       </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>29</v>
       </c>
@@ -15312,8 +16091,11 @@
       <c r="E53">
         <v>220</v>
       </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>78</v>
       </c>
@@ -15323,8 +16105,11 @@
       <c r="E54">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>234</v>
       </c>
@@ -15334,8 +16119,11 @@
       <c r="E55">
         <v>170</v>
       </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>25</v>
       </c>
@@ -15345,8 +16133,11 @@
       <c r="E56">
         <v>280</v>
       </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>115</v>
       </c>
@@ -15356,8 +16147,11 @@
       <c r="E57">
         <v>2500</v>
       </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>116</v>
       </c>
@@ -15367,8 +16161,11 @@
       <c r="E58">
         <v>2500</v>
       </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -15378,8 +16175,11 @@
       <c r="E59">
         <v>2000</v>
       </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>118</v>
       </c>
@@ -15389,8 +16189,11 @@
       <c r="E60">
         <v>2000</v>
       </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>119</v>
       </c>
@@ -15400,8 +16203,11 @@
       <c r="E61">
         <v>1500</v>
       </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>120</v>
       </c>
@@ -15411,8 +16217,11 @@
       <c r="E62">
         <v>1500</v>
       </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>133</v>
       </c>
@@ -15422,8 +16231,11 @@
       <c r="E63">
         <v>200</v>
       </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>220</v>
       </c>
@@ -15433,8 +16245,11 @@
       <c r="E64">
         <v>140</v>
       </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>155</v>
       </c>
@@ -15444,8 +16259,11 @@
       <c r="E65">
         <v>170</v>
       </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>235</v>
       </c>
@@ -15455,8 +16273,11 @@
       <c r="E66">
         <v>220</v>
       </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>35</v>
       </c>
@@ -15466,10 +16287,13 @@
       <c r="E67">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D68">
         <v>260</v>
@@ -15477,8 +16301,11 @@
       <c r="E68">
         <v>260</v>
       </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>37</v>
       </c>
@@ -15488,8 +16315,11 @@
       <c r="E69">
         <v>260</v>
       </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>156</v>
       </c>
@@ -15499,8 +16329,11 @@
       <c r="E70">
         <v>350</v>
       </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>39</v>
       </c>
@@ -15510,10 +16343,13 @@
       <c r="E71">
         <v>200</v>
       </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D72">
         <v>200</v>
@@ -15521,10 +16357,13 @@
       <c r="E72">
         <v>200</v>
       </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D73">
         <v>300</v>
@@ -15532,8 +16371,11 @@
       <c r="E73">
         <v>300</v>
       </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>47</v>
       </c>
@@ -15543,8 +16385,11 @@
       <c r="E74">
         <v>310</v>
       </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>49</v>
       </c>
@@ -15554,8 +16399,11 @@
       <c r="E75">
         <v>310</v>
       </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>48</v>
       </c>
@@ -15565,8 +16413,11 @@
       <c r="E76">
         <v>310</v>
       </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>79</v>
       </c>
@@ -15576,8 +16427,11 @@
       <c r="E77">
         <v>180</v>
       </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>40</v>
       </c>
@@ -15587,8 +16441,11 @@
       <c r="E78">
         <v>170</v>
       </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>41</v>
       </c>
@@ -15598,8 +16455,11 @@
       <c r="E79">
         <v>170</v>
       </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>42</v>
       </c>
@@ -15609,8 +16469,11 @@
       <c r="E80">
         <v>150</v>
       </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>43</v>
       </c>
@@ -15620,10 +16483,13 @@
       <c r="E81">
         <v>150</v>
       </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D82">
         <v>180</v>
@@ -15631,8 +16497,11 @@
       <c r="E82">
         <v>180</v>
       </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>197</v>
       </c>
@@ -15642,8 +16511,11 @@
       <c r="E83">
         <v>180</v>
       </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>61</v>
       </c>
@@ -15653,8 +16525,11 @@
       <c r="E84">
         <v>420</v>
       </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>157</v>
       </c>
@@ -15664,8 +16539,11 @@
       <c r="E85">
         <v>140</v>
       </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>54</v>
       </c>
@@ -15675,8 +16553,11 @@
       <c r="E86">
         <v>220</v>
       </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>56</v>
       </c>
@@ -15686,8 +16567,11 @@
       <c r="E87">
         <v>220</v>
       </c>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>55</v>
       </c>
@@ -15697,8 +16581,11 @@
       <c r="E88">
         <v>220</v>
       </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>57</v>
       </c>
@@ -15708,10 +16595,13 @@
       <c r="E89">
         <v>220</v>
       </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D90">
         <v>300</v>
@@ -15719,8 +16609,11 @@
       <c r="E90">
         <v>300</v>
       </c>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>80</v>
       </c>
@@ -15730,8 +16623,11 @@
       <c r="E91">
         <v>200</v>
       </c>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>81</v>
       </c>
@@ -15741,8 +16637,11 @@
       <c r="E92">
         <v>200</v>
       </c>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>82</v>
       </c>
@@ -15751,6 +16650,9 @@
       </c>
       <c r="E93">
         <v>200</v>
+      </c>
+      <c r="F93" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -15778,7 +16680,7 @@
   <sheetData>
     <row r="2" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>402</v>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="DATA_DRAGONS_CONTENT" sheetId="5" r:id="rId4"/>
     <sheet name="DATA_ENTITIES_CONTENT" sheetId="10" r:id="rId5"/>
     <sheet name="DATA_ENTITIES_UNITY" sheetId="11" r:id="rId6"/>
-    <sheet name="DATA_UNITY" sheetId="9" r:id="rId7"/>
+    <sheet name="DATA_SCENES_UNITY" sheetId="9" r:id="rId7"/>
     <sheet name="Entities FPS" sheetId="6" r:id="rId8"/>
   </sheets>
   <externalReferences>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="522">
   <si>
     <t>ENTITIES/SPAWNERS</t>
   </si>
@@ -3128,6 +3128,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5340,8 +5341,8 @@
   </sheetPr>
   <dimension ref="B2:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8096,20 +8097,21 @@
         <f>(DATA_ENTITIES_UNITY!D72 + DATA_ENTITIES_UNITY!E72) / 2</f>
         <v>200</v>
       </c>
-      <c r="H74" s="103"/>
+      <c r="H74" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="I74" s="104"/>
       <c r="J74" s="105"/>
       <c r="K74" s="105"/>
       <c r="L74" s="105"/>
       <c r="M74" s="105"/>
       <c r="N74" s="106"/>
-      <c r="O74" s="107" t="e">
-        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P74" s="108" t="e">
+      <c r="O74" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="P74" s="108">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -8524,13 +8526,12 @@
       <c r="L84" s="105"/>
       <c r="M84" s="105"/>
       <c r="N84" s="106"/>
-      <c r="O84" s="107" t="e">
-        <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P84" s="108" t="e">
+      <c r="O84" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="P84" s="108">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -9097,7 +9098,7 @@
   </sheetPr>
   <dimension ref="B1:U270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
@@ -13865,7 +13866,7 @@
         <v>403</v>
       </c>
       <c r="E8">
-        <f>DATA_UNITY!F4</f>
+        <f>DATA_SCENES_UNITY!F4</f>
         <v>30364</v>
       </c>
       <c r="F8">
@@ -13940,7 +13941,7 @@
   <dimension ref="G2:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14600,8 +14601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15422,8 +15423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16665,8 +16666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:K528"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -4,27 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
-    <sheet name="Dragons" sheetId="3" r:id="rId2"/>
-    <sheet name="Progression" sheetId="8" r:id="rId3"/>
-    <sheet name="DATA_DRAGONS_CONTENT" sheetId="5" r:id="rId4"/>
-    <sheet name="DATA_ENTITIES_CONTENT" sheetId="10" r:id="rId5"/>
-    <sheet name="DATA_ENTITIES_UNITY" sheetId="11" r:id="rId6"/>
-    <sheet name="DATA_SCENES_UNITY" sheetId="9" r:id="rId7"/>
-    <sheet name="Entities FPS" sheetId="6" r:id="rId8"/>
+    <sheet name="Entities v2" sheetId="12" r:id="rId2"/>
+    <sheet name="Dragons" sheetId="3" r:id="rId3"/>
+    <sheet name="Progression" sheetId="8" r:id="rId4"/>
+    <sheet name="DATA_DRAGONS_CONTENT" sheetId="5" r:id="rId5"/>
+    <sheet name="DATA_SCENES_UNITY" sheetId="9" r:id="rId6"/>
+    <sheet name="Entities FPS" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="443">
   <si>
     <t>ENTITIES/SPAWNERS</t>
   </si>
@@ -1253,15 +1252,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>REWARD XP</t>
-  </si>
-  <si>
-    <t>REWARD HP</t>
-  </si>
-  <si>
     <t>SCENE:</t>
   </si>
   <si>
@@ -1298,18 +1288,6 @@
     <t>SP_witch</t>
   </si>
   <si>
-    <t>RESPAWN TIMES</t>
-  </si>
-  <si>
-    <t>SPAWNER</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
     <t>PF_Cow_Static</t>
   </si>
   <si>
@@ -1340,263 +1318,47 @@
     <t>DATA_ENTITIES_UNITY</t>
   </si>
   <si>
-    <t>PREFAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Archer01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Archer01_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Archer02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Archer02_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_BadBird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_BakerWoman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_BatBig_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_BatSmall01_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_BatSmall02_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_BoatFisher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_BoatRider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Bomber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Canary01_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Canary02_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Canary03_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Canary04_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Cow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Cow_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Crocodile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Crocodile_Evade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Crow_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_DrunkenMan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_EnemyTier0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_EnemyTier1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_EnemyTier2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_EnemyTier3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_EnemyTier4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Fish01_Generic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Fish02_Generic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Fish03_Generic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_FlyingPig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Gargoyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Ghost01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Ghost01_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Ghost02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Ghost02_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Ghost03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Ghost03_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_GoodJunkBottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_GoodJunkCoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_HangingCage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Hawk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Horse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Horse_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Kamikaze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_LionBird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Merida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_MineBig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_MineBig_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_MineMedium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_MineMedium_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_MineSmall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_MineSmall_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_OwlBig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_OwlSmall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Piranha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_PufferBird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Rat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Richman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_RichMan_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Shark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Sheep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Sheep_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Shieldman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Soldier01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Soldier01_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Soldier02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Spartakus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_SpiderGreenTurret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_SpiderRed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_SpiderSmall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_SpiderSmallTurret</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Starling_Flock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Troll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_TropicalFish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Villager01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Villager01_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Villager02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Villager02_Static</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Witch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Worker01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_Worker02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PF_WorkerWife</t>
+    <t>(execute 'spawnersData' script)</t>
+  </si>
+  <si>
+    <t>SP_GoblinBoat</t>
+  </si>
+  <si>
+    <t>Vehicles/PF_GoblinBoat</t>
+  </si>
+  <si>
+    <t>PF_Richman</t>
+  </si>
+  <si>
+    <t>PF_Shieldman</t>
+  </si>
+  <si>
+    <t>Spawner Prefab</t>
+  </si>
+  <si>
+    <t>Content Sku</t>
+  </si>
+  <si>
+    <t>Entity Prefab</t>
+  </si>
+  <si>
+    <t>Respawn Min</t>
+  </si>
+  <si>
+    <t>Respawn Max</t>
+  </si>
+  <si>
+    <t>HP Given</t>
+  </si>
+  <si>
+    <t>XP Given</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1659,13 +1421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1694,7 +1449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1791,14 +1546,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2096,21 +1845,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2132,7 +1866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2235,28 +1969,27 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2267,59 +2000,55 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3088,11 +2817,11 @@
         </c:dLbls>
         <c:gapWidth val="228"/>
         <c:overlap val="100"/>
-        <c:axId val="85009920"/>
-        <c:axId val="85011456"/>
+        <c:axId val="71706112"/>
+        <c:axId val="71707648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85009920"/>
+        <c:axId val="71706112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,7 +2831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85011456"/>
+        <c:crossAx val="71707648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3110,7 +2839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85011456"/>
+        <c:axId val="71707648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,14 +2850,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85009920"/>
+        <c:crossAx val="71706112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3284,11 +3012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89200896"/>
-        <c:axId val="89203072"/>
+        <c:axId val="81955072"/>
+        <c:axId val="81961344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89200896"/>
+        <c:axId val="81955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +3026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89203072"/>
+        <c:crossAx val="81961344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3306,7 +3034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89203072"/>
+        <c:axId val="81961344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +3044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89200896"/>
+        <c:crossAx val="81955072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3494,11 +3222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89218432"/>
-        <c:axId val="89232896"/>
+        <c:axId val="83238272"/>
+        <c:axId val="83248640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89218432"/>
+        <c:axId val="83238272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3508,7 +3236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89232896"/>
+        <c:crossAx val="83248640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3516,7 +3244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89232896"/>
+        <c:axId val="83248640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,7 +3254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89218432"/>
+        <c:crossAx val="83238272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4077,7 +3805,6 @@
       <sheetName val="shop"/>
       <sheetName val="score"/>
       <sheetName val="events"/>
-      <sheetName val="HungryDragonContent"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4491,485 +4218,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="22">
-          <cell r="H22">
-            <v>20</v>
-          </cell>
-          <cell r="J22">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23">
-            <v>20</v>
-          </cell>
-          <cell r="J23">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="J24">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25">
-            <v>20</v>
-          </cell>
-          <cell r="J25">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26">
-            <v>5</v>
-          </cell>
-          <cell r="J26">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27">
-            <v>2</v>
-          </cell>
-          <cell r="J27">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28">
-            <v>15</v>
-          </cell>
-          <cell r="J28">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29">
-            <v>10</v>
-          </cell>
-          <cell r="J29">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30">
-            <v>2</v>
-          </cell>
-          <cell r="J30">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31">
-            <v>2</v>
-          </cell>
-          <cell r="J31">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32">
-            <v>2</v>
-          </cell>
-          <cell r="J32">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33">
-            <v>2</v>
-          </cell>
-          <cell r="J33">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34">
-            <v>15</v>
-          </cell>
-          <cell r="J34">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35">
-            <v>15</v>
-          </cell>
-          <cell r="J35">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>30</v>
-          </cell>
-          <cell r="J36">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37">
-            <v>3</v>
-          </cell>
-          <cell r="J37">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>15</v>
-          </cell>
-          <cell r="J38">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>20</v>
-          </cell>
-          <cell r="J39">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>40</v>
-          </cell>
-          <cell r="J40">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41">
-            <v>80</v>
-          </cell>
-          <cell r="J41">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42">
-            <v>100</v>
-          </cell>
-          <cell r="J42">
-            <v>143</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43">
-            <v>120</v>
-          </cell>
-          <cell r="J43">
-            <v>195</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44">
-            <v>2</v>
-          </cell>
-          <cell r="J44">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45">
-            <v>2</v>
-          </cell>
-          <cell r="J45">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46">
-            <v>2</v>
-          </cell>
-          <cell r="J46">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47">
-            <v>70</v>
-          </cell>
-          <cell r="J47">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48">
-            <v>20</v>
-          </cell>
-          <cell r="J48">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49">
-            <v>3</v>
-          </cell>
-          <cell r="J49">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50">
-            <v>4</v>
-          </cell>
-          <cell r="J50">
-            <v>195</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51">
-            <v>5</v>
-          </cell>
-          <cell r="J51">
-            <v>263</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52">
-            <v>0</v>
-          </cell>
-          <cell r="J52">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53">
-            <v>0</v>
-          </cell>
-          <cell r="J53">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54">
-            <v>20</v>
-          </cell>
-          <cell r="J54">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55">
-            <v>25</v>
-          </cell>
-          <cell r="J55">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56">
-            <v>20</v>
-          </cell>
-          <cell r="J56">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57">
-            <v>20</v>
-          </cell>
-          <cell r="J57">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58">
-            <v>20</v>
-          </cell>
-          <cell r="J58">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59">
-            <v>0</v>
-          </cell>
-          <cell r="J59">
-            <v>263</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60">
-            <v>0</v>
-          </cell>
-          <cell r="J60">
-            <v>175</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61">
-            <v>25</v>
-          </cell>
-          <cell r="J61">
-            <v>130</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="H62">
-            <v>10</v>
-          </cell>
-          <cell r="J62">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="H63">
-            <v>6</v>
-          </cell>
-          <cell r="J63">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64">
-            <v>5</v>
-          </cell>
-          <cell r="J64">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65">
-            <v>15</v>
-          </cell>
-          <cell r="J65">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66">
-            <v>2</v>
-          </cell>
-          <cell r="J66">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67">
-            <v>15</v>
-          </cell>
-          <cell r="J67">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68">
-            <v>30</v>
-          </cell>
-          <cell r="J68">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69">
-            <v>7</v>
-          </cell>
-          <cell r="J69">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70">
-            <v>30</v>
-          </cell>
-          <cell r="J70">
-            <v>105</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71">
-            <v>50</v>
-          </cell>
-          <cell r="J71">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72">
-            <v>10</v>
-          </cell>
-          <cell r="J72">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73">
-            <v>20</v>
-          </cell>
-          <cell r="J73">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74">
-            <v>20</v>
-          </cell>
-          <cell r="J74">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="H75">
-            <v>4</v>
-          </cell>
-          <cell r="J75">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="H76">
-            <v>3</v>
-          </cell>
-          <cell r="J76">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="H77">
-            <v>80</v>
-          </cell>
-          <cell r="J77">
-            <v>83</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="H78">
-            <v>15</v>
-          </cell>
-          <cell r="J78">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="H79">
-            <v>15</v>
-          </cell>
-          <cell r="J79">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="H80">
-            <v>20</v>
-          </cell>
-          <cell r="J80">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="H81">
-            <v>8</v>
-          </cell>
-          <cell r="J81">
-            <v>75</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -4979,7 +4228,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5341,8 +4589,8 @@
   </sheetPr>
   <dimension ref="B2:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5374,37 +4622,37 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G4" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="117"/>
+        <v>429</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>430</v>
+      </c>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="112"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="I5" s="114"/>
+      <c r="I5" s="107"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="99" t="s">
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
@@ -5449,7 +4697,7 @@
       <c r="O7" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="P7" s="63" t="s">
+      <c r="P7" s="62" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5466,7 +4714,7 @@
       <c r="E8" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="93">
         <v>15</v>
       </c>
       <c r="G8" s="5">
@@ -5502,7 +4750,7 @@
       <c r="E9" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="93">
         <v>2</v>
       </c>
       <c r="G9" s="2"/>
@@ -5536,7 +4784,7 @@
       <c r="E10" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="93">
         <v>2</v>
       </c>
       <c r="G10" s="2"/>
@@ -5570,13 +4818,13 @@
       <c r="E11" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="5">
-        <f>DATA_ENTITIES_CONTENT!G6</f>
-        <v>20</v>
-      </c>
-      <c r="G11" s="5">
-        <f>(DATA_ENTITIES_UNITY!D8 + DATA_ENTITIES_UNITY!E8) / 2</f>
-        <v>280</v>
+      <c r="F11" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H11" s="5">
         <v>10</v>
@@ -5597,9 +4845,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>8</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -5615,13 +4863,13 @@
       <c r="E12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="5">
-        <f>DATA_ENTITIES_CONTENT!G6</f>
-        <v>20</v>
-      </c>
-      <c r="G12" s="5">
-        <f>(DATA_ENTITIES_UNITY!D9 + DATA_ENTITIES_UNITY!E9) / 2</f>
-        <v>280</v>
+      <c r="F12" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H12" s="5">
         <v>10</v>
@@ -5642,9 +4890,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>8</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -5660,13 +4908,13 @@
       <c r="E13" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="5">
-        <f>DATA_ENTITIES_CONTENT!G7</f>
-        <v>20</v>
-      </c>
-      <c r="G13" s="5">
-        <f>(DATA_ENTITIES_UNITY!D10 + DATA_ENTITIES_UNITY!E10) / 2</f>
-        <v>300</v>
+      <c r="F13" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H13" s="5">
         <v>15</v>
@@ -5687,9 +4935,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>15</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -5705,13 +4953,13 @@
       <c r="E14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="5">
-        <f>DATA_ENTITIES_CONTENT!G7</f>
-        <v>20</v>
-      </c>
-      <c r="G14" s="5">
-        <f>(DATA_ENTITIES_UNITY!D11 + DATA_ENTITIES_UNITY!E11) / 2</f>
-        <v>300</v>
+      <c r="F14" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H14" s="5">
         <v>15</v>
@@ -5732,9 +4980,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>15</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -5750,13 +4998,13 @@
       <c r="E15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="5">
-        <f>DATA_ENTITIES_CONTENT!G8</f>
-        <v>-10</v>
-      </c>
-      <c r="G15" s="5">
-        <f>(DATA_ENTITIES_UNITY!D12 + DATA_ENTITIES_UNITY!E12) / 2</f>
-        <v>200</v>
+      <c r="F15" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H15" s="6">
         <v>10</v>
@@ -5770,9 +5018,9 @@
       <c r="O15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>-10</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -5788,13 +5036,13 @@
       <c r="E16" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="5">
-        <f>DATA_ENTITIES_CONTENT!G9</f>
-        <v>20</v>
-      </c>
-      <c r="G16" s="5">
-        <f>(DATA_ENTITIES_UNITY!D13 + DATA_ENTITIES_UNITY!E13) / 2</f>
-        <v>200</v>
+      <c r="F16" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>264</v>
@@ -5809,9 +5057,9 @@
         <f>3+2.5</f>
         <v>5.5</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>3.6</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -5827,13 +5075,13 @@
       <c r="E17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="5">
-        <f>DATA_ENTITIES_CONTENT!G10</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="5">
-        <f>(DATA_ENTITIES_UNITY!D14 + DATA_ENTITIES_UNITY!E14) / 2</f>
-        <v>260</v>
+      <c r="F17" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H17" s="5">
         <v>8</v>
@@ -5854,9 +5102,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>2.7</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.9</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -5872,13 +5120,13 @@
       <c r="E18" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="5">
-        <f>DATA_ENTITIES_CONTENT!G11</f>
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
-        <f>(DATA_ENTITIES_UNITY!D15 + DATA_ENTITIES_UNITY!E15) / 2</f>
-        <v>280</v>
+      <c r="F18" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>19</v>
@@ -5892,9 +5140,9 @@
       <c r="O18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="45">
+      <c r="P18" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -5910,13 +5158,13 @@
       <c r="E19" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="5">
-        <f>DATA_ENTITIES_CONTENT!G11</f>
-        <v>2</v>
-      </c>
-      <c r="G19" s="5">
-        <f>(DATA_ENTITIES_UNITY!D16 + DATA_ENTITIES_UNITY!E16) / 2</f>
-        <v>5000</v>
+      <c r="F19" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>19</v>
@@ -5930,9 +5178,9 @@
       <c r="O19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -5980,13 +5228,13 @@
       <c r="E21" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F21" s="5">
-        <f>DATA_ENTITIES_CONTENT!G12</f>
-        <v>15</v>
-      </c>
-      <c r="G21" s="5">
-        <f>(DATA_ENTITIES_UNITY!D17 + DATA_ENTITIES_UNITY!E17) / 2</f>
-        <v>130</v>
+      <c r="F21" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>19</v>
@@ -6000,9 +5248,9 @@
       <c r="O21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -6018,13 +5266,13 @@
       <c r="E22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="5">
-        <f>DATA_ENTITIES_CONTENT!G12</f>
-        <v>15</v>
-      </c>
-      <c r="G22" s="5">
-        <f>(DATA_ENTITIES_UNITY!D18 + DATA_ENTITIES_UNITY!E18) / 2</f>
-        <v>130</v>
+      <c r="F22" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>19</v>
@@ -6038,9 +5286,9 @@
       <c r="O22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -6056,13 +5304,13 @@
       <c r="E23" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F23" s="5">
-        <f>DATA_ENTITIES_CONTENT!G13</f>
-        <v>10</v>
-      </c>
-      <c r="G23" s="5">
-        <f>(DATA_ENTITIES_UNITY!D19 + DATA_ENTITIES_UNITY!E19) / 2</f>
-        <v>220</v>
+      <c r="F23" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H23" s="5">
         <v>8</v>
@@ -6083,9 +5331,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>4</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -6101,13 +5349,13 @@
       <c r="E24" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F24" s="5">
-        <f>DATA_ENTITIES_CONTENT!G14</f>
-        <v>2</v>
-      </c>
-      <c r="G24" s="5">
-        <f>(DATA_ENTITIES_UNITY!D20 + DATA_ENTITIES_UNITY!E20) / 2</f>
-        <v>180</v>
+      <c r="F24" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>19</v>
@@ -6121,9 +5369,9 @@
       <c r="O24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -6139,13 +5387,13 @@
       <c r="E25" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F25" s="5">
-        <f>DATA_ENTITIES_CONTENT!G15</f>
-        <v>2</v>
-      </c>
-      <c r="G25" s="5">
-        <f>(DATA_ENTITIES_UNITY!D21 + DATA_ENTITIES_UNITY!E21) / 2</f>
-        <v>180</v>
+      <c r="F25" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>19</v>
@@ -6159,9 +5407,9 @@
       <c r="O25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -6177,13 +5425,13 @@
       <c r="E26" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="5">
-        <f>DATA_ENTITIES_CONTENT!G16</f>
-        <v>2</v>
-      </c>
-      <c r="G26" s="5">
-        <f>(DATA_ENTITIES_UNITY!D22 + DATA_ENTITIES_UNITY!E22) / 2</f>
-        <v>180</v>
+      <c r="F26" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>19</v>
@@ -6197,9 +5445,9 @@
       <c r="O26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -6215,13 +5463,13 @@
       <c r="E27" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="5">
-        <f>DATA_ENTITIES_CONTENT!G17</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="5">
-        <f>(DATA_ENTITIES_UNITY!D23 + DATA_ENTITIES_UNITY!E23) / 2</f>
-        <v>180</v>
+      <c r="F27" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>19</v>
@@ -6235,9 +5483,9 @@
       <c r="O27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P27" s="45">
+      <c r="P27" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -6253,13 +5501,13 @@
       <c r="E28" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="5">
-        <f>DATA_ENTITIES_CONTENT!G19</f>
-        <v>15</v>
-      </c>
-      <c r="G28" s="5">
-        <f>(DATA_ENTITIES_UNITY!D26 + DATA_ENTITIES_UNITY!E26) / 2</f>
-        <v>210</v>
+      <c r="F28" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>19</v>
@@ -6273,45 +5521,45 @@
       <c r="O28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="101" t="s">
-        <v>415</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>428</v>
-      </c>
-      <c r="E29" s="101" t="s">
+      <c r="C29" s="94" t="s">
+        <v>412</v>
+      </c>
+      <c r="D29" s="94" t="s">
+        <v>421</v>
+      </c>
+      <c r="E29" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="102">
-        <f>DATA_ENTITIES_CONTENT!G19</f>
-        <v>15</v>
-      </c>
-      <c r="G29" s="5">
-        <f>(DATA_ENTITIES_UNITY!D27 + DATA_ENTITIES_UNITY!E27) / 2</f>
-        <v>210</v>
-      </c>
-      <c r="H29" s="103"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="107" t="s">
+      <c r="F29" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="96"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="108">
+      <c r="P29" s="101" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -6327,13 +5575,13 @@
       <c r="E30" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F30" s="5">
-        <f>DATA_ENTITIES_CONTENT!G20</f>
-        <v>30</v>
-      </c>
-      <c r="G30" s="5">
-        <f>(DATA_ENTITIES_UNITY!D28 + DATA_ENTITIES_UNITY!E28) / 2</f>
-        <v>240</v>
+      <c r="F30" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H30" s="5">
         <v>15</v>
@@ -6354,9 +5602,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>3.5</v>
       </c>
-      <c r="P30" s="45">
+      <c r="P30" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8.6</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -6372,13 +5620,13 @@
       <c r="E31" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="5">
-        <f>DATA_ENTITIES_CONTENT!G20</f>
-        <v>30</v>
-      </c>
-      <c r="G31" s="5">
-        <f>(DATA_ENTITIES_UNITY!D29 + DATA_ENTITIES_UNITY!E29) / 2</f>
-        <v>240</v>
+      <c r="F31" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>19</v>
@@ -6392,9 +5640,9 @@
       <c r="O31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="45">
+      <c r="P31" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>30</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -6410,13 +5658,13 @@
       <c r="E32" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="5">
-        <f>DATA_ENTITIES_CONTENT!G21</f>
-        <v>3</v>
-      </c>
-      <c r="G32" s="5">
-        <f>(DATA_ENTITIES_UNITY!D30 + DATA_ENTITIES_UNITY!E30) / 2</f>
-        <v>200</v>
+      <c r="F32" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>19</v>
@@ -6430,9 +5678,9 @@
       <c r="O32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="45">
+      <c r="P32" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -6448,13 +5696,13 @@
       <c r="E33" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="5">
-        <f>DATA_ENTITIES_CONTENT!G22</f>
-        <v>15</v>
-      </c>
-      <c r="G33" s="5">
-        <f>(DATA_ENTITIES_UNITY!D31 + DATA_ENTITIES_UNITY!E31) / 2</f>
-        <v>240</v>
+      <c r="F33" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>19</v>
@@ -6468,9 +5716,9 @@
       <c r="O33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="45">
+      <c r="P33" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -6486,13 +5734,13 @@
       <c r="E34" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F34" s="5">
-        <f>DATA_ENTITIES_CONTENT!G23</f>
-        <v>20</v>
-      </c>
-      <c r="G34" s="5">
-        <f>(DATA_ENTITIES_UNITY!D32 + DATA_ENTITIES_UNITY!E32) / 2</f>
-        <v>220</v>
+      <c r="F34" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H34" s="5">
         <v>10</v>
@@ -6513,9 +5761,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>2.5</v>
       </c>
-      <c r="P34" s="45">
+      <c r="P34" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -6531,13 +5779,13 @@
       <c r="E35" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="5">
-        <f>DATA_ENTITIES_CONTENT!G24</f>
-        <v>40</v>
-      </c>
-      <c r="G35" s="5">
-        <f>(DATA_ENTITIES_UNITY!D33 + DATA_ENTITIES_UNITY!E33) / 2</f>
-        <v>240</v>
+      <c r="F35" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H35" s="5">
         <v>20</v>
@@ -6558,9 +5806,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>5</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -6576,13 +5824,13 @@
       <c r="E36" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F36" s="5">
-        <f>DATA_ENTITIES_CONTENT!G25</f>
-        <v>80</v>
-      </c>
-      <c r="G36" s="5">
-        <f>(DATA_ENTITIES_UNITY!D34 + DATA_ENTITIES_UNITY!E34) / 2</f>
-        <v>260</v>
+      <c r="F36" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G36" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H36" s="5">
         <v>40</v>
@@ -6603,9 +5851,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>10</v>
       </c>
-      <c r="P36" s="45">
+      <c r="P36" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -6621,13 +5869,13 @@
       <c r="E37" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="5">
-        <f>DATA_ENTITIES_CONTENT!G26</f>
-        <v>100</v>
-      </c>
-      <c r="G37" s="5">
-        <f>(DATA_ENTITIES_UNITY!D35 + DATA_ENTITIES_UNITY!E35) / 2</f>
-        <v>280</v>
+      <c r="F37" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G37" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H37" s="5">
         <v>50</v>
@@ -6648,9 +5896,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>12.5</v>
       </c>
-      <c r="P37" s="45">
+      <c r="P37" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -6666,13 +5914,13 @@
       <c r="E38" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F38" s="5">
-        <f>DATA_ENTITIES_CONTENT!G27</f>
-        <v>120</v>
-      </c>
-      <c r="G38" s="5">
-        <f>(DATA_ENTITIES_UNITY!D36 + DATA_ENTITIES_UNITY!E36) / 2</f>
-        <v>300</v>
+      <c r="F38" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G38" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H38" s="5">
         <v>60</v>
@@ -6693,9 +5941,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>15</v>
       </c>
-      <c r="P38" s="45">
+      <c r="P38" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -6711,13 +5959,13 @@
       <c r="E39" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F39" s="5">
-        <f>DATA_ENTITIES_CONTENT!G28</f>
-        <v>2</v>
-      </c>
-      <c r="G39" s="5">
-        <f>(DATA_ENTITIES_UNITY!D37 + DATA_ENTITIES_UNITY!E37) / 2</f>
-        <v>100</v>
+      <c r="F39" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G39" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>19</v>
@@ -6731,9 +5979,9 @@
       <c r="O39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P39" s="45">
+      <c r="P39" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -6749,13 +5997,13 @@
       <c r="E40" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="F40" s="5">
-        <f>DATA_ENTITIES_CONTENT!G29</f>
-        <v>2</v>
-      </c>
-      <c r="G40" s="5">
-        <f>(DATA_ENTITIES_UNITY!D38 + DATA_ENTITIES_UNITY!E38) / 2</f>
-        <v>100</v>
+      <c r="F40" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G40" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>19</v>
@@ -6769,9 +6017,9 @@
       <c r="O40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="45">
+      <c r="P40" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -6787,13 +6035,13 @@
       <c r="E41" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="5">
-        <f>DATA_ENTITIES_CONTENT!G30</f>
-        <v>2</v>
-      </c>
-      <c r="G41" s="5">
-        <f>(DATA_ENTITIES_UNITY!D39 + DATA_ENTITIES_UNITY!E39) / 2</f>
-        <v>100</v>
+      <c r="F41" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G41" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>19</v>
@@ -6807,9 +6055,9 @@
       <c r="O41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="45">
+      <c r="P41" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -6825,13 +6073,13 @@
       <c r="E42" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F42" s="5">
-        <f>DATA_ENTITIES_CONTENT!G31</f>
-        <v>70</v>
-      </c>
-      <c r="G42" s="5">
-        <f>(DATA_ENTITIES_UNITY!D40 + DATA_ENTITIES_UNITY!E40) / 2</f>
-        <v>5000</v>
+      <c r="F42" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G42" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>19</v>
@@ -6845,9 +6093,9 @@
       <c r="O42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="45">
+      <c r="P42" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>70</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -6863,13 +6111,13 @@
       <c r="E43" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F43" s="5">
-        <f>DATA_ENTITIES_CONTENT!G32</f>
-        <v>20</v>
-      </c>
-      <c r="G43" s="5">
-        <f>(DATA_ENTITIES_UNITY!D41 + DATA_ENTITIES_UNITY!E41) / 2</f>
-        <v>260</v>
+      <c r="F43" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>69</v>
@@ -6883,9 +6131,9 @@
       <c r="O43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P43" s="45">
+      <c r="P43" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>20</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -6901,13 +6149,13 @@
       <c r="E44" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="5">
-        <f>DATA_ENTITIES_CONTENT!G33</f>
-        <v>3</v>
-      </c>
-      <c r="G44" s="5">
-        <f>(DATA_ENTITIES_UNITY!D42 + DATA_ENTITIES_UNITY!E42) / 2</f>
-        <v>250</v>
+      <c r="F44" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G44" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H44" s="5">
         <v>7</v>
@@ -6924,9 +6172,9 @@
         <f>ROUND(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]],1)</f>
         <v>10.5</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -6934,40 +6182,40 @@
         <v>86</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="102">
-        <f>DATA_ENTITIES_CONTENT!G33</f>
-        <v>3</v>
-      </c>
-      <c r="G45" s="5">
-        <f>(DATA_ENTITIES_UNITY!D43 + DATA_ENTITIES_UNITY!E43) / 2</f>
-        <v>250</v>
-      </c>
-      <c r="H45" s="109">
+      <c r="F45" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G45" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H45" s="102">
         <v>7</v>
       </c>
-      <c r="I45" s="110">
+      <c r="I45" s="103">
         <v>1.5</v>
       </c>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="113">
+      <c r="J45" s="104"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="106">
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>7</v>
       </c>
-      <c r="P45" s="108">
+      <c r="P45" s="101" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.4</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -6983,13 +6231,13 @@
       <c r="E46" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F46" s="102">
-        <f>DATA_ENTITIES_CONTENT!G34</f>
-        <v>4</v>
-      </c>
-      <c r="G46" s="5">
-        <f>(DATA_ENTITIES_UNITY!D44 + DATA_ENTITIES_UNITY!E44) / 2</f>
-        <v>300</v>
+      <c r="F46" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G46" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H46" s="5">
         <v>11</v>
@@ -7006,9 +6254,9 @@
         <f>ROUND(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]],1)</f>
         <v>22</v>
       </c>
-      <c r="P46" s="45">
+      <c r="P46" s="45" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -7016,40 +6264,40 @@
         <v>86</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="F47" s="102">
-        <f>DATA_ENTITIES_CONTENT!G34</f>
-        <v>4</v>
-      </c>
-      <c r="G47" s="5">
-        <f>(DATA_ENTITIES_UNITY!D45 + DATA_ENTITIES_UNITY!E45) / 2</f>
-        <v>300</v>
-      </c>
-      <c r="H47" s="109">
+        <v>424</v>
+      </c>
+      <c r="F47" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G47" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="102">
         <v>11</v>
       </c>
-      <c r="I47" s="110">
+      <c r="I47" s="103">
         <v>2</v>
       </c>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="113">
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="106">
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>11</v>
       </c>
-      <c r="P47" s="108">
+      <c r="P47" s="101" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.4</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -7065,13 +6313,13 @@
       <c r="E48" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F48" s="102">
-        <f>DATA_ENTITIES_CONTENT!G35</f>
-        <v>5</v>
-      </c>
-      <c r="G48" s="5">
-        <f>(DATA_ENTITIES_UNITY!D46 + DATA_ENTITIES_UNITY!E46) / 2</f>
-        <v>340</v>
+      <c r="F48" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G48" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H48" s="5">
         <v>21</v>
@@ -7088,9 +6336,9 @@
         <f>ROUND(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]],1)</f>
         <v>52.5</v>
       </c>
-      <c r="P48" s="44">
+      <c r="P48" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
@@ -7098,40 +6346,40 @@
         <v>86</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F49" s="102">
-        <f>DATA_ENTITIES_CONTENT!G35</f>
-        <v>5</v>
-      </c>
-      <c r="G49" s="5">
-        <f>(DATA_ENTITIES_UNITY!D47 + DATA_ENTITIES_UNITY!E47) / 2</f>
-        <v>340</v>
-      </c>
-      <c r="H49" s="109">
+        <v>426</v>
+      </c>
+      <c r="F49" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G49" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" s="102">
         <v>21</v>
       </c>
-      <c r="I49" s="110">
+      <c r="I49" s="103">
         <v>2.5</v>
       </c>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="112"/>
-      <c r="O49" s="113">
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="106">
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>21</v>
       </c>
-      <c r="P49" s="108">
+      <c r="P49" s="101" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
@@ -7147,13 +6395,13 @@
       <c r="E50" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F50" s="5">
-        <f>DATA_ENTITIES_CONTENT!G36</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="5">
-        <f>(DATA_ENTITIES_UNITY!D48 + DATA_ENTITIES_UNITY!E48) / 2</f>
-        <v>500</v>
+      <c r="F50" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G50" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>19</v>
@@ -7167,9 +6415,9 @@
       <c r="O50" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P50" s="44">
+      <c r="P50" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
@@ -7185,13 +6433,13 @@
       <c r="E51" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F51" s="5">
-        <f>DATA_ENTITIES_CONTENT!G37</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="5">
-        <f>(DATA_ENTITIES_UNITY!D49 + DATA_ENTITIES_UNITY!E49) / 2</f>
-        <v>500</v>
+      <c r="F51" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G51" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>19</v>
@@ -7205,9 +6453,9 @@
       <c r="O51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P51" s="44">
+      <c r="P51" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -7224,9 +6472,9 @@
         <v>69</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="5">
-        <f>(DATA_ENTITIES_UNITY!D50 + DATA_ENTITIES_UNITY!E50) / 2</f>
-        <v>450</v>
+      <c r="G52" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="29"/>
@@ -7256,13 +6504,13 @@
       <c r="E53" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="5">
-        <f>DATA_ENTITIES_CONTENT!G38</f>
-        <v>20</v>
-      </c>
-      <c r="G53" s="5">
-        <f>(DATA_ENTITIES_UNITY!D51 + DATA_ENTITIES_UNITY!E51) / 2</f>
-        <v>180</v>
+      <c r="F53" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G53" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H53" s="5">
         <v>25</v>
@@ -7279,9 +6527,9 @@
         <f>Table1[[#This Row],[DAMAGE]]/Table1[[#This Row],[RETREAT TIME]]</f>
         <v>5</v>
       </c>
-      <c r="P53" s="44">
+      <c r="P53" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>4</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
@@ -7297,13 +6545,13 @@
       <c r="E54" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F54" s="5">
-        <f>DATA_ENTITIES_CONTENT!G39</f>
-        <v>25</v>
-      </c>
-      <c r="G54" s="5">
-        <f>(DATA_ENTITIES_UNITY!D52 + DATA_ENTITIES_UNITY!E52) / 2</f>
-        <v>220</v>
+      <c r="F54" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G54" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>19</v>
@@ -7317,9 +6565,9 @@
       <c r="O54" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P54" s="44">
+      <c r="P54" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>25</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
@@ -7335,13 +6583,13 @@
       <c r="E55" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="5">
-        <f>DATA_ENTITIES_CONTENT!G39</f>
-        <v>25</v>
-      </c>
-      <c r="G55" s="5">
-        <f>(DATA_ENTITIES_UNITY!D53 + DATA_ENTITIES_UNITY!E53) / 2</f>
-        <v>220</v>
+      <c r="F55" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G55" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>19</v>
@@ -7355,9 +6603,9 @@
       <c r="O55" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P55" s="44">
+      <c r="P55" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>25</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
@@ -7373,13 +6621,13 @@
       <c r="E56" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F56" s="5">
-        <f>DATA_ENTITIES_CONTENT!G40</f>
-        <v>20</v>
-      </c>
-      <c r="G56" s="5">
-        <f>(DATA_ENTITIES_UNITY!D54 + DATA_ENTITIES_UNITY!E54) / 2</f>
-        <v>200</v>
+      <c r="F56" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H56" s="5">
         <v>40</v>
@@ -7394,9 +6642,9 @@
         <f>Table1[[#This Row],[DAMAGE]]</f>
         <v>40</v>
       </c>
-      <c r="P56" s="44">
+      <c r="P56" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
@@ -7412,13 +6660,13 @@
       <c r="E57" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="5">
-        <f>DATA_ENTITIES_CONTENT!G41</f>
-        <v>20</v>
-      </c>
-      <c r="G57" s="5">
-        <f>(DATA_ENTITIES_UNITY!D55 + DATA_ENTITIES_UNITY!E55) / 2</f>
-        <v>170</v>
+      <c r="F57" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G57" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H57" s="5">
         <v>5</v>
@@ -7435,9 +6683,9 @@
         <f>ROUND(Table1[[#This Row],[DAMAGE]]/Table1[[#This Row],[DURATION]],1)</f>
         <v>3.3</v>
       </c>
-      <c r="P57" s="44">
+      <c r="P57" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>6.1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
@@ -7453,13 +6701,13 @@
       <c r="E58" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F58" s="5">
-        <f>DATA_ENTITIES_CONTENT!G42</f>
-        <v>20</v>
-      </c>
-      <c r="G58" s="5">
-        <f>(DATA_ENTITIES_UNITY!D56 + DATA_ENTITIES_UNITY!E56) / 2</f>
-        <v>280</v>
+      <c r="F58" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G58" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H58" s="5">
         <v>14</v>
@@ -7480,9 +6728,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>7</v>
       </c>
-      <c r="P58" s="44">
+      <c r="P58" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2.9</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
@@ -7498,13 +6746,13 @@
       <c r="E59" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F59" s="5">
-        <f>DATA_ENTITIES_CONTENT!G43</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="5">
-        <f>(DATA_ENTITIES_UNITY!D57 + DATA_ENTITIES_UNITY!E57) / 2</f>
-        <v>2500</v>
+      <c r="F59" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G59" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H59" s="6">
         <v>440</v>
@@ -7519,9 +6767,9 @@
         <f>Table1[[#This Row],[DAMAGE]]</f>
         <v>440</v>
       </c>
-      <c r="P59" s="44">
+      <c r="P59" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
@@ -7537,13 +6785,13 @@
       <c r="E60" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="5">
-        <f>DATA_ENTITIES_CONTENT!G43</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="5">
-        <f>(DATA_ENTITIES_UNITY!D58 + DATA_ENTITIES_UNITY!E58) / 2</f>
-        <v>2500</v>
+      <c r="F60" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G60" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H60" s="6">
         <v>440</v>
@@ -7558,9 +6806,9 @@
         <f>Table1[[#This Row],[DAMAGE]]</f>
         <v>440</v>
       </c>
-      <c r="P60" s="44">
+      <c r="P60" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
@@ -7576,13 +6824,13 @@
       <c r="E61" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F61" s="5">
-        <f>DATA_ENTITIES_CONTENT!G44</f>
-        <v>0</v>
-      </c>
-      <c r="G61" s="5">
-        <f>(DATA_ENTITIES_UNITY!D59 + DATA_ENTITIES_UNITY!E59) / 2</f>
-        <v>2000</v>
+      <c r="F61" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G61" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H61" s="6">
         <v>150</v>
@@ -7597,9 +6845,9 @@
         <f>Table1[[#This Row],[DAMAGE]]</f>
         <v>150</v>
       </c>
-      <c r="P61" s="44">
+      <c r="P61" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
@@ -7615,13 +6863,13 @@
       <c r="E62" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F62" s="5">
-        <f>DATA_ENTITIES_CONTENT!G44</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="5">
-        <f>(DATA_ENTITIES_UNITY!D60 + DATA_ENTITIES_UNITY!E60) / 2</f>
-        <v>2000</v>
+      <c r="F62" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G62" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H62" s="6">
         <v>150</v>
@@ -7636,9 +6884,9 @@
         <f>Table1[[#This Row],[DAMAGE]]</f>
         <v>150</v>
       </c>
-      <c r="P62" s="44">
+      <c r="P62" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
@@ -7654,13 +6902,13 @@
       <c r="E63" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="5">
-        <f>DATA_ENTITIES_CONTENT!G45</f>
-        <v>25</v>
-      </c>
-      <c r="G63" s="5">
-        <f>(DATA_ENTITIES_UNITY!D61 + DATA_ENTITIES_UNITY!E61) / 2</f>
-        <v>1500</v>
+      <c r="F63" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G63" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>319</v>
@@ -7675,9 +6923,9 @@
         <f>Table1[[#This Row],[DAMAGE]]</f>
         <v>35</v>
       </c>
-      <c r="P63" s="44">
+      <c r="P63" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
@@ -7693,13 +6941,13 @@
       <c r="E64" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F64" s="5">
-        <f>DATA_ENTITIES_CONTENT!G45</f>
-        <v>25</v>
-      </c>
-      <c r="G64" s="5">
-        <f>(DATA_ENTITIES_UNITY!D62 + DATA_ENTITIES_UNITY!E62) / 2</f>
-        <v>1500</v>
+      <c r="F64" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G64" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>319</v>
@@ -7714,9 +6962,9 @@
         <f>Table1[[#This Row],[DAMAGE]]</f>
         <v>35</v>
       </c>
-      <c r="P64" s="44">
+      <c r="P64" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
@@ -7732,13 +6980,13 @@
       <c r="E65" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F65" s="5">
-        <f>DATA_ENTITIES_CONTENT!G46</f>
-        <v>10</v>
-      </c>
-      <c r="G65" s="5">
-        <f>(DATA_ENTITIES_UNITY!D63 + DATA_ENTITIES_UNITY!E63) / 2</f>
-        <v>200</v>
+      <c r="F65" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G65" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>19</v>
@@ -7752,9 +7000,9 @@
       <c r="O65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P65" s="44">
+      <c r="P65" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>10</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -7770,13 +7018,13 @@
       <c r="E66" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F66" s="5">
-        <f>DATA_ENTITIES_CONTENT!G47</f>
-        <v>6</v>
-      </c>
-      <c r="G66" s="5">
-        <f>(DATA_ENTITIES_UNITY!D64 + DATA_ENTITIES_UNITY!E64) / 2</f>
-        <v>140</v>
+      <c r="F66" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G66" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>19</v>
@@ -7790,9 +7038,9 @@
       <c r="O66" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P66" s="44">
+      <c r="P66" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>6</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -7808,13 +7056,13 @@
       <c r="E67" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F67" s="5">
-        <f>DATA_ENTITIES_CONTENT!G48</f>
-        <v>5</v>
-      </c>
-      <c r="G67" s="5">
-        <f>(DATA_ENTITIES_UNITY!D65 + DATA_ENTITIES_UNITY!E65) / 2</f>
-        <v>170</v>
+      <c r="F67" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G67" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H67" s="5">
         <v>2</v>
@@ -7835,9 +7083,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>0.5</v>
       </c>
-      <c r="P67" s="44">
+      <c r="P67" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>10</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -7853,13 +7101,13 @@
       <c r="E68" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F68" s="5">
-        <f>DATA_ENTITIES_CONTENT!G49</f>
-        <v>15</v>
-      </c>
-      <c r="G68" s="5">
-        <f>(DATA_ENTITIES_UNITY!D66 + DATA_ENTITIES_UNITY!E66) / 2</f>
-        <v>220</v>
+      <c r="F68" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G68" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H68" s="5">
         <v>8</v>
@@ -7874,9 +7122,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*(6/(1+1)))/(6+3),1)</f>
         <v>2.7</v>
       </c>
-      <c r="P68" s="44">
+      <c r="P68" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>5.6</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -7892,13 +7140,13 @@
       <c r="E69" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F69" s="5">
-        <f>DATA_ENTITIES_CONTENT!G50</f>
-        <v>2</v>
-      </c>
-      <c r="G69" s="5">
-        <f>(DATA_ENTITIES_UNITY!D67 + DATA_ENTITIES_UNITY!E67) / 2</f>
-        <v>120</v>
+      <c r="F69" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G69" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>19</v>
@@ -7912,9 +7160,9 @@
       <c r="O69" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P69" s="44">
+      <c r="P69" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -7930,13 +7178,13 @@
       <c r="E70" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="5">
-        <f>DATA_ENTITIES_CONTENT!G51</f>
-        <v>15</v>
-      </c>
-      <c r="G70" s="5">
-        <f>(DATA_ENTITIES_UNITY!D68 + DATA_ENTITIES_UNITY!E68) / 2</f>
-        <v>260</v>
+      <c r="F70" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G70" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>19</v>
@@ -7950,9 +7198,9 @@
       <c r="O70" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P70" s="44">
+      <c r="P70" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -7968,13 +7216,13 @@
       <c r="E71" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F71" s="5">
-        <f>DATA_ENTITIES_CONTENT!G51</f>
-        <v>15</v>
-      </c>
-      <c r="G71" s="5">
-        <f>(DATA_ENTITIES_UNITY!D69 + DATA_ENTITIES_UNITY!E69) / 2</f>
-        <v>260</v>
+      <c r="F71" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G71" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>19</v>
@@ -7988,9 +7236,9 @@
       <c r="O71" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P71" s="44">
+      <c r="P71" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -8006,13 +7254,13 @@
       <c r="E72" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F72" s="5">
-        <f>DATA_ENTITIES_CONTENT!G52</f>
-        <v>30</v>
-      </c>
-      <c r="G72" s="5">
-        <f>(DATA_ENTITIES_UNITY!D70 + DATA_ENTITIES_UNITY!E70) / 2</f>
-        <v>350</v>
+      <c r="F72" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G72" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H72" s="5">
         <v>15</v>
@@ -8033,9 +7281,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[DURATION]])/(((Table1[[#This Row],[RETREAT TIME MIN]]+Table1[[#This Row],[RETREAT TIME MAX]])/2)+Table1[[#This Row],[DURATION]]),1)</f>
         <v>3.5</v>
       </c>
-      <c r="P72" s="44">
+      <c r="P72" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8.6</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -8051,13 +7299,13 @@
       <c r="E73" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F73" s="5">
-        <f>DATA_ENTITIES_CONTENT!G53</f>
-        <v>7</v>
-      </c>
-      <c r="G73" s="5">
-        <f>(DATA_ENTITIES_UNITY!D71 + DATA_ENTITIES_UNITY!E71) / 2</f>
-        <v>200</v>
+      <c r="F73" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G73" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>19</v>
@@ -8071,9 +7319,9 @@
       <c r="O73" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P73" s="44">
+      <c r="P73" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
@@ -8081,37 +7329,37 @@
         <v>64</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F74" s="102">
-        <f>DATA_ENTITIES_CONTENT!G53</f>
-        <v>7</v>
-      </c>
-      <c r="G74" s="5">
-        <f>(DATA_ENTITIES_UNITY!D72 + DATA_ENTITIES_UNITY!E72) / 2</f>
-        <v>200</v>
-      </c>
-      <c r="H74" s="103" t="s">
+      <c r="F74" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G74" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H74" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="I74" s="104"/>
-      <c r="J74" s="105"/>
-      <c r="K74" s="105"/>
-      <c r="L74" s="105"/>
-      <c r="M74" s="105"/>
-      <c r="N74" s="106"/>
-      <c r="O74" s="107" t="s">
+      <c r="I74" s="97"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="98"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="99"/>
+      <c r="O74" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="P74" s="108">
+      <c r="P74" s="101" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -8127,13 +7375,13 @@
       <c r="E75" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F75" s="5">
-        <f>DATA_ENTITIES_CONTENT!G54</f>
-        <v>30</v>
-      </c>
-      <c r="G75" s="5">
-        <f>(DATA_ENTITIES_UNITY!D73 + DATA_ENTITIES_UNITY!E73) / 2</f>
-        <v>300</v>
+      <c r="F75" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G75" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>19</v>
@@ -8147,9 +7395,9 @@
       <c r="O75" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P75" s="44">
+      <c r="P75" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>30</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -8165,13 +7413,13 @@
       <c r="E76" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F76" s="5">
-        <f>DATA_ENTITIES_CONTENT!G55</f>
-        <v>50</v>
-      </c>
-      <c r="G76" s="5">
-        <f>(DATA_ENTITIES_UNITY!D74 + DATA_ENTITIES_UNITY!E74) / 2</f>
-        <v>310</v>
+      <c r="F76" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G76" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H76" s="5">
         <v>40</v>
@@ -8192,9 +7440,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>30</v>
       </c>
-      <c r="P76" s="44">
+      <c r="P76" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -8210,13 +7458,13 @@
       <c r="E77" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F77" s="5">
-        <f>DATA_ENTITIES_CONTENT!G55</f>
-        <v>50</v>
-      </c>
-      <c r="G77" s="5">
-        <f>(DATA_ENTITIES_UNITY!D75 + DATA_ENTITIES_UNITY!E75) / 2</f>
-        <v>310</v>
+      <c r="F77" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G77" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H77" s="5">
         <v>40</v>
@@ -8237,9 +7485,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>30</v>
       </c>
-      <c r="P77" s="44">
+      <c r="P77" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -8255,13 +7503,13 @@
       <c r="E78" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F78" s="5">
-        <f>DATA_ENTITIES_CONTENT!G55</f>
-        <v>50</v>
-      </c>
-      <c r="G78" s="5">
-        <f>(DATA_ENTITIES_UNITY!D76 + DATA_ENTITIES_UNITY!E76) / 2</f>
-        <v>310</v>
+      <c r="F78" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G78" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H78" s="5">
         <v>40</v>
@@ -8282,9 +7530,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>30</v>
       </c>
-      <c r="P78" s="44">
+      <c r="P78" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.7</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -8300,13 +7548,13 @@
       <c r="E79" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F79" s="5">
-        <f>DATA_ENTITIES_CONTENT!G56</f>
-        <v>10</v>
-      </c>
-      <c r="G79" s="5">
-        <f>(DATA_ENTITIES_UNITY!D77 + DATA_ENTITIES_UNITY!E77) / 2</f>
-        <v>180</v>
+      <c r="F79" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G79" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H79" s="5">
         <v>5</v>
@@ -8327,9 +7575,9 @@
         <f>ROUND(((Table1[[#This Row],[DAMAGE]]*2)*Table1[[#This Row],[CONSEC. ATK]])/(Table1[[#This Row],[CONSEC. ATK]]+Table1[[#This Row],[ATK DELAY]]+Table1[[#This Row],[RETREAT TIME]]),1)</f>
         <v>0.9</v>
       </c>
-      <c r="P79" s="44">
+      <c r="P79" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>11.1</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -8345,13 +7593,13 @@
       <c r="E80" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F80" s="5">
-        <f>DATA_ENTITIES_CONTENT!G57</f>
-        <v>20</v>
-      </c>
-      <c r="G80" s="5">
-        <f>(DATA_ENTITIES_UNITY!D78 + DATA_ENTITIES_UNITY!E78) / 2</f>
-        <v>170</v>
+      <c r="F80" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G80" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H80" s="5">
         <v>20</v>
@@ -8372,9 +7620,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>10</v>
       </c>
-      <c r="P80" s="44">
+      <c r="P80" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
@@ -8390,13 +7638,13 @@
       <c r="E81" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F81" s="5">
-        <f>DATA_ENTITIES_CONTENT!G58</f>
-        <v>20</v>
-      </c>
-      <c r="G81" s="5">
-        <f>(DATA_ENTITIES_UNITY!D79 + DATA_ENTITIES_UNITY!E79) / 2</f>
-        <v>170</v>
+      <c r="F81" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G81" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H81" s="5">
         <v>25</v>
@@ -8417,9 +7665,9 @@
         <f>ROUND((Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]]),1)</f>
         <v>16.5</v>
       </c>
-      <c r="P81" s="44">
+      <c r="P81" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>1.2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -8435,13 +7683,13 @@
       <c r="E82" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F82" s="5">
-        <f>DATA_ENTITIES_CONTENT!G59</f>
-        <v>4</v>
-      </c>
-      <c r="G82" s="5">
-        <f>(DATA_ENTITIES_UNITY!D80 + DATA_ENTITIES_UNITY!E80) / 2</f>
-        <v>150</v>
+      <c r="F82" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G82" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>19</v>
@@ -8455,9 +7703,9 @@
       <c r="O82" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P82" s="44">
+      <c r="P82" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>4</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -8473,13 +7721,13 @@
       <c r="E83" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F83" s="5">
-        <f>DATA_ENTITIES_CONTENT!G59</f>
-        <v>4</v>
-      </c>
-      <c r="G83" s="5">
-        <f>(DATA_ENTITIES_UNITY!D81 + DATA_ENTITIES_UNITY!E81) / 2</f>
-        <v>150</v>
+      <c r="F83" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G83" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>19</v>
@@ -8493,9 +7741,9 @@
       <c r="O83" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P83" s="44">
+      <c r="P83" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>4</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -8503,35 +7751,35 @@
         <v>86</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="102">
-        <f>DATA_ENTITIES_CONTENT!G60</f>
-        <v>3</v>
-      </c>
-      <c r="G84" s="5">
-        <f>(DATA_ENTITIES_UNITY!D82 + DATA_ENTITIES_UNITY!E82) / 2</f>
-        <v>180</v>
-      </c>
-      <c r="H84" s="103"/>
-      <c r="I84" s="104"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
-      <c r="M84" s="105"/>
-      <c r="N84" s="106"/>
-      <c r="O84" s="107" t="s">
+      <c r="F84" s="95" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G84" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H84" s="96"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="98"/>
+      <c r="K84" s="98"/>
+      <c r="L84" s="98"/>
+      <c r="M84" s="98"/>
+      <c r="N84" s="99"/>
+      <c r="O84" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="P84" s="108">
+      <c r="P84" s="101" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -8547,13 +7795,13 @@
       <c r="E85" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F85" s="5">
-        <f>DATA_ENTITIES_CONTENT!G60</f>
-        <v>3</v>
-      </c>
-      <c r="G85" s="5">
-        <f>(DATA_ENTITIES_UNITY!D83 + DATA_ENTITIES_UNITY!E83) / 2</f>
-        <v>180</v>
+      <c r="F85" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G85" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>19</v>
@@ -8567,9 +7815,9 @@
       <c r="O85" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P85" s="44">
+      <c r="P85" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>3</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -8585,13 +7833,13 @@
       <c r="E86" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F86" s="5">
-        <f>DATA_ENTITIES_CONTENT!G61</f>
-        <v>80</v>
-      </c>
-      <c r="G86" s="5">
-        <f>(DATA_ENTITIES_UNITY!D84 + DATA_ENTITIES_UNITY!E84) / 2</f>
-        <v>420</v>
+      <c r="F86" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G86" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H86" s="5">
         <v>60</v>
@@ -8612,9 +7860,9 @@
         <f>(Table1[[#This Row],[DAMAGE]]*Table1[[#This Row],[CONSEC. ATK]]) /( (Table1[[#This Row],[ATK DELAY]]*(Table1[[#This Row],[CONSEC. ATK]]-1))+Table1[[#This Row],[RETREAT TIME]])</f>
         <v>36</v>
       </c>
-      <c r="P86" s="44">
+      <c r="P86" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2.2000000000000002</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
@@ -8630,13 +7878,13 @@
       <c r="E87" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F87" s="5">
-        <f>DATA_ENTITIES_CONTENT!G28</f>
-        <v>2</v>
-      </c>
-      <c r="G87" s="5">
-        <f>(DATA_ENTITIES_UNITY!D85 + DATA_ENTITIES_UNITY!E85) / 2</f>
-        <v>140</v>
+      <c r="F87" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G87" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>19</v>
@@ -8650,9 +7898,9 @@
       <c r="O87" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P87" s="44">
+      <c r="P87" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>2</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -8668,13 +7916,13 @@
       <c r="E88" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F88" s="5">
-        <f>DATA_ENTITIES_CONTENT!G62</f>
-        <v>15</v>
-      </c>
-      <c r="G88" s="5">
-        <f>(DATA_ENTITIES_UNITY!D86 + DATA_ENTITIES_UNITY!E86) / 2</f>
-        <v>220</v>
+      <c r="F88" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G88" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>19</v>
@@ -8688,9 +7936,9 @@
       <c r="O88" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P88" s="44">
+      <c r="P88" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
@@ -8706,13 +7954,13 @@
       <c r="E89" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="5">
-        <f>DATA_ENTITIES_CONTENT!G62</f>
-        <v>15</v>
-      </c>
-      <c r="G89" s="5">
-        <f>(DATA_ENTITIES_UNITY!D87 + DATA_ENTITIES_UNITY!E87) / 2</f>
-        <v>220</v>
+      <c r="F89" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G89" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>19</v>
@@ -8726,9 +7974,9 @@
       <c r="O89" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P89" s="44">
+      <c r="P89" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
@@ -8744,13 +7992,13 @@
       <c r="E90" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F90" s="5">
-        <f>DATA_ENTITIES_CONTENT!G63</f>
-        <v>15</v>
-      </c>
-      <c r="G90" s="5">
-        <f>(DATA_ENTITIES_UNITY!D88 + DATA_ENTITIES_UNITY!E88) / 2</f>
-        <v>220</v>
+      <c r="F90" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G90" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>19</v>
@@ -8764,9 +8012,9 @@
       <c r="O90" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P90" s="44">
+      <c r="P90" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
@@ -8782,13 +8030,13 @@
       <c r="E91" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F91" s="5">
-        <f>DATA_ENTITIES_CONTENT!G63</f>
-        <v>15</v>
-      </c>
-      <c r="G91" s="5">
-        <f>(DATA_ENTITIES_UNITY!D89 + DATA_ENTITIES_UNITY!E89) / 2</f>
-        <v>220</v>
+      <c r="F91" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G91" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>19</v>
@@ -8802,9 +8050,9 @@
       <c r="O91" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P91" s="44">
+      <c r="P91" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>15</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
@@ -8820,13 +8068,13 @@
       <c r="E92" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F92" s="5">
-        <f>DATA_ENTITIES_CONTENT!G64</f>
-        <v>20</v>
-      </c>
-      <c r="G92" s="5">
-        <f>(DATA_ENTITIES_UNITY!D90 + DATA_ENTITIES_UNITY!E90) / 2</f>
-        <v>300</v>
+      <c r="F92" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G92" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H92" s="5">
         <v>40</v>
@@ -8847,9 +8095,9 @@
         <f>Table1[[#This Row],[DAMAGE]]</f>
         <v>40</v>
       </c>
-      <c r="P92" s="44">
+      <c r="P92" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>0.5</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
@@ -8865,13 +8113,13 @@
       <c r="E93" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F93" s="5">
-        <f>DATA_ENTITIES_CONTENT!G65</f>
-        <v>8</v>
-      </c>
-      <c r="G93" s="5">
-        <f>(DATA_ENTITIES_UNITY!D91 + DATA_ENTITIES_UNITY!E91) / 2</f>
-        <v>200</v>
+      <c r="F93" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G93" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>19</v>
@@ -8885,9 +8133,9 @@
       <c r="O93" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P93" s="44">
+      <c r="P93" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
@@ -8903,13 +8151,13 @@
       <c r="E94" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F94" s="5">
-        <f>DATA_ENTITIES_CONTENT!G65</f>
-        <v>8</v>
-      </c>
-      <c r="G94" s="5">
-        <f>(DATA_ENTITIES_UNITY!D92 + DATA_ENTITIES_UNITY!E92) / 2</f>
-        <v>200</v>
+      <c r="F94" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G94" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>19</v>
@@ -8923,9 +8171,9 @@
       <c r="O94" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P94" s="44">
+      <c r="P94" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
@@ -8941,13 +8189,13 @@
       <c r="E95" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F95" s="5">
-        <f>DATA_ENTITIES_CONTENT!G65</f>
-        <v>8</v>
-      </c>
-      <c r="G95" s="5">
-        <f>(DATA_ENTITIES_UNITY!D93 + DATA_ENTITIES_UNITY!E93) / 2</f>
-        <v>200</v>
+      <c r="F95" s="5" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G95" s="5" t="e">
+        <f>(#REF! +#REF!) / 2</f>
+        <v>#REF!</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>19</v>
@@ -8961,9 +8209,9 @@
       <c r="O95" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P95" s="44">
+      <c r="P95" s="44" t="e">
         <f>IF(Table1[[#This Row],[DPS]]="-",Table1[[#This Row],[HP GIVEN]],ROUND(Table1[[#This Row],[HP GIVEN]]/Table1[[#This Row],[DPS]],1))</f>
-        <v>8</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
@@ -9026,13 +8274,13 @@
       <c r="B98" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91" t="s">
+      <c r="C98" s="90"/>
+      <c r="D98" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
-      <c r="G98" s="94"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="91"/>
+      <c r="G98" s="91"/>
       <c r="H98" s="47" t="s">
         <v>19</v>
       </c>
@@ -9042,7 +8290,7 @@
       <c r="L98" s="48"/>
       <c r="M98" s="48"/>
       <c r="N98" s="48"/>
-      <c r="O98" s="95" t="s">
+      <c r="O98" s="92" t="s">
         <v>19</v>
       </c>
       <c r="P98" s="46">
@@ -9092,6 +8340,2051 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:J97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11">
+        <v>280</v>
+      </c>
+      <c r="H11">
+        <v>280</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>280</v>
+      </c>
+      <c r="H12">
+        <v>280</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>300</v>
+      </c>
+      <c r="H14">
+        <v>300</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
+      </c>
+      <c r="I15">
+        <v>-10</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>260</v>
+      </c>
+      <c r="H17">
+        <v>260</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18">
+        <v>280</v>
+      </c>
+      <c r="H18">
+        <v>280</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19">
+        <v>5000</v>
+      </c>
+      <c r="H19">
+        <v>5000</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20">
+        <v>130</v>
+      </c>
+      <c r="H20">
+        <v>130</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21">
+        <v>130</v>
+      </c>
+      <c r="H21">
+        <v>130</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22">
+        <v>220</v>
+      </c>
+      <c r="H22">
+        <v>220</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23">
+        <v>180</v>
+      </c>
+      <c r="H23">
+        <v>180</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24">
+        <v>180</v>
+      </c>
+      <c r="H24">
+        <v>180</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25">
+        <v>180</v>
+      </c>
+      <c r="H25">
+        <v>180</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26">
+        <v>180</v>
+      </c>
+      <c r="H26">
+        <v>180</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27">
+        <v>180</v>
+      </c>
+      <c r="H27">
+        <v>180</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>411</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28">
+        <v>180</v>
+      </c>
+      <c r="H28">
+        <v>180</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>210</v>
+      </c>
+      <c r="H29">
+        <v>210</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>412</v>
+      </c>
+      <c r="F30" t="s">
+        <v>421</v>
+      </c>
+      <c r="G30">
+        <v>210</v>
+      </c>
+      <c r="H30">
+        <v>210</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+      <c r="G31">
+        <v>240</v>
+      </c>
+      <c r="H31">
+        <v>240</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32">
+        <v>240</v>
+      </c>
+      <c r="H32">
+        <v>240</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33">
+        <v>200</v>
+      </c>
+      <c r="H33">
+        <v>200</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>240</v>
+      </c>
+      <c r="H34">
+        <v>240</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+      <c r="J34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35">
+        <v>220</v>
+      </c>
+      <c r="H35">
+        <v>220</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36">
+        <v>240</v>
+      </c>
+      <c r="H36">
+        <v>240</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
+      </c>
+      <c r="J36">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37">
+        <v>260</v>
+      </c>
+      <c r="H37">
+        <v>260</v>
+      </c>
+      <c r="I37">
+        <v>80</v>
+      </c>
+      <c r="J37">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38">
+        <v>280</v>
+      </c>
+      <c r="H38">
+        <v>280</v>
+      </c>
+      <c r="I38">
+        <v>100</v>
+      </c>
+      <c r="J38">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39">
+        <v>300</v>
+      </c>
+      <c r="H39">
+        <v>300</v>
+      </c>
+      <c r="I39">
+        <v>120</v>
+      </c>
+      <c r="J39">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43">
+        <v>5000</v>
+      </c>
+      <c r="H43">
+        <v>5000</v>
+      </c>
+      <c r="I43">
+        <v>70</v>
+      </c>
+      <c r="J43">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44">
+        <v>260</v>
+      </c>
+      <c r="H44">
+        <v>260</v>
+      </c>
+      <c r="I44">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G45">
+        <v>250</v>
+      </c>
+      <c r="H45">
+        <v>250</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E46" t="s">
+        <v>413</v>
+      </c>
+      <c r="F46" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46">
+        <v>250</v>
+      </c>
+      <c r="H46">
+        <v>250</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>212</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47">
+        <v>300</v>
+      </c>
+      <c r="H47">
+        <v>300</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E48" t="s">
+        <v>414</v>
+      </c>
+      <c r="F48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48">
+        <v>300</v>
+      </c>
+      <c r="H48">
+        <v>300</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49">
+        <v>340</v>
+      </c>
+      <c r="H49">
+        <v>340</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>415</v>
+      </c>
+      <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50">
+        <v>340</v>
+      </c>
+      <c r="H50">
+        <v>340</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" t="s">
+        <v>432</v>
+      </c>
+      <c r="F51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52">
+        <v>500</v>
+      </c>
+      <c r="H52">
+        <v>500</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53">
+        <v>500</v>
+      </c>
+      <c r="H53">
+        <v>500</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>253</v>
+      </c>
+      <c r="F54" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54">
+        <v>450</v>
+      </c>
+      <c r="H54">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55">
+        <v>180</v>
+      </c>
+      <c r="H55">
+        <v>180</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>220</v>
+      </c>
+      <c r="H56">
+        <v>220</v>
+      </c>
+      <c r="I56">
+        <v>25</v>
+      </c>
+      <c r="J56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57">
+        <v>220</v>
+      </c>
+      <c r="H57">
+        <v>220</v>
+      </c>
+      <c r="I57">
+        <v>25</v>
+      </c>
+      <c r="J57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G58">
+        <v>200</v>
+      </c>
+      <c r="H58">
+        <v>200</v>
+      </c>
+      <c r="I58">
+        <v>20</v>
+      </c>
+      <c r="J58">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59">
+        <v>170</v>
+      </c>
+      <c r="H59">
+        <v>170</v>
+      </c>
+      <c r="I59">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60">
+        <v>280</v>
+      </c>
+      <c r="H60">
+        <v>280</v>
+      </c>
+      <c r="I60">
+        <v>20</v>
+      </c>
+      <c r="J60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61">
+        <v>2500</v>
+      </c>
+      <c r="H61">
+        <v>2500</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62">
+        <v>2500</v>
+      </c>
+      <c r="H62">
+        <v>2500</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63">
+        <v>2000</v>
+      </c>
+      <c r="H63">
+        <v>2000</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64">
+        <v>2000</v>
+      </c>
+      <c r="H64">
+        <v>2000</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" t="s">
+        <v>119</v>
+      </c>
+      <c r="F65" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65">
+        <v>1500</v>
+      </c>
+      <c r="H65">
+        <v>1500</v>
+      </c>
+      <c r="I65">
+        <v>25</v>
+      </c>
+      <c r="J65">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66">
+        <v>1500</v>
+      </c>
+      <c r="H66">
+        <v>1500</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67">
+        <v>200</v>
+      </c>
+      <c r="H67">
+        <v>200</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" t="s">
+        <v>220</v>
+      </c>
+      <c r="F68" t="s">
+        <v>219</v>
+      </c>
+      <c r="G68">
+        <v>140</v>
+      </c>
+      <c r="H68">
+        <v>140</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69">
+        <v>170</v>
+      </c>
+      <c r="H69">
+        <v>170</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" t="s">
+        <v>235</v>
+      </c>
+      <c r="F70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70">
+        <v>220</v>
+      </c>
+      <c r="H70">
+        <v>220</v>
+      </c>
+      <c r="I70">
+        <v>15</v>
+      </c>
+      <c r="J70">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71">
+        <v>120</v>
+      </c>
+      <c r="H71">
+        <v>120</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E72" t="s">
+        <v>416</v>
+      </c>
+      <c r="F72" t="s">
+        <v>434</v>
+      </c>
+      <c r="G72">
+        <v>260</v>
+      </c>
+      <c r="H72">
+        <v>260</v>
+      </c>
+      <c r="I72">
+        <v>15</v>
+      </c>
+      <c r="J72">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73">
+        <v>260</v>
+      </c>
+      <c r="H73">
+        <v>260</v>
+      </c>
+      <c r="I73">
+        <v>15</v>
+      </c>
+      <c r="J73">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74" t="s">
+        <v>148</v>
+      </c>
+      <c r="G74">
+        <v>350</v>
+      </c>
+      <c r="H74">
+        <v>350</v>
+      </c>
+      <c r="I74">
+        <v>30</v>
+      </c>
+      <c r="J74">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+      <c r="F75" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75">
+        <v>200</v>
+      </c>
+      <c r="H75">
+        <v>200</v>
+      </c>
+      <c r="I75">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" t="s">
+        <v>417</v>
+      </c>
+      <c r="F76" t="s">
+        <v>427</v>
+      </c>
+      <c r="G76">
+        <v>200</v>
+      </c>
+      <c r="H76">
+        <v>200</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" t="s">
+        <v>418</v>
+      </c>
+      <c r="F77" t="s">
+        <v>435</v>
+      </c>
+      <c r="G77">
+        <v>300</v>
+      </c>
+      <c r="H77">
+        <v>300</v>
+      </c>
+      <c r="I77">
+        <v>30</v>
+      </c>
+      <c r="J77">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78">
+        <v>310</v>
+      </c>
+      <c r="H78">
+        <v>310</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" t="s">
+        <v>46</v>
+      </c>
+      <c r="G79">
+        <v>310</v>
+      </c>
+      <c r="H79">
+        <v>310</v>
+      </c>
+      <c r="I79">
+        <v>50</v>
+      </c>
+      <c r="J79">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80">
+        <v>310</v>
+      </c>
+      <c r="H80">
+        <v>310</v>
+      </c>
+      <c r="I80">
+        <v>50</v>
+      </c>
+      <c r="J80">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81">
+        <v>180</v>
+      </c>
+      <c r="H81">
+        <v>180</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+      <c r="F82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82">
+        <v>170</v>
+      </c>
+      <c r="H82">
+        <v>170</v>
+      </c>
+      <c r="I82">
+        <v>20</v>
+      </c>
+      <c r="J82">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83">
+        <v>170</v>
+      </c>
+      <c r="H83">
+        <v>170</v>
+      </c>
+      <c r="I83">
+        <v>20</v>
+      </c>
+      <c r="J83">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84">
+        <v>150</v>
+      </c>
+      <c r="H84">
+        <v>150</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85">
+        <v>150</v>
+      </c>
+      <c r="H85">
+        <v>150</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" t="s">
+        <v>419</v>
+      </c>
+      <c r="F86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86">
+        <v>180</v>
+      </c>
+      <c r="H86">
+        <v>180</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>224</v>
+      </c>
+      <c r="E87" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87" t="s">
+        <v>196</v>
+      </c>
+      <c r="G87">
+        <v>180</v>
+      </c>
+      <c r="H87">
+        <v>180</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" t="s">
+        <v>61</v>
+      </c>
+      <c r="F88" t="s">
+        <v>59</v>
+      </c>
+      <c r="G88">
+        <v>420</v>
+      </c>
+      <c r="H88">
+        <v>420</v>
+      </c>
+      <c r="I88">
+        <v>80</v>
+      </c>
+      <c r="J88">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>227</v>
+      </c>
+      <c r="E89" t="s">
+        <v>157</v>
+      </c>
+      <c r="F89" t="s">
+        <v>149</v>
+      </c>
+      <c r="G89">
+        <v>140</v>
+      </c>
+      <c r="H89">
+        <v>140</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>220</v>
+      </c>
+      <c r="H90">
+        <v>220</v>
+      </c>
+      <c r="I90">
+        <v>15</v>
+      </c>
+      <c r="J90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>175</v>
+      </c>
+      <c r="E91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91">
+        <v>220</v>
+      </c>
+      <c r="H91">
+        <v>220</v>
+      </c>
+      <c r="I91">
+        <v>15</v>
+      </c>
+      <c r="J91">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>176</v>
+      </c>
+      <c r="E92" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92">
+        <v>220</v>
+      </c>
+      <c r="H92">
+        <v>220</v>
+      </c>
+      <c r="I92">
+        <v>15</v>
+      </c>
+      <c r="J92">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93">
+        <v>220</v>
+      </c>
+      <c r="H93">
+        <v>220</v>
+      </c>
+      <c r="I93">
+        <v>15</v>
+      </c>
+      <c r="J93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" t="s">
+        <v>420</v>
+      </c>
+      <c r="F94" t="s">
+        <v>100</v>
+      </c>
+      <c r="G94">
+        <v>300</v>
+      </c>
+      <c r="H94">
+        <v>300</v>
+      </c>
+      <c r="I94">
+        <v>20</v>
+      </c>
+      <c r="J94">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>185</v>
+      </c>
+      <c r="E95" t="s">
+        <v>80</v>
+      </c>
+      <c r="F95" t="s">
+        <v>74</v>
+      </c>
+      <c r="G95">
+        <v>200</v>
+      </c>
+      <c r="H95">
+        <v>200</v>
+      </c>
+      <c r="I95">
+        <v>8</v>
+      </c>
+      <c r="J95">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E96" t="s">
+        <v>81</v>
+      </c>
+      <c r="F96" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96">
+        <v>200</v>
+      </c>
+      <c r="H96">
+        <v>200</v>
+      </c>
+      <c r="I96">
+        <v>8</v>
+      </c>
+      <c r="J96">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" t="s">
+        <v>82</v>
+      </c>
+      <c r="F97" t="s">
+        <v>76</v>
+      </c>
+      <c r="G97">
+        <v>200</v>
+      </c>
+      <c r="H97">
+        <v>200</v>
+      </c>
+      <c r="I97">
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
@@ -13811,7 +15104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -13838,7 +15131,7 @@
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="90"/>
+      <c r="M4" s="89"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
@@ -13936,7 +15229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G2:S22"/>
   <sheetViews>
@@ -14597,2077 +15890,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E5:G65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="93">
-        <f>[1]entities!$J$22</f>
-        <v>75</v>
-      </c>
-      <c r="G6" s="93">
-        <f>[1]entities!$H$22</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="93">
-        <f>[1]entities!$J$23</f>
-        <v>75</v>
-      </c>
-      <c r="G7" s="93">
-        <f>[1]entities!$H$23</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="62" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="93">
-        <f>[1]entities!$J$24</f>
-        <v>25</v>
-      </c>
-      <c r="G8" s="97">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="F9" s="93">
-        <f>[1]entities!$J$25</f>
-        <v>50</v>
-      </c>
-      <c r="G9" s="93">
-        <f>[1]entities!$H$25</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F10" s="93">
-        <f>[1]entities!$J$26</f>
-        <v>55</v>
-      </c>
-      <c r="G10" s="93">
-        <f>[1]entities!$H$26</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="93">
-        <f>[1]entities!$J$27</f>
-        <v>25</v>
-      </c>
-      <c r="G11" s="93">
-        <f>[1]entities!$H$27</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="93">
-        <f>[1]entities!$J$28</f>
-        <v>50</v>
-      </c>
-      <c r="G12" s="93">
-        <f>[1]entities!$H$28</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="93">
-        <f>[1]entities!$J$29</f>
-        <v>75</v>
-      </c>
-      <c r="G13" s="93">
-        <f>[1]entities!$H$29</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="F14" s="93">
-        <f>[1]entities!$J$30</f>
-        <v>25</v>
-      </c>
-      <c r="G14" s="93">
-        <f>[1]entities!$H$30</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="93">
-        <f>[1]entities!$J$31</f>
-        <v>25</v>
-      </c>
-      <c r="G15" s="93">
-        <f>[1]entities!$H$31</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="F16" s="93">
-        <f>[1]entities!$J$32</f>
-        <v>25</v>
-      </c>
-      <c r="G16" s="93">
-        <f>[1]entities!$H$32</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="93">
-        <f>[1]entities!$J$33</f>
-        <v>25</v>
-      </c>
-      <c r="G17" s="93">
-        <f>[1]entities!$H$33</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="F18" s="93">
-        <f>[1]entities!$J$34</f>
-        <v>75</v>
-      </c>
-      <c r="G18" s="93">
-        <f>[1]entities!$H$34</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="93">
-        <f>[1]entities!$J$35</f>
-        <v>75</v>
-      </c>
-      <c r="G19" s="93">
-        <f>[1]entities!$H$35</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="93">
-        <f>[1]entities!$J$36</f>
-        <v>83</v>
-      </c>
-      <c r="G20" s="93">
-        <f>[1]entities!$H$36</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="93">
-        <f>[1]entities!$J$37</f>
-        <v>50</v>
-      </c>
-      <c r="G21" s="93">
-        <f>[1]entities!$H$37</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" s="93">
-        <f>[1]entities!$J$38</f>
-        <v>75</v>
-      </c>
-      <c r="G22" s="93">
-        <f>[1]entities!$H$38</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="92" t="s">
-        <v>205</v>
-      </c>
-      <c r="F23" s="93">
-        <f>[1]entities!$J$39</f>
-        <v>50</v>
-      </c>
-      <c r="G23" s="93">
-        <f>[1]entities!$H$39</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="93">
-        <f>[1]entities!$J$40</f>
-        <v>55</v>
-      </c>
-      <c r="G24" s="93">
-        <f>[1]entities!$H$40</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="92" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="93">
-        <f>[1]entities!$J$41</f>
-        <v>105</v>
-      </c>
-      <c r="G25" s="93">
-        <f>[1]entities!$H$41</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" s="93">
-        <f>[1]entities!$J$42</f>
-        <v>143</v>
-      </c>
-      <c r="G26" s="93">
-        <f>[1]entities!$H$42</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="F27" s="93">
-        <f>[1]entities!$J$43</f>
-        <v>195</v>
-      </c>
-      <c r="G27" s="93">
-        <f>[1]entities!$H$43</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="93">
-        <f>[1]entities!$J$44</f>
-        <v>25</v>
-      </c>
-      <c r="G28" s="93">
-        <f>[1]entities!$H$44</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="93">
-        <f>[1]entities!$J$45</f>
-        <v>25</v>
-      </c>
-      <c r="G29" s="93">
-        <f>[1]entities!$H$45</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="93">
-        <f>[1]entities!$J$46</f>
-        <v>25</v>
-      </c>
-      <c r="G30" s="93">
-        <f>[1]entities!$H$46</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="93">
-        <f>[1]entities!$J$47</f>
-        <v>75</v>
-      </c>
-      <c r="G31" s="93">
-        <f>[1]entities!$H$47</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="93">
-        <f>[1]entities!$J$48</f>
-        <v>28</v>
-      </c>
-      <c r="G32" s="93">
-        <f>[1]entities!$H$48</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="F33" s="93">
-        <f>[1]entities!$J$49</f>
-        <v>48</v>
-      </c>
-      <c r="G33" s="93">
-        <f>[1]entities!$H$49</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="F34" s="93">
-        <f>[1]entities!$J$50</f>
-        <v>195</v>
-      </c>
-      <c r="G34" s="93">
-        <f>[1]entities!$H$50</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="93">
-        <f>[1]entities!$J$51</f>
-        <v>263</v>
-      </c>
-      <c r="G35" s="93">
-        <f>[1]entities!$H$51</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="93">
-        <f>[1]entities!$J$52</f>
-        <v>75</v>
-      </c>
-      <c r="G36" s="93">
-        <f>[1]entities!$H$52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="93">
-        <f>[1]entities!$J$53</f>
-        <v>75</v>
-      </c>
-      <c r="G37" s="93">
-        <f>[1]entities!$H$53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" s="93">
-        <f>[1]entities!$J$54</f>
-        <v>25</v>
-      </c>
-      <c r="G38" s="93">
-        <f>[1]entities!$H$54</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="93">
-        <f>[1]entities!$J$55</f>
-        <v>55</v>
-      </c>
-      <c r="G39" s="93">
-        <f>[1]entities!$H$55</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="92" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="93">
-        <f>[1]entities!$J$56</f>
-        <v>75</v>
-      </c>
-      <c r="G40" s="93">
-        <f>[1]entities!$H$56</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="F41" s="93">
-        <f>[1]entities!$J$57</f>
-        <v>55</v>
-      </c>
-      <c r="G41" s="93">
-        <f>[1]entities!$H$57</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="F42" s="93">
-        <f>[1]entities!$J$58</f>
-        <v>75</v>
-      </c>
-      <c r="G42" s="93">
-        <f>[1]entities!$H$58</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" s="93">
-        <f>[1]entities!$J$59</f>
-        <v>263</v>
-      </c>
-      <c r="G43" s="93">
-        <f>[1]entities!$H$59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="F44" s="93">
-        <f>[1]entities!$J$60</f>
-        <v>175</v>
-      </c>
-      <c r="G44" s="93">
-        <f>[1]entities!$H$60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="F45" s="93">
-        <f>[1]entities!$J$61</f>
-        <v>130</v>
-      </c>
-      <c r="G45" s="93">
-        <f>[1]entities!$H$61</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E46" s="62" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="93">
-        <f>[1]entities!$J$62</f>
-        <v>55</v>
-      </c>
-      <c r="G46" s="93">
-        <f>[1]entities!$H$62</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E47" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="F47" s="93">
-        <f>[1]entities!$J$63</f>
-        <v>25</v>
-      </c>
-      <c r="G47" s="93">
-        <f>[1]entities!$H$63</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E48" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="F48" s="93">
-        <f>[1]entities!$J$64</f>
-        <v>28</v>
-      </c>
-      <c r="G48" s="93">
-        <f>[1]entities!$H$64</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="F49" s="93">
-        <f>[1]entities!$J$65</f>
-        <v>28</v>
-      </c>
-      <c r="G49" s="93">
-        <f>[1]entities!$H$65</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="F50" s="93">
-        <f>[1]entities!$J$66</f>
-        <v>25</v>
-      </c>
-      <c r="G50" s="93">
-        <f>[1]entities!$H$66</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="93">
-        <f>[1]entities!$J$67</f>
-        <v>75</v>
-      </c>
-      <c r="G51" s="93">
-        <f>[1]entities!$H$67</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="93">
-        <f>[1]entities!$J$68</f>
-        <v>83</v>
-      </c>
-      <c r="G52" s="93">
-        <f>[1]entities!$H$68</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="F53" s="93">
-        <f>[1]entities!$J$69</f>
-        <v>75</v>
-      </c>
-      <c r="G53" s="93">
-        <f>[1]entities!$H$69</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="93">
-        <f>[1]entities!$J$70</f>
-        <v>105</v>
-      </c>
-      <c r="G54" s="93">
-        <f>[1]entities!$H$70</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="92" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="93">
-        <f>[1]entities!$J$71</f>
-        <v>55</v>
-      </c>
-      <c r="G55" s="93">
-        <f>[1]entities!$H$71</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E56" s="92" t="s">
-        <v>184</v>
-      </c>
-      <c r="F56" s="93">
-        <f>[1]entities!$J$72</f>
-        <v>75</v>
-      </c>
-      <c r="G56" s="93">
-        <f>[1]entities!$H$72</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E57" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57" s="93">
-        <f>[1]entities!$J$73</f>
-        <v>55</v>
-      </c>
-      <c r="G57" s="93">
-        <f>[1]entities!$H$73</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E58" s="62" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" s="93">
-        <f>[1]entities!$J$74</f>
-        <v>55</v>
-      </c>
-      <c r="G58" s="93">
-        <f>[1]entities!$H$74</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E59" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="F59" s="93">
-        <f>[1]entities!$J$75</f>
-        <v>25</v>
-      </c>
-      <c r="G59" s="93">
-        <f>[1]entities!$H$75</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E60" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="F60" s="93">
-        <f>[1]entities!$J$76</f>
-        <v>25</v>
-      </c>
-      <c r="G60" s="93">
-        <f>[1]entities!$H$76</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E61" s="62" t="s">
-        <v>178</v>
-      </c>
-      <c r="F61" s="93">
-        <f>[1]entities!$J$77</f>
-        <v>83</v>
-      </c>
-      <c r="G61" s="93">
-        <f>[1]entities!$H$77</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E62" s="92" t="s">
-        <v>175</v>
-      </c>
-      <c r="F62" s="93">
-        <f>[1]entities!$J$78</f>
-        <v>50</v>
-      </c>
-      <c r="G62" s="93">
-        <f>[1]entities!$H$78</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E63" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="F63" s="93">
-        <f>[1]entities!$J$79</f>
-        <v>50</v>
-      </c>
-      <c r="G63" s="93">
-        <f>[1]entities!$H$79</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E64" s="62" t="s">
-        <v>225</v>
-      </c>
-      <c r="F64" s="93">
-        <f>[1]entities!$J$80</f>
-        <v>55</v>
-      </c>
-      <c r="G64" s="93">
-        <f>[1]entities!$H$80</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E65" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="F65" s="93">
-        <f>[1]entities!$J$81</f>
-        <v>75</v>
-      </c>
-      <c r="G65" s="93">
-        <f>[1]entities!$H$81</f>
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="F6:G65">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F93"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="98" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>280</v>
-      </c>
-      <c r="E8">
-        <v>280</v>
-      </c>
-      <c r="F8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>280</v>
-      </c>
-      <c r="E9">
-        <v>280</v>
-      </c>
-      <c r="F9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>300</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="F10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>300</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="F11" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14">
-        <v>260</v>
-      </c>
-      <c r="E14">
-        <v>260</v>
-      </c>
-      <c r="F14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15">
-        <v>280</v>
-      </c>
-      <c r="E15">
-        <v>280</v>
-      </c>
-      <c r="F15" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16">
-        <v>5000</v>
-      </c>
-      <c r="E16">
-        <v>5000</v>
-      </c>
-      <c r="F16" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17">
-        <v>130</v>
-      </c>
-      <c r="E17">
-        <v>130</v>
-      </c>
-      <c r="F17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18">
-        <v>130</v>
-      </c>
-      <c r="E18">
-        <v>130</v>
-      </c>
-      <c r="F18" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19">
-        <v>220</v>
-      </c>
-      <c r="E19">
-        <v>220</v>
-      </c>
-      <c r="F19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20">
-        <v>180</v>
-      </c>
-      <c r="E20">
-        <v>180</v>
-      </c>
-      <c r="F20" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21">
-        <v>180</v>
-      </c>
-      <c r="E21">
-        <v>180</v>
-      </c>
-      <c r="F21" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22">
-        <v>180</v>
-      </c>
-      <c r="E22">
-        <v>180</v>
-      </c>
-      <c r="F22" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23">
-        <v>180</v>
-      </c>
-      <c r="E23">
-        <v>180</v>
-      </c>
-      <c r="F23" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D24">
-        <v>180</v>
-      </c>
-      <c r="E24">
-        <v>180</v>
-      </c>
-      <c r="F24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>414</v>
-      </c>
-      <c r="D25">
-        <v>180</v>
-      </c>
-      <c r="E25">
-        <v>180</v>
-      </c>
-      <c r="F25" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>210</v>
-      </c>
-      <c r="E26">
-        <v>210</v>
-      </c>
-      <c r="F26" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27">
-        <v>210</v>
-      </c>
-      <c r="E27">
-        <v>210</v>
-      </c>
-      <c r="F27" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28">
-        <v>240</v>
-      </c>
-      <c r="E28">
-        <v>240</v>
-      </c>
-      <c r="F28" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29">
-        <v>240</v>
-      </c>
-      <c r="E29">
-        <v>240</v>
-      </c>
-      <c r="F29" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>199</v>
-      </c>
-      <c r="D30">
-        <v>200</v>
-      </c>
-      <c r="E30">
-        <v>200</v>
-      </c>
-      <c r="F30" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31">
-        <v>240</v>
-      </c>
-      <c r="E31">
-        <v>240</v>
-      </c>
-      <c r="F31" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32">
-        <v>220</v>
-      </c>
-      <c r="E32">
-        <v>220</v>
-      </c>
-      <c r="F32" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33">
-        <v>240</v>
-      </c>
-      <c r="E33">
-        <v>240</v>
-      </c>
-      <c r="F33" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34">
-        <v>260</v>
-      </c>
-      <c r="E34">
-        <v>260</v>
-      </c>
-      <c r="F34" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35">
-        <v>280</v>
-      </c>
-      <c r="E35">
-        <v>280</v>
-      </c>
-      <c r="F35" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36">
-        <v>300</v>
-      </c>
-      <c r="E36">
-        <v>300</v>
-      </c>
-      <c r="F36" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="E37">
-        <v>100</v>
-      </c>
-      <c r="F37" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38">
-        <v>100</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="F38" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39">
-        <v>100</v>
-      </c>
-      <c r="E39">
-        <v>100</v>
-      </c>
-      <c r="F39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40">
-        <v>5000</v>
-      </c>
-      <c r="E40">
-        <v>5000</v>
-      </c>
-      <c r="F40" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41">
-        <v>260</v>
-      </c>
-      <c r="E41">
-        <v>260</v>
-      </c>
-      <c r="F41" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42">
-        <v>250</v>
-      </c>
-      <c r="E42">
-        <v>250</v>
-      </c>
-      <c r="F42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>416</v>
-      </c>
-      <c r="D43">
-        <v>250</v>
-      </c>
-      <c r="E43">
-        <v>250</v>
-      </c>
-      <c r="F43" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44">
-        <v>300</v>
-      </c>
-      <c r="E44">
-        <v>300</v>
-      </c>
-      <c r="F44" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>417</v>
-      </c>
-      <c r="D45">
-        <v>300</v>
-      </c>
-      <c r="E45">
-        <v>300</v>
-      </c>
-      <c r="F45" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46">
-        <v>340</v>
-      </c>
-      <c r="E46">
-        <v>340</v>
-      </c>
-      <c r="F46" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>418</v>
-      </c>
-      <c r="D47">
-        <v>340</v>
-      </c>
-      <c r="E47">
-        <v>340</v>
-      </c>
-      <c r="F47" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>232</v>
-      </c>
-      <c r="D48">
-        <v>500</v>
-      </c>
-      <c r="E48">
-        <v>500</v>
-      </c>
-      <c r="F48" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D49">
-        <v>500</v>
-      </c>
-      <c r="E49">
-        <v>500</v>
-      </c>
-      <c r="F49" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>253</v>
-      </c>
-      <c r="D50">
-        <v>450</v>
-      </c>
-      <c r="E50">
-        <v>450</v>
-      </c>
-      <c r="F50" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51">
-        <v>180</v>
-      </c>
-      <c r="E51">
-        <v>180</v>
-      </c>
-      <c r="F51" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D52">
-        <v>220</v>
-      </c>
-      <c r="E52">
-        <v>220</v>
-      </c>
-      <c r="F52" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53">
-        <v>220</v>
-      </c>
-      <c r="E53">
-        <v>220</v>
-      </c>
-      <c r="F53" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54">
-        <v>200</v>
-      </c>
-      <c r="E54">
-        <v>200</v>
-      </c>
-      <c r="F54" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>234</v>
-      </c>
-      <c r="D55">
-        <v>170</v>
-      </c>
-      <c r="E55">
-        <v>170</v>
-      </c>
-      <c r="F55" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56">
-        <v>280</v>
-      </c>
-      <c r="E56">
-        <v>280</v>
-      </c>
-      <c r="F56" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57">
-        <v>2500</v>
-      </c>
-      <c r="E57">
-        <v>2500</v>
-      </c>
-      <c r="F57" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58">
-        <v>2500</v>
-      </c>
-      <c r="E58">
-        <v>2500</v>
-      </c>
-      <c r="F58" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59">
-        <v>2000</v>
-      </c>
-      <c r="E59">
-        <v>2000</v>
-      </c>
-      <c r="F59" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60">
-        <v>2000</v>
-      </c>
-      <c r="E60">
-        <v>2000</v>
-      </c>
-      <c r="F60" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61">
-        <v>1500</v>
-      </c>
-      <c r="E61">
-        <v>1500</v>
-      </c>
-      <c r="F61" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62">
-        <v>1500</v>
-      </c>
-      <c r="E62">
-        <v>1500</v>
-      </c>
-      <c r="F62" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63">
-        <v>200</v>
-      </c>
-      <c r="E63">
-        <v>200</v>
-      </c>
-      <c r="F63" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64">
-        <v>140</v>
-      </c>
-      <c r="E64">
-        <v>140</v>
-      </c>
-      <c r="F64" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>155</v>
-      </c>
-      <c r="D65">
-        <v>170</v>
-      </c>
-      <c r="E65">
-        <v>170</v>
-      </c>
-      <c r="F65" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66">
-        <v>220</v>
-      </c>
-      <c r="E66">
-        <v>220</v>
-      </c>
-      <c r="F66" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67">
-        <v>120</v>
-      </c>
-      <c r="E67">
-        <v>120</v>
-      </c>
-      <c r="F67" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>419</v>
-      </c>
-      <c r="D68">
-        <v>260</v>
-      </c>
-      <c r="E68">
-        <v>260</v>
-      </c>
-      <c r="F68" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>37</v>
-      </c>
-      <c r="D69">
-        <v>260</v>
-      </c>
-      <c r="E69">
-        <v>260</v>
-      </c>
-      <c r="F69" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70">
-        <v>350</v>
-      </c>
-      <c r="E70">
-        <v>350</v>
-      </c>
-      <c r="F70" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71">
-        <v>200</v>
-      </c>
-      <c r="E71">
-        <v>200</v>
-      </c>
-      <c r="F71" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>420</v>
-      </c>
-      <c r="D72">
-        <v>200</v>
-      </c>
-      <c r="E72">
-        <v>200</v>
-      </c>
-      <c r="F72" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>421</v>
-      </c>
-      <c r="D73">
-        <v>300</v>
-      </c>
-      <c r="E73">
-        <v>300</v>
-      </c>
-      <c r="F73" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>47</v>
-      </c>
-      <c r="D74">
-        <v>310</v>
-      </c>
-      <c r="E74">
-        <v>310</v>
-      </c>
-      <c r="F74" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75">
-        <v>310</v>
-      </c>
-      <c r="E75">
-        <v>310</v>
-      </c>
-      <c r="F75" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76">
-        <v>310</v>
-      </c>
-      <c r="E76">
-        <v>310</v>
-      </c>
-      <c r="F76" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77">
-        <v>180</v>
-      </c>
-      <c r="E77">
-        <v>180</v>
-      </c>
-      <c r="F77" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78">
-        <v>170</v>
-      </c>
-      <c r="E78">
-        <v>170</v>
-      </c>
-      <c r="F78" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>41</v>
-      </c>
-      <c r="D79">
-        <v>170</v>
-      </c>
-      <c r="E79">
-        <v>170</v>
-      </c>
-      <c r="F79" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80">
-        <v>150</v>
-      </c>
-      <c r="E80">
-        <v>150</v>
-      </c>
-      <c r="F80" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
-        <v>43</v>
-      </c>
-      <c r="D81">
-        <v>150</v>
-      </c>
-      <c r="E81">
-        <v>150</v>
-      </c>
-      <c r="F81" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>422</v>
-      </c>
-      <c r="D82">
-        <v>180</v>
-      </c>
-      <c r="E82">
-        <v>180</v>
-      </c>
-      <c r="F82" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
-        <v>197</v>
-      </c>
-      <c r="D83">
-        <v>180</v>
-      </c>
-      <c r="E83">
-        <v>180</v>
-      </c>
-      <c r="F83" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
-        <v>61</v>
-      </c>
-      <c r="D84">
-        <v>420</v>
-      </c>
-      <c r="E84">
-        <v>420</v>
-      </c>
-      <c r="F84" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>157</v>
-      </c>
-      <c r="D85">
-        <v>140</v>
-      </c>
-      <c r="E85">
-        <v>140</v>
-      </c>
-      <c r="F85" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86">
-        <v>220</v>
-      </c>
-      <c r="E86">
-        <v>220</v>
-      </c>
-      <c r="F86" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87">
-        <v>220</v>
-      </c>
-      <c r="E87">
-        <v>220</v>
-      </c>
-      <c r="F87" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
-        <v>55</v>
-      </c>
-      <c r="D88">
-        <v>220</v>
-      </c>
-      <c r="E88">
-        <v>220</v>
-      </c>
-      <c r="F88" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89">
-        <v>220</v>
-      </c>
-      <c r="E89">
-        <v>220</v>
-      </c>
-      <c r="F89" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>423</v>
-      </c>
-      <c r="D90">
-        <v>300</v>
-      </c>
-      <c r="E90">
-        <v>300</v>
-      </c>
-      <c r="F90" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>80</v>
-      </c>
-      <c r="D91">
-        <v>200</v>
-      </c>
-      <c r="E91">
-        <v>200</v>
-      </c>
-      <c r="F91" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92">
-        <v>200</v>
-      </c>
-      <c r="E92">
-        <v>200</v>
-      </c>
-      <c r="F92" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93">
-        <v>200</v>
-      </c>
-      <c r="E93">
-        <v>200</v>
-      </c>
-      <c r="F93" t="s">
-        <v>521</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:K528"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16681,7 +15909,7 @@
   <sheetData>
     <row r="2" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>402</v>
@@ -16701,7 +15929,7 @@
         <v>347</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="90">
+      <c r="F4" s="89">
         <f>ROUNDUP(SUM(Table245[total xp]),0)</f>
         <v>30364</v>
       </c>
@@ -27655,7 +26883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -27693,16 +26921,16 @@
       </c>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="N4" s="85" t="s">
+      <c r="N4" s="84" t="s">
         <v>320</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="84" t="s">
         <v>321</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="85" t="s">
         <v>324</v>
       </c>
       <c r="R4" s="51" t="s">
@@ -27719,25 +26947,25 @@
       <c r="C5" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="87">
         <v>20</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="N5" s="65">
+      <c r="N5" s="64">
         <f>MIN(I13:I17)</f>
         <v>35</v>
       </c>
-      <c r="O5" s="65">
+      <c r="O5" s="64">
         <f>D5</f>
         <v>20</v>
       </c>
-      <c r="P5" s="66">
+      <c r="P5" s="65">
         <f>ROUND(O5/N5,2)</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="R5" s="79">
+      <c r="R5" s="78">
         <v>10</v>
       </c>
       <c r="S5">
@@ -27749,22 +26977,22 @@
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="66" t="s">
         <v>326</v>
       </c>
-      <c r="N6" s="68">
+      <c r="N6" s="67">
         <f>MIN(I18:I23)</f>
         <v>50</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="67">
         <f>D5</f>
         <v>20</v>
       </c>
-      <c r="P6" s="69">
+      <c r="P6" s="68">
         <f t="shared" ref="P6:P8" si="0">ROUND(O6/N6,2)</f>
         <v>0.4</v>
       </c>
-      <c r="R6" s="79">
+      <c r="R6" s="78">
         <v>0</v>
       </c>
       <c r="S6">
@@ -27776,22 +27004,22 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="70">
         <f>MIN(I24:I31)</f>
         <v>60</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="70">
         <f>D5</f>
         <v>20</v>
       </c>
-      <c r="P7" s="72">
+      <c r="P7" s="71">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="R7" s="79">
+      <c r="R7" s="78">
         <v>10</v>
       </c>
       <c r="S7">
@@ -27803,22 +27031,22 @@
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M8" s="73" t="s">
+      <c r="M8" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="N8" s="74">
+      <c r="N8" s="73">
         <f>MIN(I32:I40)</f>
         <v>70</v>
       </c>
-      <c r="O8" s="74">
+      <c r="O8" s="73">
         <f>D5</f>
         <v>20</v>
       </c>
-      <c r="P8" s="75">
+      <c r="P8" s="74">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="R8" s="79">
+      <c r="R8" s="78">
         <v>5</v>
       </c>
       <c r="S8">
@@ -27830,22 +27058,22 @@
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="M9" s="76" t="s">
+      <c r="M9" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="76">
         <f>MIN(I41:I51)</f>
         <v>90</v>
       </c>
-      <c r="O9" s="77">
+      <c r="O9" s="76">
         <f>D5</f>
         <v>20</v>
       </c>
-      <c r="P9" s="78">
+      <c r="P9" s="77">
         <f>ROUND(O9/N9,2)</f>
         <v>0.22</v>
       </c>
-      <c r="R9" s="80">
+      <c r="R9" s="79">
         <v>15</v>
       </c>
       <c r="S9">
@@ -27863,42 +27091,42 @@
       </c>
     </row>
     <row r="12" spans="3:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="H12" s="84" t="s">
+      <c r="H12" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="84" t="s">
         <v>320</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="85" t="s">
         <v>321</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="85" t="s">
         <v>334</v>
       </c>
       <c r="Q12" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="R12" s="87">
+      <c r="R12" s="86">
         <f>(R5*P5)+(R6*P6)+(R7*P7)+(R8*P8)+(R9*P9)+(S9*P9)+(S8*P8)+(S7*P7)+(S6*P6)+(S5*P5)</f>
         <v>19.45</v>
       </c>
-      <c r="T12" s="89">
+      <c r="T12" s="88">
         <f>(90*20)/T10</f>
         <v>20.487804878048781</v>
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="64">
         <v>35</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="65">
         <f>$D$5</f>
         <v>20</v>
       </c>
-      <c r="K13" s="66">
+      <c r="K13" s="65">
         <f>$I$41/$I$13</f>
         <v>2.5714285714285716</v>
       </c>
@@ -27907,81 +27135,81 @@
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="65">
+      <c r="I14" s="64">
         <v>35</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="65">
         <f t="shared" ref="J14:J17" si="1">$D$5</f>
         <v>20</v>
       </c>
-      <c r="K14" s="66">
+      <c r="K14" s="65">
         <f t="shared" ref="K14:K17" si="2">$I$41/$I$13</f>
         <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="64">
         <v>35</v>
       </c>
-      <c r="J15" s="66">
+      <c r="J15" s="65">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K15" s="66">
+      <c r="K15" s="65">
         <f t="shared" si="2"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="64">
         <v>35</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="65">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="65">
         <f t="shared" si="2"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="63" t="s">
         <v>225</v>
       </c>
-      <c r="I17" s="65">
+      <c r="I17" s="64">
         <v>40</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="65">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K17" s="66">
+      <c r="K17" s="65">
         <f t="shared" si="2"/>
         <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="67">
         <v>50</v>
       </c>
-      <c r="J18" s="69">
+      <c r="J18" s="68">
         <f>$D$5</f>
         <v>20</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="68">
         <f t="shared" ref="K18:K23" si="3">$I$41/$I$18</f>
         <v>1.8</v>
       </c>
@@ -27990,97 +27218,97 @@
       </c>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="I19" s="68">
+      <c r="I19" s="67">
         <v>50</v>
       </c>
-      <c r="J19" s="69">
+      <c r="J19" s="68">
         <f t="shared" ref="J19:J23" si="4">$D$5</f>
         <v>20</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="68">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="67">
         <v>50</v>
       </c>
-      <c r="J20" s="69">
+      <c r="J20" s="68">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="68">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="67">
         <v>50</v>
       </c>
-      <c r="J21" s="69">
+      <c r="J21" s="68">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K21" s="69">
+      <c r="K21" s="68">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="67">
         <v>50</v>
       </c>
-      <c r="J22" s="69">
+      <c r="J22" s="68">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="68">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="68">
+      <c r="I23" s="67">
         <v>50</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="68">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="68">
         <f t="shared" si="3"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="70">
         <v>60</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="71">
         <f>$D$5</f>
         <v>20</v>
       </c>
-      <c r="K24" s="72">
+      <c r="K24" s="71">
         <f>$I$41/$I$24</f>
         <v>1.5</v>
       </c>
@@ -28089,129 +27317,129 @@
       </c>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="I25" s="71">
+      <c r="I25" s="70">
         <v>60</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="71">
         <f t="shared" ref="J25:J31" si="5">$D$5</f>
         <v>20</v>
       </c>
-      <c r="K25" s="72">
+      <c r="K25" s="71">
         <f t="shared" ref="K25:K31" si="6">$I$41/$I$24</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="I26" s="71">
+      <c r="I26" s="70">
         <v>60</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="71">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K26" s="72">
+      <c r="K26" s="71">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="70">
         <v>60</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="71">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K27" s="72">
+      <c r="K27" s="71">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="71">
+      <c r="I28" s="70">
         <v>60</v>
       </c>
-      <c r="J28" s="72">
+      <c r="J28" s="71">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K28" s="72">
+      <c r="K28" s="71">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H29" s="70" t="s">
+      <c r="H29" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="71">
+      <c r="I29" s="70">
         <v>60</v>
       </c>
-      <c r="J29" s="72">
+      <c r="J29" s="71">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K29" s="72">
+      <c r="K29" s="71">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H30" s="70" t="s">
+      <c r="H30" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="71">
+      <c r="I30" s="70">
         <v>60</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="71">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K30" s="72">
+      <c r="K30" s="71">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="31" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H31" s="70" t="s">
+      <c r="H31" s="69" t="s">
         <v>171</v>
       </c>
-      <c r="I31" s="71">
+      <c r="I31" s="70">
         <v>60</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="71">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K31" s="72">
+      <c r="K31" s="71">
         <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H32" s="73" t="s">
+      <c r="H32" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="I32" s="74">
+      <c r="I32" s="73">
         <v>70</v>
       </c>
-      <c r="J32" s="75">
+      <c r="J32" s="74">
         <f>$D$5</f>
         <v>20</v>
       </c>
-      <c r="K32" s="75">
+      <c r="K32" s="74">
         <f>$I$41/$I$32</f>
         <v>1.2857142857142858</v>
       </c>
@@ -28220,295 +27448,295 @@
       </c>
     </row>
     <row r="33" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H33" s="73" t="s">
+      <c r="H33" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="I33" s="74">
+      <c r="I33" s="73">
         <v>70</v>
       </c>
-      <c r="J33" s="75">
+      <c r="J33" s="74">
         <f t="shared" ref="J33:J40" si="7">$D$5</f>
         <v>20</v>
       </c>
-      <c r="K33" s="75">
+      <c r="K33" s="74">
         <f t="shared" ref="K33:K40" si="8">$I$41/$I$32</f>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="34" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H34" s="73" t="s">
+      <c r="H34" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="I34" s="74">
+      <c r="I34" s="73">
         <v>75</v>
       </c>
-      <c r="J34" s="75">
+      <c r="J34" s="74">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="K34" s="75">
+      <c r="K34" s="74">
         <f t="shared" si="8"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="35" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="I35" s="74">
+      <c r="I35" s="73">
         <v>75</v>
       </c>
-      <c r="J35" s="75">
+      <c r="J35" s="74">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="K35" s="75">
+      <c r="K35" s="74">
         <f t="shared" si="8"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="36" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H36" s="73" t="s">
+      <c r="H36" s="72" t="s">
         <v>211</v>
       </c>
-      <c r="I36" s="74">
+      <c r="I36" s="73">
         <v>75</v>
       </c>
-      <c r="J36" s="75">
+      <c r="J36" s="74">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="K36" s="75">
+      <c r="K36" s="74">
         <f t="shared" si="8"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="37" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H37" s="73" t="s">
+      <c r="H37" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="I37" s="74">
+      <c r="I37" s="73">
         <v>80</v>
       </c>
-      <c r="J37" s="75">
+      <c r="J37" s="74">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="K37" s="75">
+      <c r="K37" s="74">
         <f t="shared" si="8"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="38" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H38" s="73" t="s">
+      <c r="H38" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="I38" s="74">
+      <c r="I38" s="73">
         <v>80</v>
       </c>
-      <c r="J38" s="75">
+      <c r="J38" s="74">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="K38" s="75">
+      <c r="K38" s="74">
         <f t="shared" si="8"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="39" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H39" s="73" t="s">
+      <c r="H39" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="I39" s="74">
+      <c r="I39" s="73">
         <v>80</v>
       </c>
-      <c r="J39" s="75">
+      <c r="J39" s="74">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="K39" s="75">
+      <c r="K39" s="74">
         <f t="shared" si="8"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="40" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H40" s="73" t="s">
+      <c r="H40" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="I40" s="74">
+      <c r="I40" s="73">
         <v>85</v>
       </c>
-      <c r="J40" s="75">
+      <c r="J40" s="74">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="K40" s="75">
+      <c r="K40" s="74">
         <f t="shared" si="8"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="41" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="I41" s="82">
+      <c r="I41" s="81">
         <v>90</v>
       </c>
-      <c r="J41" s="83">
+      <c r="J41" s="82">
         <f>$D$5</f>
         <v>20</v>
       </c>
-      <c r="K41" s="83">
+      <c r="K41" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H42" s="81" t="s">
+      <c r="H42" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="I42" s="82">
+      <c r="I42" s="81">
         <v>90</v>
       </c>
-      <c r="J42" s="83">
+      <c r="J42" s="82">
         <f t="shared" ref="J42:J51" si="9">$D$5</f>
         <v>20</v>
       </c>
-      <c r="K42" s="83">
+      <c r="K42" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H43" s="81" t="s">
+      <c r="H43" s="80" t="s">
         <v>323</v>
       </c>
-      <c r="I43" s="82">
+      <c r="I43" s="81">
         <v>90</v>
       </c>
-      <c r="J43" s="83">
+      <c r="J43" s="82">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K43" s="83">
+      <c r="K43" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H44" s="81" t="s">
+      <c r="H44" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="I44" s="82">
+      <c r="I44" s="81">
         <v>90</v>
       </c>
-      <c r="J44" s="83">
+      <c r="J44" s="82">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K44" s="83">
+      <c r="K44" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H45" s="81" t="s">
+      <c r="H45" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="I45" s="82">
+      <c r="I45" s="81">
         <v>90</v>
       </c>
-      <c r="J45" s="83">
+      <c r="J45" s="82">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K45" s="83">
+      <c r="K45" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H46" s="81" t="s">
+      <c r="H46" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="I46" s="82">
+      <c r="I46" s="81">
         <v>90</v>
       </c>
-      <c r="J46" s="83">
+      <c r="J46" s="82">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K46" s="83">
+      <c r="K46" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H47" s="81" t="s">
+      <c r="H47" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="I47" s="82">
+      <c r="I47" s="81">
         <v>90</v>
       </c>
-      <c r="J47" s="83">
+      <c r="J47" s="82">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K47" s="83">
+      <c r="K47" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H48" s="81" t="s">
+      <c r="H48" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="I48" s="82">
+      <c r="I48" s="81">
         <v>90</v>
       </c>
-      <c r="J48" s="83">
+      <c r="J48" s="82">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K48" s="83">
+      <c r="K48" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H49" s="81" t="s">
+      <c r="H49" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="I49" s="82">
+      <c r="I49" s="81">
         <v>90</v>
       </c>
-      <c r="J49" s="83">
+      <c r="J49" s="82">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K49" s="83">
+      <c r="K49" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H50" s="81" t="s">
+      <c r="H50" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="I50" s="82">
-        <v>100</v>
-      </c>
-      <c r="J50" s="83">
+      <c r="I50" s="81">
+        <v>100</v>
+      </c>
+      <c r="J50" s="82">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K50" s="83">
+      <c r="K50" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H51" s="76" t="s">
+      <c r="H51" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="I51" s="77">
-        <v>100</v>
-      </c>
-      <c r="J51" s="78">
+      <c r="I51" s="76">
+        <v>100</v>
+      </c>
+      <c r="J51" s="77">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K51" s="78">
+      <c r="K51" s="77">
         <v>1</v>
       </c>
     </row>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="12" r:id="rId1"/>
@@ -1535,7 +1535,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1784,11 +1804,11 @@
         </c:dLbls>
         <c:gapWidth val="228"/>
         <c:overlap val="100"/>
-        <c:axId val="95206016"/>
-        <c:axId val="95211904"/>
+        <c:axId val="96039680"/>
+        <c:axId val="96041216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95206016"/>
+        <c:axId val="96039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1798,7 +1818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95211904"/>
+        <c:crossAx val="96041216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1806,7 +1826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95211904"/>
+        <c:axId val="96041216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,7 +1837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95206016"/>
+        <c:crossAx val="96039680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1980,11 +2000,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95553024"/>
-        <c:axId val="95554944"/>
+        <c:axId val="102775040"/>
+        <c:axId val="107632512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95553024"/>
+        <c:axId val="102775040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95554944"/>
+        <c:crossAx val="107632512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2002,7 +2022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95554944"/>
+        <c:axId val="107632512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95553024"/>
+        <c:crossAx val="102775040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2190,11 +2210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95582848"/>
-        <c:axId val="95593216"/>
+        <c:axId val="102438016"/>
+        <c:axId val="102439936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95582848"/>
+        <c:axId val="102438016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95593216"/>
+        <c:crossAx val="102439936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2212,7 +2232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95593216"/>
+        <c:axId val="102439936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95582848"/>
+        <c:crossAx val="102438016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3202,7 +3222,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D10:K64" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D10:K64" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="D10:K64"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Content Sku"/>
@@ -3212,7 +3232,7 @@
     <tableColumn id="5" name="Respawn Max"/>
     <tableColumn id="6" name="HP Given"/>
     <tableColumn id="7" name="XP Given"/>
-    <tableColumn id="8" name="Damage" dataDxfId="2"/>
+    <tableColumn id="8" name="Damage" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3232,7 +3252,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="F8:K528" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="F8:K528" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="F8:K528"/>
   <sortState ref="F9:M528">
     <sortCondition ref="F7:F527"/>
@@ -3243,7 +3263,7 @@
     <tableColumn id="5" name="respawn_time"/>
     <tableColumn id="6" name="activating_chance"/>
     <tableColumn id="7" name="XP"/>
-    <tableColumn id="8" name="total xp" dataDxfId="0">
+    <tableColumn id="8" name="total xp" dataDxfId="2">
       <calculatedColumnFormula>(Table245[[#This Row],[XP]]*Table245[[#This Row],[entity_spawned (AVG)]])*(Table245[[#This Row],[activating_chance]]/100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3543,8 +3563,8 @@
   </sheetPr>
   <dimension ref="D5:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,7 +5024,7 @@
   </sheetPr>
   <dimension ref="B1:U270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -9846,8 +9866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G2:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9908,7 +9928,7 @@
       </c>
     </row>
     <row r="5" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="10" t="s">
         <v>144</v>
       </c>
       <c r="H5" s="10">
@@ -9961,7 +9981,7 @@
       </c>
     </row>
     <row r="6" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="11" t="s">
         <v>145</v>
       </c>
       <c r="H6" s="11">
@@ -10014,8 +10034,8 @@
       </c>
     </row>
     <row r="7" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G7" s="6" t="s">
-        <v>146</v>
+      <c r="G7" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="H7" s="11">
         <f>[1]dragons!$M$18</f>
@@ -10067,8 +10087,8 @@
       </c>
     </row>
     <row r="8" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
-        <v>147</v>
+      <c r="G8" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="H8" s="11">
         <f>[1]dragons!$M$19</f>
@@ -10120,8 +10140,8 @@
       </c>
     </row>
     <row r="9" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G9" s="7" t="s">
-        <v>148</v>
+      <c r="G9" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="H9" s="13">
         <f>[1]dragons!$M$20</f>
@@ -10173,8 +10193,8 @@
       </c>
     </row>
     <row r="10" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G10" s="7" t="s">
-        <v>149</v>
+      <c r="G10" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="H10" s="13">
         <f>[1]dragons!$M$21</f>
@@ -10226,7 +10246,7 @@
       </c>
     </row>
     <row r="11" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="14" t="s">
         <v>150</v>
       </c>
       <c r="H11" s="14">
@@ -10279,8 +10299,8 @@
       </c>
     </row>
     <row r="12" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G12" s="9" t="s">
-        <v>151</v>
+      <c r="G12" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="H12" s="15">
         <f>[1]dragons!$M$23</f>
@@ -10332,8 +10352,8 @@
       </c>
     </row>
     <row r="13" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G13" s="9" t="s">
-        <v>152</v>
+      <c r="G13" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="H13" s="15">
         <f>[1]dragons!$M$24</f>
@@ -10385,7 +10405,7 @@
       </c>
     </row>
     <row r="14" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="16" t="s">
         <v>153</v>
       </c>
       <c r="H14" s="16">

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="12" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="395">
   <si>
     <t>SP_Archer01_Static</t>
   </si>
@@ -985,6 +986,228 @@
   </si>
   <si>
     <t>PF_MineMedium_Static</t>
+  </si>
+  <si>
+    <t>Falta añadir PF_Scaffold. Respawn time = 150</t>
+  </si>
+  <si>
+    <t>MineSmall</t>
+  </si>
+  <si>
+    <t>SP_MineSmall</t>
+  </si>
+  <si>
+    <t>PF_MineSmall</t>
+  </si>
+  <si>
+    <t>SP_MineSmall_Static</t>
+  </si>
+  <si>
+    <t>PF_MineSmall_Static</t>
+  </si>
+  <si>
+    <t>SP_OwlBig</t>
+  </si>
+  <si>
+    <t>PF_OwlBig</t>
+  </si>
+  <si>
+    <t>SP_OwlSmall</t>
+  </si>
+  <si>
+    <t>PF_OwlSmall</t>
+  </si>
+  <si>
+    <t>Piranha</t>
+  </si>
+  <si>
+    <t>SP_Piranha</t>
+  </si>
+  <si>
+    <t>PF_Piranha</t>
+  </si>
+  <si>
+    <t>PufferBird</t>
+  </si>
+  <si>
+    <t>SP_PufferBird</t>
+  </si>
+  <si>
+    <t>PF_PufferBird</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>SP_Rat</t>
+  </si>
+  <si>
+    <t>PF_Rat</t>
+  </si>
+  <si>
+    <t>SP_Richman</t>
+  </si>
+  <si>
+    <t>PF_Richman</t>
+  </si>
+  <si>
+    <t>SP_RichMan_Static</t>
+  </si>
+  <si>
+    <t>PF_RichMan_Static</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>SP_Shark</t>
+  </si>
+  <si>
+    <t>PF_Shark</t>
+  </si>
+  <si>
+    <t>SP_Sheep</t>
+  </si>
+  <si>
+    <t>PF_Sheep</t>
+  </si>
+  <si>
+    <t>SP_Sheep_Static</t>
+  </si>
+  <si>
+    <t>PF_Sheep_Static</t>
+  </si>
+  <si>
+    <t>ShieldMan</t>
+  </si>
+  <si>
+    <t>SP_Shieldman</t>
+  </si>
+  <si>
+    <t>PF_Shieldman</t>
+  </si>
+  <si>
+    <t>SP_Soldier01</t>
+  </si>
+  <si>
+    <t>PF_Soldier01</t>
+  </si>
+  <si>
+    <t>SP_Soldier01_Static</t>
+  </si>
+  <si>
+    <t>PF_Soldier01_Static</t>
+  </si>
+  <si>
+    <t>SP_Soldier02</t>
+  </si>
+  <si>
+    <t>PF_Soldier02</t>
+  </si>
+  <si>
+    <t>SP_Spartakus</t>
+  </si>
+  <si>
+    <t>PF_Spartakus</t>
+  </si>
+  <si>
+    <t>SpiderGreenTurret</t>
+  </si>
+  <si>
+    <t>SP_SpiderGreenTurret</t>
+  </si>
+  <si>
+    <t>PF_SpiderGreenTurret</t>
+  </si>
+  <si>
+    <t>SP_SpiderRed</t>
+  </si>
+  <si>
+    <t>PF_SpiderRed</t>
+  </si>
+  <si>
+    <t>SP_SpiderSmall</t>
+  </si>
+  <si>
+    <t>PF_SpiderSmall</t>
+  </si>
+  <si>
+    <t>SP_SpiderSmallTurret</t>
+  </si>
+  <si>
+    <t>PF_SpiderSmallTurret</t>
+  </si>
+  <si>
+    <t>SP_StarlingSmall_Flock</t>
+  </si>
+  <si>
+    <t>PF_Starling_Flock</t>
+  </si>
+  <si>
+    <t>SP_Starling_Flock</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>SP_Troll</t>
+  </si>
+  <si>
+    <t>PF_Troll</t>
+  </si>
+  <si>
+    <t>SP_TropicalFish</t>
+  </si>
+  <si>
+    <t>PF_TropicalFish</t>
+  </si>
+  <si>
+    <t>SP_Villager01</t>
+  </si>
+  <si>
+    <t>PF_Villager01</t>
+  </si>
+  <si>
+    <t>SP_Villager01_Static</t>
+  </si>
+  <si>
+    <t>PF_Villager01_Static</t>
+  </si>
+  <si>
+    <t>SP_Villager02</t>
+  </si>
+  <si>
+    <t>PF_Villager02</t>
+  </si>
+  <si>
+    <t>SP_Villager02_Static</t>
+  </si>
+  <si>
+    <t>PF_Villager02_Static</t>
+  </si>
+  <si>
+    <t>SP_witch</t>
+  </si>
+  <si>
+    <t>PF_Witch</t>
+  </si>
+  <si>
+    <t>SP_Worker01</t>
+  </si>
+  <si>
+    <t>PF_Worker01</t>
+  </si>
+  <si>
+    <t>SP_Worker02</t>
+  </si>
+  <si>
+    <t>PF_Worker02</t>
+  </si>
+  <si>
+    <t>SP_WorkerWife</t>
+  </si>
+  <si>
+    <t>PF_WorkerWife</t>
   </si>
 </sst>
 </file>
@@ -1535,27 +1758,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1804,11 +2007,11 @@
         </c:dLbls>
         <c:gapWidth val="228"/>
         <c:overlap val="100"/>
-        <c:axId val="96039680"/>
-        <c:axId val="96041216"/>
+        <c:axId val="64526976"/>
+        <c:axId val="64545152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96039680"/>
+        <c:axId val="64526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +2021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96041216"/>
+        <c:crossAx val="64545152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1826,7 +2029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96041216"/>
+        <c:axId val="64545152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,14 +2040,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96039680"/>
+        <c:crossAx val="64526976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2000,11 +2202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102775040"/>
-        <c:axId val="107632512"/>
+        <c:axId val="65342848"/>
+        <c:axId val="65365504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102775040"/>
+        <c:axId val="65342848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107632512"/>
+        <c:crossAx val="65365504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2022,7 +2224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107632512"/>
+        <c:axId val="65365504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102775040"/>
+        <c:crossAx val="65342848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2210,11 +2412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102438016"/>
-        <c:axId val="102439936"/>
+        <c:axId val="65385216"/>
+        <c:axId val="65387136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102438016"/>
+        <c:axId val="65385216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102439936"/>
+        <c:crossAx val="65387136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,7 +2434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102439936"/>
+        <c:axId val="65387136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102438016"/>
+        <c:crossAx val="65385216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3222,8 +3424,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D10:K64" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="D10:K64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D10:K97" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="D10:K97"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Content Sku"/>
     <tableColumn id="2" name="Spawner Prefab"/>
@@ -3232,7 +3434,7 @@
     <tableColumn id="5" name="Respawn Max"/>
     <tableColumn id="6" name="HP Given"/>
     <tableColumn id="7" name="XP Given"/>
-    <tableColumn id="8" name="Damage" dataDxfId="4"/>
+    <tableColumn id="8" name="Damage" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3252,7 +3454,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="F8:K528" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="F8:K528" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="F8:K528"/>
   <sortState ref="F9:M528">
     <sortCondition ref="F7:F527"/>
@@ -3263,7 +3465,7 @@
     <tableColumn id="5" name="respawn_time"/>
     <tableColumn id="6" name="activating_chance"/>
     <tableColumn id="7" name="XP"/>
-    <tableColumn id="8" name="total xp" dataDxfId="2">
+    <tableColumn id="8" name="total xp" dataDxfId="0">
       <calculatedColumnFormula>(Table245[[#This Row],[XP]]*Table245[[#This Row],[entity_spawned (AVG)]])*(Table245[[#This Row],[activating_chance]]/100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3561,10 +3763,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="D5:K64"/>
+  <dimension ref="D5:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3584,6 +3786,11 @@
         <v>308</v>
       </c>
     </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>321</v>
+      </c>
+    </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>311</v>
@@ -3632,9 +3839,7 @@
       <c r="J11">
         <v>75</v>
       </c>
-      <c r="K11" s="73">
-        <v>10</v>
-      </c>
+      <c r="K11" s="73"/>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
@@ -3658,9 +3863,7 @@
       <c r="J12">
         <v>75</v>
       </c>
-      <c r="K12" s="73">
-        <v>10</v>
-      </c>
+      <c r="K12" s="73"/>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
@@ -3684,9 +3887,7 @@
       <c r="J13">
         <v>75</v>
       </c>
-      <c r="K13" s="73">
-        <v>15</v>
-      </c>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
@@ -3710,9 +3911,7 @@
       <c r="J14">
         <v>75</v>
       </c>
-      <c r="K14" s="73">
-        <v>15</v>
-      </c>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
@@ -3736,9 +3935,7 @@
       <c r="J15">
         <v>25</v>
       </c>
-      <c r="K15" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
@@ -3762,9 +3959,7 @@
       <c r="J16">
         <v>50</v>
       </c>
-      <c r="K16" s="73">
-        <v>3</v>
-      </c>
+      <c r="K16" s="73"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
@@ -3788,9 +3983,7 @@
       <c r="J17">
         <v>55</v>
       </c>
-      <c r="K17" s="73">
-        <v>8</v>
-      </c>
+      <c r="K17" s="73"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
@@ -3814,9 +4007,7 @@
       <c r="J18">
         <v>25</v>
       </c>
-      <c r="K18" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K18" s="73"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
@@ -3840,9 +4031,7 @@
       <c r="J19">
         <v>25</v>
       </c>
-      <c r="K19" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
@@ -3866,9 +4055,7 @@
       <c r="J20">
         <v>50</v>
       </c>
-      <c r="K20" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K20" s="73"/>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
@@ -3892,9 +4079,7 @@
       <c r="J21">
         <v>50</v>
       </c>
-      <c r="K21" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K21" s="73"/>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
@@ -3918,9 +4103,7 @@
       <c r="J22">
         <v>75</v>
       </c>
-      <c r="K22" s="73">
-        <v>8</v>
-      </c>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
@@ -3944,9 +4127,7 @@
       <c r="J23">
         <v>25</v>
       </c>
-      <c r="K23" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
@@ -3970,9 +4151,7 @@
       <c r="J24">
         <v>25</v>
       </c>
-      <c r="K24" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K24" s="73"/>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
@@ -3996,9 +4175,7 @@
       <c r="J25">
         <v>25</v>
       </c>
-      <c r="K25" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K25" s="73"/>
     </row>
     <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
@@ -4022,9 +4199,7 @@
       <c r="J26">
         <v>25</v>
       </c>
-      <c r="K26" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K26" s="73"/>
     </row>
     <row r="27" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
@@ -4048,9 +4223,7 @@
       <c r="J27">
         <v>25</v>
       </c>
-      <c r="K27" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K27" s="73"/>
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
@@ -4074,9 +4247,7 @@
       <c r="J28">
         <v>25</v>
       </c>
-      <c r="K28" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
@@ -5007,6 +5178,864 @@
       </c>
       <c r="K64" s="73">
         <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>322</v>
+      </c>
+      <c r="E65" t="s">
+        <v>323</v>
+      </c>
+      <c r="F65" t="s">
+        <v>324</v>
+      </c>
+      <c r="G65">
+        <v>1500</v>
+      </c>
+      <c r="H65">
+        <v>1500</v>
+      </c>
+      <c r="I65">
+        <v>25</v>
+      </c>
+      <c r="J65">
+        <v>130</v>
+      </c>
+      <c r="K65" s="73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66">
+        <v>1500</v>
+      </c>
+      <c r="H66">
+        <v>1500</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="J66">
+        <v>130</v>
+      </c>
+      <c r="K66" s="73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" t="s">
+        <v>328</v>
+      </c>
+      <c r="G67">
+        <v>200</v>
+      </c>
+      <c r="H67">
+        <v>200</v>
+      </c>
+      <c r="I67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>55</v>
+      </c>
+      <c r="K67" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" t="s">
+        <v>329</v>
+      </c>
+      <c r="F68" t="s">
+        <v>330</v>
+      </c>
+      <c r="G68">
+        <v>140</v>
+      </c>
+      <c r="H68">
+        <v>140</v>
+      </c>
+      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="J68">
+        <v>25</v>
+      </c>
+      <c r="K68" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" t="s">
+        <v>332</v>
+      </c>
+      <c r="F69" t="s">
+        <v>333</v>
+      </c>
+      <c r="G69">
+        <v>170</v>
+      </c>
+      <c r="H69">
+        <v>170</v>
+      </c>
+      <c r="I69">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>28</v>
+      </c>
+      <c r="K69" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>334</v>
+      </c>
+      <c r="E70" t="s">
+        <v>335</v>
+      </c>
+      <c r="F70" t="s">
+        <v>336</v>
+      </c>
+      <c r="G70">
+        <v>220</v>
+      </c>
+      <c r="H70">
+        <v>220</v>
+      </c>
+      <c r="I70">
+        <v>15</v>
+      </c>
+      <c r="J70">
+        <v>28</v>
+      </c>
+      <c r="K70" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>337</v>
+      </c>
+      <c r="E71" t="s">
+        <v>338</v>
+      </c>
+      <c r="F71" t="s">
+        <v>339</v>
+      </c>
+      <c r="G71">
+        <v>120</v>
+      </c>
+      <c r="H71">
+        <v>120</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>25</v>
+      </c>
+      <c r="K71" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72" t="s">
+        <v>340</v>
+      </c>
+      <c r="F72" t="s">
+        <v>341</v>
+      </c>
+      <c r="G72">
+        <v>260</v>
+      </c>
+      <c r="H72">
+        <v>260</v>
+      </c>
+      <c r="I72">
+        <v>15</v>
+      </c>
+      <c r="J72">
+        <v>75</v>
+      </c>
+      <c r="K72" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" t="s">
+        <v>342</v>
+      </c>
+      <c r="F73" t="s">
+        <v>343</v>
+      </c>
+      <c r="G73">
+        <v>260</v>
+      </c>
+      <c r="H73">
+        <v>260</v>
+      </c>
+      <c r="I73">
+        <v>15</v>
+      </c>
+      <c r="J73">
+        <v>75</v>
+      </c>
+      <c r="K73" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>344</v>
+      </c>
+      <c r="E74" t="s">
+        <v>345</v>
+      </c>
+      <c r="F74" t="s">
+        <v>346</v>
+      </c>
+      <c r="G74">
+        <v>350</v>
+      </c>
+      <c r="H74">
+        <v>350</v>
+      </c>
+      <c r="I74">
+        <v>30</v>
+      </c>
+      <c r="J74">
+        <v>83</v>
+      </c>
+      <c r="K74" s="73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" t="s">
+        <v>347</v>
+      </c>
+      <c r="F75" t="s">
+        <v>348</v>
+      </c>
+      <c r="G75">
+        <v>200</v>
+      </c>
+      <c r="H75">
+        <v>200</v>
+      </c>
+      <c r="I75">
+        <v>7</v>
+      </c>
+      <c r="J75">
+        <v>75</v>
+      </c>
+      <c r="K75" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" t="s">
+        <v>349</v>
+      </c>
+      <c r="F76" t="s">
+        <v>350</v>
+      </c>
+      <c r="G76">
+        <v>200</v>
+      </c>
+      <c r="H76">
+        <v>200</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>75</v>
+      </c>
+      <c r="K76" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>351</v>
+      </c>
+      <c r="E77" t="s">
+        <v>352</v>
+      </c>
+      <c r="F77" t="s">
+        <v>353</v>
+      </c>
+      <c r="G77">
+        <v>300</v>
+      </c>
+      <c r="H77">
+        <v>300</v>
+      </c>
+      <c r="I77">
+        <v>30</v>
+      </c>
+      <c r="J77">
+        <v>105</v>
+      </c>
+      <c r="K77" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" t="s">
+        <v>354</v>
+      </c>
+      <c r="F78" t="s">
+        <v>355</v>
+      </c>
+      <c r="G78">
+        <v>310</v>
+      </c>
+      <c r="H78">
+        <v>310</v>
+      </c>
+      <c r="I78">
+        <v>50</v>
+      </c>
+      <c r="J78">
+        <v>55</v>
+      </c>
+      <c r="K78" s="73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" t="s">
+        <v>356</v>
+      </c>
+      <c r="F79" t="s">
+        <v>357</v>
+      </c>
+      <c r="G79">
+        <v>310</v>
+      </c>
+      <c r="H79">
+        <v>310</v>
+      </c>
+      <c r="I79">
+        <v>50</v>
+      </c>
+      <c r="J79">
+        <v>55</v>
+      </c>
+      <c r="K79" s="73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" t="s">
+        <v>358</v>
+      </c>
+      <c r="F80" t="s">
+        <v>359</v>
+      </c>
+      <c r="G80">
+        <v>310</v>
+      </c>
+      <c r="H80">
+        <v>310</v>
+      </c>
+      <c r="I80">
+        <v>50</v>
+      </c>
+      <c r="J80">
+        <v>55</v>
+      </c>
+      <c r="K80" s="73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" t="s">
+        <v>360</v>
+      </c>
+      <c r="F81" t="s">
+        <v>361</v>
+      </c>
+      <c r="G81">
+        <v>180</v>
+      </c>
+      <c r="H81">
+        <v>180</v>
+      </c>
+      <c r="I81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>75</v>
+      </c>
+      <c r="K81" s="73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>362</v>
+      </c>
+      <c r="E82" t="s">
+        <v>363</v>
+      </c>
+      <c r="F82" t="s">
+        <v>364</v>
+      </c>
+      <c r="G82">
+        <v>170</v>
+      </c>
+      <c r="H82">
+        <v>170</v>
+      </c>
+      <c r="I82">
+        <v>20</v>
+      </c>
+      <c r="J82">
+        <v>55</v>
+      </c>
+      <c r="K82" s="73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" t="s">
+        <v>365</v>
+      </c>
+      <c r="F83" t="s">
+        <v>366</v>
+      </c>
+      <c r="G83">
+        <v>170</v>
+      </c>
+      <c r="H83">
+        <v>170</v>
+      </c>
+      <c r="I83">
+        <v>20</v>
+      </c>
+      <c r="J83">
+        <v>55</v>
+      </c>
+      <c r="K83" s="73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" t="s">
+        <v>367</v>
+      </c>
+      <c r="F84" t="s">
+        <v>368</v>
+      </c>
+      <c r="G84">
+        <v>150</v>
+      </c>
+      <c r="H84">
+        <v>150</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" t="s">
+        <v>369</v>
+      </c>
+      <c r="F85" t="s">
+        <v>370</v>
+      </c>
+      <c r="G85">
+        <v>150</v>
+      </c>
+      <c r="H85">
+        <v>150</v>
+      </c>
+      <c r="I85">
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <v>25</v>
+      </c>
+      <c r="K85" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" t="s">
+        <v>371</v>
+      </c>
+      <c r="F86" t="s">
+        <v>372</v>
+      </c>
+      <c r="G86">
+        <v>180</v>
+      </c>
+      <c r="H86">
+        <v>180</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>25</v>
+      </c>
+      <c r="K86" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" t="s">
+        <v>373</v>
+      </c>
+      <c r="F87" t="s">
+        <v>372</v>
+      </c>
+      <c r="G87">
+        <v>180</v>
+      </c>
+      <c r="H87">
+        <v>180</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>25</v>
+      </c>
+      <c r="K87" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>374</v>
+      </c>
+      <c r="E88" t="s">
+        <v>375</v>
+      </c>
+      <c r="F88" t="s">
+        <v>376</v>
+      </c>
+      <c r="G88">
+        <v>420</v>
+      </c>
+      <c r="H88">
+        <v>420</v>
+      </c>
+      <c r="I88">
+        <v>80</v>
+      </c>
+      <c r="J88">
+        <v>83</v>
+      </c>
+      <c r="K88" s="73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" t="s">
+        <v>377</v>
+      </c>
+      <c r="F89" t="s">
+        <v>378</v>
+      </c>
+      <c r="G89">
+        <v>140</v>
+      </c>
+      <c r="H89">
+        <v>140</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>25</v>
+      </c>
+      <c r="K89" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" t="s">
+        <v>379</v>
+      </c>
+      <c r="F90" t="s">
+        <v>380</v>
+      </c>
+      <c r="G90">
+        <v>220</v>
+      </c>
+      <c r="H90">
+        <v>220</v>
+      </c>
+      <c r="I90">
+        <v>15</v>
+      </c>
+      <c r="J90">
+        <v>50</v>
+      </c>
+      <c r="K90" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" t="s">
+        <v>381</v>
+      </c>
+      <c r="F91" t="s">
+        <v>382</v>
+      </c>
+      <c r="G91">
+        <v>220</v>
+      </c>
+      <c r="H91">
+        <v>220</v>
+      </c>
+      <c r="I91">
+        <v>15</v>
+      </c>
+      <c r="J91">
+        <v>50</v>
+      </c>
+      <c r="K91" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" t="s">
+        <v>383</v>
+      </c>
+      <c r="F92" t="s">
+        <v>384</v>
+      </c>
+      <c r="G92">
+        <v>220</v>
+      </c>
+      <c r="H92">
+        <v>220</v>
+      </c>
+      <c r="I92">
+        <v>15</v>
+      </c>
+      <c r="J92">
+        <v>50</v>
+      </c>
+      <c r="K92" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>93</v>
+      </c>
+      <c r="E93" t="s">
+        <v>385</v>
+      </c>
+      <c r="F93" t="s">
+        <v>386</v>
+      </c>
+      <c r="G93">
+        <v>220</v>
+      </c>
+      <c r="H93">
+        <v>220</v>
+      </c>
+      <c r="I93">
+        <v>15</v>
+      </c>
+      <c r="J93">
+        <v>50</v>
+      </c>
+      <c r="K93" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" t="s">
+        <v>387</v>
+      </c>
+      <c r="F94" t="s">
+        <v>388</v>
+      </c>
+      <c r="G94">
+        <v>300</v>
+      </c>
+      <c r="H94">
+        <v>300</v>
+      </c>
+      <c r="I94">
+        <v>20</v>
+      </c>
+      <c r="J94">
+        <v>55</v>
+      </c>
+      <c r="K94" s="73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E95" t="s">
+        <v>389</v>
+      </c>
+      <c r="F95" t="s">
+        <v>390</v>
+      </c>
+      <c r="G95">
+        <v>200</v>
+      </c>
+      <c r="H95">
+        <v>200</v>
+      </c>
+      <c r="I95">
+        <v>8</v>
+      </c>
+      <c r="J95">
+        <v>75</v>
+      </c>
+      <c r="K95" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>101</v>
+      </c>
+      <c r="E96" t="s">
+        <v>391</v>
+      </c>
+      <c r="F96" t="s">
+        <v>392</v>
+      </c>
+      <c r="G96">
+        <v>200</v>
+      </c>
+      <c r="H96">
+        <v>200</v>
+      </c>
+      <c r="I96">
+        <v>8</v>
+      </c>
+      <c r="J96">
+        <v>75</v>
+      </c>
+      <c r="K96" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>393</v>
+      </c>
+      <c r="F97" t="s">
+        <v>394</v>
+      </c>
+      <c r="G97">
+        <v>200</v>
+      </c>
+      <c r="H97">
+        <v>200</v>
+      </c>
+      <c r="I97">
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <v>75</v>
+      </c>
+      <c r="K97" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -9866,7 +10895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G2:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -21627,7 +22656,7 @@
         <v>20</v>
       </c>
       <c r="P6" s="51">
-        <f t="shared" ref="P6:P8" si="0">ROUND(O6/N6,2)</f>
+        <f>ROUND(O6/N6,2)</f>
         <v>0.4</v>
       </c>
       <c r="R6" s="61">
@@ -21654,7 +22683,7 @@
         <v>20</v>
       </c>
       <c r="P7" s="54">
-        <f t="shared" si="0"/>
+        <f>ROUND(O7/N7,2)</f>
         <v>0.33</v>
       </c>
       <c r="R7" s="61">
@@ -21681,7 +22710,7 @@
         <v>20</v>
       </c>
       <c r="P8" s="57">
-        <f t="shared" si="0"/>
+        <f>ROUND(O8/N8,2)</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="R8" s="61">
@@ -21761,7 +22790,7 @@
         <v>35</v>
       </c>
       <c r="J13" s="48">
-        <f>$D$5</f>
+        <f t="shared" ref="J13:J24" si="0">$D$5</f>
         <v>20</v>
       </c>
       <c r="K13" s="48">
@@ -21780,11 +22809,11 @@
         <v>35</v>
       </c>
       <c r="J14" s="48">
-        <f t="shared" ref="J14:J17" si="1">$D$5</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K14" s="48">
-        <f t="shared" ref="K14:K17" si="2">$I$41/$I$13</f>
+        <f>$I$41/$I$13</f>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -21796,11 +22825,11 @@
         <v>35</v>
       </c>
       <c r="J15" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K15" s="48">
-        <f t="shared" si="2"/>
+        <f>$I$41/$I$13</f>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -21812,11 +22841,11 @@
         <v>35</v>
       </c>
       <c r="J16" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K16" s="48">
-        <f t="shared" si="2"/>
+        <f>$I$41/$I$13</f>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -21828,11 +22857,11 @@
         <v>40</v>
       </c>
       <c r="J17" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K17" s="48">
-        <f t="shared" si="2"/>
+        <f>$I$41/$I$13</f>
         <v>2.5714285714285716</v>
       </c>
     </row>
@@ -21844,11 +22873,11 @@
         <v>50</v>
       </c>
       <c r="J18" s="51">
-        <f>$D$5</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K18" s="51">
-        <f t="shared" ref="K18:K23" si="3">$I$41/$I$18</f>
+        <f t="shared" ref="K18:K23" si="1">$I$41/$I$18</f>
         <v>1.8</v>
       </c>
       <c r="L18" t="s">
@@ -21863,11 +22892,11 @@
         <v>50</v>
       </c>
       <c r="J19" s="51">
-        <f t="shared" ref="J19:J23" si="4">$D$5</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K19" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
@@ -21879,11 +22908,11 @@
         <v>50</v>
       </c>
       <c r="J20" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K20" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
@@ -21895,11 +22924,11 @@
         <v>50</v>
       </c>
       <c r="J21" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K21" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
@@ -21911,11 +22940,11 @@
         <v>50</v>
       </c>
       <c r="J22" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K22" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
@@ -21927,11 +22956,11 @@
         <v>50</v>
       </c>
       <c r="J23" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K23" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
     </row>
@@ -21943,7 +22972,7 @@
         <v>60</v>
       </c>
       <c r="J24" s="54">
-        <f>$D$5</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K24" s="54">
@@ -21962,11 +22991,11 @@
         <v>60</v>
       </c>
       <c r="J25" s="54">
-        <f t="shared" ref="J25:J31" si="5">$D$5</f>
+        <f t="shared" ref="J25:J31" si="2">$D$5</f>
         <v>20</v>
       </c>
       <c r="K25" s="54">
-        <f t="shared" ref="K25:K31" si="6">$I$41/$I$24</f>
+        <f t="shared" ref="K25:K31" si="3">$I$41/$I$24</f>
         <v>1.5</v>
       </c>
     </row>
@@ -21978,11 +23007,11 @@
         <v>60</v>
       </c>
       <c r="J26" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K26" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -21994,11 +23023,11 @@
         <v>60</v>
       </c>
       <c r="J27" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K27" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -22010,11 +23039,11 @@
         <v>60</v>
       </c>
       <c r="J28" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K28" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -22026,11 +23055,11 @@
         <v>60</v>
       </c>
       <c r="J29" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K29" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -22042,11 +23071,11 @@
         <v>60</v>
       </c>
       <c r="J30" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K30" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -22058,11 +23087,11 @@
         <v>60</v>
       </c>
       <c r="J31" s="54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K31" s="54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
     </row>
@@ -22093,11 +23122,11 @@
         <v>70</v>
       </c>
       <c r="J33" s="57">
-        <f t="shared" ref="J33:J40" si="7">$D$5</f>
+        <f t="shared" ref="J33:J40" si="4">$D$5</f>
         <v>20</v>
       </c>
       <c r="K33" s="57">
-        <f t="shared" ref="K33:K40" si="8">$I$41/$I$32</f>
+        <f t="shared" ref="K33:K40" si="5">$I$41/$I$32</f>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -22109,11 +23138,11 @@
         <v>75</v>
       </c>
       <c r="J34" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K34" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -22125,11 +23154,11 @@
         <v>75</v>
       </c>
       <c r="J35" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K35" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -22141,11 +23170,11 @@
         <v>75</v>
       </c>
       <c r="J36" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K36" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -22157,11 +23186,11 @@
         <v>80</v>
       </c>
       <c r="J37" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K37" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -22173,11 +23202,11 @@
         <v>80</v>
       </c>
       <c r="J38" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K38" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -22189,11 +23218,11 @@
         <v>80</v>
       </c>
       <c r="J39" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K39" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -22205,11 +23234,11 @@
         <v>85</v>
       </c>
       <c r="J40" s="57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="K40" s="57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.2857142857142858</v>
       </c>
     </row>
@@ -22236,7 +23265,7 @@
         <v>90</v>
       </c>
       <c r="J42" s="65">
-        <f t="shared" ref="J42:J51" si="9">$D$5</f>
+        <f t="shared" ref="J42:J51" si="6">$D$5</f>
         <v>20</v>
       </c>
       <c r="K42" s="65">
@@ -22251,7 +23280,7 @@
         <v>90</v>
       </c>
       <c r="J43" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K43" s="65">
@@ -22266,7 +23295,7 @@
         <v>90</v>
       </c>
       <c r="J44" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K44" s="65">
@@ -22281,7 +23310,7 @@
         <v>90</v>
       </c>
       <c r="J45" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K45" s="65">
@@ -22296,7 +23325,7 @@
         <v>90</v>
       </c>
       <c r="J46" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K46" s="65">
@@ -22311,7 +23340,7 @@
         <v>90</v>
       </c>
       <c r="J47" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K47" s="65">
@@ -22326,7 +23355,7 @@
         <v>90</v>
       </c>
       <c r="J48" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K48" s="65">
@@ -22341,7 +23370,7 @@
         <v>90</v>
       </c>
       <c r="J49" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K49" s="65">
@@ -22356,7 +23385,7 @@
         <v>100</v>
       </c>
       <c r="J50" s="65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K50" s="65">
@@ -22371,7 +23400,7 @@
         <v>100</v>
       </c>
       <c r="J51" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K51" s="60">

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -4181,7 +4181,7 @@
   <dimension ref="D5:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="424">
   <si>
     <t>SP_Archer01_Static</t>
   </si>
@@ -1228,6 +1228,72 @@
   </si>
   <si>
     <t>Que pasa con los barcos?</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>SP_Troll</t>
+  </si>
+  <si>
+    <t>PF_Troll</t>
+  </si>
+  <si>
+    <t>SP_TropicalFish</t>
+  </si>
+  <si>
+    <t>PF_TropicalFish</t>
+  </si>
+  <si>
+    <t>SP_Villager01</t>
+  </si>
+  <si>
+    <t>PF_Villager01</t>
+  </si>
+  <si>
+    <t>SP_Villager01_Static</t>
+  </si>
+  <si>
+    <t>PF_Villager01_Static</t>
+  </si>
+  <si>
+    <t>SP_Villager02</t>
+  </si>
+  <si>
+    <t>PF_Villager02</t>
+  </si>
+  <si>
+    <t>SP_Villager02_Static</t>
+  </si>
+  <si>
+    <t>PF_Villager02_Static</t>
+  </si>
+  <si>
+    <t>SP_witch</t>
+  </si>
+  <si>
+    <t>PF_Witch</t>
+  </si>
+  <si>
+    <t>SP_Worker01</t>
+  </si>
+  <si>
+    <t>PF_Worker01</t>
+  </si>
+  <si>
+    <t>SP_Worker02</t>
+  </si>
+  <si>
+    <t>PF_Worker02</t>
+  </si>
+  <si>
+    <t>SP_WorkerWife</t>
+  </si>
+  <si>
+    <t>PF_WorkerWife</t>
+  </si>
+  <si>
+    <t>Edible Tier</t>
   </si>
 </sst>
 </file>
@@ -1783,7 +1849,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1815,9 +1887,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2044,11 +2113,11 @@
         </c:dLbls>
         <c:gapWidth val="228"/>
         <c:overlap val="100"/>
-        <c:axId val="82293120"/>
-        <c:axId val="82294656"/>
+        <c:axId val="81703296"/>
+        <c:axId val="81704832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82293120"/>
+        <c:axId val="81703296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82294656"/>
+        <c:crossAx val="81704832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2066,7 +2135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82294656"/>
+        <c:axId val="81704832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2077,7 +2146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82293120"/>
+        <c:crossAx val="81703296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2239,11 +2308,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83903616"/>
-        <c:axId val="83905536"/>
+        <c:axId val="81962112"/>
+        <c:axId val="81964032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83903616"/>
+        <c:axId val="81962112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83905536"/>
+        <c:crossAx val="81964032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2261,7 +2330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83905536"/>
+        <c:axId val="81964032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2340,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83903616"/>
+        <c:crossAx val="81962112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2449,11 +2518,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84125952"/>
-        <c:axId val="86790528"/>
+        <c:axId val="82090240"/>
+        <c:axId val="86397312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84125952"/>
+        <c:axId val="82090240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2463,7 +2532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86790528"/>
+        <c:crossAx val="86397312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2471,7 +2540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86790528"/>
+        <c:axId val="86397312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84125952"/>
+        <c:crossAx val="82090240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3764,12 +3833,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D11:K89" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="D11:K89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D11:L99" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="D11:L99"/>
   <sortState ref="D11:K98">
     <sortCondition ref="D10:D98"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" name="Content Sku"/>
     <tableColumn id="2" name="Spawner Prefab"/>
     <tableColumn id="3" name="Entity Prefab"/>
@@ -3777,7 +3846,8 @@
     <tableColumn id="5" name="Respawn Max"/>
     <tableColumn id="6" name="HP Given"/>
     <tableColumn id="7" name="XP Given"/>
-    <tableColumn id="8" name="Damage" dataDxfId="6"/>
+    <tableColumn id="8" name="Edible Tier" dataDxfId="1"/>
+    <tableColumn id="9" name="Damage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3797,23 +3867,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B17:H533" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B17:H533" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B17:H533"/>
   <sortState ref="B18:H533">
     <sortCondition ref="B17:B533"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="spawner_sku" dataDxfId="4"/>
+    <tableColumn id="1" name="spawner_sku" dataDxfId="6"/>
     <tableColumn id="2" name="entity_spawned (AVG)"/>
     <tableColumn id="5" name="respawn_time"/>
     <tableColumn id="6" name="activating_chance"/>
-    <tableColumn id="7" name="XP" dataDxfId="3">
+    <tableColumn id="7" name="XP" dataDxfId="5">
       <calculatedColumnFormula>Entities!#REF!*Table245[[#This Row],[entity_spawned (AVG)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="total xp" dataDxfId="2">
+    <tableColumn id="8" name="total xp" dataDxfId="4">
       <calculatedColumnFormula>ROUND((Table245[[#This Row],[XP]]*Table245[[#This Row],[entity_spawned (AVG)]])*(Table245[[#This Row],[activating_chance]]/100),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Aggresive" dataDxfId="1"/>
+    <tableColumn id="3" name="Aggresive" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3831,7 +3901,7 @@
     <tableColumn id="5" name="respawn_time"/>
     <tableColumn id="6" name="activating_chance"/>
     <tableColumn id="8" name="XP"/>
-    <tableColumn id="9" name="total xp" dataDxfId="0">
+    <tableColumn id="9" name="total xp" dataDxfId="2">
       <calculatedColumnFormula>ROUND((Table3[[#This Row],[XP]]*Table3[[#This Row],[entity_spawned (AVG)]])*(Table3[[#This Row],[activating_chance]]/100),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Aggressive"/>
@@ -4130,10 +4200,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="D2:K89"/>
+  <dimension ref="D2:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4145,45 +4215,46 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>307</v>
       </c>
@@ -4206,10 +4277,13 @@
         <v>312</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>79</v>
       </c>
@@ -4232,10 +4306,13 @@
         <v>75</v>
       </c>
       <c r="K12" s="73">
+        <v>0</v>
+      </c>
+      <c r="L12" s="73">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>79</v>
       </c>
@@ -4258,10 +4335,13 @@
         <v>75</v>
       </c>
       <c r="K13" s="73">
+        <v>0</v>
+      </c>
+      <c r="L13" s="73">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>80</v>
       </c>
@@ -4284,10 +4364,13 @@
         <v>75</v>
       </c>
       <c r="K14" s="73">
+        <v>0</v>
+      </c>
+      <c r="L14" s="73">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>80</v>
       </c>
@@ -4310,10 +4393,13 @@
         <v>75</v>
       </c>
       <c r="K15" s="73">
+        <v>0</v>
+      </c>
+      <c r="L15" s="73">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>95</v>
       </c>
@@ -4335,11 +4421,14 @@
       <c r="J16">
         <v>25</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="73">
+        <v>0</v>
+      </c>
+      <c r="L16" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>81</v>
       </c>
@@ -4362,10 +4451,13 @@
         <v>50</v>
       </c>
       <c r="K17" s="73">
+        <v>0</v>
+      </c>
+      <c r="L17" s="73">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>102</v>
       </c>
@@ -4388,10 +4480,13 @@
         <v>25</v>
       </c>
       <c r="K18" s="73">
+        <v>1</v>
+      </c>
+      <c r="L18" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>103</v>
       </c>
@@ -4413,11 +4508,14 @@
       <c r="J19">
         <v>50</v>
       </c>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="73">
+        <v>0</v>
+      </c>
+      <c r="L19" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>103</v>
       </c>
@@ -4439,11 +4537,14 @@
       <c r="J20">
         <v>50</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="73">
+        <v>0</v>
+      </c>
+      <c r="L20" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>82</v>
       </c>
@@ -4465,11 +4566,14 @@
       <c r="J21">
         <v>75</v>
       </c>
-      <c r="K21" s="73" t="s">
+      <c r="K21" s="73">
+        <v>0</v>
+      </c>
+      <c r="L21" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>82</v>
       </c>
@@ -4491,11 +4595,14 @@
       <c r="J22">
         <v>75</v>
       </c>
-      <c r="K22" s="73" t="s">
+      <c r="K22" s="73">
+        <v>0</v>
+      </c>
+      <c r="L22" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>98</v>
       </c>
@@ -4518,10 +4625,13 @@
         <v>25</v>
       </c>
       <c r="K23" s="73">
+        <v>0</v>
+      </c>
+      <c r="L23" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>114</v>
       </c>
@@ -4543,11 +4653,14 @@
       <c r="J24">
         <v>25</v>
       </c>
-      <c r="K24" s="73" t="s">
+      <c r="K24" s="73">
+        <v>0</v>
+      </c>
+      <c r="L24" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>115</v>
       </c>
@@ -4569,11 +4682,14 @@
       <c r="J25">
         <v>25</v>
       </c>
-      <c r="K25" s="73" t="s">
+      <c r="K25" s="73">
+        <v>0</v>
+      </c>
+      <c r="L25" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>116</v>
       </c>
@@ -4595,11 +4711,14 @@
       <c r="J26">
         <v>25</v>
       </c>
-      <c r="K26" s="73" t="s">
+      <c r="K26" s="73">
+        <v>0</v>
+      </c>
+      <c r="L26" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>117</v>
       </c>
@@ -4621,11 +4740,14 @@
       <c r="J27">
         <v>75</v>
       </c>
-      <c r="K27" s="73" t="s">
+      <c r="K27" s="73">
+        <v>0</v>
+      </c>
+      <c r="L27" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>114</v>
       </c>
@@ -4647,11 +4769,14 @@
       <c r="J28">
         <v>25</v>
       </c>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="73">
+        <v>0</v>
+      </c>
+      <c r="L28" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>114</v>
       </c>
@@ -4673,11 +4798,14 @@
       <c r="J29">
         <v>25</v>
       </c>
-      <c r="K29" s="73" t="s">
+      <c r="K29" s="73">
+        <v>0</v>
+      </c>
+      <c r="L29" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>83</v>
       </c>
@@ -4699,11 +4827,14 @@
       <c r="J30">
         <v>50</v>
       </c>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="73">
+        <v>1</v>
+      </c>
+      <c r="L30" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>83</v>
       </c>
@@ -4725,11 +4856,14 @@
       <c r="J31">
         <v>50</v>
       </c>
-      <c r="K31" s="73" t="s">
+      <c r="K31" s="73">
+        <v>1</v>
+      </c>
+      <c r="L31" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>136</v>
       </c>
@@ -4752,10 +4886,13 @@
         <v>75</v>
       </c>
       <c r="K32" s="73">
+        <v>1</v>
+      </c>
+      <c r="L32" s="73">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>136</v>
       </c>
@@ -4777,11 +4914,14 @@
       <c r="J33">
         <v>75</v>
       </c>
-      <c r="K33" s="73" t="s">
+      <c r="K33" s="73">
+        <v>1</v>
+      </c>
+      <c r="L33" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>118</v>
       </c>
@@ -4803,11 +4943,14 @@
       <c r="J34">
         <v>50</v>
       </c>
-      <c r="K34" s="73" t="s">
+      <c r="K34" s="73">
+        <v>0</v>
+      </c>
+      <c r="L34" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>84</v>
       </c>
@@ -4829,11 +4972,14 @@
       <c r="J35">
         <v>25</v>
       </c>
-      <c r="K35" s="73" t="s">
+      <c r="K35" s="73">
+        <v>0</v>
+      </c>
+      <c r="L35" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>119</v>
       </c>
@@ -4856,10 +5002,13 @@
         <v>25</v>
       </c>
       <c r="K36" s="73">
+        <v>0</v>
+      </c>
+      <c r="L36" s="73">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>120</v>
       </c>
@@ -4882,10 +5031,13 @@
         <v>25</v>
       </c>
       <c r="K37" s="73">
+        <v>1</v>
+      </c>
+      <c r="L37" s="73">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>121</v>
       </c>
@@ -4908,10 +5060,13 @@
         <v>75</v>
       </c>
       <c r="K38" s="73">
+        <v>2</v>
+      </c>
+      <c r="L38" s="73">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>122</v>
       </c>
@@ -4934,10 +5089,13 @@
         <v>75</v>
       </c>
       <c r="K39" s="73">
+        <v>3</v>
+      </c>
+      <c r="L39" s="73">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>123</v>
       </c>
@@ -4960,10 +5118,13 @@
         <v>75</v>
       </c>
       <c r="K40" s="73">
+        <v>4</v>
+      </c>
+      <c r="L40" s="73">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>137</v>
       </c>
@@ -4985,11 +5146,14 @@
       <c r="J41">
         <v>25</v>
       </c>
-      <c r="K41" s="73" t="s">
+      <c r="K41" s="73">
+        <v>0</v>
+      </c>
+      <c r="L41" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>138</v>
       </c>
@@ -5011,11 +5175,14 @@
       <c r="J42">
         <v>75</v>
       </c>
-      <c r="K42" s="73" t="s">
+      <c r="K42" s="73">
+        <v>0</v>
+      </c>
+      <c r="L42" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>139</v>
       </c>
@@ -5037,11 +5204,14 @@
       <c r="J43">
         <v>75</v>
       </c>
-      <c r="K43" s="73" t="s">
+      <c r="K43" s="73">
+        <v>0</v>
+      </c>
+      <c r="L43" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>124</v>
       </c>
@@ -5063,11 +5233,14 @@
       <c r="J44">
         <v>25</v>
       </c>
-      <c r="K44" s="73" t="s">
+      <c r="K44" s="73">
+        <v>0</v>
+      </c>
+      <c r="L44" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>94</v>
       </c>
@@ -5089,11 +5262,14 @@
       <c r="J45">
         <v>25</v>
       </c>
-      <c r="K45" s="73" t="s">
+      <c r="K45" s="73">
+        <v>1</v>
+      </c>
+      <c r="L45" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>125</v>
       </c>
@@ -5116,10 +5292,13 @@
         <v>75</v>
       </c>
       <c r="K46" s="73">
+        <v>3</v>
+      </c>
+      <c r="L46" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>125</v>
       </c>
@@ -5142,10 +5321,13 @@
         <v>75</v>
       </c>
       <c r="K47" s="73">
+        <v>3</v>
+      </c>
+      <c r="L47" s="73">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>126</v>
       </c>
@@ -5168,10 +5350,13 @@
         <v>75</v>
       </c>
       <c r="K48" s="73">
+        <v>4</v>
+      </c>
+      <c r="L48" s="73">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>126</v>
       </c>
@@ -5194,10 +5379,13 @@
         <v>75</v>
       </c>
       <c r="K49" s="73">
+        <v>4</v>
+      </c>
+      <c r="L49" s="73">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>127</v>
       </c>
@@ -5220,10 +5408,13 @@
         <v>75</v>
       </c>
       <c r="K50" s="73">
+        <v>5</v>
+      </c>
+      <c r="L50" s="73">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>127</v>
       </c>
@@ -5246,10 +5437,13 @@
         <v>75</v>
       </c>
       <c r="K51" s="73">
+        <v>5</v>
+      </c>
+      <c r="L51" s="73">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>114</v>
       </c>
@@ -5271,11 +5465,14 @@
       <c r="J52">
         <v>25</v>
       </c>
-      <c r="K52" s="73" t="s">
+      <c r="K52" s="73">
+        <v>0</v>
+      </c>
+      <c r="L52" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>96</v>
       </c>
@@ -5297,11 +5494,14 @@
       <c r="J53">
         <v>25</v>
       </c>
-      <c r="K53" s="73" t="s">
+      <c r="K53" s="73">
+        <v>0</v>
+      </c>
+      <c r="L53" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>97</v>
       </c>
@@ -5323,11 +5523,14 @@
       <c r="J54">
         <v>50</v>
       </c>
-      <c r="K54" s="73" t="s">
+      <c r="K54" s="73">
+        <v>0</v>
+      </c>
+      <c r="L54" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>10</v>
       </c>
@@ -5347,8 +5550,9 @@
         <v>10</v>
       </c>
       <c r="K55" s="73"/>
-    </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="73"/>
+    </row>
+    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>128</v>
       </c>
@@ -5371,10 +5575,13 @@
         <v>50</v>
       </c>
       <c r="K56" s="73">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L56" s="73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>85</v>
       </c>
@@ -5396,11 +5603,14 @@
       <c r="J57">
         <v>75</v>
       </c>
-      <c r="K57" s="73" t="s">
+      <c r="K57" s="73">
+        <v>1</v>
+      </c>
+      <c r="L57" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>85</v>
       </c>
@@ -5422,11 +5632,14 @@
       <c r="J58">
         <v>75</v>
       </c>
-      <c r="K58" s="73" t="s">
+      <c r="K58" s="73">
+        <v>1</v>
+      </c>
+      <c r="L58" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>99</v>
       </c>
@@ -5449,10 +5662,13 @@
         <v>55</v>
       </c>
       <c r="K59" s="73">
+        <v>0</v>
+      </c>
+      <c r="L59" s="73">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>129</v>
       </c>
@@ -5475,10 +5691,13 @@
         <v>83</v>
       </c>
       <c r="K60" s="73">
+        <v>1</v>
+      </c>
+      <c r="L60" s="73">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>86</v>
       </c>
@@ -5501,10 +5720,13 @@
         <v>55</v>
       </c>
       <c r="K61" s="73">
+        <v>0</v>
+      </c>
+      <c r="L61" s="73">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>130</v>
       </c>
@@ -5527,10 +5749,13 @@
         <v>28</v>
       </c>
       <c r="K62" s="73">
+        <v>5</v>
+      </c>
+      <c r="L62" s="73">
         <v>440</v>
       </c>
     </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>130</v>
       </c>
@@ -5553,10 +5778,13 @@
         <v>28</v>
       </c>
       <c r="K63" s="73">
+        <v>5</v>
+      </c>
+      <c r="L63" s="73">
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>131</v>
       </c>
@@ -5579,10 +5807,13 @@
         <v>83</v>
       </c>
       <c r="K64" s="73">
+        <v>5</v>
+      </c>
+      <c r="L64" s="73">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>131</v>
       </c>
@@ -5605,10 +5836,13 @@
         <v>83</v>
       </c>
       <c r="K65" s="73">
+        <v>5</v>
+      </c>
+      <c r="L65" s="73">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>318</v>
       </c>
@@ -5631,10 +5865,13 @@
         <v>55</v>
       </c>
       <c r="K66" s="73">
+        <v>4</v>
+      </c>
+      <c r="L66" s="73">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>318</v>
       </c>
@@ -5657,10 +5894,13 @@
         <v>55</v>
       </c>
       <c r="K67" s="73">
+        <v>4</v>
+      </c>
+      <c r="L67" s="73">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>133</v>
       </c>
@@ -5682,11 +5922,14 @@
       <c r="J68">
         <v>55</v>
       </c>
-      <c r="K68" s="73" t="s">
+      <c r="K68" s="73">
+        <v>1</v>
+      </c>
+      <c r="L68" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>132</v>
       </c>
@@ -5708,11 +5951,14 @@
       <c r="J69">
         <v>28</v>
       </c>
-      <c r="K69" s="73" t="s">
+      <c r="K69" s="73">
+        <v>0</v>
+      </c>
+      <c r="L69" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>327</v>
       </c>
@@ -5735,10 +5981,13 @@
         <v>28</v>
       </c>
       <c r="K70" s="73">
+        <v>1</v>
+      </c>
+      <c r="L70" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>330</v>
       </c>
@@ -5761,10 +6010,13 @@
         <v>83</v>
       </c>
       <c r="K71" s="73">
+        <v>1</v>
+      </c>
+      <c r="L71" s="73">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>333</v>
       </c>
@@ -5786,11 +6038,14 @@
       <c r="J72">
         <v>55</v>
       </c>
-      <c r="K72" s="73" t="s">
+      <c r="K72" s="73">
+        <v>0</v>
+      </c>
+      <c r="L72" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>87</v>
       </c>
@@ -5812,11 +6067,14 @@
       <c r="J73">
         <v>55</v>
       </c>
-      <c r="K73" s="73" t="s">
+      <c r="K73" s="73">
+        <v>0</v>
+      </c>
+      <c r="L73" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>87</v>
       </c>
@@ -5838,11 +6096,14 @@
       <c r="J74">
         <v>55</v>
       </c>
-      <c r="K74" s="73" t="s">
+      <c r="K74" s="73">
+        <v>0</v>
+      </c>
+      <c r="L74" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>82</v>
       </c>
@@ -5864,11 +6125,14 @@
       <c r="J75">
         <v>75</v>
       </c>
-      <c r="K75" s="73" t="s">
+      <c r="K75" s="73">
+        <v>0</v>
+      </c>
+      <c r="L75" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>340</v>
       </c>
@@ -5891,10 +6155,13 @@
         <v>55</v>
       </c>
       <c r="K76" s="73">
+        <v>1</v>
+      </c>
+      <c r="L76" s="73">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>88</v>
       </c>
@@ -5916,11 +6183,14 @@
       <c r="J77">
         <v>83</v>
       </c>
-      <c r="K77" s="73" t="s">
+      <c r="K77" s="73">
+        <v>0</v>
+      </c>
+      <c r="L77" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>88</v>
       </c>
@@ -5942,11 +6212,14 @@
       <c r="J78">
         <v>83</v>
       </c>
-      <c r="K78" s="73" t="s">
+      <c r="K78" s="73">
+        <v>0</v>
+      </c>
+      <c r="L78" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>347</v>
       </c>
@@ -5968,11 +6241,14 @@
       <c r="J79">
         <v>55</v>
       </c>
-      <c r="K79" s="73" t="s">
+      <c r="K79" s="73">
+        <v>2</v>
+      </c>
+      <c r="L79" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>89</v>
       </c>
@@ -5995,10 +6271,13 @@
         <v>105</v>
       </c>
       <c r="K80" s="73">
+        <v>1</v>
+      </c>
+      <c r="L80" s="73">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>89</v>
       </c>
@@ -6021,10 +6300,13 @@
         <v>105</v>
       </c>
       <c r="K81" s="73">
+        <v>1</v>
+      </c>
+      <c r="L81" s="73">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>89</v>
       </c>
@@ -6047,10 +6329,13 @@
         <v>105</v>
       </c>
       <c r="K82" s="73">
+        <v>1</v>
+      </c>
+      <c r="L82" s="73">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>100</v>
       </c>
@@ -6073,10 +6358,13 @@
         <v>105</v>
       </c>
       <c r="K83" s="73">
+        <v>0</v>
+      </c>
+      <c r="L83" s="73">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>358</v>
       </c>
@@ -6099,10 +6387,13 @@
         <v>143</v>
       </c>
       <c r="K84" s="73">
+        <v>1</v>
+      </c>
+      <c r="L84" s="73">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>90</v>
       </c>
@@ -6125,10 +6416,13 @@
         <v>48</v>
       </c>
       <c r="K85" s="73">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L85" s="73">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>91</v>
       </c>
@@ -6150,11 +6444,14 @@
       <c r="J86">
         <v>195</v>
       </c>
-      <c r="K86" s="73" t="s">
+      <c r="K86" s="73">
+        <v>0</v>
+      </c>
+      <c r="L86" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>91</v>
       </c>
@@ -6176,11 +6473,14 @@
       <c r="J87">
         <v>195</v>
       </c>
-      <c r="K87" s="73" t="s">
+      <c r="K87" s="73">
+        <v>0</v>
+      </c>
+      <c r="L87" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>134</v>
       </c>
@@ -6202,11 +6502,14 @@
       <c r="J88">
         <v>195</v>
       </c>
-      <c r="K88" s="73" t="s">
+      <c r="K88" s="73">
+        <v>0</v>
+      </c>
+      <c r="L88" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>134</v>
       </c>
@@ -6228,7 +6531,300 @@
       <c r="J89">
         <v>195</v>
       </c>
-      <c r="K89" s="73" t="s">
+      <c r="K89" s="73">
+        <v>0</v>
+      </c>
+      <c r="L89" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>402</v>
+      </c>
+      <c r="E90" t="s">
+        <v>403</v>
+      </c>
+      <c r="F90" t="s">
+        <v>404</v>
+      </c>
+      <c r="G90">
+        <v>420</v>
+      </c>
+      <c r="H90">
+        <v>420</v>
+      </c>
+      <c r="I90">
+        <v>80</v>
+      </c>
+      <c r="J90">
+        <v>130</v>
+      </c>
+      <c r="K90" s="73">
+        <v>1</v>
+      </c>
+      <c r="L90" s="73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" t="s">
+        <v>405</v>
+      </c>
+      <c r="F91" t="s">
+        <v>406</v>
+      </c>
+      <c r="G91">
+        <v>140</v>
+      </c>
+      <c r="H91">
+        <v>140</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>25</v>
+      </c>
+      <c r="K91" s="73">
+        <v>0</v>
+      </c>
+      <c r="L91" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" t="s">
+        <v>407</v>
+      </c>
+      <c r="F92" t="s">
+        <v>408</v>
+      </c>
+      <c r="G92">
+        <v>220</v>
+      </c>
+      <c r="H92">
+        <v>220</v>
+      </c>
+      <c r="I92">
+        <v>15</v>
+      </c>
+      <c r="J92">
+        <v>263</v>
+      </c>
+      <c r="K92" s="73">
+        <v>0</v>
+      </c>
+      <c r="L92" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>409</v>
+      </c>
+      <c r="F93" t="s">
+        <v>410</v>
+      </c>
+      <c r="G93">
+        <v>220</v>
+      </c>
+      <c r="H93">
+        <v>220</v>
+      </c>
+      <c r="I93">
+        <v>15</v>
+      </c>
+      <c r="J93">
+        <v>263</v>
+      </c>
+      <c r="K93" s="73">
+        <v>0</v>
+      </c>
+      <c r="L93" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>411</v>
+      </c>
+      <c r="F94" t="s">
+        <v>412</v>
+      </c>
+      <c r="G94">
+        <v>220</v>
+      </c>
+      <c r="H94">
+        <v>220</v>
+      </c>
+      <c r="I94">
+        <v>15</v>
+      </c>
+      <c r="J94">
+        <v>263</v>
+      </c>
+      <c r="K94" s="73">
+        <v>0</v>
+      </c>
+      <c r="L94" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" t="s">
+        <v>413</v>
+      </c>
+      <c r="F95" t="s">
+        <v>414</v>
+      </c>
+      <c r="G95">
+        <v>220</v>
+      </c>
+      <c r="H95">
+        <v>220</v>
+      </c>
+      <c r="I95">
+        <v>15</v>
+      </c>
+      <c r="J95">
+        <v>263</v>
+      </c>
+      <c r="K95" s="73">
+        <v>0</v>
+      </c>
+      <c r="L95" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" t="s">
+        <v>415</v>
+      </c>
+      <c r="F96" t="s">
+        <v>416</v>
+      </c>
+      <c r="G96">
+        <v>300</v>
+      </c>
+      <c r="H96">
+        <v>300</v>
+      </c>
+      <c r="I96">
+        <v>20</v>
+      </c>
+      <c r="J96">
+        <v>175</v>
+      </c>
+      <c r="K96" s="73">
+        <v>1</v>
+      </c>
+      <c r="L96" s="73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" t="s">
+        <v>417</v>
+      </c>
+      <c r="F97" t="s">
+        <v>418</v>
+      </c>
+      <c r="G97">
+        <v>200</v>
+      </c>
+      <c r="H97">
+        <v>200</v>
+      </c>
+      <c r="I97">
+        <v>8</v>
+      </c>
+      <c r="J97">
+        <v>75</v>
+      </c>
+      <c r="K97" s="73">
+        <v>0</v>
+      </c>
+      <c r="L97" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" t="s">
+        <v>419</v>
+      </c>
+      <c r="F98" t="s">
+        <v>420</v>
+      </c>
+      <c r="G98">
+        <v>200</v>
+      </c>
+      <c r="H98">
+        <v>200</v>
+      </c>
+      <c r="I98">
+        <v>8</v>
+      </c>
+      <c r="J98">
+        <v>75</v>
+      </c>
+      <c r="K98" s="73">
+        <v>0</v>
+      </c>
+      <c r="L98" s="73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" t="s">
+        <v>421</v>
+      </c>
+      <c r="F99" t="s">
+        <v>422</v>
+      </c>
+      <c r="G99">
+        <v>200</v>
+      </c>
+      <c r="H99">
+        <v>200</v>
+      </c>
+      <c r="I99">
+        <v>8</v>
+      </c>
+      <c r="J99">
+        <v>75</v>
+      </c>
+      <c r="K99" s="73">
+        <v>0</v>
+      </c>
+      <c r="L99" s="73" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11746,7 +12342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P533"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="432">
   <si>
     <t>SP_Archer01_Static</t>
   </si>
@@ -975,9 +975,6 @@
     <t>PF_MineMedium_Static</t>
   </si>
   <si>
-    <t>Falta añadir PF_Scaffold. Respawn time = 150</t>
-  </si>
-  <si>
     <t>MineSmall</t>
   </si>
   <si>
@@ -1125,9 +1122,6 @@
     <t>PF_SpiderSmallTurret</t>
   </si>
   <si>
-    <t>SP_StarlingSmall_Flock</t>
-  </si>
-  <si>
     <t>PF_Starling_Flock</t>
   </si>
   <si>
@@ -1215,21 +1209,9 @@
     <t>PF_SeatVillager</t>
   </si>
   <si>
-    <t>Que pasa con la catapult?</t>
-  </si>
-  <si>
-    <t>Que pasa con la planta que lanza daño?</t>
-  </si>
-  <si>
-    <t>Que pasa con la marmita?</t>
-  </si>
-  <si>
     <t>Que pasa con la jaula de tierra?</t>
   </si>
   <si>
-    <t>Que pasa con los barcos?</t>
-  </si>
-  <si>
     <t>Troll</t>
   </si>
   <si>
@@ -1294,13 +1276,55 @@
   </si>
   <si>
     <t>Edible Tier</t>
+  </si>
+  <si>
+    <t>Hay 2 soldiers, podriamos tintar uno de ellos y que sea una version mas chunga?</t>
+  </si>
+  <si>
+    <t>Tropical fishes? FishGeneric?</t>
+  </si>
+  <si>
+    <t>EntityPrefabs not used:</t>
+  </si>
+  <si>
+    <t>PF_HorseFlying</t>
+  </si>
+  <si>
+    <t>PF_PROTO_Squid</t>
+  </si>
+  <si>
+    <t>PF_Cage</t>
+  </si>
+  <si>
+    <t>GoblinBoat</t>
+  </si>
+  <si>
+    <t>La hanging cage no tiene entrada de content?  DEBERA TENER CONTENT, SI</t>
+  </si>
+  <si>
+    <t>AMBIENT HAZARDS</t>
+  </si>
+  <si>
+    <t>PF_PoisonFlower</t>
+  </si>
+  <si>
+    <t>PF_Marmite</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
+  </si>
+  <si>
+    <t>PF_Catapult</t>
+  </si>
+  <si>
+    <t>PF_Scaffold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1342,6 +1366,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1741,7 +1772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1845,6 +1876,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2153,6 +2185,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3406,10 +3439,10 @@
       <sheetName val="events"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4">
         <row r="16">
           <cell r="M16">
@@ -3816,27 +3849,27 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D11:L99" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="D11:L99"/>
-  <sortState ref="D11:K98">
-    <sortCondition ref="D10:D98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D11:L98" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="D11:L98"/>
+  <sortState ref="D12:L99">
+    <sortCondition ref="E11:E99"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="Content Sku"/>
@@ -4200,10 +4233,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="D2:L99"/>
+  <dimension ref="D2:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4219,42 +4252,68 @@
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:15" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="77" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="77" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="77" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="77" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="N6" s="77" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>427</v>
+      </c>
+      <c r="H7" t="s">
+        <v>430</v>
+      </c>
+      <c r="O7" s="77" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>428</v>
+      </c>
+      <c r="H8" t="s">
+        <v>431</v>
+      </c>
+      <c r="O8" s="77" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="77" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>307</v>
       </c>
@@ -4277,13 +4336,13 @@
         <v>312</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>79</v>
       </c>
@@ -4312,7 +4371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>79</v>
       </c>
@@ -4341,7 +4400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>80</v>
       </c>
@@ -4370,7 +4429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>80</v>
       </c>
@@ -4399,7 +4458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>95</v>
       </c>
@@ -4636,7 +4695,7 @@
         <v>114</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="F24" t="s">
         <v>104</v>
@@ -4662,13 +4721,13 @@
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25">
         <v>180</v>
@@ -4691,13 +4750,13 @@
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G26">
         <v>180</v>
@@ -4720,13 +4779,13 @@
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G27">
         <v>180</v>
@@ -4738,7 +4797,7 @@
         <v>2</v>
       </c>
       <c r="J27">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K27" s="73">
         <v>0</v>
@@ -4749,13 +4808,13 @@
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G28">
         <v>180</v>
@@ -4778,13 +4837,13 @@
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G29">
         <v>180</v>
@@ -4796,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="J29">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K29" s="73">
         <v>0</v>
@@ -5445,7 +5504,7 @@
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>114</v>
+        <v>424</v>
       </c>
       <c r="E52" t="s">
         <v>305</v>
@@ -5460,13 +5519,13 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J52">
         <v>25</v>
       </c>
       <c r="K52" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="73" t="s">
         <v>10</v>
@@ -5546,11 +5605,10 @@
       <c r="H55">
         <v>450</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" s="73"/>
+      <c r="L55" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
     </row>
     <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
@@ -5844,13 +5902,13 @@
     </row>
     <row r="66" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" t="s">
         <v>318</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>319</v>
-      </c>
-      <c r="F66" t="s">
-        <v>320</v>
       </c>
       <c r="G66">
         <v>1500</v>
@@ -5873,13 +5931,13 @@
     </row>
     <row r="67" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E67" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" t="s">
         <v>321</v>
-      </c>
-      <c r="F67" t="s">
-        <v>322</v>
       </c>
       <c r="G67">
         <v>1500</v>
@@ -5905,10 +5963,10 @@
         <v>133</v>
       </c>
       <c r="E68" t="s">
+        <v>322</v>
+      </c>
+      <c r="F68" t="s">
         <v>323</v>
-      </c>
-      <c r="F68" t="s">
-        <v>324</v>
       </c>
       <c r="G68">
         <v>200</v>
@@ -5934,10 +5992,10 @@
         <v>132</v>
       </c>
       <c r="E69" t="s">
+        <v>324</v>
+      </c>
+      <c r="F69" t="s">
         <v>325</v>
-      </c>
-      <c r="F69" t="s">
-        <v>326</v>
       </c>
       <c r="G69">
         <v>140</v>
@@ -5960,13 +6018,13 @@
     </row>
     <row r="70" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" t="s">
         <v>327</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>328</v>
-      </c>
-      <c r="F70" t="s">
-        <v>329</v>
       </c>
       <c r="G70">
         <v>170</v>
@@ -5989,13 +6047,13 @@
     </row>
     <row r="71" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" t="s">
         <v>330</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>331</v>
-      </c>
-      <c r="F71" t="s">
-        <v>332</v>
       </c>
       <c r="G71">
         <v>220</v>
@@ -6018,13 +6076,13 @@
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
+        <v>332</v>
+      </c>
+      <c r="E72" t="s">
         <v>333</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>334</v>
-      </c>
-      <c r="F72" t="s">
-        <v>335</v>
       </c>
       <c r="G72">
         <v>120</v>
@@ -6050,10 +6108,10 @@
         <v>87</v>
       </c>
       <c r="E73" t="s">
+        <v>335</v>
+      </c>
+      <c r="F73" t="s">
         <v>336</v>
-      </c>
-      <c r="F73" t="s">
-        <v>337</v>
       </c>
       <c r="G73">
         <v>260</v>
@@ -6079,10 +6137,10 @@
         <v>87</v>
       </c>
       <c r="E74" t="s">
+        <v>337</v>
+      </c>
+      <c r="F74" t="s">
         <v>338</v>
-      </c>
-      <c r="F74" t="s">
-        <v>339</v>
       </c>
       <c r="G74">
         <v>260</v>
@@ -6108,10 +6166,10 @@
         <v>82</v>
       </c>
       <c r="E75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F75" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G75">
         <v>130</v>
@@ -6134,13 +6192,13 @@
     </row>
     <row r="76" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76" t="s">
         <v>340</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>341</v>
-      </c>
-      <c r="F76" t="s">
-        <v>342</v>
       </c>
       <c r="G76">
         <v>350</v>
@@ -6166,10 +6224,10 @@
         <v>88</v>
       </c>
       <c r="E77" t="s">
+        <v>342</v>
+      </c>
+      <c r="F77" t="s">
         <v>343</v>
-      </c>
-      <c r="F77" t="s">
-        <v>344</v>
       </c>
       <c r="G77">
         <v>200</v>
@@ -6195,10 +6253,10 @@
         <v>88</v>
       </c>
       <c r="E78" t="s">
+        <v>344</v>
+      </c>
+      <c r="F78" t="s">
         <v>345</v>
-      </c>
-      <c r="F78" t="s">
-        <v>346</v>
       </c>
       <c r="G78">
         <v>200</v>
@@ -6221,13 +6279,13 @@
     </row>
     <row r="79" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
+        <v>346</v>
+      </c>
+      <c r="E79" t="s">
         <v>347</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>348</v>
-      </c>
-      <c r="F79" t="s">
-        <v>349</v>
       </c>
       <c r="G79">
         <v>300</v>
@@ -6253,10 +6311,10 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
+        <v>349</v>
+      </c>
+      <c r="F80" t="s">
         <v>350</v>
-      </c>
-      <c r="F80" t="s">
-        <v>351</v>
       </c>
       <c r="G80">
         <v>310</v>
@@ -6282,10 +6340,10 @@
         <v>89</v>
       </c>
       <c r="E81" t="s">
+        <v>351</v>
+      </c>
+      <c r="F81" t="s">
         <v>352</v>
-      </c>
-      <c r="F81" t="s">
-        <v>353</v>
       </c>
       <c r="G81">
         <v>310</v>
@@ -6311,10 +6369,10 @@
         <v>89</v>
       </c>
       <c r="E82" t="s">
+        <v>353</v>
+      </c>
+      <c r="F82" t="s">
         <v>354</v>
-      </c>
-      <c r="F82" t="s">
-        <v>355</v>
       </c>
       <c r="G82">
         <v>310</v>
@@ -6340,10 +6398,10 @@
         <v>100</v>
       </c>
       <c r="E83" t="s">
+        <v>355</v>
+      </c>
+      <c r="F83" t="s">
         <v>356</v>
-      </c>
-      <c r="F83" t="s">
-        <v>357</v>
       </c>
       <c r="G83">
         <v>180</v>
@@ -6366,13 +6424,13 @@
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
+        <v>357</v>
+      </c>
+      <c r="E84" t="s">
         <v>358</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>359</v>
-      </c>
-      <c r="F84" t="s">
-        <v>360</v>
       </c>
       <c r="G84">
         <v>170</v>
@@ -6398,10 +6456,10 @@
         <v>90</v>
       </c>
       <c r="E85" t="s">
+        <v>360</v>
+      </c>
+      <c r="F85" t="s">
         <v>361</v>
-      </c>
-      <c r="F85" t="s">
-        <v>362</v>
       </c>
       <c r="G85">
         <v>170</v>
@@ -6427,10 +6485,10 @@
         <v>91</v>
       </c>
       <c r="E86" t="s">
+        <v>362</v>
+      </c>
+      <c r="F86" t="s">
         <v>363</v>
-      </c>
-      <c r="F86" t="s">
-        <v>364</v>
       </c>
       <c r="G86">
         <v>150</v>
@@ -6456,10 +6514,10 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
+        <v>364</v>
+      </c>
+      <c r="F87" t="s">
         <v>365</v>
-      </c>
-      <c r="F87" t="s">
-        <v>366</v>
       </c>
       <c r="G87">
         <v>150</v>
@@ -6488,7 +6546,7 @@
         <v>367</v>
       </c>
       <c r="F88" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G88">
         <v>180</v>
@@ -6511,83 +6569,83 @@
     </row>
     <row r="89" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>134</v>
+        <v>396</v>
       </c>
       <c r="E89" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="F89" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="G89">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="H89">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="I89">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="J89">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="K89" s="73">
-        <v>0</v>
-      </c>
-      <c r="L89" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L89" s="73">
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>402</v>
+        <v>137</v>
       </c>
       <c r="E90" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F90" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G90">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="H90">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="I90">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="J90">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="K90" s="73">
-        <v>1</v>
-      </c>
-      <c r="L90" s="73">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="L90" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="E91" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F91" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G91">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="H91">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J91">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="K91" s="73">
         <v>0</v>
@@ -6601,10 +6659,10 @@
         <v>92</v>
       </c>
       <c r="E92" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F92" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G92">
         <v>220</v>
@@ -6627,13 +6685,13 @@
     </row>
     <row r="93" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F93" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G93">
         <v>220</v>
@@ -6659,10 +6717,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F94" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G94">
         <v>220</v>
@@ -6685,60 +6743,60 @@
     </row>
     <row r="95" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="E95" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F95" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G95">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="H95">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="I95">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J95">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="K95" s="73">
-        <v>0</v>
-      </c>
-      <c r="L95" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L95" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="E96" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F96" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G96">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H96">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I96">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J96">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="K96" s="73">
-        <v>1</v>
-      </c>
-      <c r="L96" s="73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L96" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="4:12" x14ac:dyDescent="0.25">
@@ -6746,10 +6804,10 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F97" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G97">
         <v>200</v>
@@ -6775,10 +6833,10 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F98" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G98">
         <v>200</v>
@@ -6800,38 +6858,14 @@
       </c>
     </row>
     <row r="99" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>101</v>
-      </c>
-      <c r="E99" t="s">
-        <v>421</v>
-      </c>
-      <c r="F99" t="s">
-        <v>422</v>
-      </c>
-      <c r="G99">
-        <v>200</v>
-      </c>
-      <c r="H99">
-        <v>200</v>
-      </c>
-      <c r="I99">
-        <v>8</v>
-      </c>
-      <c r="J99">
-        <v>75</v>
-      </c>
-      <c r="K99" s="73">
-        <v>0</v>
-      </c>
-      <c r="L99" s="73" t="s">
-        <v>10</v>
-      </c>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6843,8 +6877,8 @@
   </sheetPr>
   <dimension ref="B1:U270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12342,8 +12376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P533"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12392,7 +12426,7 @@
         <v>233</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -12413,14 +12447,14 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C7" s="72">
         <f>COUNTA(Table245[spawner_sku])</f>
         <v>516</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K7" s="72">
         <f>COUNTA(Table3[spawner_sku])</f>
@@ -12429,14 +12463,14 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C8" s="75">
         <f>COUNTIF(Table245[Aggresive],"yes")</f>
         <v>200</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K8" s="75">
         <f>COUNTIF(Table3[Aggressive],"yes")</f>
@@ -12445,14 +12479,14 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C9" s="75">
         <f>COUNTIF(Table245[Aggresive],"no")</f>
         <v>316</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="K9" s="75">
         <f>COUNTIF(Table3[Aggressive],"no")</f>
@@ -12461,14 +12495,14 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C11" s="72">
         <f>SUM(Table245[entity_spawned (AVG)])</f>
         <v>891</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="K11" s="72">
         <f>SUM(Table3[entity_spawned (AVG)])</f>
@@ -12513,7 +12547,7 @@
         <v>240</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J17" t="s">
         <v>236</v>
@@ -12534,7 +12568,7 @@
         <v>240</v>
       </c>
       <c r="P17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -12558,7 +12592,7 @@
         <v>275</v>
       </c>
       <c r="H18" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J18" t="s">
         <v>241</v>
@@ -12580,7 +12614,7 @@
         <v>55</v>
       </c>
       <c r="P18" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -12604,7 +12638,7 @@
         <v>250</v>
       </c>
       <c r="H19" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J19" t="s">
         <v>241</v>
@@ -12626,7 +12660,7 @@
         <v>55</v>
       </c>
       <c r="P19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -12650,7 +12684,7 @@
         <v>175</v>
       </c>
       <c r="H20" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J20" t="s">
         <v>243</v>
@@ -12672,7 +12706,7 @@
         <v>50</v>
       </c>
       <c r="P20" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -12696,7 +12730,7 @@
         <v>30</v>
       </c>
       <c r="H21" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J21" t="s">
         <v>243</v>
@@ -12718,7 +12752,7 @@
         <v>150</v>
       </c>
       <c r="P21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -12742,7 +12776,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J22" t="s">
         <v>243</v>
@@ -12764,7 +12798,7 @@
         <v>21</v>
       </c>
       <c r="P22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -12788,7 +12822,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J23" t="s">
         <v>243</v>
@@ -12810,7 +12844,7 @@
         <v>50</v>
       </c>
       <c r="P23" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -12834,7 +12868,7 @@
         <v>50</v>
       </c>
       <c r="H24" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J24" t="s">
         <v>243</v>
@@ -12856,7 +12890,7 @@
         <v>21</v>
       </c>
       <c r="P24" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
@@ -12880,7 +12914,7 @@
         <v>25</v>
       </c>
       <c r="H25" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J25" t="s">
         <v>243</v>
@@ -12902,7 +12936,7 @@
         <v>21</v>
       </c>
       <c r="P25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
@@ -12926,7 +12960,7 @@
         <v>40</v>
       </c>
       <c r="H26" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J26" t="s">
         <v>243</v>
@@ -12948,7 +12982,7 @@
         <v>25</v>
       </c>
       <c r="P26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -12972,7 +13006,7 @@
         <v>15</v>
       </c>
       <c r="H27" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J27" t="s">
         <v>243</v>
@@ -12994,7 +13028,7 @@
         <v>50</v>
       </c>
       <c r="P27" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -13018,7 +13052,7 @@
         <v>75</v>
       </c>
       <c r="H28" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J28" t="s">
         <v>243</v>
@@ -13040,7 +13074,7 @@
         <v>50</v>
       </c>
       <c r="P28" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -13064,7 +13098,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J29" t="s">
         <v>243</v>
@@ -13086,7 +13120,7 @@
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -13110,7 +13144,7 @@
         <v>25</v>
       </c>
       <c r="H30" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J30" t="s">
         <v>243</v>
@@ -13132,7 +13166,7 @@
         <v>100</v>
       </c>
       <c r="P30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -13156,7 +13190,7 @@
         <v>50</v>
       </c>
       <c r="H31" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J31" t="s">
         <v>243</v>
@@ -13178,7 +13212,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -13202,7 +13236,7 @@
         <v>75</v>
       </c>
       <c r="H32" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J32" t="s">
         <v>243</v>
@@ -13224,7 +13258,7 @@
         <v>25</v>
       </c>
       <c r="P32" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
@@ -13248,7 +13282,7 @@
         <v>100</v>
       </c>
       <c r="H33" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J33" t="s">
         <v>243</v>
@@ -13270,7 +13304,7 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
@@ -13294,7 +13328,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J34" t="s">
         <v>243</v>
@@ -13316,7 +13350,7 @@
         <v>50</v>
       </c>
       <c r="P34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
@@ -13340,7 +13374,7 @@
         <v>200</v>
       </c>
       <c r="H35" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J35" t="s">
         <v>243</v>
@@ -13362,7 +13396,7 @@
         <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
@@ -13386,7 +13420,7 @@
         <v>125</v>
       </c>
       <c r="H36" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J36" t="s">
         <v>243</v>
@@ -13408,7 +13442,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
@@ -13432,7 +13466,7 @@
         <v>25</v>
       </c>
       <c r="H37" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J37" t="s">
         <v>243</v>
@@ -13454,7 +13488,7 @@
         <v>21</v>
       </c>
       <c r="P37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
@@ -13478,7 +13512,7 @@
         <v>25</v>
       </c>
       <c r="H38" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J38" t="s">
         <v>243</v>
@@ -13500,7 +13534,7 @@
         <v>25</v>
       </c>
       <c r="P38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -13524,7 +13558,7 @@
         <v>50</v>
       </c>
       <c r="H39" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J39" t="s">
         <v>243</v>
@@ -13546,7 +13580,7 @@
         <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
@@ -13570,7 +13604,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
         <v>243</v>
@@ -13592,7 +13626,7 @@
         <v>50</v>
       </c>
       <c r="P40" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
@@ -13616,7 +13650,7 @@
         <v>25</v>
       </c>
       <c r="H41" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
         <v>243</v>
@@ -13638,7 +13672,7 @@
         <v>40</v>
       </c>
       <c r="P41" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
@@ -13662,7 +13696,7 @@
         <v>200</v>
       </c>
       <c r="H42" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J42" t="s">
         <v>243</v>
@@ -13684,7 +13718,7 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
@@ -13708,7 +13742,7 @@
         <v>25</v>
       </c>
       <c r="H43" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
         <v>243</v>
@@ -13730,7 +13764,7 @@
         <v>40</v>
       </c>
       <c r="P43" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
@@ -13754,7 +13788,7 @@
         <v>50</v>
       </c>
       <c r="H44" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J44" t="s">
         <v>243</v>
@@ -13776,7 +13810,7 @@
         <v>40</v>
       </c>
       <c r="P44" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
@@ -13800,7 +13834,7 @@
         <v>75</v>
       </c>
       <c r="H45" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J45" t="s">
         <v>243</v>
@@ -13822,7 +13856,7 @@
         <v>25</v>
       </c>
       <c r="P45" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
@@ -13846,7 +13880,7 @@
         <v>20</v>
       </c>
       <c r="H46" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J46" t="s">
         <v>243</v>
@@ -13868,7 +13902,7 @@
         <v>25</v>
       </c>
       <c r="P46" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
@@ -13892,7 +13926,7 @@
         <v>10</v>
       </c>
       <c r="H47" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J47" t="s">
         <v>243</v>
@@ -13914,7 +13948,7 @@
         <v>40</v>
       </c>
       <c r="P47" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -13938,7 +13972,7 @@
         <v>50</v>
       </c>
       <c r="H48" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J48" t="s">
         <v>243</v>
@@ -13960,7 +13994,7 @@
         <v>21</v>
       </c>
       <c r="P48" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
@@ -13984,7 +14018,7 @@
         <v>40</v>
       </c>
       <c r="H49" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J49" t="s">
         <v>243</v>
@@ -14006,7 +14040,7 @@
         <v>75</v>
       </c>
       <c r="P49" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
@@ -14030,7 +14064,7 @@
         <v>25</v>
       </c>
       <c r="H50" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J50" t="s">
         <v>243</v>
@@ -14052,7 +14086,7 @@
         <v>40</v>
       </c>
       <c r="P50" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
@@ -14076,7 +14110,7 @@
         <v>25</v>
       </c>
       <c r="H51" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J51" t="s">
         <v>243</v>
@@ -14098,7 +14132,7 @@
         <v>100</v>
       </c>
       <c r="P51" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
@@ -14122,7 +14156,7 @@
         <v>25</v>
       </c>
       <c r="H52" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J52" t="s">
         <v>243</v>
@@ -14144,7 +14178,7 @@
         <v>50</v>
       </c>
       <c r="P52" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
@@ -14168,7 +14202,7 @@
         <v>25</v>
       </c>
       <c r="H53" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J53" t="s">
         <v>243</v>
@@ -14190,7 +14224,7 @@
         <v>100</v>
       </c>
       <c r="P53" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
@@ -14214,7 +14248,7 @@
         <v>50</v>
       </c>
       <c r="H54" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J54" t="s">
         <v>243</v>
@@ -14236,7 +14270,7 @@
         <v>75</v>
       </c>
       <c r="P54" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
@@ -14260,7 +14294,7 @@
         <v>25</v>
       </c>
       <c r="H55" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J55" t="s">
         <v>243</v>
@@ -14282,7 +14316,7 @@
         <v>50</v>
       </c>
       <c r="P55" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
@@ -14306,7 +14340,7 @@
         <v>40</v>
       </c>
       <c r="H56" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J56" t="s">
         <v>243</v>
@@ -14328,7 +14362,7 @@
         <v>21</v>
       </c>
       <c r="P56" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
@@ -14352,7 +14386,7 @@
         <v>20</v>
       </c>
       <c r="H57" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J57" t="s">
         <v>243</v>
@@ -14374,7 +14408,7 @@
         <v>25</v>
       </c>
       <c r="P57" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
@@ -14398,7 +14432,7 @@
         <v>225</v>
       </c>
       <c r="H58" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J58" t="s">
         <v>243</v>
@@ -14420,7 +14454,7 @@
         <v>50</v>
       </c>
       <c r="P58" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
@@ -14444,7 +14478,7 @@
         <v>5</v>
       </c>
       <c r="H59" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J59" t="s">
         <v>243</v>
@@ -14466,7 +14500,7 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
@@ -14490,7 +14524,7 @@
         <v>25</v>
       </c>
       <c r="H60" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J60" t="s">
         <v>243</v>
@@ -14512,7 +14546,7 @@
         <v>21</v>
       </c>
       <c r="P60" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
@@ -14536,7 +14570,7 @@
         <v>50</v>
       </c>
       <c r="H61" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J61" t="s">
         <v>243</v>
@@ -14558,7 +14592,7 @@
         <v>25</v>
       </c>
       <c r="P61" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
@@ -14582,7 +14616,7 @@
         <v>60</v>
       </c>
       <c r="H62" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J62" t="s">
         <v>243</v>
@@ -14604,7 +14638,7 @@
         <v>100</v>
       </c>
       <c r="P62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
@@ -14628,7 +14662,7 @@
         <v>60</v>
       </c>
       <c r="H63" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J63" t="s">
         <v>243</v>
@@ -14650,7 +14684,7 @@
         <v>50</v>
       </c>
       <c r="P63" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
@@ -14674,7 +14708,7 @@
         <v>25</v>
       </c>
       <c r="H64" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J64" t="s">
         <v>243</v>
@@ -14696,7 +14730,7 @@
         <v>175</v>
       </c>
       <c r="P64" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
@@ -14720,7 +14754,7 @@
         <v>20</v>
       </c>
       <c r="H65" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J65" t="s">
         <v>243</v>
@@ -14742,7 +14776,7 @@
         <v>50</v>
       </c>
       <c r="P65" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
@@ -14766,7 +14800,7 @@
         <v>75</v>
       </c>
       <c r="H66" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J66" t="s">
         <v>243</v>
@@ -14788,7 +14822,7 @@
         <v>75</v>
       </c>
       <c r="P66" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
@@ -14812,7 +14846,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J67" t="s">
         <v>243</v>
@@ -14834,7 +14868,7 @@
         <v>25</v>
       </c>
       <c r="P67" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -14858,7 +14892,7 @@
         <v>25</v>
       </c>
       <c r="H68" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J68" t="s">
         <v>243</v>
@@ -14880,7 +14914,7 @@
         <v>25</v>
       </c>
       <c r="P68" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -14904,7 +14938,7 @@
         <v>30</v>
       </c>
       <c r="H69" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J69" t="s">
         <v>243</v>
@@ -14926,7 +14960,7 @@
         <v>150</v>
       </c>
       <c r="P69" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
@@ -14950,7 +14984,7 @@
         <v>25</v>
       </c>
       <c r="H70" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J70" t="s">
         <v>243</v>
@@ -14972,7 +15006,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
@@ -14996,7 +15030,7 @@
         <v>225</v>
       </c>
       <c r="H71" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J71" t="s">
         <v>243</v>
@@ -15018,7 +15052,7 @@
         <v>100</v>
       </c>
       <c r="P71" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
@@ -15042,7 +15076,7 @@
         <v>100</v>
       </c>
       <c r="H72" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J72" t="s">
         <v>243</v>
@@ -15064,7 +15098,7 @@
         <v>21</v>
       </c>
       <c r="P72" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
@@ -15088,7 +15122,7 @@
         <v>10</v>
       </c>
       <c r="H73" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J73" t="s">
         <v>243</v>
@@ -15110,7 +15144,7 @@
         <v>40</v>
       </c>
       <c r="P73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
@@ -15134,7 +15168,7 @@
         <v>15</v>
       </c>
       <c r="H74" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J74" t="s">
         <v>243</v>
@@ -15156,7 +15190,7 @@
         <v>40</v>
       </c>
       <c r="P74" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -15180,7 +15214,7 @@
         <v>21</v>
       </c>
       <c r="H75" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J75" t="s">
         <v>243</v>
@@ -15202,7 +15236,7 @@
         <v>25</v>
       </c>
       <c r="P75" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -15226,7 +15260,7 @@
         <v>50</v>
       </c>
       <c r="H76" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J76" t="s">
         <v>243</v>
@@ -15248,7 +15282,7 @@
         <v>21</v>
       </c>
       <c r="P76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -15272,7 +15306,7 @@
         <v>25</v>
       </c>
       <c r="H77" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J77" t="s">
         <v>243</v>
@@ -15294,7 +15328,7 @@
         <v>50</v>
       </c>
       <c r="P77" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
@@ -15318,7 +15352,7 @@
         <v>100</v>
       </c>
       <c r="H78" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J78" t="s">
         <v>243</v>
@@ -15340,7 +15374,7 @@
         <v>40</v>
       </c>
       <c r="P78" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
@@ -15364,7 +15398,7 @@
         <v>80</v>
       </c>
       <c r="H79" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J79" t="s">
         <v>243</v>
@@ -15386,7 +15420,7 @@
         <v>50</v>
       </c>
       <c r="P79" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -15410,7 +15444,7 @@
         <v>35</v>
       </c>
       <c r="H80" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J80" t="s">
         <v>243</v>
@@ -15432,7 +15466,7 @@
         <v>50</v>
       </c>
       <c r="P80" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
@@ -15456,7 +15490,7 @@
         <v>50</v>
       </c>
       <c r="H81" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J81" t="s">
         <v>243</v>
@@ -15478,7 +15512,7 @@
         <v>50</v>
       </c>
       <c r="P81" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -15502,7 +15536,7 @@
         <v>25</v>
       </c>
       <c r="H82" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J82" t="s">
         <v>243</v>
@@ -15524,7 +15558,7 @@
         <v>40</v>
       </c>
       <c r="P82" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
@@ -15548,7 +15582,7 @@
         <v>10</v>
       </c>
       <c r="H83" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J83" t="s">
         <v>243</v>
@@ -15570,7 +15604,7 @@
         <v>40</v>
       </c>
       <c r="P83" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -15594,7 +15628,7 @@
         <v>40</v>
       </c>
       <c r="H84" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J84" t="s">
         <v>243</v>
@@ -15616,7 +15650,7 @@
         <v>25</v>
       </c>
       <c r="P84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
@@ -15640,7 +15674,7 @@
         <v>75</v>
       </c>
       <c r="H85" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J85" t="s">
         <v>243</v>
@@ -15662,7 +15696,7 @@
         <v>50</v>
       </c>
       <c r="P85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
@@ -15686,7 +15720,7 @@
         <v>125</v>
       </c>
       <c r="H86" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J86" t="s">
         <v>243</v>
@@ -15708,7 +15742,7 @@
         <v>40</v>
       </c>
       <c r="P86" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
@@ -15732,7 +15766,7 @@
         <v>25</v>
       </c>
       <c r="H87" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J87" t="s">
         <v>243</v>
@@ -15754,7 +15788,7 @@
         <v>25</v>
       </c>
       <c r="P87" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
@@ -15778,7 +15812,7 @@
         <v>175</v>
       </c>
       <c r="H88" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J88" t="s">
         <v>243</v>
@@ -15800,7 +15834,7 @@
         <v>50</v>
       </c>
       <c r="P88" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
@@ -15824,7 +15858,7 @@
         <v>10</v>
       </c>
       <c r="H89" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J89" t="s">
         <v>243</v>
@@ -15846,7 +15880,7 @@
         <v>25</v>
       </c>
       <c r="P89" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
@@ -15870,7 +15904,7 @@
         <v>30</v>
       </c>
       <c r="H90" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J90" t="s">
         <v>243</v>
@@ -15892,7 +15926,7 @@
         <v>25</v>
       </c>
       <c r="P90" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
@@ -15916,7 +15950,7 @@
         <v>85</v>
       </c>
       <c r="H91" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J91" t="s">
         <v>243</v>
@@ -15938,7 +15972,7 @@
         <v>25</v>
       </c>
       <c r="P91" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
@@ -15962,7 +15996,7 @@
         <v>23</v>
       </c>
       <c r="H92" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J92" t="s">
         <v>243</v>
@@ -15984,7 +16018,7 @@
         <v>23</v>
       </c>
       <c r="P92" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
@@ -16008,7 +16042,7 @@
         <v>45</v>
       </c>
       <c r="H93" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J93" t="s">
         <v>243</v>
@@ -16030,7 +16064,7 @@
         <v>100</v>
       </c>
       <c r="P93" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
@@ -16054,7 +16088,7 @@
         <v>25</v>
       </c>
       <c r="H94" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J94" t="s">
         <v>243</v>
@@ -16076,7 +16110,7 @@
         <v>75</v>
       </c>
       <c r="P94" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
@@ -16100,7 +16134,7 @@
         <v>50</v>
       </c>
       <c r="H95" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J95" t="s">
         <v>243</v>
@@ -16122,7 +16156,7 @@
         <v>25</v>
       </c>
       <c r="P95" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
@@ -16146,7 +16180,7 @@
         <v>23</v>
       </c>
       <c r="H96" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J96" t="s">
         <v>244</v>
@@ -16168,7 +16202,7 @@
         <v>60</v>
       </c>
       <c r="P96" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -16192,7 +16226,7 @@
         <v>25</v>
       </c>
       <c r="H97" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J97" t="s">
         <v>244</v>
@@ -16214,7 +16248,7 @@
         <v>21</v>
       </c>
       <c r="P97" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
@@ -16238,7 +16272,7 @@
         <v>21</v>
       </c>
       <c r="H98" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J98" t="s">
         <v>244</v>
@@ -16260,7 +16294,7 @@
         <v>21</v>
       </c>
       <c r="P98" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
@@ -16284,7 +16318,7 @@
         <v>175</v>
       </c>
       <c r="H99" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J99" t="s">
         <v>244</v>
@@ -16306,7 +16340,7 @@
         <v>70</v>
       </c>
       <c r="P99" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
@@ -16330,7 +16364,7 @@
         <v>25</v>
       </c>
       <c r="H100" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J100" t="s">
         <v>244</v>
@@ -16352,7 +16386,7 @@
         <v>70</v>
       </c>
       <c r="P100" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
@@ -16376,7 +16410,7 @@
         <v>25</v>
       </c>
       <c r="H101" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J101" t="s">
         <v>244</v>
@@ -16398,7 +16432,7 @@
         <v>70</v>
       </c>
       <c r="P101" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
@@ -16422,7 +16456,7 @@
         <v>50</v>
       </c>
       <c r="H102" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J102" t="s">
         <v>244</v>
@@ -16444,7 +16478,7 @@
         <v>50</v>
       </c>
       <c r="P102" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
@@ -16468,7 +16502,7 @@
         <v>50</v>
       </c>
       <c r="H103" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J103" t="s">
         <v>244</v>
@@ -16490,7 +16524,7 @@
         <v>40</v>
       </c>
       <c r="P103" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
@@ -16514,7 +16548,7 @@
         <v>25</v>
       </c>
       <c r="H104" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J104" t="s">
         <v>244</v>
@@ -16536,7 +16570,7 @@
         <v>50</v>
       </c>
       <c r="P104" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
@@ -16560,7 +16594,7 @@
         <v>15</v>
       </c>
       <c r="H105" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J105" t="s">
         <v>244</v>
@@ -16582,7 +16616,7 @@
         <v>70</v>
       </c>
       <c r="P105" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
@@ -16606,7 +16640,7 @@
         <v>175</v>
       </c>
       <c r="H106" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J106" t="s">
         <v>244</v>
@@ -16628,7 +16662,7 @@
         <v>40</v>
       </c>
       <c r="P106" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
@@ -16652,7 +16686,7 @@
         <v>25</v>
       </c>
       <c r="H107" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J107" t="s">
         <v>244</v>
@@ -16674,7 +16708,7 @@
         <v>70</v>
       </c>
       <c r="P107" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
@@ -16698,7 +16732,7 @@
         <v>25</v>
       </c>
       <c r="H108" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J108" t="s">
         <v>244</v>
@@ -16720,7 +16754,7 @@
         <v>75</v>
       </c>
       <c r="P108" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
@@ -16744,7 +16778,7 @@
         <v>25</v>
       </c>
       <c r="H109" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J109" t="s">
         <v>244</v>
@@ -16766,7 +16800,7 @@
         <v>50</v>
       </c>
       <c r="P109" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
@@ -16790,7 +16824,7 @@
         <v>21</v>
       </c>
       <c r="H110" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J110" t="s">
         <v>244</v>
@@ -16812,7 +16846,7 @@
         <v>21</v>
       </c>
       <c r="P110" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
@@ -16836,7 +16870,7 @@
         <v>15</v>
       </c>
       <c r="H111" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J111" t="s">
         <v>244</v>
@@ -16858,7 +16892,7 @@
         <v>70</v>
       </c>
       <c r="P111" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
@@ -16882,7 +16916,7 @@
         <v>100</v>
       </c>
       <c r="H112" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J112" t="s">
         <v>244</v>
@@ -16904,7 +16938,7 @@
         <v>50</v>
       </c>
       <c r="P112" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
@@ -16928,7 +16962,7 @@
         <v>15</v>
       </c>
       <c r="H113" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J113" t="s">
         <v>244</v>
@@ -16950,7 +16984,7 @@
         <v>90</v>
       </c>
       <c r="P113" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
@@ -16974,7 +17008,7 @@
         <v>20</v>
       </c>
       <c r="H114" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J114" t="s">
         <v>244</v>
@@ -16996,7 +17030,7 @@
         <v>70</v>
       </c>
       <c r="P114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
@@ -17020,7 +17054,7 @@
         <v>100</v>
       </c>
       <c r="H115" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J115" t="s">
         <v>244</v>
@@ -17042,7 +17076,7 @@
         <v>70</v>
       </c>
       <c r="P115" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
@@ -17066,7 +17100,7 @@
         <v>5</v>
       </c>
       <c r="H116" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J116" t="s">
         <v>244</v>
@@ -17088,7 +17122,7 @@
         <v>50</v>
       </c>
       <c r="P116" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
@@ -17112,7 +17146,7 @@
         <v>75</v>
       </c>
       <c r="H117" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J117" t="s">
         <v>244</v>
@@ -17134,7 +17168,7 @@
         <v>21</v>
       </c>
       <c r="P117" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
@@ -17158,7 +17192,7 @@
         <v>10</v>
       </c>
       <c r="H118" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J118" t="s">
         <v>244</v>
@@ -17180,7 +17214,7 @@
         <v>5</v>
       </c>
       <c r="P118" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
@@ -17204,7 +17238,7 @@
         <v>25</v>
       </c>
       <c r="H119" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J119" t="s">
         <v>244</v>
@@ -17226,7 +17260,7 @@
         <v>30</v>
       </c>
       <c r="P119" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
@@ -17250,7 +17284,7 @@
         <v>50</v>
       </c>
       <c r="H120" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J120" t="s">
         <v>244</v>
@@ -17272,7 +17306,7 @@
         <v>40</v>
       </c>
       <c r="P120" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
@@ -17296,7 +17330,7 @@
         <v>50</v>
       </c>
       <c r="H121" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J121" t="s">
         <v>244</v>
@@ -17318,7 +17352,7 @@
         <v>50</v>
       </c>
       <c r="P121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
@@ -17342,7 +17376,7 @@
         <v>100</v>
       </c>
       <c r="H122" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J122" t="s">
         <v>244</v>
@@ -17364,7 +17398,7 @@
         <v>70</v>
       </c>
       <c r="P122" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
@@ -17388,7 +17422,7 @@
         <v>275</v>
       </c>
       <c r="H123" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J123" t="s">
         <v>244</v>
@@ -17410,7 +17444,7 @@
         <v>15</v>
       </c>
       <c r="P123" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
@@ -17434,7 +17468,7 @@
         <v>60</v>
       </c>
       <c r="H124" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J124" t="s">
         <v>244</v>
@@ -17456,7 +17490,7 @@
         <v>21</v>
       </c>
       <c r="P124" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
@@ -17480,7 +17514,7 @@
         <v>15</v>
       </c>
       <c r="H125" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J125" t="s">
         <v>244</v>
@@ -17502,7 +17536,7 @@
         <v>21</v>
       </c>
       <c r="P125" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
@@ -17526,7 +17560,7 @@
         <v>75</v>
       </c>
       <c r="H126" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J126" t="s">
         <v>245</v>
@@ -17548,7 +17582,7 @@
         <v>125</v>
       </c>
       <c r="P126" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
@@ -17572,7 +17606,7 @@
         <v>20</v>
       </c>
       <c r="H127" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J127" t="s">
         <v>245</v>
@@ -17594,7 +17628,7 @@
         <v>25</v>
       </c>
       <c r="P127" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.25">
@@ -17618,7 +17652,7 @@
         <v>100</v>
       </c>
       <c r="H128" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J128" t="s">
         <v>245</v>
@@ -17640,7 +17674,7 @@
         <v>75</v>
       </c>
       <c r="P128" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
@@ -17664,7 +17698,7 @@
         <v>25</v>
       </c>
       <c r="H129" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J129" t="s">
         <v>245</v>
@@ -17686,7 +17720,7 @@
         <v>25</v>
       </c>
       <c r="P129" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
@@ -17710,7 +17744,7 @@
         <v>25</v>
       </c>
       <c r="H130" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J130" t="s">
         <v>246</v>
@@ -17732,7 +17766,7 @@
         <v>50</v>
       </c>
       <c r="P130" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
@@ -17756,7 +17790,7 @@
         <v>25</v>
       </c>
       <c r="H131" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J131" t="s">
         <v>246</v>
@@ -17778,7 +17812,7 @@
         <v>20</v>
       </c>
       <c r="P131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
@@ -17802,7 +17836,7 @@
         <v>21</v>
       </c>
       <c r="H132" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J132" t="s">
         <v>246</v>
@@ -17824,7 +17858,7 @@
         <v>50</v>
       </c>
       <c r="P132" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
@@ -17848,7 +17882,7 @@
         <v>100</v>
       </c>
       <c r="H133" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J133" t="s">
         <v>246</v>
@@ -17870,7 +17904,7 @@
         <v>50</v>
       </c>
       <c r="P133" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
@@ -17894,7 +17928,7 @@
         <v>25</v>
       </c>
       <c r="H134" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J134" t="s">
         <v>246</v>
@@ -17916,7 +17950,7 @@
         <v>10</v>
       </c>
       <c r="P134" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
@@ -17940,7 +17974,7 @@
         <v>8</v>
       </c>
       <c r="H135" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J135" t="s">
         <v>246</v>
@@ -17962,7 +17996,7 @@
         <v>50</v>
       </c>
       <c r="P135" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
@@ -17986,7 +18020,7 @@
         <v>100</v>
       </c>
       <c r="H136" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J136" t="s">
         <v>246</v>
@@ -18008,7 +18042,7 @@
         <v>50</v>
       </c>
       <c r="P136" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
@@ -18032,7 +18066,7 @@
         <v>50</v>
       </c>
       <c r="H137" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J137" t="s">
         <v>249</v>
@@ -18054,7 +18088,7 @@
         <v>143</v>
       </c>
       <c r="P137" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
@@ -18078,7 +18112,7 @@
         <v>150</v>
       </c>
       <c r="H138" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J138" t="s">
         <v>249</v>
@@ -18100,7 +18134,7 @@
         <v>143</v>
       </c>
       <c r="P138" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
@@ -18124,7 +18158,7 @@
         <v>40</v>
       </c>
       <c r="H139" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J139" t="s">
         <v>250</v>
@@ -18146,7 +18180,7 @@
         <v>8</v>
       </c>
       <c r="P139" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
@@ -18170,7 +18204,7 @@
         <v>150</v>
       </c>
       <c r="H140" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J140" t="s">
         <v>250</v>
@@ -18192,7 +18226,7 @@
         <v>30</v>
       </c>
       <c r="P140" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
@@ -18216,7 +18250,7 @@
         <v>50</v>
       </c>
       <c r="H141" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J141" t="s">
         <v>250</v>
@@ -18238,7 +18272,7 @@
         <v>23</v>
       </c>
       <c r="P141" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
@@ -18262,7 +18296,7 @@
         <v>20</v>
       </c>
       <c r="H142" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J142" t="s">
         <v>250</v>
@@ -18284,7 +18318,7 @@
         <v>15</v>
       </c>
       <c r="P142" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
@@ -18308,7 +18342,7 @@
         <v>175</v>
       </c>
       <c r="H143" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J143" t="s">
         <v>250</v>
@@ -18330,7 +18364,7 @@
         <v>23</v>
       </c>
       <c r="P143" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
@@ -18354,7 +18388,7 @@
         <v>50</v>
       </c>
       <c r="H144" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J144" t="s">
         <v>251</v>
@@ -18376,7 +18410,7 @@
         <v>48</v>
       </c>
       <c r="P144" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" spans="2:16" x14ac:dyDescent="0.25">
@@ -18400,7 +18434,7 @@
         <v>15</v>
       </c>
       <c r="H145" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J145" t="s">
         <v>251</v>
@@ -18422,7 +18456,7 @@
         <v>48</v>
       </c>
       <c r="P145" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="2:16" x14ac:dyDescent="0.25">
@@ -18446,7 +18480,7 @@
         <v>21</v>
       </c>
       <c r="H146" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J146" t="s">
         <v>251</v>
@@ -18468,7 +18502,7 @@
         <v>48</v>
       </c>
       <c r="P146" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="147" spans="2:16" x14ac:dyDescent="0.25">
@@ -18492,7 +18526,7 @@
         <v>75</v>
       </c>
       <c r="H147" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J147" t="s">
         <v>251</v>
@@ -18514,7 +18548,7 @@
         <v>144</v>
       </c>
       <c r="P147" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="2:16" x14ac:dyDescent="0.25">
@@ -18538,7 +18572,7 @@
         <v>200</v>
       </c>
       <c r="H148" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J148" t="s">
         <v>251</v>
@@ -18560,7 +18594,7 @@
         <v>48</v>
       </c>
       <c r="P148" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="2:16" x14ac:dyDescent="0.25">
@@ -18584,7 +18618,7 @@
         <v>70</v>
       </c>
       <c r="H149" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J149" t="s">
         <v>251</v>
@@ -18606,7 +18640,7 @@
         <v>48</v>
       </c>
       <c r="P149" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="150" spans="2:16" x14ac:dyDescent="0.25">
@@ -18630,7 +18664,7 @@
         <v>30</v>
       </c>
       <c r="H150" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J150" t="s">
         <v>251</v>
@@ -18652,7 +18686,7 @@
         <v>48</v>
       </c>
       <c r="P150" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="2:16" x14ac:dyDescent="0.25">
@@ -18676,7 +18710,7 @@
         <v>5</v>
       </c>
       <c r="H151" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J151" t="s">
         <v>251</v>
@@ -18698,7 +18732,7 @@
         <v>10</v>
       </c>
       <c r="P151" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="2:16" x14ac:dyDescent="0.25">
@@ -18722,7 +18756,7 @@
         <v>75</v>
       </c>
       <c r="H152" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J152" t="s">
         <v>251</v>
@@ -18744,7 +18778,7 @@
         <v>96</v>
       </c>
       <c r="P152" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="153" spans="2:16" x14ac:dyDescent="0.25">
@@ -18768,7 +18802,7 @@
         <v>15</v>
       </c>
       <c r="H153" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J153" t="s">
         <v>251</v>
@@ -18790,7 +18824,7 @@
         <v>5</v>
       </c>
       <c r="P153" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" spans="2:16" x14ac:dyDescent="0.25">
@@ -18814,7 +18848,7 @@
         <v>10</v>
       </c>
       <c r="H154" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J154" t="s">
         <v>251</v>
@@ -18836,7 +18870,7 @@
         <v>48</v>
       </c>
       <c r="P154" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="155" spans="2:16" x14ac:dyDescent="0.25">
@@ -18860,7 +18894,7 @@
         <v>75</v>
       </c>
       <c r="H155" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J155" t="s">
         <v>251</v>
@@ -18882,7 +18916,7 @@
         <v>5</v>
       </c>
       <c r="P155" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="2:16" x14ac:dyDescent="0.25">
@@ -18906,7 +18940,7 @@
         <v>25</v>
       </c>
       <c r="H156" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J156" t="s">
         <v>251</v>
@@ -18928,7 +18962,7 @@
         <v>48</v>
       </c>
       <c r="P156" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="157" spans="2:16" x14ac:dyDescent="0.25">
@@ -18952,7 +18986,7 @@
         <v>175</v>
       </c>
       <c r="H157" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J157" t="s">
         <v>251</v>
@@ -18974,7 +19008,7 @@
         <v>96</v>
       </c>
       <c r="P157" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="2:16" x14ac:dyDescent="0.25">
@@ -18998,7 +19032,7 @@
         <v>45</v>
       </c>
       <c r="H158" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J158" t="s">
         <v>251</v>
@@ -19020,7 +19054,7 @@
         <v>48</v>
       </c>
       <c r="P158" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="159" spans="2:16" x14ac:dyDescent="0.25">
@@ -19044,7 +19078,7 @@
         <v>75</v>
       </c>
       <c r="H159" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J159" t="s">
         <v>252</v>
@@ -19066,7 +19100,7 @@
         <v>390</v>
       </c>
       <c r="P159" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="160" spans="2:16" x14ac:dyDescent="0.25">
@@ -19090,7 +19124,7 @@
         <v>25</v>
       </c>
       <c r="H160" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J160" t="s">
         <v>252</v>
@@ -19112,7 +19146,7 @@
         <v>390</v>
       </c>
       <c r="P160" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="161" spans="2:16" x14ac:dyDescent="0.25">
@@ -19136,7 +19170,7 @@
         <v>175</v>
       </c>
       <c r="H161" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J161" t="s">
         <v>254</v>
@@ -19158,7 +19192,7 @@
         <v>25</v>
       </c>
       <c r="P161" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="162" spans="2:16" x14ac:dyDescent="0.25">
@@ -19182,7 +19216,7 @@
         <v>125</v>
       </c>
       <c r="H162" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J162" t="s">
         <v>254</v>
@@ -19204,7 +19238,7 @@
         <v>25</v>
       </c>
       <c r="P162" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="163" spans="2:16" x14ac:dyDescent="0.25">
@@ -19228,7 +19262,7 @@
         <v>175</v>
       </c>
       <c r="H163" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J163" t="s">
         <v>254</v>
@@ -19250,7 +19284,7 @@
         <v>25</v>
       </c>
       <c r="P163" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="164" spans="2:16" x14ac:dyDescent="0.25">
@@ -19274,7 +19308,7 @@
         <v>75</v>
       </c>
       <c r="H164" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J164" t="s">
         <v>254</v>
@@ -19296,7 +19330,7 @@
         <v>25</v>
       </c>
       <c r="P164" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="165" spans="2:16" x14ac:dyDescent="0.25">
@@ -19320,7 +19354,7 @@
         <v>275</v>
       </c>
       <c r="H165" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J165" t="s">
         <v>254</v>
@@ -19342,7 +19376,7 @@
         <v>25</v>
       </c>
       <c r="P165" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="166" spans="2:16" x14ac:dyDescent="0.25">
@@ -19366,7 +19400,7 @@
         <v>20</v>
       </c>
       <c r="H166" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J166" t="s">
         <v>256</v>
@@ -19388,7 +19422,7 @@
         <v>263</v>
       </c>
       <c r="P166" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="167" spans="2:16" x14ac:dyDescent="0.25">
@@ -19412,7 +19446,7 @@
         <v>25</v>
       </c>
       <c r="H167" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J167" t="s">
         <v>256</v>
@@ -19434,7 +19468,7 @@
         <v>263</v>
       </c>
       <c r="P167" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.25">
@@ -19458,7 +19492,7 @@
         <v>25</v>
       </c>
       <c r="H168" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J168" t="s">
         <v>256</v>
@@ -19480,7 +19514,7 @@
         <v>263</v>
       </c>
       <c r="P168" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="169" spans="2:16" x14ac:dyDescent="0.25">
@@ -19504,7 +19538,7 @@
         <v>250</v>
       </c>
       <c r="H169" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J169" t="s">
         <v>256</v>
@@ -19526,7 +19560,7 @@
         <v>263</v>
       </c>
       <c r="P169" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.25">
@@ -19550,7 +19584,7 @@
         <v>175</v>
       </c>
       <c r="H170" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J170" t="s">
         <v>256</v>
@@ -19572,7 +19606,7 @@
         <v>263</v>
       </c>
       <c r="P170" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="171" spans="2:16" x14ac:dyDescent="0.25">
@@ -19596,7 +19630,7 @@
         <v>250</v>
       </c>
       <c r="H171" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J171" t="s">
         <v>256</v>
@@ -19618,7 +19652,7 @@
         <v>263</v>
       </c>
       <c r="P171" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="172" spans="2:16" x14ac:dyDescent="0.25">
@@ -19642,7 +19676,7 @@
         <v>75</v>
       </c>
       <c r="H172" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J172" t="s">
         <v>258</v>
@@ -19664,7 +19698,7 @@
         <v>175</v>
       </c>
       <c r="P172" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="173" spans="2:16" x14ac:dyDescent="0.25">
@@ -19688,7 +19722,7 @@
         <v>150</v>
       </c>
       <c r="H173" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J173" t="s">
         <v>258</v>
@@ -19710,7 +19744,7 @@
         <v>175</v>
       </c>
       <c r="P173" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
@@ -19734,7 +19768,7 @@
         <v>125</v>
       </c>
       <c r="H174" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J174" t="s">
         <v>258</v>
@@ -19756,7 +19790,7 @@
         <v>175</v>
       </c>
       <c r="P174" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
@@ -19780,7 +19814,7 @@
         <v>50</v>
       </c>
       <c r="H175" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J175" t="s">
         <v>259</v>
@@ -19802,7 +19836,7 @@
         <v>175</v>
       </c>
       <c r="P175" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="176" spans="2:16" x14ac:dyDescent="0.25">
@@ -19826,7 +19860,7 @@
         <v>50</v>
       </c>
       <c r="H176" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J176" t="s">
         <v>259</v>
@@ -19848,7 +19882,7 @@
         <v>175</v>
       </c>
       <c r="P176" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
@@ -19872,7 +19906,7 @@
         <v>50</v>
       </c>
       <c r="H177" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J177" t="s">
         <v>259</v>
@@ -19894,7 +19928,7 @@
         <v>175</v>
       </c>
       <c r="P177" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
@@ -19918,7 +19952,7 @@
         <v>50</v>
       </c>
       <c r="H178" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J178" t="s">
         <v>259</v>
@@ -19940,7 +19974,7 @@
         <v>175</v>
       </c>
       <c r="P178" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
@@ -19964,7 +19998,7 @@
         <v>50</v>
       </c>
       <c r="H179" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J179" t="s">
         <v>259</v>
@@ -19986,7 +20020,7 @@
         <v>175</v>
       </c>
       <c r="P179" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="180" spans="2:16" x14ac:dyDescent="0.25">
@@ -20010,7 +20044,7 @@
         <v>50</v>
       </c>
       <c r="H180" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J180" t="s">
         <v>259</v>
@@ -20032,7 +20066,7 @@
         <v>175</v>
       </c>
       <c r="P180" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="181" spans="2:16" x14ac:dyDescent="0.25">
@@ -20056,7 +20090,7 @@
         <v>50</v>
       </c>
       <c r="H181" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J181" t="s">
         <v>259</v>
@@ -20078,7 +20112,7 @@
         <v>175</v>
       </c>
       <c r="P181" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="182" spans="2:16" x14ac:dyDescent="0.25">
@@ -20102,7 +20136,7 @@
         <v>55</v>
       </c>
       <c r="H182" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J182" t="s">
         <v>259</v>
@@ -20124,7 +20158,7 @@
         <v>175</v>
       </c>
       <c r="P182" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
@@ -20148,7 +20182,7 @@
         <v>55</v>
       </c>
       <c r="H183" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J183" t="s">
         <v>259</v>
@@ -20170,7 +20204,7 @@
         <v>175</v>
       </c>
       <c r="P183" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
@@ -20194,7 +20228,7 @@
         <v>55</v>
       </c>
       <c r="H184" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J184" t="s">
         <v>259</v>
@@ -20216,7 +20250,7 @@
         <v>175</v>
       </c>
       <c r="P184" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
@@ -20240,7 +20274,7 @@
         <v>105</v>
       </c>
       <c r="H185" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J185" t="s">
         <v>259</v>
@@ -20262,7 +20296,7 @@
         <v>175</v>
       </c>
       <c r="P185" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="186" spans="2:16" x14ac:dyDescent="0.25">
@@ -20286,7 +20320,7 @@
         <v>105</v>
       </c>
       <c r="H186" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J186" t="s">
         <v>259</v>
@@ -20308,7 +20342,7 @@
         <v>70</v>
       </c>
       <c r="P186" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="187" spans="2:16" x14ac:dyDescent="0.25">
@@ -20332,7 +20366,7 @@
         <v>105</v>
       </c>
       <c r="H187" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J187" t="s">
         <v>259</v>
@@ -20354,7 +20388,7 @@
         <v>175</v>
       </c>
       <c r="P187" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="188" spans="2:16" x14ac:dyDescent="0.25">
@@ -20378,7 +20412,7 @@
         <v>105</v>
       </c>
       <c r="H188" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J188" t="s">
         <v>259</v>
@@ -20400,7 +20434,7 @@
         <v>175</v>
       </c>
       <c r="P188" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="189" spans="2:16" x14ac:dyDescent="0.25">
@@ -20424,7 +20458,7 @@
         <v>105</v>
       </c>
       <c r="H189" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J189" t="s">
         <v>259</v>
@@ -20446,7 +20480,7 @@
         <v>175</v>
       </c>
       <c r="P189" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="190" spans="2:16" x14ac:dyDescent="0.25">
@@ -20470,7 +20504,7 @@
         <v>143</v>
       </c>
       <c r="H190" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J190" t="s">
         <v>259</v>
@@ -20492,7 +20526,7 @@
         <v>175</v>
       </c>
       <c r="P190" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="191" spans="2:16" x14ac:dyDescent="0.25">
@@ -20516,7 +20550,7 @@
         <v>19</v>
       </c>
       <c r="H191" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J191" t="s">
         <v>259</v>
@@ -20538,7 +20572,7 @@
         <v>175</v>
       </c>
       <c r="P191" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="2:16" x14ac:dyDescent="0.25">
@@ -20562,7 +20596,7 @@
         <v>30</v>
       </c>
       <c r="H192" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J192" t="s">
         <v>259</v>
@@ -20584,7 +20618,7 @@
         <v>175</v>
       </c>
       <c r="P192" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" spans="2:16" x14ac:dyDescent="0.25">
@@ -20608,7 +20642,7 @@
         <v>30</v>
       </c>
       <c r="H193" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J193" t="s">
         <v>259</v>
@@ -20630,7 +20664,7 @@
         <v>175</v>
       </c>
       <c r="P193" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="194" spans="2:16" x14ac:dyDescent="0.25">
@@ -20654,7 +20688,7 @@
         <v>23</v>
       </c>
       <c r="H194" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J194" t="s">
         <v>260</v>
@@ -20676,7 +20710,7 @@
         <v>130</v>
       </c>
       <c r="P194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="2:16" x14ac:dyDescent="0.25">
@@ -20700,7 +20734,7 @@
         <v>11</v>
       </c>
       <c r="H195" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J195" t="s">
         <v>260</v>
@@ -20722,7 +20756,7 @@
         <v>130</v>
       </c>
       <c r="P195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="196" spans="2:16" x14ac:dyDescent="0.25">
@@ -20746,7 +20780,7 @@
         <v>23</v>
       </c>
       <c r="H196" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J196" t="s">
         <v>260</v>
@@ -20768,7 +20802,7 @@
         <v>130</v>
       </c>
       <c r="P196" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197" spans="2:16" x14ac:dyDescent="0.25">
@@ -20792,7 +20826,7 @@
         <v>11</v>
       </c>
       <c r="H197" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J197" t="s">
         <v>260</v>
@@ -20814,7 +20848,7 @@
         <v>130</v>
       </c>
       <c r="P197" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="2:16" x14ac:dyDescent="0.25">
@@ -20838,7 +20872,7 @@
         <v>30</v>
       </c>
       <c r="H198" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J198" t="s">
         <v>260</v>
@@ -20860,7 +20894,7 @@
         <v>130</v>
       </c>
       <c r="P198" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="199" spans="2:16" x14ac:dyDescent="0.25">
@@ -20884,7 +20918,7 @@
         <v>48</v>
       </c>
       <c r="H199" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J199" t="s">
         <v>260</v>
@@ -20906,7 +20940,7 @@
         <v>130</v>
       </c>
       <c r="P199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="200" spans="2:16" x14ac:dyDescent="0.25">
@@ -20930,7 +20964,7 @@
         <v>48</v>
       </c>
       <c r="H200" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J200" t="s">
         <v>260</v>
@@ -20939,7 +20973,7 @@
         <v>1</v>
       </c>
       <c r="L200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M200">
         <v>100</v>
@@ -20952,7 +20986,7 @@
         <v>130</v>
       </c>
       <c r="P200" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="201" spans="2:16" x14ac:dyDescent="0.25">
@@ -20976,7 +21010,7 @@
         <v>29</v>
       </c>
       <c r="H201" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J201" t="s">
         <v>260</v>
@@ -20998,7 +21032,7 @@
         <v>130</v>
       </c>
       <c r="P201" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="2:16" x14ac:dyDescent="0.25">
@@ -21022,7 +21056,7 @@
         <v>48</v>
       </c>
       <c r="H202" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J202" t="s">
         <v>260</v>
@@ -21044,7 +21078,7 @@
         <v>130</v>
       </c>
       <c r="P202" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="203" spans="2:16" x14ac:dyDescent="0.25">
@@ -21068,7 +21102,7 @@
         <v>48</v>
       </c>
       <c r="H203" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J203" t="s">
         <v>260</v>
@@ -21090,7 +21124,7 @@
         <v>130</v>
       </c>
       <c r="P203" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="2:16" x14ac:dyDescent="0.25">
@@ -21114,7 +21148,7 @@
         <v>38</v>
       </c>
       <c r="H204" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J204" t="s">
         <v>260</v>
@@ -21136,7 +21170,7 @@
         <v>130</v>
       </c>
       <c r="P204" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="2:16" x14ac:dyDescent="0.25">
@@ -21160,7 +21194,7 @@
         <v>29</v>
       </c>
       <c r="H205" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J205" t="s">
         <v>260</v>
@@ -21182,7 +21216,7 @@
         <v>130</v>
       </c>
       <c r="P205" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="206" spans="2:16" x14ac:dyDescent="0.25">
@@ -21206,7 +21240,7 @@
         <v>38</v>
       </c>
       <c r="H206" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J206" t="s">
         <v>260</v>
@@ -21228,7 +21262,7 @@
         <v>130</v>
       </c>
       <c r="P206" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="2:16" x14ac:dyDescent="0.25">
@@ -21252,7 +21286,7 @@
         <v>48</v>
       </c>
       <c r="H207" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J207" t="s">
         <v>260</v>
@@ -21274,7 +21308,7 @@
         <v>130</v>
       </c>
       <c r="P207" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="208" spans="2:16" x14ac:dyDescent="0.25">
@@ -21298,7 +21332,7 @@
         <v>48</v>
       </c>
       <c r="H208" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J208" t="s">
         <v>260</v>
@@ -21320,7 +21354,7 @@
         <v>130</v>
       </c>
       <c r="P208" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="209" spans="2:16" x14ac:dyDescent="0.25">
@@ -21344,7 +21378,7 @@
         <v>43</v>
       </c>
       <c r="H209" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J209" t="s">
         <v>260</v>
@@ -21366,7 +21400,7 @@
         <v>130</v>
       </c>
       <c r="P209" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="2:16" x14ac:dyDescent="0.25">
@@ -21390,7 +21424,7 @@
         <v>43</v>
       </c>
       <c r="H210" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J210" t="s">
         <v>261</v>
@@ -21412,7 +21446,7 @@
         <v>130</v>
       </c>
       <c r="P210" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211" spans="2:16" x14ac:dyDescent="0.25">
@@ -21436,7 +21470,7 @@
         <v>48</v>
       </c>
       <c r="H211" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J211" t="s">
         <v>261</v>
@@ -21458,7 +21492,7 @@
         <v>26</v>
       </c>
       <c r="P211" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" spans="2:16" x14ac:dyDescent="0.25">
@@ -21482,7 +21516,7 @@
         <v>48</v>
       </c>
       <c r="H212" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J212" t="s">
         <v>261</v>
@@ -21504,7 +21538,7 @@
         <v>130</v>
       </c>
       <c r="P212" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="2:16" x14ac:dyDescent="0.25">
@@ -21528,7 +21562,7 @@
         <v>48</v>
       </c>
       <c r="H213" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J213" t="s">
         <v>261</v>
@@ -21550,7 +21584,7 @@
         <v>130</v>
       </c>
       <c r="P213" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="214" spans="2:16" x14ac:dyDescent="0.25">
@@ -21574,7 +21608,7 @@
         <v>48</v>
       </c>
       <c r="H214" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J214" t="s">
         <v>261</v>
@@ -21596,7 +21630,7 @@
         <v>130</v>
       </c>
       <c r="P214" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="215" spans="2:16" x14ac:dyDescent="0.25">
@@ -21620,7 +21654,7 @@
         <v>48</v>
       </c>
       <c r="H215" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J215" t="s">
         <v>261</v>
@@ -21642,7 +21676,7 @@
         <v>130</v>
       </c>
       <c r="P215" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="216" spans="2:16" x14ac:dyDescent="0.25">
@@ -21666,7 +21700,7 @@
         <v>48</v>
       </c>
       <c r="H216" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J216" t="s">
         <v>261</v>
@@ -21688,7 +21722,7 @@
         <v>130</v>
       </c>
       <c r="P216" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="217" spans="2:16" x14ac:dyDescent="0.25">
@@ -21712,7 +21746,7 @@
         <v>48</v>
       </c>
       <c r="H217" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J217" t="s">
         <v>261</v>
@@ -21734,7 +21768,7 @@
         <v>130</v>
       </c>
       <c r="P217" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="218" spans="2:16" x14ac:dyDescent="0.25">
@@ -21758,7 +21792,7 @@
         <v>48</v>
       </c>
       <c r="H218" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J218" t="s">
         <v>261</v>
@@ -21780,7 +21814,7 @@
         <v>130</v>
       </c>
       <c r="P218" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="219" spans="2:16" x14ac:dyDescent="0.25">
@@ -21804,7 +21838,7 @@
         <v>48</v>
       </c>
       <c r="H219" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J219" t="s">
         <v>261</v>
@@ -21826,7 +21860,7 @@
         <v>52</v>
       </c>
       <c r="P219" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="2:16" x14ac:dyDescent="0.25">
@@ -21850,7 +21884,7 @@
         <v>48</v>
       </c>
       <c r="H220" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J220" t="s">
         <v>261</v>
@@ -21872,7 +21906,7 @@
         <v>130</v>
       </c>
       <c r="P220" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="221" spans="2:16" x14ac:dyDescent="0.25">
@@ -21896,7 +21930,7 @@
         <v>48</v>
       </c>
       <c r="H221" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J221" t="s">
         <v>261</v>
@@ -21918,7 +21952,7 @@
         <v>130</v>
       </c>
       <c r="P221" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="222" spans="2:16" x14ac:dyDescent="0.25">
@@ -21942,7 +21976,7 @@
         <v>48</v>
       </c>
       <c r="H222" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J222" t="s">
         <v>261</v>
@@ -21964,7 +21998,7 @@
         <v>130</v>
       </c>
       <c r="P222" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="223" spans="2:16" x14ac:dyDescent="0.25">
@@ -21988,7 +22022,7 @@
         <v>48</v>
       </c>
       <c r="H223" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J223" t="s">
         <v>263</v>
@@ -22010,7 +22044,7 @@
         <v>20</v>
       </c>
       <c r="P223" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="224" spans="2:16" x14ac:dyDescent="0.25">
@@ -22034,7 +22068,7 @@
         <v>38</v>
       </c>
       <c r="H224" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J224" t="s">
         <v>263</v>
@@ -22056,7 +22090,7 @@
         <v>20</v>
       </c>
       <c r="P224" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="225" spans="2:16" x14ac:dyDescent="0.25">
@@ -22080,7 +22114,7 @@
         <v>48</v>
       </c>
       <c r="H225" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J225" t="s">
         <v>263</v>
@@ -22102,7 +22136,7 @@
         <v>20</v>
       </c>
       <c r="P225" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="226" spans="2:16" x14ac:dyDescent="0.25">
@@ -22126,7 +22160,7 @@
         <v>48</v>
       </c>
       <c r="H226" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J226" t="s">
         <v>263</v>
@@ -22148,7 +22182,7 @@
         <v>20</v>
       </c>
       <c r="P226" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="227" spans="2:16" x14ac:dyDescent="0.25">
@@ -22172,7 +22206,7 @@
         <v>43</v>
       </c>
       <c r="H227" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J227" t="s">
         <v>263</v>
@@ -22194,7 +22228,7 @@
         <v>20</v>
       </c>
       <c r="P227" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="228" spans="2:16" x14ac:dyDescent="0.25">
@@ -22218,10 +22252,10 @@
         <v>48</v>
       </c>
       <c r="H228" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J228" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K228">
         <v>1</v>
@@ -22240,7 +22274,7 @@
         <v>0</v>
       </c>
       <c r="P228" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="229" spans="2:16" x14ac:dyDescent="0.25">
@@ -22264,10 +22298,10 @@
         <v>48</v>
       </c>
       <c r="H229" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J229" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K229">
         <v>1</v>
@@ -22286,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="P229" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="230" spans="2:16" x14ac:dyDescent="0.25">
@@ -22310,10 +22344,10 @@
         <v>48</v>
       </c>
       <c r="H230" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J230" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K230">
         <v>1</v>
@@ -22332,7 +22366,7 @@
         <v>0</v>
       </c>
       <c r="P230" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="231" spans="2:16" x14ac:dyDescent="0.25">
@@ -22356,10 +22390,10 @@
         <v>29</v>
       </c>
       <c r="H231" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J231" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K231">
         <v>1</v>
@@ -22378,7 +22412,7 @@
         <v>75</v>
       </c>
       <c r="P231" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="232" spans="2:16" x14ac:dyDescent="0.25">
@@ -22402,10 +22436,10 @@
         <v>48</v>
       </c>
       <c r="H232" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J232" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K232">
         <v>1</v>
@@ -22424,7 +22458,7 @@
         <v>75</v>
       </c>
       <c r="P232" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="233" spans="2:16" x14ac:dyDescent="0.25">
@@ -22448,10 +22482,10 @@
         <v>48</v>
       </c>
       <c r="H233" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J233" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K233">
         <v>1</v>
@@ -22470,7 +22504,7 @@
         <v>75</v>
       </c>
       <c r="P233" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="234" spans="2:16" x14ac:dyDescent="0.25">
@@ -22494,10 +22528,10 @@
         <v>48</v>
       </c>
       <c r="H234" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J234" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K234">
         <v>1</v>
@@ -22516,7 +22550,7 @@
         <v>75</v>
       </c>
       <c r="P234" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="235" spans="2:16" x14ac:dyDescent="0.25">
@@ -22540,10 +22574,10 @@
         <v>48</v>
       </c>
       <c r="H235" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J235" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K235">
         <v>1</v>
@@ -22562,7 +22596,7 @@
         <v>45</v>
       </c>
       <c r="P235" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="236" spans="2:16" x14ac:dyDescent="0.25">
@@ -22586,10 +22620,10 @@
         <v>48</v>
       </c>
       <c r="H236" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J236" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K236">
         <v>1</v>
@@ -22608,7 +22642,7 @@
         <v>75</v>
       </c>
       <c r="P236" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="237" spans="2:16" x14ac:dyDescent="0.25">
@@ -22632,10 +22666,10 @@
         <v>19</v>
       </c>
       <c r="H237" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J237" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K237">
         <v>1</v>
@@ -22654,7 +22688,7 @@
         <v>75</v>
       </c>
       <c r="P237" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="238" spans="2:16" x14ac:dyDescent="0.25">
@@ -22678,10 +22712,10 @@
         <v>48</v>
       </c>
       <c r="H238" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J238" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K238">
         <v>1</v>
@@ -22700,7 +22734,7 @@
         <v>75</v>
       </c>
       <c r="P238" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="239" spans="2:16" x14ac:dyDescent="0.25">
@@ -22724,10 +22758,10 @@
         <v>48</v>
       </c>
       <c r="H239" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J239" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K239">
         <v>1</v>
@@ -22746,7 +22780,7 @@
         <v>75</v>
       </c>
       <c r="P239" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="240" spans="2:16" x14ac:dyDescent="0.25">
@@ -22770,10 +22804,10 @@
         <v>48</v>
       </c>
       <c r="H240" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J240" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K240">
         <v>1</v>
@@ -22792,7 +22826,7 @@
         <v>75</v>
       </c>
       <c r="P240" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="2:16" x14ac:dyDescent="0.25">
@@ -22816,10 +22850,10 @@
         <v>48</v>
       </c>
       <c r="H241" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J241" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K241">
         <v>1</v>
@@ -22838,7 +22872,7 @@
         <v>75</v>
       </c>
       <c r="P241" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="242" spans="2:16" x14ac:dyDescent="0.25">
@@ -22862,10 +22896,10 @@
         <v>48</v>
       </c>
       <c r="H242" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J242" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -22884,7 +22918,7 @@
         <v>75</v>
       </c>
       <c r="P242" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="243" spans="2:16" x14ac:dyDescent="0.25">
@@ -22908,10 +22942,10 @@
         <v>29</v>
       </c>
       <c r="H243" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J243" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K243">
         <v>1</v>
@@ -22930,12 +22964,12 @@
         <v>75</v>
       </c>
       <c r="P243" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="244" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B244" s="74" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -22954,10 +22988,10 @@
         <v>48</v>
       </c>
       <c r="H244" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J244" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -22976,12 +23010,12 @@
         <v>75</v>
       </c>
       <c r="P244" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="245" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B245" s="74" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -23000,10 +23034,10 @@
         <v>48</v>
       </c>
       <c r="H245" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J245" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K245">
         <v>1</v>
@@ -23022,7 +23056,7 @@
         <v>75</v>
       </c>
       <c r="P245" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="246" spans="2:16" x14ac:dyDescent="0.25">
@@ -23046,10 +23080,10 @@
         <v>195</v>
       </c>
       <c r="H246" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J246" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K246">
         <v>1</v>
@@ -23068,7 +23102,7 @@
         <v>75</v>
       </c>
       <c r="P246" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="247" spans="2:16" x14ac:dyDescent="0.25">
@@ -23092,10 +23126,10 @@
         <v>195</v>
       </c>
       <c r="H247" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J247" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K247">
         <v>1</v>
@@ -23114,7 +23148,7 @@
         <v>75</v>
       </c>
       <c r="P247" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="248" spans="2:16" x14ac:dyDescent="0.25">
@@ -23138,10 +23172,10 @@
         <v>195</v>
       </c>
       <c r="H248" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J248" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K248">
         <v>1</v>
@@ -23160,7 +23194,7 @@
         <v>75</v>
       </c>
       <c r="P248" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="249" spans="2:16" x14ac:dyDescent="0.25">
@@ -23184,10 +23218,10 @@
         <v>195</v>
       </c>
       <c r="H249" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J249" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K249">
         <v>1</v>
@@ -23206,7 +23240,7 @@
         <v>75</v>
       </c>
       <c r="P249" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="250" spans="2:16" x14ac:dyDescent="0.25">
@@ -23230,10 +23264,10 @@
         <v>195</v>
       </c>
       <c r="H250" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J250" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K250">
         <v>1</v>
@@ -23252,7 +23286,7 @@
         <v>75</v>
       </c>
       <c r="P250" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="251" spans="2:16" x14ac:dyDescent="0.25">
@@ -23276,10 +23310,10 @@
         <v>195</v>
       </c>
       <c r="H251" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J251" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K251">
         <v>1</v>
@@ -23298,7 +23332,7 @@
         <v>75</v>
       </c>
       <c r="P251" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="252" spans="2:16" x14ac:dyDescent="0.25">
@@ -23322,10 +23356,10 @@
         <v>195</v>
       </c>
       <c r="H252" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J252" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K252">
         <v>1</v>
@@ -23344,7 +23378,7 @@
         <v>75</v>
       </c>
       <c r="P252" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="253" spans="2:16" x14ac:dyDescent="0.25">
@@ -23368,10 +23402,10 @@
         <v>195</v>
       </c>
       <c r="H253" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J253" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K253">
         <v>1</v>
@@ -23390,7 +23424,7 @@
         <v>75</v>
       </c>
       <c r="P253" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="254" spans="2:16" x14ac:dyDescent="0.25">
@@ -23414,10 +23448,10 @@
         <v>195</v>
       </c>
       <c r="H254" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J254" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K254">
         <v>1</v>
@@ -23436,7 +23470,7 @@
         <v>75</v>
       </c>
       <c r="P254" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="255" spans="2:16" x14ac:dyDescent="0.25">
@@ -23460,10 +23494,10 @@
         <v>195</v>
       </c>
       <c r="H255" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J255" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K255">
         <v>1</v>
@@ -23482,7 +23516,7 @@
         <v>75</v>
       </c>
       <c r="P255" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="256" spans="2:16" x14ac:dyDescent="0.25">
@@ -23506,10 +23540,10 @@
         <v>195</v>
       </c>
       <c r="H256" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J256" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K256">
         <v>1</v>
@@ -23528,12 +23562,12 @@
         <v>75</v>
       </c>
       <c r="P256" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B257" s="74" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -23552,10 +23586,10 @@
         <v>156</v>
       </c>
       <c r="H257" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J257" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K257">
         <v>1</v>
@@ -23574,7 +23608,7 @@
         <v>75</v>
       </c>
       <c r="P257" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="258" spans="2:16" x14ac:dyDescent="0.25">
@@ -23598,10 +23632,10 @@
         <v>263</v>
       </c>
       <c r="H258" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J258" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K258">
         <v>1</v>
@@ -23620,7 +23654,7 @@
         <v>75</v>
       </c>
       <c r="P258" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="259" spans="2:16" x14ac:dyDescent="0.25">
@@ -23644,10 +23678,10 @@
         <v>263</v>
       </c>
       <c r="H259" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J259" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K259">
         <v>1</v>
@@ -23666,7 +23700,7 @@
         <v>75</v>
       </c>
       <c r="P259" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="260" spans="2:16" x14ac:dyDescent="0.25">
@@ -23690,10 +23724,10 @@
         <v>263</v>
       </c>
       <c r="H260" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J260" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K260">
         <v>1</v>
@@ -23712,7 +23746,7 @@
         <v>75</v>
       </c>
       <c r="P260" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="261" spans="2:16" x14ac:dyDescent="0.25">
@@ -23736,10 +23770,10 @@
         <v>263</v>
       </c>
       <c r="H261" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J261" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K261">
         <v>1</v>
@@ -23758,7 +23792,7 @@
         <v>75</v>
       </c>
       <c r="P261" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="262" spans="2:16" x14ac:dyDescent="0.25">
@@ -23782,10 +23816,10 @@
         <v>263</v>
       </c>
       <c r="H262" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J262" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K262">
         <v>1</v>
@@ -23804,7 +23838,7 @@
         <v>75</v>
       </c>
       <c r="P262" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="263" spans="2:16" x14ac:dyDescent="0.25">
@@ -23828,10 +23862,10 @@
         <v>263</v>
       </c>
       <c r="H263" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J263" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K263">
         <v>1</v>
@@ -23850,7 +23884,7 @@
         <v>75</v>
       </c>
       <c r="P263" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="264" spans="2:16" x14ac:dyDescent="0.25">
@@ -23874,10 +23908,10 @@
         <v>263</v>
       </c>
       <c r="H264" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J264" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K264">
         <v>1</v>
@@ -23896,7 +23930,7 @@
         <v>75</v>
       </c>
       <c r="P264" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="265" spans="2:16" x14ac:dyDescent="0.25">
@@ -23920,10 +23954,10 @@
         <v>263</v>
       </c>
       <c r="H265" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J265" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -23942,7 +23976,7 @@
         <v>75</v>
       </c>
       <c r="P265" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="266" spans="2:16" x14ac:dyDescent="0.25">
@@ -23966,10 +24000,10 @@
         <v>263</v>
       </c>
       <c r="H266" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J266" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K266">
         <v>1</v>
@@ -23988,7 +24022,7 @@
         <v>75</v>
       </c>
       <c r="P266" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="267" spans="2:16" x14ac:dyDescent="0.25">
@@ -24012,10 +24046,10 @@
         <v>263</v>
       </c>
       <c r="H267" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J267" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K267">
         <v>1</v>
@@ -24034,7 +24068,7 @@
         <v>75</v>
       </c>
       <c r="P267" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="268" spans="2:16" x14ac:dyDescent="0.25">
@@ -24058,10 +24092,10 @@
         <v>263</v>
       </c>
       <c r="H268" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J268" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K268">
         <v>1</v>
@@ -24080,7 +24114,7 @@
         <v>75</v>
       </c>
       <c r="P268" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="269" spans="2:16" x14ac:dyDescent="0.25">
@@ -24104,10 +24138,10 @@
         <v>263</v>
       </c>
       <c r="H269" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J269" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -24126,7 +24160,7 @@
         <v>75</v>
       </c>
       <c r="P269" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="270" spans="2:16" x14ac:dyDescent="0.25">
@@ -24150,10 +24184,10 @@
         <v>263</v>
       </c>
       <c r="H270" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J270" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -24172,7 +24206,7 @@
         <v>75</v>
       </c>
       <c r="P270" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="271" spans="2:16" x14ac:dyDescent="0.25">
@@ -24196,10 +24230,10 @@
         <v>263</v>
       </c>
       <c r="H271" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J271" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K271">
         <v>1</v>
@@ -24218,7 +24252,7 @@
         <v>75</v>
       </c>
       <c r="P271" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="272" spans="2:16" x14ac:dyDescent="0.25">
@@ -24242,10 +24276,10 @@
         <v>263</v>
       </c>
       <c r="H272" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J272" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K272">
         <v>1</v>
@@ -24264,7 +24298,7 @@
         <v>75</v>
       </c>
       <c r="P272" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="273" spans="2:16" x14ac:dyDescent="0.25">
@@ -24288,10 +24322,10 @@
         <v>263</v>
       </c>
       <c r="H273" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J273" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -24310,7 +24344,7 @@
         <v>75</v>
       </c>
       <c r="P273" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="274" spans="2:16" x14ac:dyDescent="0.25">
@@ -24334,10 +24368,10 @@
         <v>263</v>
       </c>
       <c r="H274" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J274" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K274">
         <v>1</v>
@@ -24356,7 +24390,7 @@
         <v>75</v>
       </c>
       <c r="P274" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="275" spans="2:16" x14ac:dyDescent="0.25">
@@ -24380,10 +24414,10 @@
         <v>25</v>
       </c>
       <c r="H275" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J275" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K275">
         <v>1</v>
@@ -24402,7 +24436,7 @@
         <v>75</v>
       </c>
       <c r="P275" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="276" spans="2:16" x14ac:dyDescent="0.25">
@@ -24426,10 +24460,10 @@
         <v>25</v>
       </c>
       <c r="H276" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J276" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K276">
         <v>1</v>
@@ -24448,7 +24482,7 @@
         <v>75</v>
       </c>
       <c r="P276" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="277" spans="2:16" x14ac:dyDescent="0.25">
@@ -24472,10 +24506,10 @@
         <v>25</v>
       </c>
       <c r="H277" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J277" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K277">
         <v>1</v>
@@ -24494,7 +24528,7 @@
         <v>75</v>
       </c>
       <c r="P277" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="278" spans="2:16" x14ac:dyDescent="0.25">
@@ -24518,10 +24552,10 @@
         <v>25</v>
       </c>
       <c r="H278" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J278" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K278">
         <v>1</v>
@@ -24540,7 +24574,7 @@
         <v>75</v>
       </c>
       <c r="P278" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="279" spans="2:16" x14ac:dyDescent="0.25">
@@ -24564,10 +24598,10 @@
         <v>25</v>
       </c>
       <c r="H279" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J279" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K279">
         <v>1</v>
@@ -24586,7 +24620,7 @@
         <v>75</v>
       </c>
       <c r="P279" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="280" spans="2:16" x14ac:dyDescent="0.25">
@@ -24610,10 +24644,10 @@
         <v>55</v>
       </c>
       <c r="H280" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J280" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K280">
         <v>1</v>
@@ -24632,7 +24666,7 @@
         <v>75</v>
       </c>
       <c r="P280" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="281" spans="2:16" x14ac:dyDescent="0.25">
@@ -24656,10 +24690,10 @@
         <v>55</v>
       </c>
       <c r="H281" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J281" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K281">
         <v>1</v>
@@ -24678,7 +24712,7 @@
         <v>75</v>
       </c>
       <c r="P281" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="282" spans="2:16" x14ac:dyDescent="0.25">
@@ -24702,10 +24736,10 @@
         <v>55</v>
       </c>
       <c r="H282" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J282" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K282">
         <v>1</v>
@@ -24724,7 +24758,7 @@
         <v>75</v>
       </c>
       <c r="P282" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="283" spans="2:16" x14ac:dyDescent="0.25">
@@ -24748,10 +24782,10 @@
         <v>55</v>
       </c>
       <c r="H283" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J283" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K283">
         <v>1</v>
@@ -24770,7 +24804,7 @@
         <v>75</v>
       </c>
       <c r="P283" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="284" spans="2:16" x14ac:dyDescent="0.25">
@@ -24794,10 +24828,10 @@
         <v>55</v>
       </c>
       <c r="H284" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J284" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K284">
         <v>1</v>
@@ -24816,7 +24850,7 @@
         <v>75</v>
       </c>
       <c r="P284" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="285" spans="2:16" x14ac:dyDescent="0.25">
@@ -24840,10 +24874,10 @@
         <v>55</v>
       </c>
       <c r="H285" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J285" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K285">
         <v>1</v>
@@ -24862,7 +24896,7 @@
         <v>75</v>
       </c>
       <c r="P285" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="286" spans="2:16" x14ac:dyDescent="0.25">
@@ -24886,10 +24920,10 @@
         <v>55</v>
       </c>
       <c r="H286" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J286" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K286">
         <v>1</v>
@@ -24908,7 +24942,7 @@
         <v>75</v>
       </c>
       <c r="P286" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="287" spans="2:16" x14ac:dyDescent="0.25">
@@ -24932,10 +24966,10 @@
         <v>55</v>
       </c>
       <c r="H287" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J287" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K287">
         <v>1</v>
@@ -24954,7 +24988,7 @@
         <v>75</v>
       </c>
       <c r="P287" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="288" spans="2:16" x14ac:dyDescent="0.25">
@@ -24978,10 +25012,10 @@
         <v>55</v>
       </c>
       <c r="H288" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J288" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K288">
         <v>1</v>
@@ -25000,7 +25034,7 @@
         <v>75</v>
       </c>
       <c r="P288" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="289" spans="2:16" x14ac:dyDescent="0.25">
@@ -25024,10 +25058,10 @@
         <v>263</v>
       </c>
       <c r="H289" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J289" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K289">
         <v>1</v>
@@ -25046,7 +25080,7 @@
         <v>75</v>
       </c>
       <c r="P289" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="290" spans="2:16" x14ac:dyDescent="0.25">
@@ -25070,10 +25104,10 @@
         <v>263</v>
       </c>
       <c r="H290" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J290" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K290">
         <v>1</v>
@@ -25092,7 +25126,7 @@
         <v>75</v>
       </c>
       <c r="P290" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="291" spans="2:16" x14ac:dyDescent="0.25">
@@ -25116,10 +25150,10 @@
         <v>263</v>
       </c>
       <c r="H291" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J291" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K291">
         <v>1</v>
@@ -25138,7 +25172,7 @@
         <v>75</v>
       </c>
       <c r="P291" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="292" spans="2:16" x14ac:dyDescent="0.25">
@@ -25162,10 +25196,10 @@
         <v>263</v>
       </c>
       <c r="H292" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J292" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K292">
         <v>1</v>
@@ -25184,7 +25218,7 @@
         <v>75</v>
       </c>
       <c r="P292" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="293" spans="2:16" x14ac:dyDescent="0.25">
@@ -25208,10 +25242,10 @@
         <v>175</v>
       </c>
       <c r="H293" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J293" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K293">
         <v>1</v>
@@ -25230,7 +25264,7 @@
         <v>75</v>
       </c>
       <c r="P293" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="294" spans="2:16" x14ac:dyDescent="0.25">
@@ -25254,10 +25288,10 @@
         <v>175</v>
       </c>
       <c r="H294" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J294" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K294">
         <v>1</v>
@@ -25276,7 +25310,7 @@
         <v>75</v>
       </c>
       <c r="P294" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="295" spans="2:16" x14ac:dyDescent="0.25">
@@ -25300,10 +25334,10 @@
         <v>175</v>
       </c>
       <c r="H295" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J295" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K295">
         <v>1</v>
@@ -25322,7 +25356,7 @@
         <v>75</v>
       </c>
       <c r="P295" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="296" spans="2:16" x14ac:dyDescent="0.25">
@@ -25346,10 +25380,10 @@
         <v>175</v>
       </c>
       <c r="H296" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J296" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K296">
         <v>1</v>
@@ -25368,7 +25402,7 @@
         <v>75</v>
       </c>
       <c r="P296" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="297" spans="2:16" x14ac:dyDescent="0.25">
@@ -25392,10 +25426,10 @@
         <v>175</v>
       </c>
       <c r="H297" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J297" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K297">
         <v>1</v>
@@ -25414,7 +25448,7 @@
         <v>75</v>
       </c>
       <c r="P297" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="298" spans="2:16" x14ac:dyDescent="0.25">
@@ -25438,10 +25472,10 @@
         <v>175</v>
       </c>
       <c r="H298" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J298" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K298">
         <v>1</v>
@@ -25460,7 +25494,7 @@
         <v>75</v>
       </c>
       <c r="P298" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="299" spans="2:16" x14ac:dyDescent="0.25">
@@ -25484,10 +25518,10 @@
         <v>175</v>
       </c>
       <c r="H299" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J299" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K299">
         <v>1</v>
@@ -25506,7 +25540,7 @@
         <v>75</v>
       </c>
       <c r="P299" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="300" spans="2:16" x14ac:dyDescent="0.25">
@@ -25530,10 +25564,10 @@
         <v>175</v>
       </c>
       <c r="H300" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J300" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K300">
         <v>1</v>
@@ -25552,7 +25586,7 @@
         <v>75</v>
       </c>
       <c r="P300" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="301" spans="2:16" x14ac:dyDescent="0.25">
@@ -25576,10 +25610,10 @@
         <v>175</v>
       </c>
       <c r="H301" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J301" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="K301">
         <v>1</v>
@@ -25598,7 +25632,7 @@
         <v>75</v>
       </c>
       <c r="P301" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="302" spans="2:16" x14ac:dyDescent="0.25">
@@ -25622,7 +25656,7 @@
         <v>130</v>
       </c>
       <c r="H302" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J302" t="s">
         <v>267</v>
@@ -25644,7 +25678,7 @@
         <v>60</v>
       </c>
       <c r="P302" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="303" spans="2:16" x14ac:dyDescent="0.25">
@@ -25668,7 +25702,7 @@
         <v>130</v>
       </c>
       <c r="H303" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J303" t="s">
         <v>267</v>
@@ -25690,7 +25724,7 @@
         <v>45</v>
       </c>
       <c r="P303" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="304" spans="2:16" x14ac:dyDescent="0.25">
@@ -25714,7 +25748,7 @@
         <v>130</v>
       </c>
       <c r="H304" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J304" t="s">
         <v>268</v>
@@ -25736,7 +25770,7 @@
         <v>83</v>
       </c>
       <c r="P304" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="305" spans="2:16" x14ac:dyDescent="0.25">
@@ -25760,10 +25794,10 @@
         <v>130</v>
       </c>
       <c r="H305" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J305" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K305">
         <v>1</v>
@@ -25782,7 +25816,7 @@
         <v>50</v>
       </c>
       <c r="P305" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="306" spans="2:16" x14ac:dyDescent="0.25">
@@ -25806,7 +25840,7 @@
         <v>130</v>
       </c>
       <c r="H306" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J306" t="s">
         <v>278</v>
@@ -25828,7 +25862,7 @@
         <v>55</v>
       </c>
       <c r="P306" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="307" spans="2:16" x14ac:dyDescent="0.25">
@@ -25852,7 +25886,7 @@
         <v>130</v>
       </c>
       <c r="H307" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J307" t="s">
         <v>278</v>
@@ -25874,7 +25908,7 @@
         <v>55</v>
       </c>
       <c r="P307" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="308" spans="2:16" x14ac:dyDescent="0.25">
@@ -25898,7 +25932,7 @@
         <v>130</v>
       </c>
       <c r="H308" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J308" t="s">
         <v>278</v>
@@ -25920,7 +25954,7 @@
         <v>55</v>
       </c>
       <c r="P308" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="309" spans="2:16" x14ac:dyDescent="0.25">
@@ -25944,7 +25978,7 @@
         <v>104</v>
       </c>
       <c r="H309" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J309" t="s">
         <v>278</v>
@@ -25966,7 +26000,7 @@
         <v>55</v>
       </c>
       <c r="P309" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="310" spans="2:16" x14ac:dyDescent="0.25">
@@ -25990,7 +26024,7 @@
         <v>52</v>
       </c>
       <c r="H310" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J310" t="s">
         <v>278</v>
@@ -26012,7 +26046,7 @@
         <v>55</v>
       </c>
       <c r="P310" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="311" spans="2:16" x14ac:dyDescent="0.25">
@@ -26036,7 +26070,7 @@
         <v>78</v>
       </c>
       <c r="H311" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J311" t="s">
         <v>278</v>
@@ -26058,7 +26092,7 @@
         <v>22</v>
       </c>
       <c r="P311" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="312" spans="2:16" x14ac:dyDescent="0.25">
@@ -26082,7 +26116,7 @@
         <v>130</v>
       </c>
       <c r="H312" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J312" t="s">
         <v>278</v>
@@ -26104,7 +26138,7 @@
         <v>55</v>
       </c>
       <c r="P312" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="313" spans="2:16" x14ac:dyDescent="0.25">
@@ -26128,7 +26162,7 @@
         <v>104</v>
       </c>
       <c r="H313" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J313" t="s">
         <v>278</v>
@@ -26150,7 +26184,7 @@
         <v>22</v>
       </c>
       <c r="P313" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="314" spans="2:16" x14ac:dyDescent="0.25">
@@ -26174,7 +26208,7 @@
         <v>130</v>
       </c>
       <c r="H314" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J314" t="s">
         <v>278</v>
@@ -26196,7 +26230,7 @@
         <v>55</v>
       </c>
       <c r="P314" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="315" spans="2:16" x14ac:dyDescent="0.25">
@@ -26220,7 +26254,7 @@
         <v>130</v>
       </c>
       <c r="H315" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J315" t="s">
         <v>278</v>
@@ -26242,7 +26276,7 @@
         <v>55</v>
       </c>
       <c r="P315" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="316" spans="2:16" x14ac:dyDescent="0.25">
@@ -26266,7 +26300,7 @@
         <v>130</v>
       </c>
       <c r="H316" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J316" t="s">
         <v>278</v>
@@ -26288,7 +26322,7 @@
         <v>55</v>
       </c>
       <c r="P316" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="317" spans="2:16" x14ac:dyDescent="0.25">
@@ -26312,7 +26346,7 @@
         <v>130</v>
       </c>
       <c r="H317" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J317" t="s">
         <v>278</v>
@@ -26334,7 +26368,7 @@
         <v>55</v>
       </c>
       <c r="P317" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="318" spans="2:16" x14ac:dyDescent="0.25">
@@ -26358,7 +26392,7 @@
         <v>130</v>
       </c>
       <c r="H318" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J318" t="s">
         <v>278</v>
@@ -26380,7 +26414,7 @@
         <v>55</v>
       </c>
       <c r="P318" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="319" spans="2:16" x14ac:dyDescent="0.25">
@@ -26404,7 +26438,7 @@
         <v>130</v>
       </c>
       <c r="H319" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J319" t="s">
         <v>278</v>
@@ -26426,7 +26460,7 @@
         <v>55</v>
       </c>
       <c r="P319" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="320" spans="2:16" x14ac:dyDescent="0.25">
@@ -26450,7 +26484,7 @@
         <v>130</v>
       </c>
       <c r="H320" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J320" t="s">
         <v>279</v>
@@ -26472,7 +26506,7 @@
         <v>45</v>
       </c>
       <c r="P320" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="321" spans="2:16" x14ac:dyDescent="0.25">
@@ -26496,7 +26530,7 @@
         <v>130</v>
       </c>
       <c r="H321" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J321" t="s">
         <v>279</v>
@@ -26518,7 +26552,7 @@
         <v>20</v>
       </c>
       <c r="P321" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="322" spans="2:16" x14ac:dyDescent="0.25">
@@ -26542,7 +26576,7 @@
         <v>78</v>
       </c>
       <c r="H322" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J322" t="s">
         <v>279</v>
@@ -26564,7 +26598,7 @@
         <v>23</v>
       </c>
       <c r="P322" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="323" spans="2:16" x14ac:dyDescent="0.25">
@@ -26588,7 +26622,7 @@
         <v>52</v>
       </c>
       <c r="H323" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J323" t="s">
         <v>279</v>
@@ -26610,7 +26644,7 @@
         <v>25</v>
       </c>
       <c r="P323" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="324" spans="2:16" x14ac:dyDescent="0.25">
@@ -26634,7 +26668,7 @@
         <v>130</v>
       </c>
       <c r="H324" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J324" t="s">
         <v>279</v>
@@ -26656,7 +26690,7 @@
         <v>25</v>
       </c>
       <c r="P324" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="325" spans="2:16" x14ac:dyDescent="0.25">
@@ -26680,7 +26714,7 @@
         <v>130</v>
       </c>
       <c r="H325" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J325" t="s">
         <v>279</v>
@@ -26702,7 +26736,7 @@
         <v>25</v>
       </c>
       <c r="P325" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="326" spans="2:16" x14ac:dyDescent="0.25">
@@ -26726,7 +26760,7 @@
         <v>130</v>
       </c>
       <c r="H326" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J326" t="s">
         <v>279</v>
@@ -26748,7 +26782,7 @@
         <v>40</v>
       </c>
       <c r="P326" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="327" spans="2:16" x14ac:dyDescent="0.25">
@@ -26772,7 +26806,7 @@
         <v>130</v>
       </c>
       <c r="H327" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J327" t="s">
         <v>279</v>
@@ -26794,7 +26828,7 @@
         <v>23</v>
       </c>
       <c r="P327" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="328" spans="2:16" x14ac:dyDescent="0.25">
@@ -26818,7 +26852,7 @@
         <v>130</v>
       </c>
       <c r="H328" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J328" t="s">
         <v>279</v>
@@ -26840,7 +26874,7 @@
         <v>25</v>
       </c>
       <c r="P328" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="329" spans="2:16" x14ac:dyDescent="0.25">
@@ -26864,7 +26898,7 @@
         <v>130</v>
       </c>
       <c r="H329" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J329" t="s">
         <v>279</v>
@@ -26886,7 +26920,7 @@
         <v>30</v>
       </c>
       <c r="P329" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="330" spans="2:16" x14ac:dyDescent="0.25">
@@ -26910,7 +26944,7 @@
         <v>130</v>
       </c>
       <c r="H330" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J330" t="s">
         <v>279</v>
@@ -26932,7 +26966,7 @@
         <v>10</v>
       </c>
       <c r="P330" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="331" spans="2:16" x14ac:dyDescent="0.25">
@@ -26956,7 +26990,7 @@
         <v>130</v>
       </c>
       <c r="H331" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J331" t="s">
         <v>279</v>
@@ -26978,7 +27012,7 @@
         <v>25</v>
       </c>
       <c r="P331" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="332" spans="2:16" x14ac:dyDescent="0.25">
@@ -27002,7 +27036,7 @@
         <v>130</v>
       </c>
       <c r="H332" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J332" t="s">
         <v>279</v>
@@ -27024,7 +27058,7 @@
         <v>25</v>
       </c>
       <c r="P332" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="333" spans="2:16" x14ac:dyDescent="0.25">
@@ -27048,7 +27082,7 @@
         <v>130</v>
       </c>
       <c r="H333" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J333" t="s">
         <v>279</v>
@@ -27070,7 +27104,7 @@
         <v>25</v>
       </c>
       <c r="P333" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="334" spans="2:16" x14ac:dyDescent="0.25">
@@ -27094,7 +27128,7 @@
         <v>130</v>
       </c>
       <c r="H334" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J334" t="s">
         <v>279</v>
@@ -27116,7 +27150,7 @@
         <v>25</v>
       </c>
       <c r="P334" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="335" spans="2:16" x14ac:dyDescent="0.25">
@@ -27140,7 +27174,7 @@
         <v>104</v>
       </c>
       <c r="H335" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J335" t="s">
         <v>279</v>
@@ -27162,7 +27196,7 @@
         <v>25</v>
       </c>
       <c r="P335" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="336" spans="2:16" x14ac:dyDescent="0.25">
@@ -27186,7 +27220,7 @@
         <v>44</v>
       </c>
       <c r="H336" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J336" t="s">
         <v>279</v>
@@ -27208,7 +27242,7 @@
         <v>25</v>
       </c>
       <c r="P336" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="337" spans="2:16" x14ac:dyDescent="0.25">
@@ -27232,7 +27266,7 @@
         <v>33</v>
       </c>
       <c r="H337" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J337" t="s">
         <v>279</v>
@@ -27254,7 +27288,7 @@
         <v>30</v>
       </c>
       <c r="P337" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="338" spans="2:16" x14ac:dyDescent="0.25">
@@ -27278,7 +27312,7 @@
         <v>22</v>
       </c>
       <c r="H338" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J338" t="s">
         <v>279</v>
@@ -27300,7 +27334,7 @@
         <v>25</v>
       </c>
       <c r="P338" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="339" spans="2:16" x14ac:dyDescent="0.25">
@@ -27324,7 +27358,7 @@
         <v>20</v>
       </c>
       <c r="H339" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J339" t="s">
         <v>279</v>
@@ -27346,7 +27380,7 @@
         <v>25</v>
       </c>
       <c r="P339" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="340" spans="2:16" x14ac:dyDescent="0.25">
@@ -27370,7 +27404,7 @@
         <v>15</v>
       </c>
       <c r="H340" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J340" t="s">
         <v>279</v>
@@ -27392,7 +27426,7 @@
         <v>25</v>
       </c>
       <c r="P340" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="341" spans="2:16" x14ac:dyDescent="0.25">
@@ -27416,7 +27450,7 @@
         <v>20</v>
       </c>
       <c r="H341" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J341" t="s">
         <v>279</v>
@@ -27438,7 +27472,7 @@
         <v>15</v>
       </c>
       <c r="P341" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="342" spans="2:16" x14ac:dyDescent="0.25">
@@ -27462,7 +27496,7 @@
         <v>10</v>
       </c>
       <c r="H342" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J342" t="s">
         <v>279</v>
@@ -27484,7 +27518,7 @@
         <v>50</v>
       </c>
       <c r="P342" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="343" spans="2:16" x14ac:dyDescent="0.25">
@@ -27508,7 +27542,7 @@
         <v>15</v>
       </c>
       <c r="H343" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J343" t="s">
         <v>279</v>
@@ -27530,7 +27564,7 @@
         <v>25</v>
       </c>
       <c r="P343" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="344" spans="2:16" x14ac:dyDescent="0.25">
@@ -27554,7 +27588,7 @@
         <v>3</v>
       </c>
       <c r="H344" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J344" t="s">
         <v>279</v>
@@ -27576,7 +27610,7 @@
         <v>23</v>
       </c>
       <c r="P344" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="345" spans="2:16" x14ac:dyDescent="0.25">
@@ -27600,7 +27634,7 @@
         <v>28</v>
       </c>
       <c r="H345" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J345" t="s">
         <v>279</v>
@@ -27622,7 +27656,7 @@
         <v>50</v>
       </c>
       <c r="P345" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" spans="2:16" x14ac:dyDescent="0.25">
@@ -27646,7 +27680,7 @@
         <v>3</v>
       </c>
       <c r="H346" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J346" t="s">
         <v>279</v>
@@ -27668,7 +27702,7 @@
         <v>25</v>
       </c>
       <c r="P346" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="347" spans="2:16" x14ac:dyDescent="0.25">
@@ -27692,7 +27726,7 @@
         <v>6</v>
       </c>
       <c r="H347" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J347" t="s">
         <v>279</v>
@@ -27714,7 +27748,7 @@
         <v>25</v>
       </c>
       <c r="P347" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="348" spans="2:16" x14ac:dyDescent="0.25">
@@ -27738,7 +27772,7 @@
         <v>3</v>
       </c>
       <c r="H348" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J348" t="s">
         <v>279</v>
@@ -27760,7 +27794,7 @@
         <v>20</v>
       </c>
       <c r="P348" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="349" spans="2:16" x14ac:dyDescent="0.25">
@@ -27784,7 +27818,7 @@
         <v>28</v>
       </c>
       <c r="H349" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J349" t="s">
         <v>279</v>
@@ -27806,7 +27840,7 @@
         <v>25</v>
       </c>
       <c r="P349" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="350" spans="2:16" x14ac:dyDescent="0.25">
@@ -27830,7 +27864,7 @@
         <v>28</v>
       </c>
       <c r="H350" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J350" t="s">
         <v>279</v>
@@ -27852,7 +27886,7 @@
         <v>25</v>
       </c>
       <c r="P350" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="351" spans="2:16" x14ac:dyDescent="0.25">
@@ -27876,7 +27910,7 @@
         <v>28</v>
       </c>
       <c r="H351" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J351" t="s">
         <v>279</v>
@@ -27898,7 +27932,7 @@
         <v>25</v>
       </c>
       <c r="P351" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="352" spans="2:16" x14ac:dyDescent="0.25">
@@ -27922,7 +27956,7 @@
         <v>11</v>
       </c>
       <c r="H352" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J352" t="s">
         <v>279</v>
@@ -27944,7 +27978,7 @@
         <v>25</v>
       </c>
       <c r="P352" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="353" spans="2:16" x14ac:dyDescent="0.25">
@@ -27968,7 +28002,7 @@
         <v>28</v>
       </c>
       <c r="H353" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J353" t="s">
         <v>279</v>
@@ -27990,7 +28024,7 @@
         <v>60</v>
       </c>
       <c r="P353" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="354" spans="2:16" x14ac:dyDescent="0.25">
@@ -28014,7 +28048,7 @@
         <v>28</v>
       </c>
       <c r="H354" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J354" t="s">
         <v>279</v>
@@ -28036,7 +28070,7 @@
         <v>25</v>
       </c>
       <c r="P354" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="355" spans="2:16" x14ac:dyDescent="0.25">
@@ -28060,7 +28094,7 @@
         <v>250</v>
       </c>
       <c r="H355" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J355" t="s">
         <v>279</v>
@@ -28082,7 +28116,7 @@
         <v>23</v>
       </c>
       <c r="P355" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="356" spans="2:16" x14ac:dyDescent="0.25">
@@ -28106,7 +28140,7 @@
         <v>200</v>
       </c>
       <c r="H356" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J356" t="s">
         <v>279</v>
@@ -28128,7 +28162,7 @@
         <v>25</v>
       </c>
       <c r="P356" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="357" spans="2:16" x14ac:dyDescent="0.25">
@@ -28152,7 +28186,7 @@
         <v>125</v>
       </c>
       <c r="H357" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J357" t="s">
         <v>279</v>
@@ -28174,7 +28208,7 @@
         <v>25</v>
       </c>
       <c r="P357" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="358" spans="2:16" x14ac:dyDescent="0.25">
@@ -28198,7 +28232,7 @@
         <v>200</v>
       </c>
       <c r="H358" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J358" t="s">
         <v>279</v>
@@ -28220,7 +28254,7 @@
         <v>25</v>
       </c>
       <c r="P358" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="359" spans="2:16" x14ac:dyDescent="0.25">
@@ -28244,7 +28278,7 @@
         <v>200</v>
       </c>
       <c r="H359" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J359" t="s">
         <v>279</v>
@@ -28266,7 +28300,7 @@
         <v>23</v>
       </c>
       <c r="P359" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="360" spans="2:16" x14ac:dyDescent="0.25">
@@ -28290,7 +28324,7 @@
         <v>55</v>
       </c>
       <c r="H360" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J360" t="s">
         <v>279</v>
@@ -28312,12 +28346,12 @@
         <v>23</v>
       </c>
       <c r="P360" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="361" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B361" s="74" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C361">
         <v>1</v>
@@ -28336,7 +28370,7 @@
         <v>75</v>
       </c>
       <c r="H361" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J361" t="s">
         <v>279</v>
@@ -28358,7 +28392,7 @@
         <v>20</v>
       </c>
       <c r="P361" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="362" spans="2:16" x14ac:dyDescent="0.25">
@@ -28382,7 +28416,7 @@
         <v>45</v>
       </c>
       <c r="H362" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J362" t="s">
         <v>279</v>
@@ -28404,7 +28438,7 @@
         <v>23</v>
       </c>
       <c r="P362" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="363" spans="2:16" x14ac:dyDescent="0.25">
@@ -28428,7 +28462,7 @@
         <v>60</v>
       </c>
       <c r="H363" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J363" t="s">
         <v>279</v>
@@ -28450,7 +28484,7 @@
         <v>100</v>
       </c>
       <c r="P363" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="364" spans="2:16" x14ac:dyDescent="0.25">
@@ -28474,7 +28508,7 @@
         <v>83</v>
       </c>
       <c r="H364" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J364" t="s">
         <v>279</v>
@@ -28496,7 +28530,7 @@
         <v>25</v>
       </c>
       <c r="P364" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="365" spans="2:16" x14ac:dyDescent="0.25">
@@ -28520,7 +28554,7 @@
         <v>45</v>
       </c>
       <c r="H365" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J365" t="s">
         <v>279</v>
@@ -28542,7 +28576,7 @@
         <v>30</v>
       </c>
       <c r="P365" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="366" spans="2:16" x14ac:dyDescent="0.25">
@@ -28566,7 +28600,7 @@
         <v>23</v>
       </c>
       <c r="H366" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J366" t="s">
         <v>279</v>
@@ -28588,7 +28622,7 @@
         <v>25</v>
       </c>
       <c r="P366" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="367" spans="2:16" x14ac:dyDescent="0.25">
@@ -28612,7 +28646,7 @@
         <v>75</v>
       </c>
       <c r="H367" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J367" t="s">
         <v>279</v>
@@ -28634,7 +28668,7 @@
         <v>23</v>
       </c>
       <c r="P367" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="368" spans="2:16" x14ac:dyDescent="0.25">
@@ -28658,7 +28692,7 @@
         <v>60</v>
       </c>
       <c r="H368" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J368" t="s">
         <v>279</v>
@@ -28680,7 +28714,7 @@
         <v>45</v>
       </c>
       <c r="P368" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="369" spans="2:16" x14ac:dyDescent="0.25">
@@ -28704,7 +28738,7 @@
         <v>75</v>
       </c>
       <c r="H369" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J369" t="s">
         <v>279</v>
@@ -28726,7 +28760,7 @@
         <v>25</v>
       </c>
       <c r="P369" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="370" spans="2:16" x14ac:dyDescent="0.25">
@@ -28750,7 +28784,7 @@
         <v>75</v>
       </c>
       <c r="H370" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J370" t="s">
         <v>279</v>
@@ -28772,7 +28806,7 @@
         <v>50</v>
       </c>
       <c r="P370" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="371" spans="2:16" x14ac:dyDescent="0.25">
@@ -28796,10 +28830,10 @@
         <v>15</v>
       </c>
       <c r="H371" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J371" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K371">
         <v>1</v>
@@ -28818,7 +28852,7 @@
         <v>25</v>
       </c>
       <c r="P371" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="372" spans="2:16" x14ac:dyDescent="0.25">
@@ -28842,10 +28876,10 @@
         <v>75</v>
       </c>
       <c r="H372" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J372" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K372">
         <v>1</v>
@@ -28864,7 +28898,7 @@
         <v>25</v>
       </c>
       <c r="P372" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="373" spans="2:16" x14ac:dyDescent="0.25">
@@ -28888,10 +28922,10 @@
         <v>75</v>
       </c>
       <c r="H373" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J373" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K373">
         <v>1</v>
@@ -28910,7 +28944,7 @@
         <v>25</v>
       </c>
       <c r="P373" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="374" spans="2:16" x14ac:dyDescent="0.25">
@@ -28934,12 +28968,12 @@
         <v>40</v>
       </c>
       <c r="H374" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="375" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B375" s="74" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C375">
         <v>1</v>
@@ -28958,7 +28992,7 @@
         <v>50</v>
       </c>
       <c r="H375" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="376" spans="2:16" x14ac:dyDescent="0.25">
@@ -28982,7 +29016,7 @@
         <v>30</v>
       </c>
       <c r="H376" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="377" spans="2:16" x14ac:dyDescent="0.25">
@@ -29006,7 +29040,7 @@
         <v>75</v>
       </c>
       <c r="H377" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="378" spans="2:16" x14ac:dyDescent="0.25">
@@ -29030,7 +29064,7 @@
         <v>75</v>
       </c>
       <c r="H378" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="379" spans="2:16" x14ac:dyDescent="0.25">
@@ -29054,7 +29088,7 @@
         <v>30</v>
       </c>
       <c r="H379" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="380" spans="2:16" x14ac:dyDescent="0.25">
@@ -29078,7 +29112,7 @@
         <v>75</v>
       </c>
       <c r="H380" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="381" spans="2:16" x14ac:dyDescent="0.25">
@@ -29102,12 +29136,12 @@
         <v>45</v>
       </c>
       <c r="H381" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="382" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B382" s="74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C382">
         <v>1</v>
@@ -29126,7 +29160,7 @@
         <v>15</v>
       </c>
       <c r="H382" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="2:16" x14ac:dyDescent="0.25">
@@ -29150,7 +29184,7 @@
         <v>75</v>
       </c>
       <c r="H383" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="384" spans="2:16" x14ac:dyDescent="0.25">
@@ -29174,7 +29208,7 @@
         <v>55</v>
       </c>
       <c r="H384" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.25">
@@ -29198,7 +29232,7 @@
         <v>22</v>
       </c>
       <c r="H385" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.25">
@@ -29222,7 +29256,7 @@
         <v>11</v>
       </c>
       <c r="H386" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.25">
@@ -29246,12 +29280,12 @@
         <v>11</v>
       </c>
       <c r="H387" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B388" s="74" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C388">
         <v>1</v>
@@ -29270,12 +29304,12 @@
         <v>50</v>
       </c>
       <c r="H388" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B389" s="74" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C389">
         <v>1</v>
@@ -29294,7 +29328,7 @@
         <v>50</v>
       </c>
       <c r="H389" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.25">
@@ -29318,7 +29352,7 @@
         <v>45</v>
       </c>
       <c r="H390" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.25">
@@ -29342,7 +29376,7 @@
         <v>75</v>
       </c>
       <c r="H391" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.25">
@@ -29366,7 +29400,7 @@
         <v>4</v>
       </c>
       <c r="H392" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.25">
@@ -29390,7 +29424,7 @@
         <v>75</v>
       </c>
       <c r="H393" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="394" spans="2:8" x14ac:dyDescent="0.25">
@@ -29414,7 +29448,7 @@
         <v>45</v>
       </c>
       <c r="H394" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="395" spans="2:8" x14ac:dyDescent="0.25">
@@ -29438,7 +29472,7 @@
         <v>75</v>
       </c>
       <c r="H395" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="396" spans="2:8" x14ac:dyDescent="0.25">
@@ -29462,7 +29496,7 @@
         <v>75</v>
       </c>
       <c r="H396" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="397" spans="2:8" x14ac:dyDescent="0.25">
@@ -29486,7 +29520,7 @@
         <v>113</v>
       </c>
       <c r="H397" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="398" spans="2:8" x14ac:dyDescent="0.25">
@@ -29510,7 +29544,7 @@
         <v>75</v>
       </c>
       <c r="H398" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="399" spans="2:8" x14ac:dyDescent="0.25">
@@ -29534,7 +29568,7 @@
         <v>300</v>
       </c>
       <c r="H399" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="400" spans="2:8" x14ac:dyDescent="0.25">
@@ -29558,7 +29592,7 @@
         <v>30</v>
       </c>
       <c r="H400" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="401" spans="2:8" x14ac:dyDescent="0.25">
@@ -29582,7 +29616,7 @@
         <v>75</v>
       </c>
       <c r="H401" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="402" spans="2:8" x14ac:dyDescent="0.25">
@@ -29606,7 +29640,7 @@
         <v>45</v>
       </c>
       <c r="H402" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="403" spans="2:8" x14ac:dyDescent="0.25">
@@ -29630,7 +29664,7 @@
         <v>60</v>
       </c>
       <c r="H403" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="404" spans="2:8" x14ac:dyDescent="0.25">
@@ -29654,7 +29688,7 @@
         <v>30</v>
       </c>
       <c r="H404" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="405" spans="2:8" x14ac:dyDescent="0.25">
@@ -29678,7 +29712,7 @@
         <v>75</v>
       </c>
       <c r="H405" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="406" spans="2:8" x14ac:dyDescent="0.25">
@@ -29702,12 +29736,12 @@
         <v>45</v>
       </c>
       <c r="H406" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="407" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B407" s="74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C407">
         <v>1</v>
@@ -29726,12 +29760,12 @@
         <v>75</v>
       </c>
       <c r="H407" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="408" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B408" s="74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C408">
         <v>1</v>
@@ -29750,12 +29784,12 @@
         <v>75</v>
       </c>
       <c r="H408" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="409" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B409" s="74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -29774,12 +29808,12 @@
         <v>60</v>
       </c>
       <c r="H409" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="410" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B410" s="74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C410">
         <v>1</v>
@@ -29798,12 +29832,12 @@
         <v>75</v>
       </c>
       <c r="H410" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="411" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B411" s="74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C411">
         <v>1</v>
@@ -29822,12 +29856,12 @@
         <v>45</v>
       </c>
       <c r="H411" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="412" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B412" s="74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -29846,7 +29880,7 @@
         <v>30</v>
       </c>
       <c r="H412" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="413" spans="2:8" x14ac:dyDescent="0.25">
@@ -29870,7 +29904,7 @@
         <v>55</v>
       </c>
       <c r="H413" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="414" spans="2:8" x14ac:dyDescent="0.25">
@@ -29894,7 +29928,7 @@
         <v>55</v>
       </c>
       <c r="H414" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="415" spans="2:8" x14ac:dyDescent="0.25">
@@ -29918,7 +29952,7 @@
         <v>55</v>
       </c>
       <c r="H415" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="416" spans="2:8" x14ac:dyDescent="0.25">
@@ -29942,7 +29976,7 @@
         <v>55</v>
       </c>
       <c r="H416" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="417" spans="2:8" x14ac:dyDescent="0.25">
@@ -29966,7 +30000,7 @@
         <v>55</v>
       </c>
       <c r="H417" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="418" spans="2:8" x14ac:dyDescent="0.25">
@@ -29990,7 +30024,7 @@
         <v>55</v>
       </c>
       <c r="H418" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="419" spans="2:8" x14ac:dyDescent="0.25">
@@ -30014,7 +30048,7 @@
         <v>55</v>
       </c>
       <c r="H419" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="420" spans="2:8" x14ac:dyDescent="0.25">
@@ -30038,7 +30072,7 @@
         <v>55</v>
       </c>
       <c r="H420" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="421" spans="2:8" x14ac:dyDescent="0.25">
@@ -30062,7 +30096,7 @@
         <v>55</v>
       </c>
       <c r="H421" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="422" spans="2:8" x14ac:dyDescent="0.25">
@@ -30086,7 +30120,7 @@
         <v>22</v>
       </c>
       <c r="H422" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="423" spans="2:8" x14ac:dyDescent="0.25">
@@ -30110,7 +30144,7 @@
         <v>44</v>
       </c>
       <c r="H423" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="424" spans="2:8" x14ac:dyDescent="0.25">
@@ -30134,7 +30168,7 @@
         <v>55</v>
       </c>
       <c r="H424" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="425" spans="2:8" x14ac:dyDescent="0.25">
@@ -30158,7 +30192,7 @@
         <v>55</v>
       </c>
       <c r="H425" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="426" spans="2:8" x14ac:dyDescent="0.25">
@@ -30182,7 +30216,7 @@
         <v>55</v>
       </c>
       <c r="H426" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="427" spans="2:8" x14ac:dyDescent="0.25">
@@ -30206,7 +30240,7 @@
         <v>44</v>
       </c>
       <c r="H427" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="428" spans="2:8" x14ac:dyDescent="0.25">
@@ -30230,7 +30264,7 @@
         <v>44</v>
       </c>
       <c r="H428" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="429" spans="2:8" x14ac:dyDescent="0.25">
@@ -30254,7 +30288,7 @@
         <v>50</v>
       </c>
       <c r="H429" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="430" spans="2:8" x14ac:dyDescent="0.25">
@@ -30278,7 +30312,7 @@
         <v>55</v>
       </c>
       <c r="H430" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="431" spans="2:8" x14ac:dyDescent="0.25">
@@ -30302,7 +30336,7 @@
         <v>55</v>
       </c>
       <c r="H431" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="432" spans="2:8" x14ac:dyDescent="0.25">
@@ -30326,7 +30360,7 @@
         <v>44</v>
       </c>
       <c r="H432" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="433" spans="2:8" x14ac:dyDescent="0.25">
@@ -30350,7 +30384,7 @@
         <v>44</v>
       </c>
       <c r="H433" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="434" spans="2:8" x14ac:dyDescent="0.25">
@@ -30374,7 +30408,7 @@
         <v>55</v>
       </c>
       <c r="H434" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="435" spans="2:8" x14ac:dyDescent="0.25">
@@ -30398,7 +30432,7 @@
         <v>55</v>
       </c>
       <c r="H435" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="436" spans="2:8" x14ac:dyDescent="0.25">
@@ -30422,7 +30456,7 @@
         <v>22</v>
       </c>
       <c r="H436" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="437" spans="2:8" x14ac:dyDescent="0.25">
@@ -30446,7 +30480,7 @@
         <v>55</v>
       </c>
       <c r="H437" s="73" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="438" spans="2:8" x14ac:dyDescent="0.25">
@@ -30470,7 +30504,7 @@
         <v>10</v>
       </c>
       <c r="H438" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="439" spans="2:8" x14ac:dyDescent="0.25">
@@ -30494,7 +30528,7 @@
         <v>20</v>
       </c>
       <c r="H439" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="440" spans="2:8" x14ac:dyDescent="0.25">
@@ -30518,7 +30552,7 @@
         <v>25</v>
       </c>
       <c r="H440" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="441" spans="2:8" x14ac:dyDescent="0.25">
@@ -30542,7 +30576,7 @@
         <v>10</v>
       </c>
       <c r="H441" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="442" spans="2:8" x14ac:dyDescent="0.25">
@@ -30566,7 +30600,7 @@
         <v>10</v>
       </c>
       <c r="H442" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="443" spans="2:8" x14ac:dyDescent="0.25">
@@ -30590,7 +30624,7 @@
         <v>15</v>
       </c>
       <c r="H443" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="444" spans="2:8" x14ac:dyDescent="0.25">
@@ -30614,7 +30648,7 @@
         <v>25</v>
       </c>
       <c r="H444" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="445" spans="2:8" x14ac:dyDescent="0.25">
@@ -30638,7 +30672,7 @@
         <v>25</v>
       </c>
       <c r="H445" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="446" spans="2:8" x14ac:dyDescent="0.25">
@@ -30662,7 +30696,7 @@
         <v>21</v>
       </c>
       <c r="H446" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="447" spans="2:8" x14ac:dyDescent="0.25">
@@ -30686,7 +30720,7 @@
         <v>25</v>
       </c>
       <c r="H447" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="448" spans="2:8" x14ac:dyDescent="0.25">
@@ -30710,7 +30744,7 @@
         <v>25</v>
       </c>
       <c r="H448" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="449" spans="2:8" x14ac:dyDescent="0.25">
@@ -30734,7 +30768,7 @@
         <v>25</v>
       </c>
       <c r="H449" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="450" spans="2:8" x14ac:dyDescent="0.25">
@@ -30758,7 +30792,7 @@
         <v>23</v>
       </c>
       <c r="H450" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="451" spans="2:8" x14ac:dyDescent="0.25">
@@ -30782,7 +30816,7 @@
         <v>25</v>
       </c>
       <c r="H451" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="452" spans="2:8" x14ac:dyDescent="0.25">
@@ -30806,7 +30840,7 @@
         <v>10</v>
       </c>
       <c r="H452" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="453" spans="2:8" x14ac:dyDescent="0.25">
@@ -30830,7 +30864,7 @@
         <v>25</v>
       </c>
       <c r="H453" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="454" spans="2:8" x14ac:dyDescent="0.25">
@@ -30854,7 +30888,7 @@
         <v>25</v>
       </c>
       <c r="H454" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="455" spans="2:8" x14ac:dyDescent="0.25">
@@ -30878,7 +30912,7 @@
         <v>15</v>
       </c>
       <c r="H455" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="456" spans="2:8" x14ac:dyDescent="0.25">
@@ -30902,7 +30936,7 @@
         <v>25</v>
       </c>
       <c r="H456" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="457" spans="2:8" x14ac:dyDescent="0.25">
@@ -30926,7 +30960,7 @@
         <v>5</v>
       </c>
       <c r="H457" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="458" spans="2:8" x14ac:dyDescent="0.25">
@@ -30950,7 +30984,7 @@
         <v>25</v>
       </c>
       <c r="H458" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="459" spans="2:8" x14ac:dyDescent="0.25">
@@ -30974,7 +31008,7 @@
         <v>20</v>
       </c>
       <c r="H459" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="460" spans="2:8" x14ac:dyDescent="0.25">
@@ -30998,7 +31032,7 @@
         <v>20</v>
       </c>
       <c r="H460" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="461" spans="2:8" x14ac:dyDescent="0.25">
@@ -31022,7 +31056,7 @@
         <v>25</v>
       </c>
       <c r="H461" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="462" spans="2:8" x14ac:dyDescent="0.25">
@@ -31046,7 +31080,7 @@
         <v>25</v>
       </c>
       <c r="H462" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="463" spans="2:8" x14ac:dyDescent="0.25">
@@ -31070,7 +31104,7 @@
         <v>15</v>
       </c>
       <c r="H463" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="464" spans="2:8" x14ac:dyDescent="0.25">
@@ -31094,7 +31128,7 @@
         <v>15</v>
       </c>
       <c r="H464" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="465" spans="2:8" x14ac:dyDescent="0.25">
@@ -31118,7 +31152,7 @@
         <v>15</v>
       </c>
       <c r="H465" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="466" spans="2:8" x14ac:dyDescent="0.25">
@@ -31142,7 +31176,7 @@
         <v>30</v>
       </c>
       <c r="H466" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="467" spans="2:8" x14ac:dyDescent="0.25">
@@ -31166,7 +31200,7 @@
         <v>20</v>
       </c>
       <c r="H467" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="468" spans="2:8" x14ac:dyDescent="0.25">
@@ -31190,7 +31224,7 @@
         <v>50</v>
       </c>
       <c r="H468" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="469" spans="2:8" x14ac:dyDescent="0.25">
@@ -31214,7 +31248,7 @@
         <v>25</v>
       </c>
       <c r="H469" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="470" spans="2:8" x14ac:dyDescent="0.25">
@@ -31238,7 +31272,7 @@
         <v>15</v>
       </c>
       <c r="H470" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="471" spans="2:8" x14ac:dyDescent="0.25">
@@ -31262,7 +31296,7 @@
         <v>25</v>
       </c>
       <c r="H471" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="472" spans="2:8" x14ac:dyDescent="0.25">
@@ -31286,7 +31320,7 @@
         <v>30</v>
       </c>
       <c r="H472" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="473" spans="2:8" x14ac:dyDescent="0.25">
@@ -31310,7 +31344,7 @@
         <v>20</v>
       </c>
       <c r="H473" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="474" spans="2:8" x14ac:dyDescent="0.25">
@@ -31334,7 +31368,7 @@
         <v>20</v>
       </c>
       <c r="H474" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="475" spans="2:8" x14ac:dyDescent="0.25">
@@ -31358,7 +31392,7 @@
         <v>20</v>
       </c>
       <c r="H475" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="476" spans="2:8" x14ac:dyDescent="0.25">
@@ -31382,7 +31416,7 @@
         <v>20</v>
       </c>
       <c r="H476" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="477" spans="2:8" x14ac:dyDescent="0.25">
@@ -31406,7 +31440,7 @@
         <v>50</v>
       </c>
       <c r="H477" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="478" spans="2:8" x14ac:dyDescent="0.25">
@@ -31430,7 +31464,7 @@
         <v>25</v>
       </c>
       <c r="H478" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="479" spans="2:8" x14ac:dyDescent="0.25">
@@ -31454,7 +31488,7 @@
         <v>10</v>
       </c>
       <c r="H479" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="480" spans="2:8" x14ac:dyDescent="0.25">
@@ -31478,7 +31512,7 @@
         <v>25</v>
       </c>
       <c r="H480" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="481" spans="2:8" x14ac:dyDescent="0.25">
@@ -31502,7 +31536,7 @@
         <v>60</v>
       </c>
       <c r="H481" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="482" spans="2:8" x14ac:dyDescent="0.25">
@@ -31526,7 +31560,7 @@
         <v>25</v>
       </c>
       <c r="H482" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="483" spans="2:8" x14ac:dyDescent="0.25">
@@ -31550,7 +31584,7 @@
         <v>23</v>
       </c>
       <c r="H483" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="484" spans="2:8" x14ac:dyDescent="0.25">
@@ -31574,7 +31608,7 @@
         <v>10</v>
       </c>
       <c r="H484" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="485" spans="2:8" x14ac:dyDescent="0.25">
@@ -31598,7 +31632,7 @@
         <v>25</v>
       </c>
       <c r="H485" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="486" spans="2:8" x14ac:dyDescent="0.25">
@@ -31622,7 +31656,7 @@
         <v>25</v>
       </c>
       <c r="H486" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="487" spans="2:8" x14ac:dyDescent="0.25">
@@ -31646,7 +31680,7 @@
         <v>20</v>
       </c>
       <c r="H487" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="488" spans="2:8" x14ac:dyDescent="0.25">
@@ -31670,7 +31704,7 @@
         <v>15</v>
       </c>
       <c r="H488" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="489" spans="2:8" x14ac:dyDescent="0.25">
@@ -31694,7 +31728,7 @@
         <v>50</v>
       </c>
       <c r="H489" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="490" spans="2:8" x14ac:dyDescent="0.25">
@@ -31718,7 +31752,7 @@
         <v>10</v>
       </c>
       <c r="H490" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="491" spans="2:8" x14ac:dyDescent="0.25">
@@ -31742,7 +31776,7 @@
         <v>45</v>
       </c>
       <c r="H491" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="492" spans="2:8" x14ac:dyDescent="0.25">
@@ -31766,7 +31800,7 @@
         <v>30</v>
       </c>
       <c r="H492" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="493" spans="2:8" x14ac:dyDescent="0.25">
@@ -31790,7 +31824,7 @@
         <v>15</v>
       </c>
       <c r="H493" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="494" spans="2:8" x14ac:dyDescent="0.25">
@@ -31814,7 +31848,7 @@
         <v>20</v>
       </c>
       <c r="H494" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="495" spans="2:8" x14ac:dyDescent="0.25">
@@ -31838,7 +31872,7 @@
         <v>43</v>
       </c>
       <c r="H495" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="496" spans="2:8" x14ac:dyDescent="0.25">
@@ -31862,7 +31896,7 @@
         <v>5</v>
       </c>
       <c r="H496" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="497" spans="2:8" x14ac:dyDescent="0.25">
@@ -31886,7 +31920,7 @@
         <v>25</v>
       </c>
       <c r="H497" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="498" spans="2:8" x14ac:dyDescent="0.25">
@@ -31910,7 +31944,7 @@
         <v>25</v>
       </c>
       <c r="H498" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="499" spans="2:8" x14ac:dyDescent="0.25">
@@ -31934,7 +31968,7 @@
         <v>25</v>
       </c>
       <c r="H499" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="500" spans="2:8" x14ac:dyDescent="0.25">
@@ -31958,7 +31992,7 @@
         <v>40</v>
       </c>
       <c r="H500" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="501" spans="2:8" x14ac:dyDescent="0.25">
@@ -31982,7 +32016,7 @@
         <v>50</v>
       </c>
       <c r="H501" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="502" spans="2:8" x14ac:dyDescent="0.25">
@@ -32006,7 +32040,7 @@
         <v>20</v>
       </c>
       <c r="H502" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="503" spans="2:8" x14ac:dyDescent="0.25">
@@ -32030,7 +32064,7 @@
         <v>5</v>
       </c>
       <c r="H503" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="504" spans="2:8" x14ac:dyDescent="0.25">
@@ -32054,7 +32088,7 @@
         <v>25</v>
       </c>
       <c r="H504" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="505" spans="2:8" x14ac:dyDescent="0.25">
@@ -32078,7 +32112,7 @@
         <v>23</v>
       </c>
       <c r="H505" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="506" spans="2:8" x14ac:dyDescent="0.25">
@@ -32102,7 +32136,7 @@
         <v>15</v>
       </c>
       <c r="H506" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="507" spans="2:8" x14ac:dyDescent="0.25">
@@ -32126,7 +32160,7 @@
         <v>60</v>
       </c>
       <c r="H507" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="508" spans="2:8" x14ac:dyDescent="0.25">
@@ -32150,7 +32184,7 @@
         <v>21</v>
       </c>
       <c r="H508" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="509" spans="2:8" x14ac:dyDescent="0.25">
@@ -32174,7 +32208,7 @@
         <v>20</v>
       </c>
       <c r="H509" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="510" spans="2:8" x14ac:dyDescent="0.25">
@@ -32198,7 +32232,7 @@
         <v>25</v>
       </c>
       <c r="H510" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="511" spans="2:8" x14ac:dyDescent="0.25">
@@ -32222,7 +32256,7 @@
         <v>30</v>
       </c>
       <c r="H511" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="512" spans="2:8" x14ac:dyDescent="0.25">
@@ -32246,7 +32280,7 @@
         <v>25</v>
       </c>
       <c r="H512" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="513" spans="2:8" x14ac:dyDescent="0.25">
@@ -32270,7 +32304,7 @@
         <v>15</v>
       </c>
       <c r="H513" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="514" spans="2:8" x14ac:dyDescent="0.25">
@@ -32294,7 +32328,7 @@
         <v>25</v>
       </c>
       <c r="H514" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="515" spans="2:8" x14ac:dyDescent="0.25">
@@ -32318,7 +32352,7 @@
         <v>60</v>
       </c>
       <c r="H515" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="516" spans="2:8" x14ac:dyDescent="0.25">
@@ -32342,7 +32376,7 @@
         <v>10</v>
       </c>
       <c r="H516" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="517" spans="2:8" x14ac:dyDescent="0.25">
@@ -32366,7 +32400,7 @@
         <v>25</v>
       </c>
       <c r="H517" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="518" spans="2:8" x14ac:dyDescent="0.25">
@@ -32390,7 +32424,7 @@
         <v>25</v>
       </c>
       <c r="H518" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="519" spans="2:8" x14ac:dyDescent="0.25">
@@ -32414,7 +32448,7 @@
         <v>13</v>
       </c>
       <c r="H519" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="520" spans="2:8" x14ac:dyDescent="0.25">
@@ -32438,7 +32472,7 @@
         <v>30</v>
       </c>
       <c r="H520" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="521" spans="2:8" x14ac:dyDescent="0.25">
@@ -32462,7 +32496,7 @@
         <v>50</v>
       </c>
       <c r="H521" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="522" spans="2:8" x14ac:dyDescent="0.25">
@@ -32486,7 +32520,7 @@
         <v>30</v>
       </c>
       <c r="H522" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="523" spans="2:8" x14ac:dyDescent="0.25">
@@ -32510,7 +32544,7 @@
         <v>50</v>
       </c>
       <c r="H523" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="524" spans="2:8" x14ac:dyDescent="0.25">
@@ -32534,7 +32568,7 @@
         <v>50</v>
       </c>
       <c r="H524" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="525" spans="2:8" x14ac:dyDescent="0.25">
@@ -32558,7 +32592,7 @@
         <v>50</v>
       </c>
       <c r="H525" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="526" spans="2:8" x14ac:dyDescent="0.25">
@@ -32582,7 +32616,7 @@
         <v>50</v>
       </c>
       <c r="H526" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="527" spans="2:8" x14ac:dyDescent="0.25">
@@ -32606,7 +32640,7 @@
         <v>50</v>
       </c>
       <c r="H527" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="528" spans="2:8" x14ac:dyDescent="0.25">
@@ -32630,12 +32664,12 @@
         <v>5</v>
       </c>
       <c r="H528" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="529" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B529" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -32654,12 +32688,12 @@
         <v>50</v>
       </c>
       <c r="H529" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="530" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B530" s="74" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -32678,12 +32712,12 @@
         <v>50</v>
       </c>
       <c r="H530" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="531" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B531" s="74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C531">
         <v>1</v>
@@ -32702,12 +32736,12 @@
         <v>25</v>
       </c>
       <c r="H531" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="532" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B532" s="74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C532">
         <v>1</v>
@@ -32726,12 +32760,12 @@
         <v>25</v>
       </c>
       <c r="H532" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="533" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B533" s="74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -32750,7 +32784,7 @@
         <v>25</v>
       </c>
       <c r="H533" s="73" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="433">
   <si>
     <t>SP_Archer01_Static</t>
   </si>
@@ -1318,6 +1318,9 @@
   </si>
   <si>
     <t>PF_Scaffold</t>
+  </si>
+  <si>
+    <t>PufferBird: cuando está hinchado, deberia ser comible a partir de otro tier mayor</t>
   </si>
 </sst>
 </file>
@@ -1883,12 +1886,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1919,6 +1916,12 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2145,11 +2148,11 @@
         </c:dLbls>
         <c:gapWidth val="228"/>
         <c:overlap val="100"/>
-        <c:axId val="81703296"/>
-        <c:axId val="81704832"/>
+        <c:axId val="83341696"/>
+        <c:axId val="83343232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81703296"/>
+        <c:axId val="83341696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81704832"/>
+        <c:crossAx val="83343232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2167,7 +2170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81704832"/>
+        <c:axId val="83343232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,14 +2181,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81703296"/>
+        <c:crossAx val="83341696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2341,11 +2343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81962112"/>
-        <c:axId val="81964032"/>
+        <c:axId val="85292160"/>
+        <c:axId val="85294080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81962112"/>
+        <c:axId val="85292160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81964032"/>
+        <c:crossAx val="85294080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2363,7 +2365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81964032"/>
+        <c:axId val="85294080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,7 +2375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81962112"/>
+        <c:crossAx val="85292160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2551,11 +2553,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82090240"/>
-        <c:axId val="86397312"/>
+        <c:axId val="85309696"/>
+        <c:axId val="88625536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82090240"/>
+        <c:axId val="85309696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86397312"/>
+        <c:crossAx val="88625536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2573,7 +2575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86397312"/>
+        <c:axId val="88625536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,7 +2585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82090240"/>
+        <c:crossAx val="85309696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2635,7 +2637,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2745,7 +2746,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2775,7 +2775,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2841,7 +2840,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3868,8 +3866,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D11:L98" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="D11:L98"/>
-  <sortState ref="D12:L99">
-    <sortCondition ref="E11:E99"/>
+  <sortState ref="D12:L98">
+    <sortCondition descending="1" ref="K11:K98"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="Content Sku"/>
@@ -3879,8 +3877,8 @@
     <tableColumn id="5" name="Respawn Max"/>
     <tableColumn id="6" name="HP Given"/>
     <tableColumn id="7" name="XP Given"/>
-    <tableColumn id="8" name="Edible Tier" dataDxfId="1"/>
-    <tableColumn id="9" name="Damage" dataDxfId="0"/>
+    <tableColumn id="8" name="Edible Tier" dataDxfId="7"/>
+    <tableColumn id="9" name="Damage" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3900,23 +3898,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B17:H533" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table245" displayName="Table245" ref="B17:H533" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B17:H533"/>
   <sortState ref="B18:H533">
     <sortCondition ref="B17:B533"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="spawner_sku" dataDxfId="6"/>
+    <tableColumn id="1" name="spawner_sku" dataDxfId="4"/>
     <tableColumn id="2" name="entity_spawned (AVG)"/>
     <tableColumn id="5" name="respawn_time"/>
     <tableColumn id="6" name="activating_chance"/>
-    <tableColumn id="7" name="XP" dataDxfId="5">
+    <tableColumn id="7" name="XP" dataDxfId="3">
       <calculatedColumnFormula>Entities!#REF!*Table245[[#This Row],[entity_spawned (AVG)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="total xp" dataDxfId="4">
+    <tableColumn id="8" name="total xp" dataDxfId="2">
       <calculatedColumnFormula>ROUND((Table245[[#This Row],[XP]]*Table245[[#This Row],[entity_spawned (AVG)]])*(Table245[[#This Row],[activating_chance]]/100),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Aggresive" dataDxfId="3"/>
+    <tableColumn id="3" name="Aggresive" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3934,7 +3932,7 @@
     <tableColumn id="5" name="respawn_time"/>
     <tableColumn id="6" name="activating_chance"/>
     <tableColumn id="8" name="XP"/>
-    <tableColumn id="9" name="total xp" dataDxfId="2">
+    <tableColumn id="9" name="total xp" dataDxfId="0">
       <calculatedColumnFormula>ROUND((Table3[[#This Row],[XP]]*Table3[[#This Row],[entity_spawned (AVG)]])*(Table3[[#This Row],[activating_chance]]/100),0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Aggressive"/>
@@ -4233,10 +4231,10 @@
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="D2:O99"/>
+  <dimension ref="D2:O98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="M11" sqref="C10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4313,6 +4311,11 @@
         <v>423</v>
       </c>
     </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="77" t="s">
+        <v>432</v>
+      </c>
+    </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>307</v>
@@ -4341,437 +4344,438 @@
       <c r="L11" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="N11" s="77"/>
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>280</v>
+        <v>2500</v>
       </c>
       <c r="H12">
-        <v>280</v>
+        <v>2500</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="K12" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="73">
-        <v>10</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>2500</v>
+      </c>
+      <c r="H13">
+        <v>2500</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>280</v>
-      </c>
-      <c r="H13">
-        <v>280</v>
-      </c>
-      <c r="I13">
-        <v>20</v>
-      </c>
       <c r="J13">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="K13" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="73">
-        <v>10</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H14">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K14" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="73">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="G15">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="H15">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K15" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="73">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G16">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="I16">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="J16">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K16" s="73">
-        <v>0</v>
-      </c>
-      <c r="L16" s="73" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="L16" s="73">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="F17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17">
+        <v>340</v>
+      </c>
+      <c r="H17">
+        <v>340</v>
+      </c>
+      <c r="I17">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>200</v>
-      </c>
-      <c r="H17">
-        <v>200</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
       <c r="J17">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K17" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="73">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G18">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="H18">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="J18">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K18" s="73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" s="73">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>319</v>
       </c>
       <c r="G19">
-        <v>280</v>
+        <v>1500</v>
       </c>
       <c r="H19">
-        <v>280</v>
+        <v>1500</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K19" s="73">
-        <v>0</v>
-      </c>
-      <c r="L19" s="73" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L19" s="73">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="G20">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H20">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J20">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K20" s="73">
-        <v>0</v>
-      </c>
-      <c r="L20" s="73" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L20" s="73">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="G21">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>75</v>
       </c>
       <c r="K21" s="73">
-        <v>0</v>
-      </c>
-      <c r="L21" s="73" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L21" s="73">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="G22">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>75</v>
       </c>
       <c r="K22" s="73">
-        <v>0</v>
-      </c>
-      <c r="L22" s="73" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L22" s="73">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G23">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="H23">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J23">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K23" s="73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="73">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="G24">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="H24">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K24" s="73">
-        <v>0</v>
-      </c>
-      <c r="L24" s="73" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="L24" s="73">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="G25">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="H25">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K25" s="73">
-        <v>0</v>
-      </c>
-      <c r="L25" s="73" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="L25" s="73">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>114</v>
+        <v>346</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
       <c r="F26" t="s">
-        <v>104</v>
+        <v>348</v>
       </c>
       <c r="G26">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="H26">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I26">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>55</v>
+      </c>
+      <c r="K26" s="73">
         <v>2</v>
-      </c>
-      <c r="J26">
-        <v>25</v>
-      </c>
-      <c r="K26" s="73">
-        <v>0</v>
       </c>
       <c r="L26" s="73" t="s">
         <v>10</v>
@@ -4779,86 +4783,86 @@
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="G27">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="H27">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="I27">
+        <v>80</v>
+      </c>
+      <c r="J27">
+        <v>75</v>
+      </c>
+      <c r="K27" s="73">
         <v>2</v>
       </c>
-      <c r="J27">
-        <v>25</v>
-      </c>
-      <c r="K27" s="73">
-        <v>0</v>
-      </c>
-      <c r="L27" s="73" t="s">
-        <v>10</v>
+      <c r="L27" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="G28">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H28">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>83</v>
+      </c>
+      <c r="K28" s="73">
         <v>2</v>
       </c>
-      <c r="J28">
-        <v>25</v>
-      </c>
-      <c r="K28" s="73">
-        <v>0</v>
-      </c>
-      <c r="L28" s="73" t="s">
-        <v>10</v>
+      <c r="L28" s="73">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="H29">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J29">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K29" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="73" t="s">
         <v>10</v>
@@ -4869,10 +4873,10 @@
         <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="G30">
         <v>210</v>
@@ -4895,25 +4899,25 @@
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="G31">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H31">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J31">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K31" s="73">
         <v>1</v>
@@ -4924,54 +4928,54 @@
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="G32">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="H32">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="I32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J32">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K32" s="73">
         <v>1</v>
       </c>
-      <c r="L32" s="73">
-        <v>15</v>
+      <c r="L32" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>314</v>
       </c>
       <c r="G33">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J33">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K33" s="73">
         <v>1</v>
@@ -4982,28 +4986,28 @@
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H34">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J34">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K34" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" s="73" t="s">
         <v>10</v>
@@ -5011,28 +5015,28 @@
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G35">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="H35">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J35">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K35" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="73" t="s">
         <v>10</v>
@@ -5040,86 +5044,86 @@
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>322</v>
       </c>
       <c r="F36" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36">
+        <v>200</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
         <v>55</v>
       </c>
-      <c r="G36">
-        <v>220</v>
-      </c>
-      <c r="H36">
-        <v>220</v>
-      </c>
-      <c r="I36">
-        <v>20</v>
-      </c>
-      <c r="J36">
-        <v>25</v>
-      </c>
       <c r="K36" s="73">
-        <v>0</v>
-      </c>
-      <c r="L36" s="73">
+        <v>1</v>
+      </c>
+      <c r="L36" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>120</v>
+        <v>396</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>397</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="G37">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="H37">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="I37">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J37">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="K37" s="73">
         <v>1</v>
       </c>
       <c r="L37" s="73">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>349</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>350</v>
       </c>
       <c r="G38">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="H38">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="I38">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J38">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K38" s="73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" s="73">
         <v>40</v>
@@ -5127,405 +5131,405 @@
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>351</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>352</v>
       </c>
       <c r="G39">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="H39">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="I39">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J39">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K39" s="73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L39" s="73">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="G40">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="H40">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I40">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="J40">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K40" s="73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L40" s="73">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="G41">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J41">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="K41" s="73">
-        <v>0</v>
-      </c>
-      <c r="L41" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L41" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J42">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="K42" s="73">
-        <v>0</v>
-      </c>
-      <c r="L42" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L42" s="73">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J43">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K43" s="73">
-        <v>0</v>
-      </c>
-      <c r="L43" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L43" s="73">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G44">
-        <v>5000</v>
+        <v>240</v>
       </c>
       <c r="H44">
-        <v>5000</v>
+        <v>240</v>
       </c>
       <c r="I44">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="J44">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K44" s="73">
-        <v>0</v>
-      </c>
-      <c r="L44" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L44" s="73">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>340</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="G45">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="H45">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="I45">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J45">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K45" s="73">
         <v>1</v>
       </c>
-      <c r="L45" s="73" t="s">
-        <v>10</v>
+      <c r="L45" s="73">
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>125</v>
+        <v>357</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>359</v>
       </c>
       <c r="G46">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="H46">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="I46">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J46">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="K46" s="73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" s="73">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>297</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="G47">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H47">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K47" s="73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47" s="73">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>126</v>
+        <v>329</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="G48">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="H48">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J48">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K48" s="73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L48" s="73">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="E49" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="G49">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="H49">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="K49" s="73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49" s="73">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G50">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="H50">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="J50">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K50" s="73">
-        <v>5</v>
-      </c>
-      <c r="L50" s="73">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="L50" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="G51">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="H51">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K51" s="73">
-        <v>5</v>
-      </c>
-      <c r="L51" s="73">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="L51" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>424</v>
+        <v>103</v>
       </c>
       <c r="E52" t="s">
-        <v>305</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="G52">
+        <v>5000</v>
+      </c>
+      <c r="H52">
+        <v>5000</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>50</v>
+      </c>
+      <c r="K52" s="73">
         <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>10</v>
-      </c>
-      <c r="J52">
-        <v>25</v>
-      </c>
-      <c r="K52" s="73">
-        <v>1</v>
       </c>
       <c r="L52" s="73" t="s">
         <v>10</v>
@@ -5533,25 +5537,25 @@
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G53">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="H53">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J53">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K53" s="73">
         <v>0</v>
@@ -5562,25 +5566,25 @@
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="G54">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="H54">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J54">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="K54" s="73">
         <v>0</v>
@@ -5591,34 +5595,42 @@
     </row>
     <row r="55" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="G55">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="H55">
-        <v>450</v>
-      </c>
-      <c r="K55" s="73"/>
+        <v>180</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55" s="73">
+        <v>0</v>
+      </c>
       <c r="L55" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="G56">
         <v>180</v>
@@ -5627,42 +5639,42 @@
         <v>180</v>
       </c>
       <c r="I56">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J56">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K56" s="73">
         <v>0</v>
       </c>
-      <c r="L56" s="73">
-        <v>25</v>
+      <c r="L56" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="G57">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="H57">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="I57">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K57" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="73" t="s">
         <v>10</v>
@@ -5670,28 +5682,28 @@
     </row>
     <row r="58" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="G58">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="H58">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="I58">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J58">
         <v>75</v>
       </c>
       <c r="K58" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="73" t="s">
         <v>10</v>
@@ -5699,289 +5711,289 @@
     </row>
     <row r="59" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G59">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H59">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I59">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J59">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K59" s="73">
         <v>0</v>
       </c>
-      <c r="L59" s="73">
-        <v>40</v>
+      <c r="L59" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="G60">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H60">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="K60" s="73">
-        <v>1</v>
-      </c>
-      <c r="L60" s="73">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="L60" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="G61">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="H61">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="I61">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J61">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K61" s="73">
         <v>0</v>
       </c>
-      <c r="L61" s="73">
-        <v>14</v>
+      <c r="L61" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G62">
-        <v>2500</v>
+        <v>240</v>
       </c>
       <c r="H62">
-        <v>2500</v>
+        <v>240</v>
       </c>
       <c r="I62">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62" s="73">
         <v>0</v>
       </c>
-      <c r="J62">
-        <v>28</v>
-      </c>
-      <c r="K62" s="73">
-        <v>5</v>
-      </c>
-      <c r="L62" s="73">
-        <v>440</v>
+      <c r="L62" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G63">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="H63">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>25</v>
+      </c>
+      <c r="K63" s="73">
         <v>0</v>
       </c>
-      <c r="J63">
-        <v>28</v>
-      </c>
-      <c r="K63" s="73">
-        <v>5</v>
-      </c>
-      <c r="L63" s="73">
-        <v>440</v>
+      <c r="L63" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="G64">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="H64">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>75</v>
+      </c>
+      <c r="K64" s="73">
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>83</v>
-      </c>
-      <c r="K64" s="73">
-        <v>5</v>
-      </c>
-      <c r="L64" s="73">
-        <v>150</v>
+      <c r="L64" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E65" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>316</v>
+        <v>73</v>
       </c>
       <c r="G65">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="H65">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>75</v>
+      </c>
+      <c r="K65" s="73">
         <v>0</v>
       </c>
-      <c r="J65">
-        <v>83</v>
-      </c>
-      <c r="K65" s="73">
-        <v>5</v>
-      </c>
-      <c r="L65" s="73">
-        <v>150</v>
+      <c r="L65" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>318</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>319</v>
+        <v>32</v>
       </c>
       <c r="G66">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="H66">
-        <v>1500</v>
+        <v>5000</v>
       </c>
       <c r="I66">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="J66">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K66" s="73">
-        <v>4</v>
-      </c>
-      <c r="L66" s="73">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L66" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="F67" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="G67">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="H67">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I67">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K67" s="73">
-        <v>4</v>
-      </c>
-      <c r="L67" s="73">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L67" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>322</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="G68">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H68">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K68" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" s="73" t="s">
         <v>10</v>
@@ -6018,80 +6030,80 @@
     </row>
     <row r="70" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F70" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G70">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="H70">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="I70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="K70" s="73">
-        <v>1</v>
-      </c>
-      <c r="L70" s="73">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L70" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="F71" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G71">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="H71">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="I71">
         <v>15</v>
       </c>
       <c r="J71">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="K71" s="73">
-        <v>1</v>
-      </c>
-      <c r="L71" s="73">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L71" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F72" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G72">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="H72">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J72">
         <v>55</v>
@@ -6105,25 +6117,25 @@
     </row>
     <row r="73" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="F73" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="G73">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="H73">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="I73">
         <v>15</v>
       </c>
       <c r="J73">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K73" s="73">
         <v>0</v>
@@ -6134,25 +6146,25 @@
     </row>
     <row r="74" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F74" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G74">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="H74">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="I74">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J74">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="K74" s="73">
         <v>0</v>
@@ -6163,25 +6175,25 @@
     </row>
     <row r="75" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="F75" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="G75">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="H75">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="I75">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J75">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K75" s="73">
         <v>0</v>
@@ -6192,54 +6204,54 @@
     </row>
     <row r="76" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>339</v>
+        <v>91</v>
       </c>
       <c r="E76" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="F76" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G76">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H76">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="I76">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J76">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="K76" s="73">
-        <v>1</v>
-      </c>
-      <c r="L76" s="73">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="L76" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E77" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="F77" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="G77">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H77">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="K77" s="73">
         <v>0</v>
@@ -6250,25 +6262,25 @@
     </row>
     <row r="78" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="F78" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="G78">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H78">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I78">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J78">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="K78" s="73">
         <v>0</v>
@@ -6279,28 +6291,28 @@
     </row>
     <row r="79" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="E79" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="F79" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="G79">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="H79">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="I79">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J79">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K79" s="73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79" s="73" t="s">
         <v>10</v>
@@ -6308,199 +6320,199 @@
     </row>
     <row r="80" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E80" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="F80" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="G80">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="H80">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="I80">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J80">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="K80" s="73">
-        <v>1</v>
-      </c>
-      <c r="L80" s="73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L80" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="F81" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="G81">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="H81">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="I81">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J81">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="K81" s="73">
-        <v>1</v>
-      </c>
-      <c r="L81" s="73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L81" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E82" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="F82" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="G82">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="H82">
-        <v>310</v>
+        <v>220</v>
       </c>
       <c r="I82">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J82">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="K82" s="73">
-        <v>1</v>
-      </c>
-      <c r="L82" s="73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L82" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E83" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="F83" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
       <c r="G83">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="H83">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="I83">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J83">
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="K83" s="73">
         <v>0</v>
       </c>
-      <c r="L83" s="73">
-        <v>5</v>
+      <c r="L83" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="F84" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="G84">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H84">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I84">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J84">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="K84" s="73">
-        <v>1</v>
-      </c>
-      <c r="L84" s="73">
+        <v>0</v>
+      </c>
+      <c r="L84" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="F85" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="G85">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H85">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I85">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J85">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="K85" s="73">
-        <v>1</v>
-      </c>
-      <c r="L85" s="73">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="L85" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E86" t="s">
-        <v>362</v>
+        <v>415</v>
       </c>
       <c r="F86" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="G86">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H86">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I86">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J86">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="K86" s="73">
         <v>0</v>
@@ -6511,42 +6523,42 @@
     </row>
     <row r="87" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
-        <v>364</v>
+        <v>30</v>
       </c>
       <c r="F87" t="s">
-        <v>365</v>
+        <v>28</v>
       </c>
       <c r="G87">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="H87">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="I87">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J87">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="K87" s="73">
         <v>0</v>
       </c>
-      <c r="L87" s="73" t="s">
-        <v>10</v>
+      <c r="L87" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E88" t="s">
-        <v>367</v>
+        <v>53</v>
       </c>
       <c r="F88" t="s">
-        <v>366</v>
+        <v>33</v>
       </c>
       <c r="G88">
         <v>180</v>
@@ -6555,172 +6567,172 @@
         <v>180</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J88">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="K88" s="73">
         <v>0</v>
       </c>
-      <c r="L88" s="73" t="s">
-        <v>10</v>
+      <c r="L88" s="73">
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="E89" t="s">
-        <v>397</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
-        <v>398</v>
+        <v>15</v>
       </c>
       <c r="G89">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="H89">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="I89">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J89">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="K89" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="73">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E90" t="s">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="G90">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="H90">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J90">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K90" s="73">
         <v>0</v>
       </c>
-      <c r="L90" s="73" t="s">
-        <v>10</v>
+      <c r="L90" s="73">
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>401</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>402</v>
+        <v>9</v>
       </c>
       <c r="G91">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="H91">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="I91">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J91">
-        <v>263</v>
+        <v>55</v>
       </c>
       <c r="K91" s="73">
         <v>0</v>
       </c>
-      <c r="L91" s="73" t="s">
-        <v>10</v>
+      <c r="L91" s="73">
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E92" t="s">
-        <v>403</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>404</v>
+        <v>14</v>
       </c>
       <c r="G92">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="H92">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="I92">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J92">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="K92" s="73">
         <v>0</v>
       </c>
-      <c r="L92" s="73" t="s">
+      <c r="L92" s="73">
         <v>10</v>
       </c>
     </row>
     <row r="93" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E93" t="s">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="H93">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="I93">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J93">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="K93" s="73">
         <v>0</v>
       </c>
-      <c r="L93" s="73" t="s">
+      <c r="L93" s="73">
         <v>10</v>
       </c>
     </row>
     <row r="94" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="E94" t="s">
-        <v>407</v>
+        <v>60</v>
       </c>
       <c r="F94" t="s">
-        <v>408</v>
+        <v>55</v>
       </c>
       <c r="G94">
         <v>220</v>
@@ -6729,85 +6741,85 @@
         <v>220</v>
       </c>
       <c r="I94">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J94">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="K94" s="73">
         <v>0</v>
       </c>
-      <c r="L94" s="73" t="s">
+      <c r="L94" s="73">
         <v>10</v>
       </c>
     </row>
     <row r="95" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="F95" t="s">
-        <v>410</v>
+        <v>27</v>
       </c>
       <c r="G95">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="H95">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="I95">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J95">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="K95" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95" s="73">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="F96" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="G96">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H96">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="I96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J96">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="K96" s="73">
         <v>0</v>
       </c>
-      <c r="L96" s="73" t="s">
-        <v>10</v>
+      <c r="L96" s="73">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>414</v>
+        <v>5</v>
       </c>
       <c r="G97">
         <v>200</v>
@@ -6816,50 +6828,39 @@
         <v>200</v>
       </c>
       <c r="I97">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J97">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K97" s="73">
         <v>0</v>
       </c>
-      <c r="L97" s="73" t="s">
-        <v>10</v>
+      <c r="L97" s="73">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>415</v>
+        <v>156</v>
       </c>
       <c r="F98" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="G98">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H98">
-        <v>200</v>
-      </c>
-      <c r="I98">
-        <v>8</v>
-      </c>
-      <c r="J98">
-        <v>75</v>
-      </c>
-      <c r="K98" s="73">
-        <v>0</v>
-      </c>
-      <c r="L98" s="73" t="s">
+        <v>450</v>
+      </c>
+      <c r="I98" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="K99" s="73"/>
-      <c r="L99" s="73"/>
+      <c r="K98" s="73"/>
+      <c r="L98" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12377,7 +12378,7 @@
   <dimension ref="B2:P533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12526,6 +12527,12 @@
       <c r="C14" s="72"/>
       <c r="J14" s="1"/>
       <c r="K14" s="72"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>C7+K7</f>
+        <v>872</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="12" r:id="rId1"/>
@@ -6943,8 +6943,8 @@
   </sheetPr>
   <dimension ref="B1:U270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12442,8 +12442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P537"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="12" r:id="rId1"/>
@@ -12119,8 +12119,8 @@
   </sheetPr>
   <dimension ref="C3:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12901,8 +12901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AF597"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2226,11 +2226,11 @@
         </c:dLbls>
         <c:gapWidth val="228"/>
         <c:overlap val="100"/>
-        <c:axId val="80863616"/>
-        <c:axId val="80865152"/>
+        <c:axId val="106588032"/>
+        <c:axId val="106589568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80863616"/>
+        <c:axId val="106588032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80865152"/>
+        <c:crossAx val="106589568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2248,7 +2248,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80865152"/>
+        <c:axId val="106589568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,13 +2259,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80863616"/>
+        <c:crossAx val="106588032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2377,34 +2378,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>17.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>19.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>20.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,11 +2422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83453056"/>
-        <c:axId val="83454976"/>
+        <c:axId val="67308160"/>
+        <c:axId val="67310336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83453056"/>
+        <c:axId val="67308160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2435,7 +2436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83454976"/>
+        <c:crossAx val="67310336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2443,7 +2444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83454976"/>
+        <c:axId val="67310336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83453056"/>
+        <c:crossAx val="67308160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2587,34 +2588,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>30.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>32.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>30.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>32.299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2631,11 +2632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83462400"/>
-        <c:axId val="83485056"/>
+        <c:axId val="67342336"/>
+        <c:axId val="67344256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83462400"/>
+        <c:axId val="67342336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83485056"/>
+        <c:crossAx val="67344256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2653,7 +2654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83485056"/>
+        <c:axId val="67344256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83462400"/>
+        <c:crossAx val="67342336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2715,6 +2716,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2824,6 +2826,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2853,6 +2856,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2962,6 +2966,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2991,6 +2996,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3056,6 +3062,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3085,6 +3092,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3194,6 +3202,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3899,15 +3908,6 @@
           <cell r="Z16">
             <v>11</v>
           </cell>
-          <cell r="AV16">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW16">
-            <v>160</v>
-          </cell>
-          <cell r="AX16">
-            <v>2</v>
-          </cell>
         </row>
         <row r="17">
           <cell r="M17">
@@ -3936,15 +3936,6 @@
           </cell>
           <cell r="Z17">
             <v>12</v>
-          </cell>
-          <cell r="AV17">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW17">
-            <v>220</v>
-          </cell>
-          <cell r="AX17">
-            <v>2.1</v>
           </cell>
         </row>
         <row r="18">
@@ -3975,15 +3966,6 @@
           <cell r="Z18">
             <v>17</v>
           </cell>
-          <cell r="AV18">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW18">
-            <v>240</v>
-          </cell>
-          <cell r="AX18">
-            <v>2.2000000000000002</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="M19">
@@ -4012,15 +3994,6 @@
           </cell>
           <cell r="Z19">
             <v>15</v>
-          </cell>
-          <cell r="AV19">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW19">
-            <v>300</v>
-          </cell>
-          <cell r="AX19">
-            <v>2.2999999999999998</v>
           </cell>
         </row>
         <row r="20">
@@ -4051,15 +4024,6 @@
           <cell r="Z20">
             <v>21</v>
           </cell>
-          <cell r="AV20">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW20">
-            <v>350</v>
-          </cell>
-          <cell r="AX20">
-            <v>2.4</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="M21">
@@ -4088,15 +4052,6 @@
           </cell>
           <cell r="Z21">
             <v>18</v>
-          </cell>
-          <cell r="AV21">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW21">
-            <v>400</v>
-          </cell>
-          <cell r="AX21">
-            <v>2.5</v>
           </cell>
         </row>
         <row r="22">
@@ -4127,15 +4082,6 @@
           <cell r="Z22">
             <v>20</v>
           </cell>
-          <cell r="AV22">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW22">
-            <v>440</v>
-          </cell>
-          <cell r="AX22">
-            <v>2.6</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="M23">
@@ -4164,15 +4110,6 @@
           </cell>
           <cell r="Z23">
             <v>28</v>
-          </cell>
-          <cell r="AV23">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW23">
-            <v>575</v>
-          </cell>
-          <cell r="AX23">
-            <v>3.2</v>
           </cell>
         </row>
         <row r="24">
@@ -4203,15 +4140,6 @@
           <cell r="Z24">
             <v>25</v>
           </cell>
-          <cell r="AV24">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW24">
-            <v>725</v>
-          </cell>
-          <cell r="AX24">
-            <v>3.9</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="M25">
@@ -4240,15 +4168,6 @@
           </cell>
           <cell r="Z25">
             <v>24</v>
-          </cell>
-          <cell r="AV25">
-            <v>5.0000000000000001E-3</v>
-          </cell>
-          <cell r="AW25">
-            <v>900</v>
-          </cell>
-          <cell r="AX25">
-            <v>4.7</v>
           </cell>
         </row>
         <row r="37">
@@ -4704,8 +4623,8 @@
   </sheetPr>
   <dimension ref="D2:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5172,7 +5091,7 @@
       <c r="H24">
         <v>450</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="73" t="s">
         <v>10</v>
       </c>
       <c r="K24" s="73"/>
@@ -6093,7 +6012,7 @@
       <c r="H56">
         <v>450</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="73" t="s">
         <v>10</v>
       </c>
       <c r="K56" s="73"/>
@@ -7391,8 +7310,8 @@
   </sheetPr>
   <dimension ref="B1:U270"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8402,7 +8321,7 @@
       </c>
       <c r="L50" s="10">
         <f>ROUND((DATA_DRAGONS_CONTENT!J5/DATA_DRAGONS_CONTENT!L5)/DATA_DRAGONS_CONTENT!K5,1)</f>
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="N50" s="35">
         <v>0</v>
@@ -8427,11 +8346,11 @@
       </c>
       <c r="L51" s="11">
         <f>ROUND((DATA_DRAGONS_CONTENT!J6/DATA_DRAGONS_CONTENT!L6)/DATA_DRAGONS_CONTENT!K6,1)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N51" s="36">
         <f>L51-L50</f>
-        <v>0</v>
+        <v>2.5999999999999996</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.25">
@@ -8453,11 +8372,11 @@
       </c>
       <c r="L52" s="12">
         <f>ROUND((DATA_DRAGONS_CONTENT!J7/DATA_DRAGONS_CONTENT!L7)/DATA_DRAGONS_CONTENT!K7,1)</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="N52" s="36">
         <f t="shared" ref="N52:N59" si="7">L52-L51</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.25">
@@ -8479,11 +8398,11 @@
       </c>
       <c r="L53" s="12">
         <f>ROUND((DATA_DRAGONS_CONTENT!J8/DATA_DRAGONS_CONTENT!L8)/DATA_DRAGONS_CONTENT!K8,1)</f>
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="N53" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.1999999999999993</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.25">
@@ -8505,11 +8424,11 @@
       </c>
       <c r="L54" s="13">
         <f>ROUND((DATA_DRAGONS_CONTENT!J9/DATA_DRAGONS_CONTENT!L9)/DATA_DRAGONS_CONTENT!K9,1)</f>
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N54" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.7000000000000011</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.25">
@@ -8531,11 +8450,11 @@
       </c>
       <c r="L55" s="13">
         <f>ROUND((DATA_DRAGONS_CONTENT!J10/DATA_DRAGONS_CONTENT!L10)/DATA_DRAGONS_CONTENT!K10,1)</f>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="N55" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.4000000000000004</v>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.25">
@@ -8557,11 +8476,11 @@
       </c>
       <c r="L56" s="14">
         <f>ROUND((DATA_DRAGONS_CONTENT!J11/DATA_DRAGONS_CONTENT!L11)/DATA_DRAGONS_CONTENT!K11,1)</f>
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="N56" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.25">
@@ -8583,11 +8502,11 @@
       </c>
       <c r="L57" s="15">
         <f>ROUND((DATA_DRAGONS_CONTENT!J12/DATA_DRAGONS_CONTENT!L12)/DATA_DRAGONS_CONTENT!K12,1)</f>
-        <v>0</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="N57" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.0999999999999979</v>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.25">
@@ -8609,11 +8528,11 @@
       </c>
       <c r="L58" s="15">
         <f>ROUND((DATA_DRAGONS_CONTENT!J13/DATA_DRAGONS_CONTENT!L13)/DATA_DRAGONS_CONTENT!K13,1)</f>
-        <v>0</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="N58" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.70000000000000284</v>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.25">
@@ -8635,11 +8554,11 @@
       </c>
       <c r="L59" s="16">
         <f>ROUND((DATA_DRAGONS_CONTENT!J14/DATA_DRAGONS_CONTENT!L14)/DATA_DRAGONS_CONTENT!K14,1)</f>
-        <v>0</v>
+        <v>20.2</v>
       </c>
       <c r="N59" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.59999999999999787</v>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.25">
@@ -8776,7 +8695,7 @@
       </c>
       <c r="M66" s="10">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J5*Dragons!L66)/DATA_DRAGONS_CONTENT!L5)/DATA_DRAGONS_CONTENT!K5,1)</f>
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="N66" s="10">
         <f>ROUND(DATA_DRAGONS_CONTENT!N5/DATA_DRAGONS_CONTENT!O5,1)</f>
@@ -8817,7 +8736,7 @@
       </c>
       <c r="M67" s="11">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J6*Dragons!L67)/DATA_DRAGONS_CONTENT!L6)/DATA_DRAGONS_CONTENT!K6,1)</f>
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="N67" s="11">
         <f>ROUND(DATA_DRAGONS_CONTENT!N6/DATA_DRAGONS_CONTENT!O6,1)</f>
@@ -8833,7 +8752,7 @@
       </c>
       <c r="U67" s="36">
         <f t="shared" ref="U67:U75" si="9">M67-M66</f>
-        <v>0</v>
+        <v>5.3000000000000007</v>
       </c>
     </row>
     <row r="68" spans="3:21" x14ac:dyDescent="0.25">
@@ -8859,7 +8778,7 @@
       </c>
       <c r="M68" s="12">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J7*Dragons!L68)/DATA_DRAGONS_CONTENT!L7)/DATA_DRAGONS_CONTENT!K7,1)</f>
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="N68" s="12">
         <f>ROUND(DATA_DRAGONS_CONTENT!N7/DATA_DRAGONS_CONTENT!O7,1)</f>
@@ -8875,7 +8794,7 @@
       </c>
       <c r="U68" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-0.30000000000000071</v>
       </c>
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.25">
@@ -8901,7 +8820,7 @@
       </c>
       <c r="M69" s="12">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J8*Dragons!L69)/DATA_DRAGONS_CONTENT!L8)/DATA_DRAGONS_CONTENT!K8,1)</f>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="N69" s="12">
         <f>ROUND(DATA_DRAGONS_CONTENT!N8/DATA_DRAGONS_CONTENT!O8,1)</f>
@@ -8917,7 +8836,7 @@
       </c>
       <c r="U69" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.6999999999999993</v>
       </c>
     </row>
     <row r="70" spans="3:21" x14ac:dyDescent="0.25">
@@ -8943,7 +8862,7 @@
       </c>
       <c r="M70" s="13">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J9*Dragons!L70)/DATA_DRAGONS_CONTENT!L9)/DATA_DRAGONS_CONTENT!K9,1)</f>
-        <v>0</v>
+        <v>27.6</v>
       </c>
       <c r="N70" s="13">
         <f>ROUND(DATA_DRAGONS_CONTENT!N9/DATA_DRAGONS_CONTENT!O9,1)</f>
@@ -8959,7 +8878,7 @@
       </c>
       <c r="U70" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.10000000000000142</v>
       </c>
     </row>
     <row r="71" spans="3:21" x14ac:dyDescent="0.25">
@@ -8985,7 +8904,7 @@
       </c>
       <c r="M71" s="13">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J10*Dragons!L71)/DATA_DRAGONS_CONTENT!L10)/DATA_DRAGONS_CONTENT!K10,1)</f>
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="N71" s="13">
         <f>ROUND(DATA_DRAGONS_CONTENT!N10/DATA_DRAGONS_CONTENT!O10,1)</f>
@@ -9001,7 +8920,7 @@
       </c>
       <c r="U71" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.6999999999999993</v>
       </c>
     </row>
     <row r="72" spans="3:21" x14ac:dyDescent="0.25">
@@ -9027,7 +8946,7 @@
       </c>
       <c r="M72" s="14">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J11*Dragons!L72)/DATA_DRAGONS_CONTENT!L11)/DATA_DRAGONS_CONTENT!K11,1)</f>
-        <v>0</v>
+        <v>32.1</v>
       </c>
       <c r="N72" s="14">
         <f>ROUND(DATA_DRAGONS_CONTENT!N11/DATA_DRAGONS_CONTENT!O11,1)</f>
@@ -9043,7 +8962,7 @@
       </c>
       <c r="U72" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.8000000000000007</v>
       </c>
     </row>
     <row r="73" spans="3:21" x14ac:dyDescent="0.25">
@@ -9069,7 +8988,7 @@
       </c>
       <c r="M73" s="15">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J12*Dragons!L73)/DATA_DRAGONS_CONTENT!L12)/DATA_DRAGONS_CONTENT!K12,1)</f>
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="N73" s="15">
         <f>ROUND(DATA_DRAGONS_CONTENT!N12/DATA_DRAGONS_CONTENT!O12,1)</f>
@@ -9085,7 +9004,7 @@
       </c>
       <c r="U73" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1.8000000000000007</v>
       </c>
     </row>
     <row r="74" spans="3:21" x14ac:dyDescent="0.25">
@@ -9111,7 +9030,7 @@
       </c>
       <c r="M74" s="15">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J13*Dragons!L74)/DATA_DRAGONS_CONTENT!L13)/DATA_DRAGONS_CONTENT!K13,1)</f>
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="N74" s="15">
         <f>ROUND(DATA_DRAGONS_CONTENT!N13/DATA_DRAGONS_CONTENT!O13,1)</f>
@@ -9127,7 +9046,7 @@
       </c>
       <c r="U74" s="36">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:21" x14ac:dyDescent="0.25">
@@ -9153,7 +9072,7 @@
       </c>
       <c r="M75" s="16">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J14*Dragons!L75)/DATA_DRAGONS_CONTENT!L14)/DATA_DRAGONS_CONTENT!K14,1)</f>
-        <v>0</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="N75" s="16">
         <f>ROUND(DATA_DRAGONS_CONTENT!N14/DATA_DRAGONS_CONTENT!O14,1)</f>
@@ -9169,7 +9088,7 @@
       </c>
       <c r="U75" s="18">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.99999999999999645</v>
       </c>
     </row>
     <row r="76" spans="3:21" x14ac:dyDescent="0.25">
@@ -12111,8 +12030,8 @@
   </sheetPr>
   <dimension ref="C3:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12233,7 +12152,7 @@
   <dimension ref="G2:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12306,16 +12225,13 @@
         <v>105</v>
       </c>
       <c r="J5" s="10">
-        <f>[1]dragons!$AV$16</f>
-        <v>5.0000000000000001E-3</v>
+        <v>160</v>
       </c>
       <c r="K5" s="10">
-        <f>[1]dragons!$AW$16</f>
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="L5" s="10">
-        <f>[1]dragons!$AX$16</f>
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="M5" s="10">
         <f>[1]dragons!$W$16</f>
@@ -12359,16 +12275,13 @@
         <v>145</v>
       </c>
       <c r="J6" s="11">
-        <f>[1]dragons!$AV$17</f>
-        <v>5.0000000000000001E-3</v>
+        <v>220</v>
       </c>
       <c r="K6" s="11">
-        <f>[1]dragons!$AW$17</f>
-        <v>220</v>
+        <v>2.1</v>
       </c>
       <c r="L6" s="11">
-        <f>[1]dragons!$AX$17</f>
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="M6" s="11">
         <f>[1]dragons!$W$17</f>
@@ -12412,16 +12325,13 @@
         <v>200</v>
       </c>
       <c r="J7" s="12">
-        <f>[1]dragons!$AV$18</f>
-        <v>5.0000000000000001E-3</v>
+        <v>240</v>
       </c>
       <c r="K7" s="12">
-        <f>[1]dragons!$AW$18</f>
-        <v>240</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L7" s="12">
-        <f>[1]dragons!$AX$18</f>
-        <v>2.2000000000000002</v>
+        <v>9.5</v>
       </c>
       <c r="M7" s="12">
         <f>[1]dragons!$W$18</f>
@@ -12465,16 +12375,13 @@
         <v>220</v>
       </c>
       <c r="J8" s="12">
-        <f>[1]dragons!$AV$19</f>
-        <v>5.0000000000000001E-3</v>
+        <v>300</v>
       </c>
       <c r="K8" s="12">
-        <f>[1]dragons!$AW$19</f>
-        <v>300</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L8" s="12">
-        <f>[1]dragons!$AX$19</f>
-        <v>2.2999999999999998</v>
+        <v>9.5</v>
       </c>
       <c r="M8" s="12">
         <f>[1]dragons!$W$19</f>
@@ -12518,16 +12425,13 @@
         <v>270</v>
       </c>
       <c r="J9" s="13">
-        <f>[1]dragons!$AV$20</f>
-        <v>5.0000000000000001E-3</v>
+        <v>350</v>
       </c>
       <c r="K9" s="13">
-        <f>[1]dragons!$AW$20</f>
-        <v>350</v>
+        <v>2.4</v>
       </c>
       <c r="L9" s="13">
-        <f>[1]dragons!$AX$20</f>
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="M9" s="13">
         <f>[1]dragons!$W$20</f>
@@ -12571,16 +12475,13 @@
         <v>310</v>
       </c>
       <c r="J10" s="13">
-        <f>[1]dragons!$AV$21</f>
-        <v>5.0000000000000001E-3</v>
+        <v>400</v>
       </c>
       <c r="K10" s="13">
-        <f>[1]dragons!$AW$21</f>
-        <v>400</v>
+        <v>2.5</v>
       </c>
       <c r="L10" s="13">
-        <f>[1]dragons!$AX$21</f>
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="M10" s="13">
         <f>[1]dragons!$W$21</f>
@@ -12624,16 +12525,13 @@
         <v>350</v>
       </c>
       <c r="J11" s="14">
-        <f>[1]dragons!$AV$22</f>
-        <v>5.0000000000000001E-3</v>
+        <v>440</v>
       </c>
       <c r="K11" s="14">
-        <f>[1]dragons!$AW$22</f>
-        <v>440</v>
+        <v>2.6</v>
       </c>
       <c r="L11" s="14">
-        <f>[1]dragons!$AX$22</f>
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="M11" s="14">
         <f>[1]dragons!$W$22</f>
@@ -12677,16 +12575,13 @@
         <v>400</v>
       </c>
       <c r="J12" s="15">
-        <f>[1]dragons!$AV$23</f>
-        <v>5.0000000000000001E-3</v>
+        <v>575</v>
       </c>
       <c r="K12" s="15">
-        <f>[1]dragons!$AW$23</f>
-        <v>575</v>
+        <v>3.2</v>
       </c>
       <c r="L12" s="15">
-        <f>[1]dragons!$AX$23</f>
-        <v>3.2</v>
+        <v>9.5</v>
       </c>
       <c r="M12" s="15">
         <f>[1]dragons!$W$23</f>
@@ -12730,16 +12625,13 @@
         <v>445</v>
       </c>
       <c r="J13" s="15">
-        <f>[1]dragons!$AV$24</f>
-        <v>5.0000000000000001E-3</v>
+        <v>725</v>
       </c>
       <c r="K13" s="15">
-        <f>[1]dragons!$AW$24</f>
-        <v>725</v>
+        <v>3.9</v>
       </c>
       <c r="L13" s="15">
-        <f>[1]dragons!$AX$24</f>
-        <v>3.9</v>
+        <v>9.5</v>
       </c>
       <c r="M13" s="15">
         <f>[1]dragons!$W$24</f>
@@ -12783,16 +12675,13 @@
         <v>500</v>
       </c>
       <c r="J14" s="16">
-        <f>[1]dragons!$AV$25</f>
-        <v>5.0000000000000001E-3</v>
+        <v>900</v>
       </c>
       <c r="K14" s="16">
-        <f>[1]dragons!$AW$25</f>
-        <v>900</v>
+        <v>4.7</v>
       </c>
       <c r="L14" s="16">
-        <f>[1]dragons!$AX$25</f>
-        <v>4.7</v>
+        <v>9.5</v>
       </c>
       <c r="M14" s="16">
         <f>[1]dragons!$W$25</f>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22860" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="12" r:id="rId1"/>
@@ -2378,10 +2378,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8.4</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>11.5</c:v>
@@ -2588,10 +2588,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16.8</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.1</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21.8</c:v>
@@ -4215,7 +4215,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="D11:L100" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="D11:L100"/>
   <sortState ref="D12:L100">
-    <sortCondition ref="E11:E100"/>
+    <sortCondition descending="1" ref="K11:K100"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="Content Sku"/>
@@ -4623,8 +4623,8 @@
   </sheetPr>
   <dimension ref="D2:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4729,456 +4729,463 @@
     </row>
     <row r="12" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="G12">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="H12">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="I12">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="K12" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" s="73">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
-        <v>2</v>
+        <v>296</v>
       </c>
       <c r="G13">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="H13">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="I13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="K13" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="73">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="H14">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="K14" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="73">
-        <v>16</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G15">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="H15">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="K15" s="73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L15" s="73">
-        <v>16</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G16">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I16">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="K16" s="73">
-        <v>0</v>
-      </c>
-      <c r="L16" s="73" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="L16" s="73">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>308</v>
       </c>
       <c r="F17" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17">
+        <v>2000</v>
+      </c>
+      <c r="H17">
+        <v>2000</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>175</v>
+      </c>
+      <c r="K17" s="73">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>200</v>
-      </c>
-      <c r="H17">
-        <v>200</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="J17">
-        <v>50</v>
-      </c>
-      <c r="K17" s="73">
-        <v>0</v>
-      </c>
       <c r="L17" s="73">
-        <v>3</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G18">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="H18">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="J18">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="K18" s="73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L18" s="73">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>312</v>
       </c>
       <c r="G19">
-        <v>280</v>
+        <v>1500</v>
       </c>
       <c r="H19">
-        <v>280</v>
+        <v>1500</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="K19" s="73">
-        <v>0</v>
-      </c>
-      <c r="L19" s="73" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L19" s="73">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="G20">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="H20">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J20">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="K20" s="73">
-        <v>0</v>
-      </c>
-      <c r="L20" s="73" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L20" s="73">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G21">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="K21" s="73">
-        <v>0</v>
-      </c>
-      <c r="L21" s="73" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L21" s="73">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>291</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="G22">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>300</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J22">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="K22" s="73">
-        <v>0</v>
-      </c>
-      <c r="L22" s="73" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="L22" s="73">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="G23">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="H23">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J23">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="K23" s="73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="73">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>414</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>415</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="H24">
-        <v>450</v>
-      </c>
-      <c r="I24" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
+        <v>250</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>95</v>
+      </c>
+      <c r="K24" s="73">
+        <v>3</v>
+      </c>
+      <c r="L24" s="73">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="G25">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="H25">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="K25" s="73">
-        <v>0</v>
-      </c>
-      <c r="L25" s="73" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="L25" s="73">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="G26">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="H26">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="I26">
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <v>105</v>
+      </c>
+      <c r="K26" s="73">
         <v>2</v>
       </c>
-      <c r="J26">
-        <v>25</v>
-      </c>
-      <c r="K26" s="73">
-        <v>0</v>
-      </c>
-      <c r="L26" s="73" t="s">
-        <v>10</v>
+      <c r="L26" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>114</v>
+        <v>339</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c r="F27" t="s">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="G27">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="H27">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>105</v>
+      </c>
+      <c r="K27" s="73">
         <v>2</v>
-      </c>
-      <c r="J27">
-        <v>25</v>
-      </c>
-      <c r="K27" s="73">
-        <v>0</v>
       </c>
       <c r="L27" s="73" t="s">
         <v>10</v>
@@ -5186,57 +5193,57 @@
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="G28">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H28">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>70</v>
+      </c>
+      <c r="K28" s="73">
         <v>2</v>
       </c>
-      <c r="J28">
-        <v>25</v>
-      </c>
-      <c r="K28" s="73">
-        <v>0</v>
-      </c>
-      <c r="L28" s="73" t="s">
-        <v>10</v>
+      <c r="L28" s="73">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>112</v>
+        <v>405</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="G29">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>105</v>
+      </c>
+      <c r="K29" s="73">
         <v>2</v>
-      </c>
-      <c r="J29">
-        <v>25</v>
-      </c>
-      <c r="K29" s="73">
-        <v>0</v>
       </c>
       <c r="L29" s="73" t="s">
         <v>10</v>
@@ -5244,51 +5251,51 @@
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="E30" t="s">
-        <v>288</v>
+        <v>379</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>380</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="H30">
-        <v>180</v>
+        <v>420</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="J30">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="K30" s="73">
-        <v>0</v>
-      </c>
-      <c r="L30" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L30" s="73">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="G31">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="H31">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J31">
         <v>55</v>
@@ -5296,28 +5303,28 @@
       <c r="K31" s="73">
         <v>1</v>
       </c>
-      <c r="L31" s="73" t="s">
-        <v>10</v>
+      <c r="L31" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>289</v>
+        <v>344</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="G32">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="H32">
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>55</v>
@@ -5325,48 +5332,48 @@
       <c r="K32" s="73">
         <v>1</v>
       </c>
-      <c r="L32" s="73" t="s">
-        <v>10</v>
+      <c r="L32" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>347</v>
       </c>
       <c r="G33">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="H33">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="I33">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J33">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="K33" s="73">
         <v>1</v>
       </c>
       <c r="L33" s="73">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G34">
         <v>240</v>
@@ -5375,56 +5382,56 @@
         <v>240</v>
       </c>
       <c r="I34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J34">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="K34" s="73">
         <v>1</v>
       </c>
-      <c r="L34" s="73" t="s">
-        <v>10</v>
+      <c r="L34" s="73">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="G35">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H35">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J35">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="K35" s="73">
-        <v>0</v>
-      </c>
-      <c r="L35" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L35" s="73">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="G36">
         <v>240</v>
@@ -5433,13 +5440,13 @@
         <v>240</v>
       </c>
       <c r="I36">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J36">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K36" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="73" t="s">
         <v>10</v>
@@ -5447,202 +5454,202 @@
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>117</v>
+        <v>332</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>333</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>334</v>
       </c>
       <c r="G37">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="H37">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J37">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="K37" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="73">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="H38">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="I38">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J38">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="K38" s="73">
         <v>1</v>
       </c>
-      <c r="L38" s="73">
-        <v>20</v>
+      <c r="L38" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="G39">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="H39">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="I39">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J39">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K39" s="73">
-        <v>2</v>
-      </c>
-      <c r="L39" s="73">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="L39" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="G40">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="H40">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J40">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="K40" s="73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" s="73">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>63</v>
+        <v>353</v>
       </c>
       <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41">
+        <v>170</v>
+      </c>
+      <c r="H41">
+        <v>170</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41">
         <v>55</v>
       </c>
-      <c r="G41">
-        <v>300</v>
-      </c>
-      <c r="H41">
-        <v>300</v>
-      </c>
-      <c r="I41">
-        <v>120</v>
-      </c>
-      <c r="J41">
-        <v>195</v>
-      </c>
       <c r="K41" s="73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L41" s="73">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>391</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>392</v>
       </c>
       <c r="G42">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J42">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K42" s="73">
-        <v>0</v>
-      </c>
-      <c r="L42" s="73" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="L42" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="G43">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J43">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K43" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="73" t="s">
         <v>10</v>
@@ -5650,28 +5657,28 @@
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J44">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K44" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="73" t="s">
         <v>10</v>
@@ -5679,28 +5686,28 @@
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>289</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="G45">
-        <v>5000</v>
+        <v>210</v>
       </c>
       <c r="H45">
-        <v>5000</v>
+        <v>210</v>
       </c>
       <c r="I45">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="J45">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="K45" s="73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="73" t="s">
         <v>10</v>
@@ -5708,22 +5715,22 @@
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
       <c r="G46">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="H46">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="I46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J46">
         <v>28</v>
@@ -5731,331 +5738,338 @@
       <c r="K46" s="73">
         <v>1</v>
       </c>
-      <c r="L46" s="73" t="s">
-        <v>10</v>
+      <c r="L46" s="73">
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>315</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="G47">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="H47">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="I47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J47">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K47" s="73">
-        <v>3</v>
-      </c>
-      <c r="L47" s="73">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="L47" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E48" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="G48">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="H48">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J48">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="K48" s="73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L48" s="73">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>321</v>
       </c>
       <c r="G49">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="H49">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J49">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="K49" s="73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L49" s="73">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>291</v>
+        <v>53</v>
       </c>
       <c r="F50" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="G50">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="H50">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="J50">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="K50" s="73">
-        <v>4</v>
-      </c>
-      <c r="L50" s="73">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="L50" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="H51">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J51">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="K51" s="73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L51" s="73">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>296</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="H52">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J52">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="K52" s="73">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L52" s="73">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="G53">
+        <v>300</v>
+      </c>
+      <c r="H53">
+        <v>300</v>
+      </c>
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>75</v>
+      </c>
+      <c r="K53" s="73">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>10</v>
-      </c>
-      <c r="J53">
-        <v>105</v>
-      </c>
-      <c r="K53" s="73">
-        <v>2</v>
-      </c>
-      <c r="L53" s="73" t="s">
-        <v>10</v>
+      <c r="L53" s="73">
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H54">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K54" s="73">
         <v>0</v>
       </c>
-      <c r="L54" s="73" t="s">
-        <v>10</v>
+      <c r="L54" s="73">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>452</v>
+        <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>453</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>454</v>
+        <v>27</v>
       </c>
       <c r="G55">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H55">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K55" s="73">
         <v>0</v>
       </c>
-      <c r="L55" s="73" t="s">
-        <v>10</v>
+      <c r="L55" s="73">
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G56">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="H56">
-        <v>450</v>
-      </c>
-      <c r="I56" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
+        <v>280</v>
+      </c>
+      <c r="I56">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>75</v>
+      </c>
+      <c r="K56" s="73">
+        <v>0</v>
+      </c>
+      <c r="L56" s="73">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H57">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="I57">
         <v>20</v>
       </c>
       <c r="J57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K57" s="73">
         <v>0</v>
       </c>
       <c r="L57" s="73">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G58">
         <v>220</v>
@@ -6064,65 +6078,65 @@
         <v>220</v>
       </c>
       <c r="I58">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J58">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="K58" s="73">
-        <v>1</v>
-      </c>
-      <c r="L58" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="73">
         <v>10</v>
       </c>
     </row>
     <row r="59" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59">
+        <v>180</v>
+      </c>
+      <c r="H59">
+        <v>180</v>
+      </c>
+      <c r="I59">
         <v>20</v>
       </c>
-      <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59">
-        <v>220</v>
-      </c>
-      <c r="H59">
-        <v>220</v>
-      </c>
-      <c r="I59">
-        <v>25</v>
-      </c>
       <c r="J59">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="K59" s="73">
-        <v>1</v>
-      </c>
-      <c r="L59" s="73" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="L59" s="73">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G60">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H60">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J60">
         <v>75</v>
@@ -6130,57 +6144,57 @@
       <c r="K60" s="73">
         <v>0</v>
       </c>
-      <c r="L60" s="73">
-        <v>40</v>
+      <c r="L60" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>328</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>329</v>
       </c>
       <c r="G61">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="H61">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="I61">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J61">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K61" s="73">
-        <v>2</v>
-      </c>
-      <c r="L61" s="73">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="L61" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>330</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
+        <v>331</v>
       </c>
       <c r="G62">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="H62">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I62">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J62">
         <v>75</v>
@@ -6188,208 +6202,208 @@
       <c r="K62" s="73">
         <v>0</v>
       </c>
-      <c r="L62" s="73">
-        <v>13</v>
+      <c r="L62" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="G63">
-        <v>2500</v>
+        <v>130</v>
       </c>
       <c r="H63">
-        <v>2500</v>
+        <v>130</v>
       </c>
       <c r="I63">
+        <v>15</v>
+      </c>
+      <c r="J63">
+        <v>50</v>
+      </c>
+      <c r="K63" s="73">
         <v>0</v>
       </c>
-      <c r="J63">
-        <v>263</v>
-      </c>
-      <c r="K63" s="73">
-        <v>5</v>
-      </c>
-      <c r="L63" s="73">
-        <v>440</v>
+      <c r="L63" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64">
+        <v>130</v>
+      </c>
+      <c r="H64">
+        <v>130</v>
+      </c>
+      <c r="I64">
+        <v>15</v>
+      </c>
+      <c r="J64">
         <v>50</v>
       </c>
-      <c r="F64" t="s">
-        <v>35</v>
-      </c>
-      <c r="G64">
-        <v>2500</v>
-      </c>
-      <c r="H64">
-        <v>2500</v>
-      </c>
-      <c r="I64">
+      <c r="K64" s="73">
         <v>0</v>
       </c>
-      <c r="J64">
-        <v>263</v>
-      </c>
-      <c r="K64" s="73">
-        <v>5</v>
-      </c>
-      <c r="L64" s="73">
-        <v>440</v>
+      <c r="L64" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E65" t="s">
-        <v>51</v>
+        <v>376</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="G65">
-        <v>2000</v>
+        <v>130</v>
       </c>
       <c r="H65">
-        <v>2000</v>
+        <v>130</v>
       </c>
       <c r="I65">
+        <v>15</v>
+      </c>
+      <c r="J65">
+        <v>50</v>
+      </c>
+      <c r="K65" s="73">
         <v>0</v>
       </c>
-      <c r="J65">
-        <v>175</v>
-      </c>
-      <c r="K65" s="73">
-        <v>5</v>
-      </c>
-      <c r="L65" s="73">
-        <v>150</v>
+      <c r="L65" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E66" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="F66" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="G66">
-        <v>2000</v>
+        <v>220</v>
       </c>
       <c r="H66">
-        <v>2000</v>
+        <v>220</v>
       </c>
       <c r="I66">
+        <v>15</v>
+      </c>
+      <c r="J66">
+        <v>50</v>
+      </c>
+      <c r="K66" s="73">
         <v>0</v>
       </c>
-      <c r="J66">
-        <v>175</v>
-      </c>
-      <c r="K66" s="73">
-        <v>5</v>
-      </c>
-      <c r="L66" s="73">
-        <v>150</v>
+      <c r="L66" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>310</v>
+        <v>91</v>
       </c>
       <c r="E67" t="s">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="F67" t="s">
-        <v>312</v>
+        <v>386</v>
       </c>
       <c r="G67">
-        <v>1500</v>
+        <v>220</v>
       </c>
       <c r="H67">
-        <v>1500</v>
+        <v>220</v>
       </c>
       <c r="I67">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J67">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K67" s="73">
-        <v>4</v>
-      </c>
-      <c r="L67" s="73">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L67" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>310</v>
+        <v>92</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="F68" t="s">
-        <v>314</v>
+        <v>388</v>
       </c>
       <c r="G68">
-        <v>1500</v>
+        <v>220</v>
       </c>
       <c r="H68">
-        <v>1500</v>
+        <v>220</v>
       </c>
       <c r="I68">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J68">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="K68" s="73">
-        <v>4</v>
-      </c>
-      <c r="L68" s="73">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L68" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="F69" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="G69">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H69">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J69">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K69" s="73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" s="73" t="s">
         <v>10</v>
@@ -6397,141 +6411,141 @@
     </row>
     <row r="70" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E70" t="s">
-        <v>317</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="G70">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="H70">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J70">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K70" s="73">
         <v>0</v>
       </c>
-      <c r="L70" s="73" t="s">
-        <v>10</v>
+      <c r="L70" s="73">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
       <c r="F71" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J71">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K71" s="73">
         <v>0</v>
       </c>
-      <c r="L71" s="73" t="s">
-        <v>10</v>
+      <c r="L71" s="73">
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>319</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="F72" t="s">
-        <v>321</v>
+        <v>394</v>
       </c>
       <c r="G72">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="H72">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J72">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="K72" s="73">
-        <v>1</v>
-      </c>
-      <c r="L72" s="73">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L72" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="E73" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="F73" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="G73">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="H73">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="I73">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J73">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="K73" s="73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="73">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L73" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>325</v>
+        <v>99</v>
       </c>
       <c r="E74" t="s">
-        <v>326</v>
+        <v>397</v>
       </c>
       <c r="F74" t="s">
-        <v>327</v>
+        <v>398</v>
       </c>
       <c r="G74">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H74">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J74">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K74" s="73">
         <v>0</v>
@@ -6542,22 +6556,22 @@
     </row>
     <row r="75" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F75" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="G75">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="H75">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="I75">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J75">
         <v>75</v>
@@ -6571,22 +6585,22 @@
     </row>
     <row r="76" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="F76" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G76">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="H76">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="I76">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J76">
         <v>75</v>
@@ -6600,25 +6614,25 @@
     </row>
     <row r="77" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="E77" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="F77" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="G77">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H77">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I77">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J77">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K77" s="73">
         <v>0</v>
@@ -6629,54 +6643,54 @@
     </row>
     <row r="78" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>332</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F78" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="G78">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="H78">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="I78">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J78">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="K78" s="73">
-        <v>1</v>
-      </c>
-      <c r="L78" s="73">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="L78" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E79" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F79" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="G79">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="H79">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J79">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K79" s="73">
         <v>0</v>
@@ -6687,13 +6701,13 @@
     </row>
     <row r="80" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="E80" t="s">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="F80" t="s">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="G80">
         <v>200</v>
@@ -6702,10 +6716,10 @@
         <v>200</v>
       </c>
       <c r="I80">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K80" s="73">
         <v>0</v>
@@ -6716,28 +6730,28 @@
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="E81" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F81" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="G81">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="H81">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="I81">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="K81" s="73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81" s="73" t="s">
         <v>10</v>
@@ -6745,100 +6759,100 @@
     </row>
     <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E82" t="s">
-        <v>342</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>343</v>
+        <v>38</v>
       </c>
       <c r="G82">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="H82">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="I82">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J82">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K82" s="73">
-        <v>1</v>
-      </c>
-      <c r="L82" s="73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L82" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E83" t="s">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="G83">
-        <v>310</v>
+        <v>5000</v>
       </c>
       <c r="H83">
-        <v>310</v>
+        <v>5000</v>
       </c>
       <c r="I83">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J83">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K83" s="73">
-        <v>1</v>
-      </c>
-      <c r="L83" s="73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L83" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E84" t="s">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>347</v>
+        <v>102</v>
       </c>
       <c r="G84">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="H84">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="I84">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J84">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K84" s="73">
-        <v>1</v>
-      </c>
-      <c r="L84" s="73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L84" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
-        <v>348</v>
+        <v>107</v>
       </c>
       <c r="F85" t="s">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="G85">
         <v>180</v>
@@ -6847,94 +6861,94 @@
         <v>180</v>
       </c>
       <c r="I85">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J85">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K85" s="73">
         <v>0</v>
       </c>
-      <c r="L85" s="73">
-        <v>5</v>
+      <c r="L85" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="E86" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="F86" t="s">
-        <v>352</v>
+        <v>104</v>
       </c>
       <c r="G86">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H86">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I86">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J86">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K86" s="73">
-        <v>1</v>
-      </c>
-      <c r="L86" s="73">
+        <v>0</v>
+      </c>
+      <c r="L86" s="73" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="87" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E87" t="s">
-        <v>353</v>
+        <v>109</v>
       </c>
       <c r="F87" t="s">
-        <v>354</v>
+        <v>105</v>
       </c>
       <c r="G87">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="H87">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I87">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K87" s="73">
-        <v>1</v>
-      </c>
-      <c r="L87" s="73">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="L87" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E88" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="F88" t="s">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="G88">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="H88">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J88">
         <v>25</v>
@@ -6948,22 +6962,22 @@
     </row>
     <row r="89" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="E89" t="s">
-        <v>357</v>
+        <v>288</v>
       </c>
       <c r="F89" t="s">
-        <v>358</v>
+        <v>102</v>
       </c>
       <c r="G89">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="H89">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J89">
         <v>25</v>
@@ -6977,22 +6991,22 @@
     </row>
     <row r="90" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E90" t="s">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="F90" t="s">
-        <v>359</v>
+        <v>70</v>
       </c>
       <c r="G90">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="H90">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90">
         <v>25</v>
@@ -7006,48 +7020,48 @@
     </row>
     <row r="91" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>378</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>379</v>
+        <v>76</v>
       </c>
       <c r="F91" t="s">
-        <v>380</v>
+        <v>71</v>
       </c>
       <c r="G91">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="H91">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="I91">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="J91">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="K91" s="73">
-        <v>1</v>
-      </c>
-      <c r="L91" s="73">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="L91" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E92" t="s">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="F92" t="s">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="G92">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="H92">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -7064,25 +7078,25 @@
     </row>
     <row r="93" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="F93" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="G93">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J93">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K93" s="73">
         <v>0</v>
@@ -7093,25 +7107,25 @@
     </row>
     <row r="94" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>91</v>
+        <v>325</v>
       </c>
       <c r="E94" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="F94" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="G94">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="H94">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="I94">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J94">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K94" s="73">
         <v>0</v>
@@ -7122,25 +7136,25 @@
     </row>
     <row r="95" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E95" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F95" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G95">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="H95">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="I95">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J95">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K95" s="73">
         <v>0</v>
@@ -7151,25 +7165,25 @@
     </row>
     <row r="96" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>389</v>
+        <v>138</v>
       </c>
       <c r="F96" t="s">
-        <v>390</v>
+        <v>24</v>
       </c>
       <c r="G96">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="H96">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="I96">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K96" s="73">
         <v>0</v>
@@ -7180,42 +7194,42 @@
     </row>
     <row r="97" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="E97" t="s">
-        <v>391</v>
+        <v>453</v>
       </c>
       <c r="F97" t="s">
-        <v>392</v>
+        <v>454</v>
       </c>
       <c r="G97">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H97">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I97">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="K97" s="73">
-        <v>1</v>
-      </c>
-      <c r="L97" s="73">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="L97" s="73" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E98" t="s">
-        <v>393</v>
+        <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>394</v>
+        <v>23</v>
       </c>
       <c r="G98">
         <v>200</v>
@@ -7224,10 +7238,10 @@
         <v>200</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="J98">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K98" s="73">
         <v>0</v>
@@ -7238,61 +7252,47 @@
     </row>
     <row r="99" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="F99" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="G99">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H99">
-        <v>200</v>
-      </c>
-      <c r="I99">
-        <v>8</v>
-      </c>
-      <c r="J99">
-        <v>75</v>
-      </c>
-      <c r="K99" s="73">
-        <v>0</v>
-      </c>
-      <c r="L99" s="73" t="s">
+        <v>450</v>
+      </c>
+      <c r="I99" s="73" t="s">
         <v>10</v>
       </c>
+      <c r="K99" s="73"/>
+      <c r="L99" s="73"/>
     </row>
     <row r="100" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>397</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>398</v>
+        <v>30</v>
       </c>
       <c r="G100">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="H100">
-        <v>200</v>
-      </c>
-      <c r="I100">
-        <v>8</v>
-      </c>
-      <c r="J100">
-        <v>75</v>
-      </c>
-      <c r="K100" s="73">
-        <v>0</v>
-      </c>
-      <c r="L100" s="73" t="s">
+        <v>450</v>
+      </c>
+      <c r="I100" s="73" t="s">
         <v>10</v>
       </c>
+      <c r="K100" s="73"/>
+      <c r="L100" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7310,8 +7310,8 @@
   </sheetPr>
   <dimension ref="B1:U270"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="L50" s="10">
         <f>ROUND((DATA_DRAGONS_CONTENT!J5/DATA_DRAGONS_CONTENT!L5)/DATA_DRAGONS_CONTENT!K5,1)</f>
-        <v>8.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N50" s="35">
         <v>0</v>
@@ -8346,11 +8346,11 @@
       </c>
       <c r="L51" s="11">
         <f>ROUND((DATA_DRAGONS_CONTENT!J6/DATA_DRAGONS_CONTENT!L6)/DATA_DRAGONS_CONTENT!K6,1)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N51" s="36">
         <f>L51-L50</f>
-        <v>2.5999999999999996</v>
+        <v>0.80000000000000071</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.25">
@@ -8376,7 +8376,7 @@
       </c>
       <c r="N52" s="36">
         <f t="shared" ref="N52:N59" si="7">L52-L51</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.25">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="M66" s="10">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J5*Dragons!L66)/DATA_DRAGONS_CONTENT!L5)/DATA_DRAGONS_CONTENT!K5,1)</f>
-        <v>16.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N66" s="10">
         <f>ROUND(DATA_DRAGONS_CONTENT!N5/DATA_DRAGONS_CONTENT!O5,1)</f>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="M67" s="11">
         <f>ROUND(((DATA_DRAGONS_CONTENT!J6*Dragons!L67)/DATA_DRAGONS_CONTENT!L6)/DATA_DRAGONS_CONTENT!K6,1)</f>
-        <v>22.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="N67" s="11">
         <f>ROUND(DATA_DRAGONS_CONTENT!N6/DATA_DRAGONS_CONTENT!O6,1)</f>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="U67" s="36">
         <f t="shared" ref="U67:U75" si="9">M67-M66</f>
-        <v>5.3000000000000007</v>
+        <v>1.7000000000000028</v>
       </c>
     </row>
     <row r="68" spans="3:21" x14ac:dyDescent="0.25">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="U68" s="36">
         <f t="shared" si="9"/>
-        <v>-0.30000000000000071</v>
+        <v>1.6999999999999993</v>
       </c>
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
   <dimension ref="G2:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12225,7 +12225,7 @@
         <v>105</v>
       </c>
       <c r="J5" s="10">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K5" s="10">
         <v>2</v>
@@ -12275,7 +12275,7 @@
         <v>145</v>
       </c>
       <c r="J6" s="11">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K6" s="11">
         <v>2.1</v>

--- a/Docs/Progression/progression.xlsx
+++ b/Docs/Progression/progression.xlsx
@@ -5641,8 +5641,8 @@
   </sheetPr>
   <dimension ref="D2:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
